--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1_Tin_Hieu_Hom_Nay" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2_Xu_Huong_21_Ngay" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="3_Song_Nganh" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_Tin_Hieu_Hom_Nay" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2_Xu_Huong_21_Ngay" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_Song_Nganh" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4_My_Favorite" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,16 +20,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -39,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -47,21 +45,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -427,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,37 +425,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Mã</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tên Công Ty (CN)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t>Tên Công Ty</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Ngành</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Giá</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>%_Ngày</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>%_Vol_vs_TB</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Tín_Hiệu_Ngày</t>
         </is>
@@ -475,27 +464,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>1770</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.25</v>
+        <v>8.59</v>
       </c>
       <c r="F2" t="n">
-        <v>557</v>
+        <v>267</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -506,27 +495,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>172</v>
+        <v>48.8</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.82</v>
+        <v>9.91</v>
       </c>
       <c r="F3" t="n">
-        <v>382</v>
+        <v>254</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -537,27 +526,27 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1630</v>
+        <v>53.1</v>
       </c>
       <c r="E4" t="n">
-        <v>9.76</v>
+        <v>9.82</v>
       </c>
       <c r="F4" t="n">
-        <v>269</v>
+        <v>212</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -568,27 +557,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3260O</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>314.5</v>
+        <v>37.9</v>
       </c>
       <c r="E5" t="n">
-        <v>6.07</v>
+        <v>7.67</v>
       </c>
       <c r="F5" t="n">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -599,58 +588,58 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>271.5</v>
+        <v>1635</v>
       </c>
       <c r="E6" t="n">
-        <v>1.88</v>
+        <v>7.57</v>
       </c>
       <c r="F6" t="n">
-        <v>235</v>
+        <v>167</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>393</v>
+        <v>19.65</v>
       </c>
       <c r="E7" t="n">
-        <v>2.48</v>
+        <v>2.61</v>
       </c>
       <c r="F7" t="n">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -661,58 +650,58 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3529O</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1520</v>
+        <v>46.55</v>
       </c>
       <c r="E8" t="n">
-        <v>2.01</v>
+        <v>-3.02</v>
       </c>
       <c r="F8" t="n">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3481</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Innolux</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Display Panel</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>24</v>
+        <v>286</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.51</v>
+        <v>5.34</v>
       </c>
       <c r="F9" t="n">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -723,27 +712,27 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>58.5</v>
+        <v>1375</v>
       </c>
       <c r="E10" t="n">
-        <v>-8.02</v>
+        <v>1.85</v>
       </c>
       <c r="F10" t="n">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -754,27 +743,27 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1260</v>
+        <v>60.6</v>
       </c>
       <c r="E11" t="n">
-        <v>1.2</v>
+        <v>3.59</v>
       </c>
       <c r="F11" t="n">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -785,58 +774,58 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>173</v>
+        <v>39.55</v>
       </c>
       <c r="E12" t="n">
-        <v>0.58</v>
+        <v>-0.38</v>
       </c>
       <c r="F12" t="n">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>243.5</v>
+        <v>127.5</v>
       </c>
       <c r="E13" t="n">
-        <v>2.53</v>
+        <v>3.24</v>
       </c>
       <c r="F13" t="n">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -847,27 +836,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1350</v>
+        <v>167</v>
       </c>
       <c r="E14" t="n">
-        <v>9.76</v>
+        <v>-2.91</v>
       </c>
       <c r="F14" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -878,58 +867,58 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>64.8</v>
+        <v>23.8</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.14</v>
+        <v>0.21</v>
       </c>
       <c r="F15" t="n">
         <v>132</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Macronix (MXIC)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2725</v>
+        <v>76.2</v>
       </c>
       <c r="E16" t="n">
-        <v>5.83</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -940,27 +929,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>8086O</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>125.5</v>
+        <v>345.5</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -971,27 +960,27 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>307.5</v>
+        <v>396</v>
       </c>
       <c r="E18" t="n">
-        <v>3.19</v>
+        <v>0.76</v>
       </c>
       <c r="F18" t="n">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1002,58 +991,58 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>3430</v>
+        <v>2620</v>
       </c>
       <c r="E19" t="n">
-        <v>4.73</v>
+        <v>-3.85</v>
       </c>
       <c r="F19" t="n">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5483O</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Wafer (Material)</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>123.5</v>
+        <v>252.5</v>
       </c>
       <c r="E20" t="n">
-        <v>2.07</v>
+        <v>5.87</v>
       </c>
       <c r="F20" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1064,27 +1053,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>286.5</v>
+        <v>234</v>
       </c>
       <c r="E21" t="n">
-        <v>4.37</v>
+        <v>1.52</v>
       </c>
       <c r="F21" t="n">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1095,27 +1084,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3037</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Unimicron</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PCB (ABF)</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>339</v>
+        <v>69.3</v>
       </c>
       <c r="E22" t="n">
-        <v>3.67</v>
+        <v>6.94</v>
       </c>
       <c r="F22" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1126,27 +1115,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Cathay Fin</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>76.59999999999999</v>
+        <v>1230</v>
       </c>
       <c r="E23" t="n">
-        <v>1.32</v>
+        <v>-2.38</v>
       </c>
       <c r="F23" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1157,151 +1146,151 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8299O</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>群聯</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Phison (Electronics)</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Memory - Controller</t>
-        </is>
-      </c>
       <c r="D24" t="n">
-        <v>2000</v>
+        <v>2075</v>
       </c>
       <c r="E24" t="n">
-        <v>-2.68</v>
+        <v>3.75</v>
       </c>
       <c r="F24" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Fubon Fin</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>93.5</v>
+        <v>51</v>
       </c>
       <c r="E25" t="n">
-        <v>0.54</v>
+        <v>0.99</v>
       </c>
       <c r="F25" t="n">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>238.5</v>
+        <v>93.2</v>
       </c>
       <c r="E26" t="n">
-        <v>2.8</v>
+        <v>-0.32</v>
       </c>
       <c r="F26" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Visual Photonics (VPEC)</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>170</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>-4.23</v>
+        <v>-1.06</v>
       </c>
       <c r="F27" t="n">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5347O</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>146.5</v>
+        <v>287</v>
       </c>
       <c r="E28" t="n">
-        <v>0.6899999999999999</v>
+        <v>2.5</v>
       </c>
       <c r="F28" t="n">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1312,27 +1301,27 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>507</v>
+        <v>32.05</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.17</v>
+        <v>2.4</v>
       </c>
       <c r="F29" t="n">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1343,89 +1332,89 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Evergreen</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>189.5</v>
+        <v>3520</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.56</v>
+        <v>2.62</v>
       </c>
       <c r="F30" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>65.90000000000001</v>
+        <v>188.5</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-0.53</v>
       </c>
       <c r="F31" t="n">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1770</v>
+        <v>297.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0.57</v>
+        <v>3.84</v>
       </c>
       <c r="F32" t="n">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1436,27 +1425,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3105O</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>230.5</v>
+        <v>22.5</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.71</v>
+        <v>0.67</v>
       </c>
       <c r="F33" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1467,27 +1456,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Yageo</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Passive Comp</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>291.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.52</v>
+        <v>0.65</v>
       </c>
       <c r="F34" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1498,58 +1487,58 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>136.5</v>
+        <v>174.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.74</v>
+        <v>0.87</v>
       </c>
       <c r="F35" t="n">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>246.5</v>
+        <v>312</v>
       </c>
       <c r="E36" t="n">
-        <v>-4.27</v>
+        <v>1.46</v>
       </c>
       <c r="F36" t="n">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1560,89 +1549,89 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>19.1</v>
+        <v>224</v>
       </c>
       <c r="E37" t="n">
-        <v>0.79</v>
+        <v>1.13</v>
       </c>
       <c r="F37" t="n">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>221.5</v>
+        <v>38.5</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.89</v>
+        <v>-0.77</v>
       </c>
       <c r="F38" t="n">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>280</v>
+        <v>123</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.06</v>
+        <v>-1.99</v>
       </c>
       <c r="F39" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1653,58 +1642,58 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Gigabyte</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>AI Server/Brand</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>238.5</v>
+        <v>1755</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.21</v>
+        <v>-0.85</v>
       </c>
       <c r="F40" t="n">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>AUO</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Display Panel</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>15.1</v>
+        <v>517</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.95</v>
+        <v>1.97</v>
       </c>
       <c r="F41" t="n">
-        <v>53</v>
+        <v>69</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1715,58 +1704,58 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Asus</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>PC/Brand</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>515</v>
+        <v>245.5</v>
       </c>
       <c r="E42" t="n">
-        <v>0.78</v>
+        <v>0.82</v>
       </c>
       <c r="F42" t="n">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>8096O</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>48.3</v>
+        <v>54.3</v>
       </c>
       <c r="E43" t="n">
-        <v>-2.13</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1777,58 +1766,58 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3008</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Largan</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Optics (Lens)</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2460</v>
+        <v>145</v>
       </c>
       <c r="E44" t="n">
-        <v>1.03</v>
+        <v>-1.02</v>
       </c>
       <c r="F44" t="n">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Macronix (MXIC)</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Memory - NOR Flash</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>69.3</v>
+        <v>257.5</v>
       </c>
       <c r="E45" t="n">
-        <v>-5.59</v>
+        <v>4.46</v>
       </c>
       <c r="F45" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1839,60 +1828,215 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>103</v>
+        <v>136.5</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.44</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>8150</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>南茂</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ChipMOS</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>66.2</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F47" t="n">
+        <v>59</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Tích lũy (Up)</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>信昌電</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Shinmore</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E48" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F48" t="n">
+        <v>57</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Tích lũy (Up)</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>2455</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>全新</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Visual Photonics</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>168</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="F49" t="n">
+        <v>56</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Tích lũy (Up)</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>6488</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>環球晶</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>GlobalWafers</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>525</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.57</v>
+      </c>
+      <c r="F50" t="n">
+        <v>54</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Tích lũy (Up)</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
           <t>4967</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>十銓</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>TeamGroup</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Memory - Module</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>205</v>
-      </c>
-      <c r="E47" t="n">
-        <v>-0.49</v>
-      </c>
-      <c r="F47" t="n">
-        <v>19</v>
-      </c>
-      <c r="G47" t="inlineStr">
+      <c r="D51" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>38</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Tích lũy (Up)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>2344</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>華邦電</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Winbond Elec</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>113</v>
+      </c>
+      <c r="E52" t="n">
+        <v>9.710000000000001</v>
+      </c>
+      <c r="F52" t="n">
+        <v>36</v>
+      </c>
+      <c r="G52" t="inlineStr">
         <is>
           <t>Tích lũy (Up)</t>
         </is>
@@ -1909,7 +2053,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1918,895 +2062,623 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Mã</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tên Công Ty (CN)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
         <is>
           <t>Tên Công Ty</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Ngành</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Giá</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>%_Ngày</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>%_Vol_vs_TB</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Tín_Hiệu_Ngày</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>%_Tăng_1_Tháng</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Sức_Mạnh_Dòng_Tiền</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>GTGD_TB_Tỷ</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2376</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gigabyte</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>AI Server/Brand</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>238.5</v>
+          <t>Macronix (MXIC)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Memory - NOR Flash</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>-0.21</v>
+        <v>94.39</v>
       </c>
       <c r="F2" t="n">
-        <v>58</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Yếu</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2.14</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1.302</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>48</v>
+          <t>Phison (Electronics)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Memory - Controller</t>
+        </is>
       </c>
       <c r="E3" t="n">
-        <v>-6.25</v>
+        <v>58.4</v>
       </c>
       <c r="F3" t="n">
-        <v>557</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>11.24</v>
-      </c>
-      <c r="I3" t="n">
-        <v>2.83</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1.607</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>136.5</v>
+          <t>ADATA</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Memory - Module</t>
+        </is>
       </c>
       <c r="E4" t="n">
-        <v>0.74</v>
+        <v>55.98</v>
       </c>
       <c r="F4" t="n">
-        <v>69</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Yếu</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>-6.19</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6.64</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>221.5</v>
+          <t>Nanya Technology</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Memory - DRAM</t>
+        </is>
       </c>
       <c r="E5" t="n">
-        <v>-0.89</v>
+        <v>51.32</v>
       </c>
       <c r="F5" t="n">
-        <v>63</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Yếu</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>-1.12</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.581</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>280</v>
+          <t>PSMC (Powerchip)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Foundry - Memory</t>
+        </is>
       </c>
       <c r="E6" t="n">
-        <v>-1.06</v>
+        <v>51.31</v>
       </c>
       <c r="F6" t="n">
-        <v>60</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Tích lũy (Up)</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6.06</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="J6" t="n">
-        <v>5.688</v>
+        <v>1.07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8086O</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>125.5</v>
+          <t>Winbond Elec</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Memory - Flash/DRAM</t>
+        </is>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>47.71</v>
       </c>
       <c r="F7" t="n">
-        <v>126</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2.17</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.509</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Visual Photonics (VPEC)</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>170</v>
+          <t>VIS (Vanguard)</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Foundry - 8inch</t>
+        </is>
       </c>
       <c r="E8" t="n">
-        <v>-4.23</v>
+        <v>47.66</v>
       </c>
       <c r="F8" t="n">
-        <v>87</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Tích lũy (Up)</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.104</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3105O</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>230.5</v>
+          <t>PTI (Powertech)</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Memory - Packaging</t>
+        </is>
       </c>
       <c r="E9" t="n">
-        <v>-1.71</v>
+        <v>47.14</v>
       </c>
       <c r="F9" t="n">
-        <v>79</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Tích lũy (Up)</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>22.61</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J9" t="n">
-        <v>6.593</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Design Service</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>173</v>
+          <t>TeamGroup</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Memory - Module</t>
+        </is>
       </c>
       <c r="E10" t="n">
-        <v>0.58</v>
+        <v>41.38</v>
       </c>
       <c r="F10" t="n">
-        <v>143</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5.17</v>
-      </c>
-      <c r="I10" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.633</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8096O</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Design Service</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>48.3</v>
+          <t>Transcend Info</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Memory - Module</t>
+        </is>
       </c>
       <c r="E11" t="n">
-        <v>-2.13</v>
+        <v>41.06</v>
       </c>
       <c r="F11" t="n">
-        <v>42</v>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Yếu</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>-3.3</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.309</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>3430</v>
+          <t>UMC</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Foundry - Logic</t>
+        </is>
       </c>
       <c r="E12" t="n">
-        <v>4.73</v>
+        <v>38.74</v>
       </c>
       <c r="F12" t="n">
-        <v>113</v>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Yếu</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="J12" t="n">
-        <v>6.759</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2725</v>
+          <t>ChipMOS</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Memory - Packaging</t>
+        </is>
       </c>
       <c r="E13" t="n">
-        <v>5.83</v>
+        <v>37.92</v>
       </c>
       <c r="F13" t="n">
-        <v>132</v>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>34.57</v>
-      </c>
-      <c r="I13" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J13" t="n">
-        <v>8.031000000000001</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3481</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Innolux</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Display Panel</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>24</v>
+          <t>GlobalWafers</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Wafer - Material</t>
+        </is>
       </c>
       <c r="E14" t="n">
-        <v>-5.51</v>
+        <v>34.92</v>
       </c>
       <c r="F14" t="n">
-        <v>164</v>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>81.13</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="J14" t="n">
-        <v>10.814</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2409</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>AUO</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Display Panel</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>15.1</v>
+          <t>KYEC</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>OSAT (Testing)</t>
+        </is>
       </c>
       <c r="E15" t="n">
-        <v>-1.95</v>
+        <v>33.41</v>
       </c>
       <c r="F15" t="n">
-        <v>53</v>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Tích lũy (Up)</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>31.44</v>
-      </c>
-      <c r="I15" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="J15" t="n">
-        <v>5.722</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Fubon Fin</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Financial</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>93.5</v>
+          <t>MediaTek</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>IC Design - Mobile/AI</t>
+        </is>
       </c>
       <c r="E16" t="n">
-        <v>0.54</v>
+        <v>30.28</v>
       </c>
       <c r="F16" t="n">
-        <v>94</v>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Yếu</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>-4.59</v>
-      </c>
-      <c r="I16" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.351</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Cathay Fin</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Financial</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>76.59999999999999</v>
+          <t>ASE Tech</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>OSAT (Packaging)</t>
+        </is>
       </c>
       <c r="E17" t="n">
-        <v>1.32</v>
+        <v>29.73</v>
       </c>
       <c r="F17" t="n">
-        <v>103</v>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.797</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5347O</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>146.5</v>
+          <t>Delta Elec</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Power Supply</t>
+        </is>
       </c>
       <c r="E18" t="n">
-        <v>0.6899999999999999</v>
+        <v>28.66</v>
       </c>
       <c r="F18" t="n">
-        <v>82</v>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Tích lũy (Up)</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>47.68</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6.138</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>64.8</v>
+          <t>Sino-American</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Wafer - Material</t>
+        </is>
       </c>
       <c r="E19" t="n">
-        <v>-4.14</v>
+        <v>26.64</v>
       </c>
       <c r="F19" t="n">
-        <v>132</v>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>30.51</v>
-      </c>
-      <c r="I19" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J19" t="n">
-        <v>13.209</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1770</v>
+          <t>GUC (Global Unichip)</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Design Service (AI)</t>
+        </is>
       </c>
       <c r="E20" t="n">
-        <v>0.57</v>
+        <v>23.88</v>
       </c>
       <c r="F20" t="n">
-        <v>79</v>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Tích lũy (Up)</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>18.39</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="J20" t="n">
-        <v>62.004</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>58.5</v>
+          <t>Win Semi</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Compound Semi</t>
+        </is>
       </c>
       <c r="E21" t="n">
-        <v>-8.02</v>
+        <v>23.48</v>
       </c>
       <c r="F21" t="n">
-        <v>159</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>44.8</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="J21" t="n">
-        <v>12.236</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>393</v>
+          <t>Formosa Plastics</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Plastics</t>
+        </is>
       </c>
       <c r="E22" t="n">
-        <v>2.48</v>
+        <v>22.77</v>
       </c>
       <c r="F22" t="n">
-        <v>177</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4.24</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.731</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="23">
@@ -2817,996 +2689,836 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>祥碩</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>ASMedia</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>IC Design - High Speed</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>1350</v>
-      </c>
       <c r="E23" t="n">
-        <v>9.76</v>
+        <v>18.53</v>
       </c>
       <c r="F23" t="n">
-        <v>134</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>17.39</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2.247</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>1630</v>
+          <t>TSMC</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Foundry - Logic</t>
+        </is>
       </c>
       <c r="E24" t="n">
-        <v>9.76</v>
+        <v>16.23</v>
       </c>
       <c r="F24" t="n">
-        <v>269</v>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>20.41</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="J24" t="n">
-        <v>13.306</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>507</v>
+          <t>Ennostar Inc</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Compound/LED</t>
+        </is>
       </c>
       <c r="E25" t="n">
-        <v>-1.17</v>
+        <v>15.37</v>
       </c>
       <c r="F25" t="n">
-        <v>81</v>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Yếu</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>3.36</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.882</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3529O</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>IP Core</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>1520</v>
+          <t>Shinmore</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Electronic Components</t>
+        </is>
       </c>
       <c r="E26" t="n">
-        <v>2.01</v>
+        <v>15.07</v>
       </c>
       <c r="F26" t="n">
-        <v>170</v>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Yếu</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>-11.88</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.32</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>243.5</v>
+          <t>China Airlines</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Airline</t>
+        </is>
       </c>
       <c r="E27" t="n">
-        <v>2.53</v>
+        <v>12.22</v>
       </c>
       <c r="F27" t="n">
-        <v>141</v>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
         <v>1.25</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.096</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8299O</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>2000</v>
+          <t>Inventec</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>AI Server/OEM</t>
+        </is>
       </c>
       <c r="E28" t="n">
-        <v>-2.68</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>99</v>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Tích lũy (Up)</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>55.04</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="J28" t="n">
-        <v>11.951</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>271.5</v>
+          <t>Alchip</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Design Service (AI)</t>
+        </is>
       </c>
       <c r="E29" t="n">
-        <v>1.88</v>
+        <v>9.49</v>
       </c>
       <c r="F29" t="n">
-        <v>235</v>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>43.65</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="J29" t="n">
-        <v>19.115</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>103</v>
+          <t>Quanta</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>AI Server/OEM</t>
+        </is>
       </c>
       <c r="E30" t="n">
-        <v>-1.44</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>28</v>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Tích lũy (Up)</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>33.94</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0.31</v>
-      </c>
-      <c r="J30" t="n">
-        <v>18.155</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>238.5</v>
+          <t>AWSC</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Compound Semi</t>
+        </is>
       </c>
       <c r="E31" t="n">
-        <v>2.8</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>91</v>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Tích lũy (Up)</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>30.68</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.97</v>
-      </c>
-      <c r="J31" t="n">
-        <v>4.339</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3260O</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>314.5</v>
+          <t>Visual Photonics</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Compound Semi</t>
+        </is>
       </c>
       <c r="E32" t="n">
-        <v>6.07</v>
+        <v>7.35</v>
       </c>
       <c r="F32" t="n">
-        <v>245</v>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>40.72</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="J32" t="n">
-        <v>4.066</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>205</v>
+          <t>Realtek</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>IC Design - Network</t>
+        </is>
       </c>
       <c r="E33" t="n">
-        <v>-0.49</v>
+        <v>6.49</v>
       </c>
       <c r="F33" t="n">
-        <v>19</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Tích lũy (Up)</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>26.15</v>
-      </c>
-      <c r="I33" t="n">
-        <v>0.23</v>
-      </c>
-      <c r="J33" t="n">
-        <v>3.677</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Macronix (MXIC)</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Memory - NOR Flash</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>69.3</v>
+          <t>Novatek</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>IC Design - Display</t>
+        </is>
       </c>
       <c r="E34" t="n">
-        <v>-5.59</v>
+        <v>6.02</v>
       </c>
       <c r="F34" t="n">
-        <v>30</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Tích lũy (Up)</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>77.92</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="J34" t="n">
-        <v>11.713</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>65.90000000000001</v>
+          <t>Faraday Tech</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Design Service</t>
+        </is>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>5.76</v>
       </c>
       <c r="F35" t="n">
-        <v>80</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Tích lũy (Up)</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>44.2</v>
-      </c>
-      <c r="I35" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="J35" t="n">
-        <v>4.604</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>246.5</v>
+          <t>EVA Air</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Airline</t>
+        </is>
       </c>
       <c r="E36" t="n">
-        <v>-4.27</v>
+        <v>5.62</v>
       </c>
       <c r="F36" t="n">
-        <v>67</v>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>Tích lũy (Up)</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>49.85</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="J36" t="n">
-        <v>5.817</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>307.5</v>
+          <t>China Steel</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Steel</t>
+        </is>
       </c>
       <c r="E37" t="n">
-        <v>3.19</v>
+        <v>4.24</v>
       </c>
       <c r="F37" t="n">
-        <v>116</v>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>31.13</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="J37" t="n">
-        <v>6.546</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>286.5</v>
+          <t>Andes Tech</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>IP Core (RISC-V)</t>
+        </is>
       </c>
       <c r="E38" t="n">
-        <v>4.37</v>
+        <v>3.59</v>
       </c>
       <c r="F38" t="n">
-        <v>104</v>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H38" t="n">
-        <v>30.82</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0.6899999999999999</v>
-      </c>
-      <c r="J38" t="n">
-        <v>8.414</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3008</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Largan</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Optics (Lens)</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>2460</v>
+          <t>Cathay Financial</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
       </c>
       <c r="E39" t="n">
-        <v>1.03</v>
+        <v>3.07</v>
       </c>
       <c r="F39" t="n">
-        <v>32</v>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Yếu</t>
-        </is>
-      </c>
-      <c r="H39" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="J39" t="n">
-        <v>3.244</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Asus</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>PC/Brand</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>515</v>
+          <t>Lite-On</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Power Supply</t>
+        </is>
       </c>
       <c r="E40" t="n">
-        <v>0.78</v>
+        <v>2.77</v>
       </c>
       <c r="F40" t="n">
-        <v>49</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Yếu</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>-5.33</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.584</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3037</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Unimicron</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>PCB (ABF)</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>339</v>
+          <t>CTBC Financial</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
       </c>
       <c r="E41" t="n">
-        <v>3.67</v>
+        <v>2.41</v>
       </c>
       <c r="F41" t="n">
-        <v>104</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>56.22</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="J41" t="n">
-        <v>14.471</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2327</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Yageo</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Passive Comp</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>291.5</v>
+          <t>CoAsia</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Design Service</t>
+        </is>
       </c>
       <c r="E42" t="n">
-        <v>-1.52</v>
+        <v>2.12</v>
       </c>
       <c r="F42" t="n">
-        <v>75</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Tích lũy (Up)</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>31.01</v>
-      </c>
-      <c r="I42" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="J42" t="n">
-        <v>16.13</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Power Supply</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>172</v>
+          <t>Foxconn</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>AI Server/OEM</t>
+        </is>
       </c>
       <c r="E43" t="n">
-        <v>-2.82</v>
+        <v>-0.67</v>
       </c>
       <c r="F43" t="n">
-        <v>382</v>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H43" t="n">
-        <v>3.93</v>
-      </c>
-      <c r="I43" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.695</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Power Supply</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>1260</v>
+          <t>Evergreen Marine</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Shipping</t>
+        </is>
       </c>
       <c r="E44" t="n">
-        <v>1.2</v>
+        <v>-1.31</v>
       </c>
       <c r="F44" t="n">
-        <v>149</v>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H44" t="n">
-        <v>31.94</v>
-      </c>
-      <c r="I44" t="n">
-        <v>1.26</v>
-      </c>
-      <c r="J44" t="n">
-        <v>14.809</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Evergreen</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Shipping</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>189.5</v>
+          <t>Mega Financial</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
       </c>
       <c r="E45" t="n">
-        <v>-1.56</v>
+        <v>-2.59</v>
       </c>
       <c r="F45" t="n">
-        <v>81</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Yếu</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="I45" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="J45" t="n">
-        <v>2.053</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Steel</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>19.1</v>
+          <t>TCB Financial</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
       </c>
       <c r="E46" t="n">
-        <v>0.79</v>
+        <v>-2.86</v>
       </c>
       <c r="F46" t="n">
-        <v>66</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Tích lũy (Up)</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>3.23</v>
-      </c>
-      <c r="I46" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.907</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5483O</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Wafer (Material)</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>123.5</v>
+          <t>Yang Ming</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Shipping</t>
+        </is>
       </c>
       <c r="E47" t="n">
-        <v>2.07</v>
+        <v>-3.21</v>
       </c>
       <c r="F47" t="n">
-        <v>107</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Bùng nổ (Breakout)</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>22.66</v>
-      </c>
-      <c r="I47" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1.377</v>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>2881</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>富邦金</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Fubon Financial</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Financial</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>-3.92</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1.14</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>3529</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>力旺</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>eMemory</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>IP Core</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>-4.39</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>2615</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>萬海</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Wan Hai Lines</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Shipping</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>-6.14</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>2201</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>裕隆</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Yulon Motor</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Automobile</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>-6.15</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>3231</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>緯創</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Wistron</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>AI Server/OEM</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>-6.83</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.91</v>
       </c>
     </row>
   </sheetData>
@@ -3820,7 +3532,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3829,520 +3541,449 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>Ngành</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>%_Tăng_1_Tháng</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sức_Mạnh_Dòng_Tiền</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>GTGD_TB_Tỷ</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mã</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Điểm (0-100)</t>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Avg_%_1Tháng</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Avg_Sức_Mạnh</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Tổng_GTGD_Tỷ</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Số_Mã</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Memory - NOR Flash</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24.45</v>
+        <v>94.39</v>
       </c>
       <c r="C2" t="n">
-        <v>1.345</v>
+        <v>0.55</v>
       </c>
       <c r="D2" t="n">
-        <v>75.21299999999999</v>
+        <v>13.32</v>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="n">
-        <v>79.40000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Memory - NOR Flash</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>77.92</v>
+        <v>58.4</v>
       </c>
       <c r="C3" t="n">
-        <v>0.38</v>
+        <v>1.35</v>
       </c>
       <c r="D3" t="n">
-        <v>11.713</v>
+        <v>12.044</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="n">
-        <v>40.9</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Display Panel</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>56.285</v>
+        <v>51.32</v>
       </c>
       <c r="C4" t="n">
-        <v>1.145</v>
+        <v>0.98</v>
       </c>
       <c r="D4" t="n">
-        <v>16.536</v>
+        <v>20.628</v>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="n">
-        <v>37.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>PCB (ABF)</t>
+          <t>Foundry - Memory</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56.22</v>
+        <v>51.31</v>
       </c>
       <c r="C5" t="n">
-        <v>1.77</v>
+        <v>1.07</v>
       </c>
       <c r="D5" t="n">
-        <v>14.471</v>
+        <v>12.683</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="n">
-        <v>35.1</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>43.65</v>
+        <v>47.71</v>
       </c>
       <c r="C6" t="n">
-        <v>0.72</v>
+        <v>0.34</v>
       </c>
       <c r="D6" t="n">
-        <v>19.115</v>
+        <v>18.708</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="n">
-        <v>34.6</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>55.04</v>
+        <v>47.66</v>
       </c>
       <c r="C7" t="n">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="D7" t="n">
-        <v>11.951</v>
+        <v>6.209</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="n">
-        <v>32.3</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.94</v>
+        <v>46.14000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.31</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>18.155</v>
+        <v>12.665</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" t="n">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>44.8</v>
+        <v>42.53</v>
       </c>
       <c r="C9" t="n">
-        <v>0.79</v>
+        <v>0.865</v>
       </c>
       <c r="D9" t="n">
-        <v>12.236</v>
+        <v>10.432</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" t="n">
-        <v>28.6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.02500000000001</v>
+        <v>33.41</v>
       </c>
       <c r="C10" t="n">
-        <v>1.06</v>
+        <v>0.73</v>
       </c>
       <c r="D10" t="n">
-        <v>10.421</v>
+        <v>8.959</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="n">
-        <v>27.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Passive Comp</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.01</v>
+        <v>30.78</v>
       </c>
       <c r="C11" t="n">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="D11" t="n">
-        <v>16.13</v>
+        <v>5.85</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.4975</v>
+        <v>30.28</v>
       </c>
       <c r="C12" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="D12" t="n">
-        <v>25.516</v>
+        <v>16.369</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
-      </c>
-      <c r="F12" t="n">
-        <v>24.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.935</v>
+        <v>29.73</v>
       </c>
       <c r="C13" t="n">
-        <v>1.46</v>
+        <v>0.9</v>
       </c>
       <c r="D13" t="n">
-        <v>18.504</v>
+        <v>6.621</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
-      </c>
-      <c r="F13" t="n">
-        <v>24.1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>47.68</v>
+        <v>27.485</v>
       </c>
       <c r="C14" t="n">
-        <v>1.13</v>
+        <v>1.235</v>
       </c>
       <c r="D14" t="n">
-        <v>6.138</v>
+        <v>76.783</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" t="n">
-        <v>24.1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32.51666666666667</v>
+        <v>22.77</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6366666666666666</v>
+        <v>1.21</v>
       </c>
       <c r="D15" t="n">
-        <v>12.082</v>
+        <v>1.715</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
-      </c>
-      <c r="F15" t="n">
-        <v>23.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.215</v>
+        <v>18.53</v>
       </c>
       <c r="C16" t="n">
-        <v>1.035</v>
+        <v>0.87</v>
       </c>
       <c r="D16" t="n">
-        <v>14.79</v>
+        <v>2.442</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
-      </c>
-      <c r="F16" t="n">
-        <v>21.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20.41</v>
+        <v>16.685</v>
       </c>
       <c r="C17" t="n">
-        <v>1.21</v>
+        <v>0.97</v>
       </c>
       <c r="D17" t="n">
-        <v>13.306</v>
+        <v>14.839</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
-      </c>
-      <c r="F17" t="n">
-        <v>20.2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>30.82</v>
+        <v>15.715</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.485</v>
       </c>
       <c r="D18" t="n">
-        <v>8.414</v>
+        <v>18.74</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
-      </c>
-      <c r="F18" t="n">
-        <v>19.7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>31.13</v>
+        <v>15.37</v>
       </c>
       <c r="C19" t="n">
-        <v>0.92</v>
+        <v>1.28</v>
       </c>
       <c r="D19" t="n">
-        <v>6.546</v>
+        <v>0.196</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
       </c>
-      <c r="F19" t="n">
-        <v>18.1</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.92333333333333</v>
+        <v>15.07</v>
       </c>
       <c r="C20" t="n">
-        <v>1.606666666666667</v>
+        <v>0.89</v>
       </c>
       <c r="D20" t="n">
-        <v>9.206</v>
+        <v>1.162</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
-      </c>
-      <c r="F20" t="n">
-        <v>13.9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Wafer (Material)</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>22.66</v>
+        <v>13.06666666666667</v>
       </c>
       <c r="C21" t="n">
-        <v>1.03</v>
+        <v>1.613333333333333</v>
       </c>
       <c r="D21" t="n">
-        <v>1.377</v>
+        <v>9.417999999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>17.39</v>
+        <v>8.92</v>
       </c>
       <c r="C22" t="n">
-        <v>0.72</v>
+        <v>1.465</v>
       </c>
       <c r="D22" t="n">
-        <v>2.247</v>
+        <v>2.086</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
-      </c>
-      <c r="F22" t="n">
-        <v>8.800000000000001</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Optics (Lens)</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.33</v>
+        <v>6.49</v>
       </c>
       <c r="C23" t="n">
-        <v>0.58</v>
+        <v>0.66</v>
       </c>
       <c r="D23" t="n">
-        <v>3.244</v>
+        <v>1.948</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
       </c>
-      <c r="F23" t="n">
-        <v>6.6</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -4351,217 +3992,571 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>4.24</v>
+        <v>6.02</v>
       </c>
       <c r="C24" t="n">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="D24" t="n">
-        <v>1.731</v>
+        <v>1.819</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
       </c>
-      <c r="F24" t="n">
-        <v>3.2</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3.36</v>
+        <v>4.24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.73</v>
+        <v>0.98</v>
       </c>
       <c r="D25" t="n">
-        <v>1.882</v>
+        <v>0.995</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
       </c>
-      <c r="F25" t="n">
-        <v>3</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-1.835</v>
+        <v>3.94</v>
       </c>
       <c r="C26" t="n">
-        <v>1.07</v>
+        <v>0.955</v>
       </c>
       <c r="D26" t="n">
-        <v>3.148</v>
+        <v>1.004</v>
       </c>
       <c r="E26" t="n">
         <v>2</v>
       </c>
-      <c r="F26" t="n">
-        <v>2.2</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.53</v>
+        <v>3.59</v>
       </c>
       <c r="C27" t="n">
-        <v>1.02</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D27" t="n">
-        <v>2.053</v>
+        <v>0.095</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
       </c>
-      <c r="F27" t="n">
-        <v>2.1</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3.23</v>
+        <v>2.79</v>
       </c>
       <c r="C28" t="n">
-        <v>1.01</v>
+        <v>1.3625</v>
       </c>
       <c r="D28" t="n">
-        <v>0.907</v>
+        <v>26.119</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
-      </c>
-      <c r="F28" t="n">
-        <v>2.1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AI Server/Brand</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2.14</v>
+        <v>-0.7779999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>0.76</v>
+        <v>1.176</v>
       </c>
       <c r="D29" t="n">
-        <v>1.302</v>
+        <v>5.396</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.9350000000000001</v>
+        <v>-3.553333333333333</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9749999999999999</v>
+        <v>0.9833333333333334</v>
       </c>
       <c r="D30" t="n">
-        <v>0.9419999999999999</v>
+        <v>3.332</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.25</v>
+        <v>-4.39</v>
       </c>
       <c r="C31" t="n">
-        <v>1.09</v>
+        <v>1.66</v>
       </c>
       <c r="D31" t="n">
-        <v>0.096</v>
+        <v>1.527</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
       </c>
-      <c r="F31" t="n">
-        <v>0.6</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>PC/Brand</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.33</v>
+        <v>-6.15</v>
       </c>
       <c r="C32" t="n">
-        <v>0.76</v>
+        <v>0.95</v>
       </c>
       <c r="D32" t="n">
-        <v>2.584</v>
+        <v>0.14</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
       </c>
-      <c r="F32" t="n">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>IP Core</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-11.88</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="D33" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="E33" t="n">
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Mã</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Tên Công Ty (CN)</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Tên Công Ty</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Giá</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>%_Ngày</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>%_Tăng_1_Tháng</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>RSI</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>MACD</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>BB_Position</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Stochastic</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>ATR%</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Vol_Trend</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Sức_Mạnh_Dòng_Tiền</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>QUICK_ACTION</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>8299</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>群聯</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Phison (Electronics)</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>2075</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F2" t="n">
+        <v>58.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>207.8127</v>
+      </c>
+      <c r="I2" t="n">
+        <v>86</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>👀 THEO DÕI</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2454</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>聯發科</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>MediaTek</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1770</v>
+      </c>
+      <c r="E3" t="n">
+        <v>8.59</v>
+      </c>
+      <c r="F3" t="n">
+        <v>30.28</v>
+      </c>
+      <c r="G3" t="n">
+        <v>77.14</v>
+      </c>
+      <c r="H3" t="n">
+        <v>56.7694</v>
+      </c>
+      <c r="I3" t="n">
+        <v>133.9</v>
+      </c>
+      <c r="J3" t="n">
+        <v>100</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="L3" t="n">
+        <v>166.9</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>🚀 MUA ĐUỔI</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>8096</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>擎亞</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CoAsia</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.82</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="G4" t="n">
+        <v>55.42</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0427</v>
+      </c>
+      <c r="I4" t="n">
+        <v>76.7</v>
+      </c>
+      <c r="J4" t="n">
+        <v>82.59999999999999</v>
+      </c>
+      <c r="K4" t="n">
+        <v>4.82</v>
+      </c>
+      <c r="L4" t="n">
+        <v>111.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>🚀 MUA ĐUỔI</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>信昌電</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Shinmore</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>77.09999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15.07</v>
+      </c>
+      <c r="G5" t="n">
+        <v>60.38</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.5499</v>
+      </c>
+      <c r="I5" t="n">
+        <v>82.40000000000001</v>
+      </c>
+      <c r="J5" t="n">
+        <v>92.90000000000001</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.77</v>
+      </c>
+      <c r="L5" t="n">
+        <v>-42.9</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>👀 THEO DÕI</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2455</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>全新</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Visual Photonics</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>168</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="F6" t="n">
+        <v>7.35</v>
+      </c>
+      <c r="G6" t="n">
+        <v>61.76</v>
+      </c>
+      <c r="H6" t="n">
+        <v>7.7613</v>
+      </c>
+      <c r="I6" t="n">
+        <v>65.5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>55.4</v>
+      </c>
+      <c r="K6" t="n">
+        <v>6.72</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-43.7</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>👀 THEO DÕI</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2317</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>鴻海</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Foxconn</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>224</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.67</v>
+      </c>
+      <c r="G7" t="n">
+        <v>38.24</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-1.2705</v>
+      </c>
+      <c r="I7" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="J7" t="n">
+        <v>25.6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="L7" t="n">
+        <v>-26</v>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
-      <c r="F33" t="n">
-        <v>-3.3</v>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>👀 THEO DÕI</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_Tin_Hieu_Hom_Nay" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2_Xu_Huong_21_Ngay" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_Song_Nganh" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4_My_Favorite" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1_Tin_Hieu_Hom_Nay" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2_Xu_Huong_21_Ngay" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3_Song_Nganh" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4_My_Favorite" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -20,13 +20,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +40,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -45,12 +48,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -416,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,37 +437,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Mã</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Tên Công Ty (CN)</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Tên Công Ty</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Giá</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>%_Ngày</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>%_Vol_vs_TB</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Tín_Hiệu_Ngày</t>
         </is>
@@ -960,24 +972,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>396</v>
+        <v>2620</v>
       </c>
       <c r="E18" t="n">
-        <v>0.76</v>
+        <v>-3.85</v>
       </c>
       <c r="F18" t="n">
         <v>110</v>
@@ -991,24 +1003,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2620</v>
+        <v>396</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.85</v>
+        <v>0.76</v>
       </c>
       <c r="F19" t="n">
         <v>110</v>
@@ -1022,27 +1034,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>252.5</v>
+        <v>234</v>
       </c>
       <c r="E20" t="n">
-        <v>5.87</v>
+        <v>1.52</v>
       </c>
       <c r="F20" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1053,27 +1065,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>234</v>
+        <v>69.3</v>
       </c>
       <c r="E21" t="n">
-        <v>1.52</v>
+        <v>6.94</v>
       </c>
       <c r="F21" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1084,27 +1096,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>69.3</v>
+        <v>1230</v>
       </c>
       <c r="E22" t="n">
-        <v>6.94</v>
+        <v>-2.38</v>
       </c>
       <c r="F22" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1115,27 +1127,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1230</v>
+        <v>2075</v>
       </c>
       <c r="E23" t="n">
-        <v>-2.38</v>
+        <v>3.75</v>
       </c>
       <c r="F23" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1146,24 +1158,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2075</v>
+        <v>51</v>
       </c>
       <c r="E24" t="n">
-        <v>3.75</v>
+        <v>0.99</v>
       </c>
       <c r="F24" t="n">
         <v>103</v>
@@ -1177,58 +1189,58 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>51</v>
+        <v>93.2</v>
       </c>
       <c r="E25" t="n">
-        <v>0.99</v>
+        <v>-0.32</v>
       </c>
       <c r="F25" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>93.2</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.32</v>
+        <v>-1.06</v>
       </c>
       <c r="F26" t="n">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1239,182 +1251,182 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>74.90000000000001</v>
+        <v>287</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.06</v>
+        <v>2.5</v>
       </c>
       <c r="F27" t="n">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>287</v>
+        <v>32.05</v>
       </c>
       <c r="E28" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="F28" t="n">
         <v>92</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>32.05</v>
+        <v>3520</v>
       </c>
       <c r="E29" t="n">
-        <v>2.4</v>
+        <v>2.62</v>
       </c>
       <c r="F29" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3520</v>
+        <v>188.5</v>
       </c>
       <c r="E30" t="n">
-        <v>2.62</v>
+        <v>-0.53</v>
       </c>
       <c r="F30" t="n">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>188.5</v>
+        <v>297.5</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.53</v>
+        <v>3.84</v>
       </c>
       <c r="F31" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>297.5</v>
+        <v>22.5</v>
       </c>
       <c r="E32" t="n">
-        <v>3.84</v>
+        <v>0.67</v>
       </c>
       <c r="F32" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1425,27 +1437,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>22.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E33" t="n">
-        <v>0.67</v>
+        <v>0.65</v>
       </c>
       <c r="F33" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1456,27 +1468,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>77.09999999999999</v>
+        <v>174.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.65</v>
+        <v>0.87</v>
       </c>
       <c r="F34" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1487,31 +1499,31 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>174.5</v>
+        <v>224</v>
       </c>
       <c r="E35" t="n">
-        <v>0.87</v>
+        <v>1.13</v>
       </c>
       <c r="F35" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
@@ -1549,58 +1561,58 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>224</v>
+        <v>38.5</v>
       </c>
       <c r="E37" t="n">
-        <v>1.13</v>
+        <v>-0.77</v>
       </c>
       <c r="F37" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>38.5</v>
+        <v>123</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.77</v>
+        <v>-1.99</v>
       </c>
       <c r="F38" t="n">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1611,24 +1623,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>123</v>
+        <v>1755</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.99</v>
+        <v>-0.85</v>
       </c>
       <c r="F39" t="n">
         <v>71</v>
@@ -1642,27 +1654,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1755</v>
+        <v>517</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.85</v>
+        <v>1.97</v>
       </c>
       <c r="F40" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1673,27 +1685,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>517</v>
+        <v>245.5</v>
       </c>
       <c r="E41" t="n">
-        <v>1.97</v>
+        <v>0.82</v>
       </c>
       <c r="F41" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1704,86 +1716,86 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>245.5</v>
+        <v>54.3</v>
       </c>
       <c r="E42" t="n">
-        <v>0.82</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>54.3</v>
+        <v>145</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-1.02</v>
       </c>
       <c r="F43" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>145</v>
+        <v>257.5</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.02</v>
+        <v>4.46</v>
       </c>
       <c r="F44" t="n">
         <v>64</v>
@@ -1797,89 +1809,89 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>257.5</v>
+        <v>136.5</v>
       </c>
       <c r="E45" t="n">
-        <v>4.46</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>136.5</v>
+        <v>66.2</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.46</v>
       </c>
       <c r="F46" t="n">
         <v>59</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>66.2</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E47" t="n">
-        <v>0.46</v>
+        <v>2.66</v>
       </c>
       <c r="F47" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1890,27 +1902,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>77.09999999999999</v>
+        <v>168</v>
       </c>
       <c r="E48" t="n">
-        <v>2.66</v>
+        <v>-1.18</v>
       </c>
       <c r="F48" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1921,27 +1933,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>168</v>
+        <v>525</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.18</v>
+        <v>-0.57</v>
       </c>
       <c r="F49" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1952,27 +1964,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>525</v>
+        <v>225.5</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.57</v>
+        <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1983,60 +1995,29 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>225.5</v>
+        <v>113</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="F51" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G51" t="inlineStr">
-        <is>
-          <t>Tích lũy (Up)</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>2344</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>華邦電</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Winbond Elec</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>113</v>
-      </c>
-      <c r="E52" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="F52" t="n">
-        <v>36</v>
-      </c>
-      <c r="G52" t="inlineStr">
         <is>
           <t>Tích lũy (Up)</t>
         </is>
@@ -2053,7 +2034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2062,32 +2043,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Mã</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Tên Công Ty (CN)</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Tên Công Ty</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Ngành</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>%_Tăng_1_Tháng</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Sức_Mạnh_Dòng_Tiền</t>
         </is>
@@ -2348,577 +2329,577 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>41.06</v>
+        <v>38.74</v>
       </c>
       <c r="F11" t="n">
-        <v>0.85</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38.74</v>
+        <v>37.92</v>
       </c>
       <c r="F12" t="n">
-        <v>1.57</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.92</v>
+        <v>34.92</v>
       </c>
       <c r="F13" t="n">
-        <v>0.86</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>34.92</v>
+        <v>33.41</v>
       </c>
       <c r="F14" t="n">
-        <v>1.02</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>33.41</v>
+        <v>30.28</v>
       </c>
       <c r="F15" t="n">
-        <v>0.73</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.28</v>
+        <v>29.73</v>
       </c>
       <c r="F16" t="n">
-        <v>1.48</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.73</v>
+        <v>28.66</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.66</v>
+        <v>26.64</v>
       </c>
       <c r="F18" t="n">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.64</v>
+        <v>23.88</v>
       </c>
       <c r="F19" t="n">
-        <v>1.14</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23.88</v>
+        <v>23.48</v>
       </c>
       <c r="F20" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.48</v>
+        <v>22.77</v>
       </c>
       <c r="F21" t="n">
-        <v>1.08</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22.77</v>
+        <v>18.53</v>
       </c>
       <c r="F22" t="n">
-        <v>1.21</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>18.53</v>
+        <v>16.23</v>
       </c>
       <c r="F23" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16.23</v>
+        <v>15.37</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>15.37</v>
+        <v>15.07</v>
       </c>
       <c r="F25" t="n">
-        <v>1.28</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>15.07</v>
+        <v>12.22</v>
       </c>
       <c r="F26" t="n">
-        <v>0.89</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>12.22</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="F27" t="n">
-        <v>1.25</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9.529999999999999</v>
+        <v>9.49</v>
       </c>
       <c r="F28" t="n">
-        <v>2.81</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>9.49</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="F29" t="n">
-        <v>0.93</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>9.130000000000001</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>0.73</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2927,203 +2908,203 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>8.369999999999999</v>
+        <v>7.35</v>
       </c>
       <c r="F31" t="n">
-        <v>2.22</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>7.35</v>
+        <v>6.49</v>
       </c>
       <c r="F32" t="n">
-        <v>1.54</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6.49</v>
+        <v>6.02</v>
       </c>
       <c r="F33" t="n">
-        <v>0.66</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6.02</v>
+        <v>5.76</v>
       </c>
       <c r="F34" t="n">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.76</v>
+        <v>5.62</v>
       </c>
       <c r="F35" t="n">
-        <v>0.96</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5.62</v>
+        <v>4.24</v>
       </c>
       <c r="F36" t="n">
-        <v>1.68</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4.24</v>
+        <v>3.59</v>
       </c>
       <c r="F37" t="n">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.59</v>
+        <v>3.07</v>
       </c>
       <c r="F38" t="n">
         <v>0.9399999999999999</v>
@@ -3132,82 +3113,82 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3.07</v>
+        <v>2.77</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.77</v>
+        <v>2.41</v>
       </c>
       <c r="F40" t="n">
-        <v>1.75</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2.41</v>
+        <v>2.12</v>
       </c>
       <c r="F41" t="n">
         <v>0.95</v>
@@ -3216,101 +3197,101 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2.12</v>
+        <v>-0.67</v>
       </c>
       <c r="F42" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-0.67</v>
+        <v>-1.31</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-1.31</v>
+        <v>-2.59</v>
       </c>
       <c r="F44" t="n">
-        <v>0.95</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3319,205 +3300,177 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-2.59</v>
+        <v>-2.86</v>
       </c>
       <c r="F45" t="n">
-        <v>1.39</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-2.86</v>
+        <v>-3.21</v>
       </c>
       <c r="F46" t="n">
-        <v>1.46</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-3.21</v>
+        <v>-3.92</v>
       </c>
       <c r="F47" t="n">
-        <v>0.98</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-3.92</v>
+        <v>-4.39</v>
       </c>
       <c r="F48" t="n">
-        <v>1.14</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-4.39</v>
+        <v>-6.14</v>
       </c>
       <c r="F49" t="n">
-        <v>1.66</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-6.14</v>
+        <v>-6.15</v>
       </c>
       <c r="F50" t="n">
-        <v>1.02</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-6.15</v>
+        <v>-6.83</v>
       </c>
       <c r="F51" t="n">
-        <v>0.95</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>3231</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>緯創</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Wistron</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>AI Server/OEM</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>-6.83</v>
-      </c>
-      <c r="F52" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -3541,27 +3494,27 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Ngành</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Avg_%_1Tháng</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Avg_Sức_Mạnh</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Tổng_GTGD_Tỷ</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Số_Mã</t>
         </is>
@@ -3646,36 +3599,36 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.71</v>
+        <v>48.68</v>
       </c>
       <c r="C6" t="n">
-        <v>0.34</v>
+        <v>0.61</v>
       </c>
       <c r="D6" t="n">
-        <v>18.708</v>
+        <v>7.928</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.66</v>
+        <v>47.71</v>
       </c>
       <c r="C7" t="n">
-        <v>0.97</v>
+        <v>0.34</v>
       </c>
       <c r="D7" t="n">
-        <v>6.209</v>
+        <v>18.708</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -3684,20 +3637,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46.14000000000001</v>
+        <v>47.66</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="D8" t="n">
-        <v>12.665</v>
+        <v>6.209</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -4176,72 +4129,72 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Mã</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Tên Công Ty (CN)</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Tên Công Ty</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Giá</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>%_Ngày</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>%_Tăng_1_Tháng</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>RSI</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>MACD</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>BB_Position</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Stochastic</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ATR%</t>
         </is>
       </c>
-      <c r="L1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Vol_Trend</t>
         </is>
       </c>
-      <c r="M1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Sức_Mạnh_Dòng_Tiền</t>
         </is>
       </c>
-      <c r="N1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>QUICK_ACTION</t>
         </is>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -693,24 +693,24 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>286</v>
+        <v>1375</v>
       </c>
       <c r="E9" t="n">
-        <v>5.34</v>
+        <v>1.85</v>
       </c>
       <c r="F9" t="n">
         <v>155</v>
@@ -724,24 +724,24 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1375</v>
+        <v>286</v>
       </c>
       <c r="E10" t="n">
-        <v>1.85</v>
+        <v>5.34</v>
       </c>
       <c r="F10" t="n">
         <v>155</v>
@@ -972,24 +972,24 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2620</v>
+        <v>396</v>
       </c>
       <c r="E18" t="n">
-        <v>-3.85</v>
+        <v>0.76</v>
       </c>
       <c r="F18" t="n">
         <v>110</v>
@@ -1003,24 +1003,24 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>396</v>
+        <v>2620</v>
       </c>
       <c r="E19" t="n">
-        <v>0.76</v>
+        <v>-3.85</v>
       </c>
       <c r="F19" t="n">
         <v>110</v>
@@ -1034,27 +1034,27 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>234</v>
+        <v>252.5</v>
       </c>
       <c r="E20" t="n">
-        <v>1.52</v>
+        <v>5.87</v>
       </c>
       <c r="F20" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1065,27 +1065,27 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>69.3</v>
+        <v>234</v>
       </c>
       <c r="E21" t="n">
-        <v>6.94</v>
+        <v>1.52</v>
       </c>
       <c r="F21" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1096,27 +1096,27 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1230</v>
+        <v>69.3</v>
       </c>
       <c r="E22" t="n">
-        <v>-2.38</v>
+        <v>6.94</v>
       </c>
       <c r="F22" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1127,27 +1127,27 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>2075</v>
+        <v>1230</v>
       </c>
       <c r="E23" t="n">
-        <v>3.75</v>
+        <v>-2.38</v>
       </c>
       <c r="F23" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1158,24 +1158,24 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>51</v>
+        <v>2075</v>
       </c>
       <c r="E24" t="n">
-        <v>0.99</v>
+        <v>3.75</v>
       </c>
       <c r="F24" t="n">
         <v>103</v>
@@ -1189,58 +1189,58 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>93.2</v>
+        <v>51</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.32</v>
+        <v>0.99</v>
       </c>
       <c r="F25" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>74.90000000000001</v>
+        <v>93.2</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.06</v>
+        <v>-0.32</v>
       </c>
       <c r="F26" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1251,182 +1251,182 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>287</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>2.5</v>
+        <v>-1.06</v>
       </c>
       <c r="F27" t="n">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32.05</v>
+        <v>287</v>
       </c>
       <c r="E28" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="F28" t="n">
         <v>92</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3520</v>
+        <v>32.05</v>
       </c>
       <c r="E29" t="n">
-        <v>2.62</v>
+        <v>2.4</v>
       </c>
       <c r="F29" t="n">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>188.5</v>
+        <v>3520</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.53</v>
+        <v>2.62</v>
       </c>
       <c r="F30" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>297.5</v>
+        <v>188.5</v>
       </c>
       <c r="E31" t="n">
-        <v>3.84</v>
+        <v>-0.53</v>
       </c>
       <c r="F31" t="n">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>22.5</v>
+        <v>297.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0.67</v>
+        <v>3.84</v>
       </c>
       <c r="F32" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1437,27 +1437,27 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>77.09999999999999</v>
+        <v>22.5</v>
       </c>
       <c r="E33" t="n">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="F33" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1468,27 +1468,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>174.5</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E34" t="n">
-        <v>0.87</v>
+        <v>0.65</v>
       </c>
       <c r="F34" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1499,89 +1499,89 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>224</v>
+        <v>174.5</v>
       </c>
       <c r="E35" t="n">
-        <v>1.13</v>
+        <v>0.87</v>
       </c>
       <c r="F35" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>312</v>
+        <v>224</v>
       </c>
       <c r="E36" t="n">
-        <v>1.46</v>
+        <v>1.13</v>
       </c>
       <c r="F36" t="n">
         <v>74</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>38.5</v>
+        <v>312</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.77</v>
+        <v>1.46</v>
       </c>
       <c r="F37" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1592,27 +1592,27 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>123</v>
+        <v>38.5</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.99</v>
+        <v>-0.77</v>
       </c>
       <c r="F38" t="n">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1623,24 +1623,24 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1755</v>
+        <v>123</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.85</v>
+        <v>-1.99</v>
       </c>
       <c r="F39" t="n">
         <v>71</v>
@@ -1654,27 +1654,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>517</v>
+        <v>1755</v>
       </c>
       <c r="E40" t="n">
-        <v>1.97</v>
+        <v>-0.85</v>
       </c>
       <c r="F40" t="n">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1685,27 +1685,27 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>245.5</v>
+        <v>517</v>
       </c>
       <c r="E41" t="n">
-        <v>0.82</v>
+        <v>1.97</v>
       </c>
       <c r="F41" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1716,86 +1716,86 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>54.3</v>
+        <v>245.5</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.82</v>
       </c>
       <c r="F42" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>145</v>
+        <v>54.3</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.02</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>257.5</v>
+        <v>145</v>
       </c>
       <c r="E44" t="n">
-        <v>4.46</v>
+        <v>-1.02</v>
       </c>
       <c r="F44" t="n">
         <v>64</v>
@@ -1809,89 +1809,89 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>136.5</v>
+        <v>257.5</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>4.46</v>
       </c>
       <c r="F45" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>66.2</v>
+        <v>136.5</v>
       </c>
       <c r="E46" t="n">
-        <v>0.46</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>59</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>77.09999999999999</v>
+        <v>66.2</v>
       </c>
       <c r="E47" t="n">
-        <v>2.66</v>
+        <v>0.46</v>
       </c>
       <c r="F47" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -1902,27 +1902,27 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>168</v>
+        <v>77.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.18</v>
+        <v>2.66</v>
       </c>
       <c r="F48" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -1933,27 +1933,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>525</v>
+        <v>168</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.57</v>
+        <v>-1.18</v>
       </c>
       <c r="F49" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -1964,27 +1964,27 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>225.5</v>
+        <v>525</v>
       </c>
       <c r="E50" t="n">
-        <v>10</v>
+        <v>-0.57</v>
       </c>
       <c r="F50" t="n">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -1995,29 +1995,60 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>4967</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>十銓</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>TeamGroup</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>225.5</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10</v>
+      </c>
+      <c r="F51" t="n">
+        <v>38</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Tích lũy (Up)</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>2344</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>華邦電</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Winbond Elec</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D52" t="n">
         <v>113</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E52" t="n">
         <v>9.710000000000001</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F52" t="n">
         <v>36</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Tích lũy (Up)</t>
         </is>
@@ -2034,7 +2065,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2329,577 +2360,577 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>38.74</v>
+        <v>41.06</v>
       </c>
       <c r="F11" t="n">
-        <v>1.57</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>37.92</v>
+        <v>38.74</v>
       </c>
       <c r="F12" t="n">
-        <v>0.86</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>34.92</v>
+        <v>37.92</v>
       </c>
       <c r="F13" t="n">
-        <v>1.02</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>33.41</v>
+        <v>34.92</v>
       </c>
       <c r="F14" t="n">
-        <v>0.73</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30.28</v>
+        <v>33.41</v>
       </c>
       <c r="F15" t="n">
-        <v>1.48</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.73</v>
+        <v>30.28</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>28.66</v>
+        <v>29.73</v>
       </c>
       <c r="F17" t="n">
-        <v>1.22</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.64</v>
+        <v>28.66</v>
       </c>
       <c r="F18" t="n">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>23.88</v>
+        <v>26.64</v>
       </c>
       <c r="F19" t="n">
-        <v>1.01</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23.48</v>
+        <v>23.88</v>
       </c>
       <c r="F20" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>22.77</v>
+        <v>23.48</v>
       </c>
       <c r="F21" t="n">
-        <v>1.21</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>18.53</v>
+        <v>22.77</v>
       </c>
       <c r="F22" t="n">
-        <v>0.87</v>
+        <v>1.21</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16.23</v>
+        <v>18.53</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>15.37</v>
+        <v>16.23</v>
       </c>
       <c r="F24" t="n">
-        <v>1.28</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>15.07</v>
+        <v>15.37</v>
       </c>
       <c r="F25" t="n">
-        <v>0.89</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>12.22</v>
+        <v>15.07</v>
       </c>
       <c r="F26" t="n">
-        <v>1.25</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>9.529999999999999</v>
+        <v>12.22</v>
       </c>
       <c r="F27" t="n">
-        <v>2.81</v>
+        <v>1.25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9.49</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.93</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>9.130000000000001</v>
+        <v>9.49</v>
       </c>
       <c r="F29" t="n">
-        <v>0.73</v>
+        <v>0.93</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8.369999999999999</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="F30" t="n">
-        <v>2.22</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -2908,203 +2939,203 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.35</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F31" t="n">
-        <v>1.54</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6.49</v>
+        <v>7.35</v>
       </c>
       <c r="F32" t="n">
-        <v>0.66</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6.02</v>
+        <v>6.49</v>
       </c>
       <c r="F33" t="n">
-        <v>1.08</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>5.76</v>
+        <v>6.02</v>
       </c>
       <c r="F34" t="n">
-        <v>0.96</v>
+        <v>1.08</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.62</v>
+        <v>5.76</v>
       </c>
       <c r="F35" t="n">
-        <v>1.68</v>
+        <v>0.96</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4.24</v>
+        <v>5.62</v>
       </c>
       <c r="F36" t="n">
-        <v>0.98</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.59</v>
+        <v>4.24</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.07</v>
+        <v>3.59</v>
       </c>
       <c r="F38" t="n">
         <v>0.9399999999999999</v>
@@ -3113,82 +3144,82 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.77</v>
+        <v>3.07</v>
       </c>
       <c r="F39" t="n">
-        <v>1.75</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.41</v>
+        <v>2.77</v>
       </c>
       <c r="F40" t="n">
-        <v>0.95</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2.12</v>
+        <v>2.41</v>
       </c>
       <c r="F41" t="n">
         <v>0.95</v>
@@ -3197,101 +3228,101 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-0.67</v>
+        <v>2.12</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-1.31</v>
+        <v>-0.67</v>
       </c>
       <c r="F43" t="n">
-        <v>0.95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-2.59</v>
+        <v>-1.31</v>
       </c>
       <c r="F44" t="n">
-        <v>1.39</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -3300,177 +3331,205 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-2.86</v>
+        <v>-2.59</v>
       </c>
       <c r="F45" t="n">
-        <v>1.46</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-3.21</v>
+        <v>-2.86</v>
       </c>
       <c r="F46" t="n">
-        <v>0.98</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-3.92</v>
+        <v>-3.21</v>
       </c>
       <c r="F47" t="n">
-        <v>1.14</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-4.39</v>
+        <v>-3.92</v>
       </c>
       <c r="F48" t="n">
-        <v>1.66</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-6.14</v>
+        <v>-4.39</v>
       </c>
       <c r="F49" t="n">
-        <v>1.02</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-6.15</v>
+        <v>-6.14</v>
       </c>
       <c r="F50" t="n">
-        <v>0.95</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>2201</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>裕隆</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Yulon Motor</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Automobile</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>-6.15</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>3231</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>緯創</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Wistron</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>AI Server/OEM</t>
         </is>
       </c>
-      <c r="E51" t="n">
+      <c r="E52" t="n">
         <v>-6.83</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F52" t="n">
         <v>0.91</v>
       </c>
     </row>
@@ -3511,7 +3570,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Tổng_GTGD_Tỷ</t>
+          <t>GTGD_TB_Tỷ</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -3599,36 +3658,36 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.68</v>
+        <v>47.71</v>
       </c>
       <c r="C6" t="n">
-        <v>0.61</v>
+        <v>0.34</v>
       </c>
       <c r="D6" t="n">
-        <v>7.928</v>
+        <v>18.708</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.71</v>
+        <v>47.66</v>
       </c>
       <c r="C7" t="n">
-        <v>0.34</v>
+        <v>0.97</v>
       </c>
       <c r="D7" t="n">
-        <v>18.708</v>
+        <v>6.209</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -3637,20 +3696,20 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.66</v>
+        <v>46.14000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>0.97</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>6.209</v>
+        <v>12.665</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,6 +472,11 @@
           <t>Tín_Hiệu_Ngày</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>GTGD_TB_Tỷ</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -503,6 +508,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H2" t="n">
+        <v>16.369</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,6 +542,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H3" t="n">
+        <v>1.715</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -565,6 +576,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H4" t="n">
+        <v>0.351</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -596,6 +610,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H5" t="n">
+        <v>0.196</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -627,6 +644,9 @@
           <t>Yếu</t>
         </is>
       </c>
+      <c r="H6" t="n">
+        <v>1.527</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -658,6 +678,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H7" t="n">
+        <v>0.995</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -689,6 +712,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H8" t="n">
+        <v>1.668</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -720,6 +746,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H9" t="n">
+        <v>2.442</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -751,6 +780,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H10" t="n">
+        <v>20.628</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -782,6 +814,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H11" t="n">
+        <v>12.683</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -813,6 +848,9 @@
           <t>Yếu</t>
         </is>
       </c>
+      <c r="H12" t="n">
+        <v>0.646</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -844,6 +882,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H13" t="n">
+        <v>1.507</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -875,6 +916,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H14" t="n">
+        <v>3.696</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -906,6 +950,9 @@
           <t>Yếu</t>
         </is>
       </c>
+      <c r="H15" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -937,6 +984,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H16" t="n">
+        <v>13.32</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -968,6 +1018,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H17" t="n">
+        <v>3.991</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -999,6 +1052,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H18" t="n">
+        <v>1.819</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1030,6 +1086,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H19" t="n">
+        <v>7.742</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1061,6 +1120,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H20" t="n">
+        <v>4.737</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1092,6 +1154,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H21" t="n">
+        <v>6.824</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1123,6 +1188,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H22" t="n">
+        <v>14.76</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1154,6 +1222,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H23" t="n">
+        <v>15.044</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1185,6 +1256,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H24" t="n">
+        <v>12.044</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1216,6 +1290,9 @@
           <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
+      <c r="H25" t="n">
+        <v>1.319</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1247,6 +1324,9 @@
           <t>Yếu</t>
         </is>
       </c>
+      <c r="H26" t="n">
+        <v>1.355</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1278,6 +1358,9 @@
           <t>Yếu</t>
         </is>
       </c>
+      <c r="H27" t="n">
+        <v>0.499</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1309,6 +1392,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H28" t="n">
+        <v>5.871</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1340,6 +1426,9 @@
           <t>Yếu</t>
         </is>
       </c>
+      <c r="H29" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1371,6 +1460,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H30" t="n">
+        <v>7.097</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1402,6 +1494,9 @@
           <t>Yếu</t>
         </is>
       </c>
+      <c r="H31" t="n">
+        <v>1.997</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1433,6 +1528,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H32" t="n">
+        <v>8.959</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1464,6 +1562,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H33" t="n">
+        <v>0.796</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1495,6 +1596,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H34" t="n">
+        <v>1.746</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1526,6 +1630,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H35" t="n">
+        <v>0.653</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1557,6 +1664,9 @@
           <t>Yếu</t>
         </is>
       </c>
+      <c r="H36" t="n">
+        <v>11.833</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1588,6 +1698,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H37" t="n">
+        <v>6.621</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1619,6 +1732,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H38" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1650,6 +1766,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H39" t="n">
+        <v>0.506</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1681,6 +1800,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H40" t="n">
+        <v>62.023</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1712,6 +1834,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H41" t="n">
+        <v>1.948</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1743,6 +1868,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H42" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1774,6 +1902,9 @@
           <t>Yếu</t>
         </is>
       </c>
+      <c r="H43" t="n">
+        <v>0.836</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1805,6 +1936,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H44" t="n">
+        <v>6.209</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1836,6 +1970,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H45" t="n">
+        <v>5.834</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1867,6 +2004,9 @@
           <t>Yếu</t>
         </is>
       </c>
+      <c r="H46" t="n">
+        <v>6.747</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1898,6 +2038,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H47" t="n">
+        <v>4.598</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1929,6 +2072,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H48" t="n">
+        <v>1.162</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1960,6 +2106,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H49" t="n">
+        <v>2.088</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1991,6 +2140,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H50" t="n">
+        <v>4.343</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -2022,6 +2174,9 @@
           <t>Tích lũy (Up)</t>
         </is>
       </c>
+      <c r="H51" t="n">
+        <v>3.937</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -2052,6 +2207,9 @@
         <is>
           <t>Tích lũy (Up)</t>
         </is>
+      </c>
+      <c r="H52" t="n">
+        <v>18.708</v>
       </c>
     </row>
   </sheetData>
@@ -2065,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F52"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2104,6 +2262,11 @@
           <t>Sức_Mạnh_Dòng_Tiền</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>GTGD_TB_Tỷ</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -2132,6 +2295,9 @@
       <c r="F2" t="n">
         <v>0.55</v>
       </c>
+      <c r="G2" t="n">
+        <v>13.32</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -2160,6 +2326,9 @@
       <c r="F3" t="n">
         <v>1.35</v>
       </c>
+      <c r="G3" t="n">
+        <v>12.044</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -2188,6 +2357,9 @@
       <c r="F4" t="n">
         <v>0.98</v>
       </c>
+      <c r="G4" t="n">
+        <v>3.991</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -2216,6 +2388,9 @@
       <c r="F5" t="n">
         <v>0.98</v>
       </c>
+      <c r="G5" t="n">
+        <v>20.628</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -2244,6 +2419,9 @@
       <c r="F6" t="n">
         <v>1.07</v>
       </c>
+      <c r="G6" t="n">
+        <v>12.683</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2272,6 +2450,9 @@
       <c r="F7" t="n">
         <v>0.34</v>
       </c>
+      <c r="G7" t="n">
+        <v>18.708</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2300,6 +2481,9 @@
       <c r="F8" t="n">
         <v>0.97</v>
       </c>
+      <c r="G8" t="n">
+        <v>6.209</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2328,6 +2512,9 @@
       <c r="F9" t="n">
         <v>0.87</v>
       </c>
+      <c r="G9" t="n">
+        <v>5.834</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2356,6 +2543,9 @@
       <c r="F10" t="n">
         <v>0.24</v>
       </c>
+      <c r="G10" t="n">
+        <v>3.937</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2384,6 +2574,9 @@
       <c r="F11" t="n">
         <v>0.85</v>
       </c>
+      <c r="G11" t="n">
+        <v>4.737</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -2412,6 +2605,9 @@
       <c r="F12" t="n">
         <v>1.57</v>
       </c>
+      <c r="G12" t="n">
+        <v>14.76</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -2440,6 +2636,9 @@
       <c r="F13" t="n">
         <v>0.86</v>
       </c>
+      <c r="G13" t="n">
+        <v>4.598</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -2468,6 +2667,9 @@
       <c r="F14" t="n">
         <v>1.02</v>
       </c>
+      <c r="G14" t="n">
+        <v>4.343</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -2496,6 +2698,9 @@
       <c r="F15" t="n">
         <v>0.73</v>
       </c>
+      <c r="G15" t="n">
+        <v>8.959</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -2524,6 +2729,9 @@
       <c r="F16" t="n">
         <v>1.48</v>
       </c>
+      <c r="G16" t="n">
+        <v>16.369</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -2552,6 +2760,9 @@
       <c r="F17" t="n">
         <v>0.9</v>
       </c>
+      <c r="G17" t="n">
+        <v>6.621</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -2580,6 +2791,9 @@
       <c r="F18" t="n">
         <v>1.22</v>
       </c>
+      <c r="G18" t="n">
+        <v>15.044</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -2608,6 +2822,9 @@
       <c r="F19" t="n">
         <v>1.14</v>
       </c>
+      <c r="G19" t="n">
+        <v>1.507</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -2636,6 +2853,9 @@
       <c r="F20" t="n">
         <v>1.01</v>
       </c>
+      <c r="G20" t="n">
+        <v>7.742</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -2664,6 +2884,9 @@
       <c r="F21" t="n">
         <v>1.08</v>
       </c>
+      <c r="G21" t="n">
+        <v>6.824</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -2692,6 +2915,9 @@
       <c r="F22" t="n">
         <v>1.21</v>
       </c>
+      <c r="G22" t="n">
+        <v>1.715</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -2720,6 +2946,9 @@
       <c r="F23" t="n">
         <v>0.87</v>
       </c>
+      <c r="G23" t="n">
+        <v>2.442</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2748,6 +2977,9 @@
       <c r="F24" t="n">
         <v>0.9</v>
       </c>
+      <c r="G24" t="n">
+        <v>62.023</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2776,6 +3008,9 @@
       <c r="F25" t="n">
         <v>1.28</v>
       </c>
+      <c r="G25" t="n">
+        <v>0.196</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -2804,6 +3039,9 @@
       <c r="F26" t="n">
         <v>0.89</v>
       </c>
+      <c r="G26" t="n">
+        <v>1.162</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2832,6 +3070,9 @@
       <c r="F27" t="n">
         <v>1.25</v>
       </c>
+      <c r="G27" t="n">
+        <v>0.796</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2860,6 +3101,9 @@
       <c r="F28" t="n">
         <v>2.81</v>
       </c>
+      <c r="G28" t="n">
+        <v>1.668</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2888,6 +3132,9 @@
       <c r="F29" t="n">
         <v>0.93</v>
       </c>
+      <c r="G29" t="n">
+        <v>7.097</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2916,6 +3163,9 @@
       <c r="F30" t="n">
         <v>0.73</v>
       </c>
+      <c r="G30" t="n">
+        <v>5.871</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2944,6 +3194,9 @@
       <c r="F31" t="n">
         <v>2.22</v>
       </c>
+      <c r="G31" t="n">
+        <v>0.506</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2972,6 +3225,9 @@
       <c r="F32" t="n">
         <v>1.54</v>
       </c>
+      <c r="G32" t="n">
+        <v>2.088</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3000,6 +3256,9 @@
       <c r="F33" t="n">
         <v>0.66</v>
       </c>
+      <c r="G33" t="n">
+        <v>1.948</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3028,6 +3287,9 @@
       <c r="F34" t="n">
         <v>1.08</v>
       </c>
+      <c r="G34" t="n">
+        <v>1.819</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3056,6 +3318,9 @@
       <c r="F35" t="n">
         <v>0.96</v>
       </c>
+      <c r="G35" t="n">
+        <v>0.653</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -3084,6 +3349,9 @@
       <c r="F36" t="n">
         <v>1.68</v>
       </c>
+      <c r="G36" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3112,6 +3380,9 @@
       <c r="F37" t="n">
         <v>0.98</v>
       </c>
+      <c r="G37" t="n">
+        <v>0.995</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -3140,6 +3411,9 @@
       <c r="F38" t="n">
         <v>0.9399999999999999</v>
       </c>
+      <c r="G38" t="n">
+        <v>0.095</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3168,6 +3442,9 @@
       <c r="F39" t="n">
         <v>0.9399999999999999</v>
       </c>
+      <c r="G39" t="n">
+        <v>1.746</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -3196,6 +3473,9 @@
       <c r="F40" t="n">
         <v>1.75</v>
       </c>
+      <c r="G40" t="n">
+        <v>3.696</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -3224,6 +3504,9 @@
       <c r="F41" t="n">
         <v>0.95</v>
       </c>
+      <c r="G41" t="n">
+        <v>1.319</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -3252,6 +3535,9 @@
       <c r="F42" t="n">
         <v>0.95</v>
       </c>
+      <c r="G42" t="n">
+        <v>0.351</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -3280,6 +3566,9 @@
       <c r="F43" t="n">
         <v>1</v>
       </c>
+      <c r="G43" t="n">
+        <v>11.833</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3308,6 +3597,9 @@
       <c r="F44" t="n">
         <v>0.95</v>
       </c>
+      <c r="G44" t="n">
+        <v>1.997</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3336,6 +3628,9 @@
       <c r="F45" t="n">
         <v>1.39</v>
       </c>
+      <c r="G45" t="n">
+        <v>0.646</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3364,6 +3659,9 @@
       <c r="F46" t="n">
         <v>1.46</v>
       </c>
+      <c r="G46" t="n">
+        <v>0.33</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3392,6 +3690,9 @@
       <c r="F47" t="n">
         <v>0.98</v>
       </c>
+      <c r="G47" t="n">
+        <v>0.836</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3420,6 +3721,9 @@
       <c r="F48" t="n">
         <v>1.14</v>
       </c>
+      <c r="G48" t="n">
+        <v>1.355</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3448,6 +3752,9 @@
       <c r="F49" t="n">
         <v>1.66</v>
       </c>
+      <c r="G49" t="n">
+        <v>1.527</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3476,6 +3783,9 @@
       <c r="F50" t="n">
         <v>1.02</v>
       </c>
+      <c r="G50" t="n">
+        <v>0.499</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3504,6 +3814,9 @@
       <c r="F51" t="n">
         <v>0.95</v>
       </c>
+      <c r="G51" t="n">
+        <v>0.14</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3531,6 +3844,9 @@
       </c>
       <c r="F52" t="n">
         <v>0.91</v>
+      </c>
+      <c r="G52" t="n">
+        <v>6.747</v>
       </c>
     </row>
   </sheetData>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -501,7 +501,7 @@
         <v>8.59</v>
       </c>
       <c r="F2" t="n">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>16.369</v>
+        <v>16.291</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>9.91</v>
       </c>
       <c r="F3" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.715</v>
+        <v>1.714</v>
       </c>
     </row>
     <row r="4">
@@ -569,7 +569,7 @@
         <v>9.82</v>
       </c>
       <c r="F4" t="n">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -603,7 +603,7 @@
         <v>7.67</v>
       </c>
       <c r="F5" t="n">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -617,69 +617,69 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1635</v>
+        <v>19.65</v>
       </c>
       <c r="E6" t="n">
-        <v>7.57</v>
+        <v>2.61</v>
       </c>
       <c r="F6" t="n">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.527</v>
+        <v>0.995</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>19.65</v>
+        <v>1635</v>
       </c>
       <c r="E7" t="n">
-        <v>2.61</v>
+        <v>7.57</v>
       </c>
       <c r="F7" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Yếu</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.995</v>
+        <v>1.523</v>
       </c>
     </row>
     <row r="8">
@@ -705,7 +705,7 @@
         <v>-3.02</v>
       </c>
       <c r="F8" t="n">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -719,27 +719,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1375</v>
+        <v>286</v>
       </c>
       <c r="E9" t="n">
-        <v>1.85</v>
+        <v>5.34</v>
       </c>
       <c r="F9" t="n">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -747,33 +747,33 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2.442</v>
+        <v>20.616</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>286</v>
+        <v>60.6</v>
       </c>
       <c r="E10" t="n">
-        <v>5.34</v>
+        <v>3.59</v>
       </c>
       <c r="F10" t="n">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -781,30 +781,30 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>20.628</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>60.6</v>
+        <v>1375</v>
       </c>
       <c r="E11" t="n">
-        <v>3.59</v>
+        <v>1.85</v>
       </c>
       <c r="F11" t="n">
         <v>151</v>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>12.683</v>
+        <v>2.438</v>
       </c>
     </row>
     <row r="12">
@@ -841,7 +841,7 @@
         <v>-0.38</v>
       </c>
       <c r="F12" t="n">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -875,7 +875,7 @@
         <v>3.24</v>
       </c>
       <c r="F13" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -883,75 +883,75 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.507</v>
+        <v>1.506</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>167</v>
+        <v>23.8</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.91</v>
+        <v>0.21</v>
       </c>
       <c r="F14" t="n">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Yếu</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3.696</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>23.8</v>
+        <v>167</v>
       </c>
       <c r="E15" t="n">
-        <v>0.21</v>
+        <v>-2.91</v>
       </c>
       <c r="F15" t="n">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.33</v>
+        <v>3.693</v>
       </c>
     </row>
     <row r="16">
@@ -977,7 +977,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>13.32</v>
+        <v>13.316</v>
       </c>
     </row>
     <row r="17">
@@ -1011,7 +1011,7 @@
         <v>9.859999999999999</v>
       </c>
       <c r="F17" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.991</v>
+        <v>3.989</v>
       </c>
     </row>
     <row r="18">
@@ -1045,7 +1045,7 @@
         <v>0.76</v>
       </c>
       <c r="F18" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,33 +1053,33 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.819</v>
+        <v>1.816</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2620</v>
+        <v>252.5</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.85</v>
+        <v>5.87</v>
       </c>
       <c r="F19" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1087,33 +1087,33 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7.742</v>
+        <v>4.734</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>252.5</v>
+        <v>69.3</v>
       </c>
       <c r="E20" t="n">
-        <v>5.87</v>
+        <v>6.94</v>
       </c>
       <c r="F20" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>4.737</v>
+        <v>14.757</v>
       </c>
     </row>
     <row r="21">
@@ -1147,7 +1147,7 @@
         <v>1.52</v>
       </c>
       <c r="F21" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1155,33 +1155,33 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6.824</v>
+        <v>6.822</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>69.3</v>
+        <v>2620</v>
       </c>
       <c r="E22" t="n">
-        <v>6.94</v>
+        <v>-3.85</v>
       </c>
       <c r="F22" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1189,33 +1189,33 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>14.76</v>
+        <v>7.715</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1230</v>
+        <v>51</v>
       </c>
       <c r="E23" t="n">
-        <v>-2.38</v>
+        <v>0.99</v>
       </c>
       <c r="F23" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>15.044</v>
+        <v>1.319</v>
       </c>
     </row>
     <row r="24">
@@ -1249,49 +1249,49 @@
         <v>3.75</v>
       </c>
       <c r="F24" t="n">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>12.044</v>
+        <v>12.013</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>51</v>
+        <v>1230</v>
       </c>
       <c r="E25" t="n">
-        <v>0.99</v>
+        <v>-2.38</v>
       </c>
       <c r="F25" t="n">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.319</v>
+        <v>14.991</v>
       </c>
     </row>
     <row r="26">
@@ -1317,7 +1317,7 @@
         <v>-0.32</v>
       </c>
       <c r="F26" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1.355</v>
+        <v>1.354</v>
       </c>
     </row>
     <row r="27">
@@ -1351,7 +1351,7 @@
         <v>-1.06</v>
       </c>
       <c r="F27" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1365,95 +1365,95 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>287</v>
+        <v>32.05</v>
       </c>
       <c r="E28" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="F28" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5.871</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>32.05</v>
+        <v>287</v>
       </c>
       <c r="E29" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="F29" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.14</v>
+        <v>5.863</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3520</v>
+        <v>297.5</v>
       </c>
       <c r="E30" t="n">
-        <v>2.62</v>
+        <v>3.84</v>
       </c>
       <c r="F30" t="n">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>7.097</v>
+        <v>8.954000000000001</v>
       </c>
     </row>
     <row r="31">
@@ -1487,7 +1487,7 @@
         <v>-0.53</v>
       </c>
       <c r="F31" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1495,33 +1495,33 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.997</v>
+        <v>1.994</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>297.5</v>
+        <v>3520</v>
       </c>
       <c r="E32" t="n">
-        <v>3.84</v>
+        <v>2.62</v>
       </c>
       <c r="F32" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>8.959</v>
+        <v>7.073</v>
       </c>
     </row>
     <row r="33">
@@ -1623,7 +1623,7 @@
         <v>0.87</v>
       </c>
       <c r="F35" t="n">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1637,61 +1637,61 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>224</v>
+        <v>312</v>
       </c>
       <c r="E36" t="n">
-        <v>1.13</v>
+        <v>1.46</v>
       </c>
       <c r="F36" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>11.833</v>
+        <v>6.619</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>312</v>
+        <v>38.5</v>
       </c>
       <c r="E37" t="n">
-        <v>1.46</v>
+        <v>-0.77</v>
       </c>
       <c r="F37" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1699,41 +1699,41 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6.621</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>38.5</v>
+        <v>224</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.77</v>
+        <v>1.13</v>
       </c>
       <c r="F38" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1.29</v>
+        <v>11.821</v>
       </c>
     </row>
     <row r="39">
@@ -1759,7 +1759,7 @@
         <v>-1.99</v>
       </c>
       <c r="F39" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1773,27 +1773,27 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>1755</v>
+        <v>517</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.85</v>
+        <v>1.97</v>
       </c>
       <c r="F40" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1801,41 +1801,41 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>62.023</v>
+        <v>1.947</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>517</v>
+        <v>54.3</v>
       </c>
       <c r="E41" t="n">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1.948</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="42">
@@ -1861,7 +1861,7 @@
         <v>0.82</v>
       </c>
       <c r="F42" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1875,35 +1875,35 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>54.3</v>
+        <v>1755</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-0.85</v>
       </c>
       <c r="F43" t="n">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.836</v>
+        <v>61.842</v>
       </c>
     </row>
     <row r="44">
@@ -1929,7 +1929,7 @@
         <v>-1.02</v>
       </c>
       <c r="F44" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1963,7 +1963,7 @@
         <v>4.46</v>
       </c>
       <c r="F45" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>5.834</v>
+        <v>5.832</v>
       </c>
     </row>
     <row r="46">
@@ -2005,7 +2005,7 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>6.747</v>
+        <v>6.743</v>
       </c>
     </row>
     <row r="47">
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>4.598</v>
+        <v>4.597</v>
       </c>
     </row>
     <row r="48">
@@ -2133,7 +2133,7 @@
         <v>-0.57</v>
       </c>
       <c r="F50" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>4.343</v>
+        <v>4.341</v>
       </c>
     </row>
     <row r="51">
@@ -2167,7 +2167,7 @@
         <v>10</v>
       </c>
       <c r="F51" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>3.937</v>
+        <v>3.935</v>
       </c>
     </row>
     <row r="52">
@@ -2201,7 +2201,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="F52" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>18.708</v>
+        <v>18.702</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2296,7 @@
         <v>0.55</v>
       </c>
       <c r="G2" t="n">
-        <v>13.32</v>
+        <v>13.316</v>
       </c>
     </row>
     <row r="3">
@@ -2324,10 +2324,10 @@
         <v>58.4</v>
       </c>
       <c r="F3" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="G3" t="n">
-        <v>12.044</v>
+        <v>12.013</v>
       </c>
     </row>
     <row r="4">
@@ -2358,7 +2358,7 @@
         <v>0.98</v>
       </c>
       <c r="G4" t="n">
-        <v>3.991</v>
+        <v>3.989</v>
       </c>
     </row>
     <row r="5">
@@ -2389,7 +2389,7 @@
         <v>0.98</v>
       </c>
       <c r="G5" t="n">
-        <v>20.628</v>
+        <v>20.616</v>
       </c>
     </row>
     <row r="6">
@@ -2420,7 +2420,7 @@
         <v>1.07</v>
       </c>
       <c r="G6" t="n">
-        <v>12.683</v>
+        <v>12.68</v>
       </c>
     </row>
     <row r="7">
@@ -2451,7 +2451,7 @@
         <v>0.34</v>
       </c>
       <c r="G7" t="n">
-        <v>18.708</v>
+        <v>18.702</v>
       </c>
     </row>
     <row r="8">
@@ -2513,7 +2513,7 @@
         <v>0.87</v>
       </c>
       <c r="G9" t="n">
-        <v>5.834</v>
+        <v>5.832</v>
       </c>
     </row>
     <row r="10">
@@ -2544,7 +2544,7 @@
         <v>0.24</v>
       </c>
       <c r="G10" t="n">
-        <v>3.937</v>
+        <v>3.935</v>
       </c>
     </row>
     <row r="11">
@@ -2575,7 +2575,7 @@
         <v>0.85</v>
       </c>
       <c r="G11" t="n">
-        <v>4.737</v>
+        <v>4.734</v>
       </c>
     </row>
     <row r="12">
@@ -2606,7 +2606,7 @@
         <v>1.57</v>
       </c>
       <c r="G12" t="n">
-        <v>14.76</v>
+        <v>14.757</v>
       </c>
     </row>
     <row r="13">
@@ -2637,7 +2637,7 @@
         <v>0.86</v>
       </c>
       <c r="G13" t="n">
-        <v>4.598</v>
+        <v>4.597</v>
       </c>
     </row>
     <row r="14">
@@ -2668,7 +2668,7 @@
         <v>1.02</v>
       </c>
       <c r="G14" t="n">
-        <v>4.343</v>
+        <v>4.341</v>
       </c>
     </row>
     <row r="15">
@@ -2696,10 +2696,10 @@
         <v>33.41</v>
       </c>
       <c r="F15" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="G15" t="n">
-        <v>8.959</v>
+        <v>8.954000000000001</v>
       </c>
     </row>
     <row r="16">
@@ -2727,10 +2727,10 @@
         <v>30.28</v>
       </c>
       <c r="F16" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="G16" t="n">
-        <v>16.369</v>
+        <v>16.291</v>
       </c>
     </row>
     <row r="17">
@@ -2761,7 +2761,7 @@
         <v>0.9</v>
       </c>
       <c r="G17" t="n">
-        <v>6.621</v>
+        <v>6.619</v>
       </c>
     </row>
     <row r="18">
@@ -2789,10 +2789,10 @@
         <v>28.66</v>
       </c>
       <c r="F18" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="G18" t="n">
-        <v>15.044</v>
+        <v>14.991</v>
       </c>
     </row>
     <row r="19">
@@ -2823,7 +2823,7 @@
         <v>1.14</v>
       </c>
       <c r="G19" t="n">
-        <v>1.507</v>
+        <v>1.506</v>
       </c>
     </row>
     <row r="20">
@@ -2851,10 +2851,10 @@
         <v>23.88</v>
       </c>
       <c r="F20" t="n">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="G20" t="n">
-        <v>7.742</v>
+        <v>7.715</v>
       </c>
     </row>
     <row r="21">
@@ -2882,10 +2882,10 @@
         <v>23.48</v>
       </c>
       <c r="F21" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="G21" t="n">
-        <v>6.824</v>
+        <v>6.822</v>
       </c>
     </row>
     <row r="22">
@@ -2916,7 +2916,7 @@
         <v>1.21</v>
       </c>
       <c r="G22" t="n">
-        <v>1.715</v>
+        <v>1.714</v>
       </c>
     </row>
     <row r="23">
@@ -2947,7 +2947,7 @@
         <v>0.87</v>
       </c>
       <c r="G23" t="n">
-        <v>2.442</v>
+        <v>2.438</v>
       </c>
     </row>
     <row r="24">
@@ -2975,10 +2975,10 @@
         <v>16.23</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="G24" t="n">
-        <v>62.023</v>
+        <v>61.842</v>
       </c>
     </row>
     <row r="25">
@@ -3130,10 +3130,10 @@
         <v>9.49</v>
       </c>
       <c r="F29" t="n">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="G29" t="n">
-        <v>7.097</v>
+        <v>7.073</v>
       </c>
     </row>
     <row r="30">
@@ -3164,7 +3164,7 @@
         <v>0.73</v>
       </c>
       <c r="G30" t="n">
-        <v>5.871</v>
+        <v>5.863</v>
       </c>
     </row>
     <row r="31">
@@ -3257,7 +3257,7 @@
         <v>0.66</v>
       </c>
       <c r="G33" t="n">
-        <v>1.948</v>
+        <v>1.947</v>
       </c>
     </row>
     <row r="34">
@@ -3288,7 +3288,7 @@
         <v>1.08</v>
       </c>
       <c r="G34" t="n">
-        <v>1.819</v>
+        <v>1.816</v>
       </c>
     </row>
     <row r="35">
@@ -3474,7 +3474,7 @@
         <v>1.75</v>
       </c>
       <c r="G40" t="n">
-        <v>3.696</v>
+        <v>3.693</v>
       </c>
     </row>
     <row r="41">
@@ -3567,7 +3567,7 @@
         <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>11.833</v>
+        <v>11.821</v>
       </c>
     </row>
     <row r="44">
@@ -3598,7 +3598,7 @@
         <v>0.95</v>
       </c>
       <c r="G44" t="n">
-        <v>1.997</v>
+        <v>1.994</v>
       </c>
     </row>
     <row r="45">
@@ -3626,7 +3626,7 @@
         <v>-2.59</v>
       </c>
       <c r="F45" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="G45" t="n">
         <v>0.646</v>
@@ -3722,7 +3722,7 @@
         <v>1.14</v>
       </c>
       <c r="G48" t="n">
-        <v>1.355</v>
+        <v>1.354</v>
       </c>
     </row>
     <row r="49">
@@ -3750,10 +3750,10 @@
         <v>-4.39</v>
       </c>
       <c r="F49" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="G49" t="n">
-        <v>1.527</v>
+        <v>1.523</v>
       </c>
     </row>
     <row r="50">
@@ -3846,7 +3846,7 @@
         <v>0.91</v>
       </c>
       <c r="G52" t="n">
-        <v>6.747</v>
+        <v>6.743</v>
       </c>
     </row>
   </sheetData>
@@ -3908,7 +3908,7 @@
         <v>0.55</v>
       </c>
       <c r="D2" t="n">
-        <v>13.32</v>
+        <v>13.316</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3924,10 +3924,10 @@
         <v>58.4</v>
       </c>
       <c r="C3" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="D3" t="n">
-        <v>12.044</v>
+        <v>12.013</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3946,7 +3946,7 @@
         <v>0.98</v>
       </c>
       <c r="D4" t="n">
-        <v>20.628</v>
+        <v>20.616</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3965,7 +3965,7 @@
         <v>1.07</v>
       </c>
       <c r="D5" t="n">
-        <v>12.683</v>
+        <v>12.68</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3984,7 +3984,7 @@
         <v>0.34</v>
       </c>
       <c r="D6" t="n">
-        <v>18.708</v>
+        <v>18.702</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -4022,7 +4022,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>12.665</v>
+        <v>12.658</v>
       </c>
       <c r="E8" t="n">
         <v>3</v>
@@ -4041,7 +4041,7 @@
         <v>0.865</v>
       </c>
       <c r="D9" t="n">
-        <v>10.432</v>
+        <v>10.429</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -4057,10 +4057,10 @@
         <v>33.41</v>
       </c>
       <c r="C10" t="n">
-        <v>0.73</v>
+        <v>0.72</v>
       </c>
       <c r="D10" t="n">
-        <v>8.959</v>
+        <v>8.954000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -4079,7 +4079,7 @@
         <v>1.08</v>
       </c>
       <c r="D11" t="n">
-        <v>5.85</v>
+        <v>5.847</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -4095,10 +4095,10 @@
         <v>30.28</v>
       </c>
       <c r="C12" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="D12" t="n">
-        <v>16.369</v>
+        <v>16.291</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -4117,7 +4117,7 @@
         <v>0.9</v>
       </c>
       <c r="D13" t="n">
-        <v>6.621</v>
+        <v>6.619</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -4133,10 +4133,10 @@
         <v>27.485</v>
       </c>
       <c r="C14" t="n">
-        <v>1.235</v>
+        <v>1.23</v>
       </c>
       <c r="D14" t="n">
-        <v>76.783</v>
+        <v>76.599</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -4155,7 +4155,7 @@
         <v>1.21</v>
       </c>
       <c r="D15" t="n">
-        <v>1.715</v>
+        <v>1.714</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -4174,7 +4174,7 @@
         <v>0.87</v>
       </c>
       <c r="D16" t="n">
-        <v>2.442</v>
+        <v>2.438</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -4190,10 +4190,10 @@
         <v>16.685</v>
       </c>
       <c r="C17" t="n">
-        <v>0.97</v>
+        <v>0.9550000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>14.839</v>
+        <v>14.788</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -4209,10 +4209,10 @@
         <v>15.715</v>
       </c>
       <c r="C18" t="n">
-        <v>1.485</v>
+        <v>1.48</v>
       </c>
       <c r="D18" t="n">
-        <v>18.74</v>
+        <v>18.684</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -4266,10 +4266,10 @@
         <v>13.06666666666667</v>
       </c>
       <c r="C21" t="n">
-        <v>1.613333333333333</v>
+        <v>1.61</v>
       </c>
       <c r="D21" t="n">
-        <v>9.417999999999999</v>
+        <v>9.416</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -4307,7 +4307,7 @@
         <v>0.66</v>
       </c>
       <c r="D23" t="n">
-        <v>1.948</v>
+        <v>1.947</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -4326,7 +4326,7 @@
         <v>1.08</v>
       </c>
       <c r="D24" t="n">
-        <v>1.819</v>
+        <v>1.816</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -4402,7 +4402,7 @@
         <v>1.3625</v>
       </c>
       <c r="D28" t="n">
-        <v>26.119</v>
+        <v>26.095</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -4418,10 +4418,10 @@
         <v>-0.7779999999999999</v>
       </c>
       <c r="C29" t="n">
-        <v>1.176</v>
+        <v>1.174</v>
       </c>
       <c r="D29" t="n">
-        <v>5.396</v>
+        <v>5.395</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
@@ -4440,7 +4440,7 @@
         <v>0.9833333333333334</v>
       </c>
       <c r="D30" t="n">
-        <v>3.332</v>
+        <v>3.329</v>
       </c>
       <c r="E30" t="n">
         <v>3</v>
@@ -4456,10 +4456,10 @@
         <v>-4.39</v>
       </c>
       <c r="C31" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="D31" t="n">
-        <v>1.527</v>
+        <v>1.523</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -4604,7 +4604,7 @@
         <v>75</v>
       </c>
       <c r="H2" t="n">
-        <v>207.8127</v>
+        <v>204.9183</v>
       </c>
       <c r="I2" t="n">
         <v>86</v>
@@ -4616,10 +4616,10 @@
         <v>6.3</v>
       </c>
       <c r="L2" t="n">
-        <v>2.6</v>
+        <v>-2.2</v>
       </c>
       <c r="M2" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -4656,7 +4656,7 @@
         <v>77.14</v>
       </c>
       <c r="H3" t="n">
-        <v>56.7694</v>
+        <v>54.3534</v>
       </c>
       <c r="I3" t="n">
         <v>133.9</v>
@@ -4668,10 +4668,10 @@
         <v>3.17</v>
       </c>
       <c r="L3" t="n">
-        <v>166.9</v>
+        <v>158.7</v>
       </c>
       <c r="M3" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -4720,7 +4720,7 @@
         <v>4.82</v>
       </c>
       <c r="L4" t="n">
-        <v>111.5</v>
+        <v>110.5</v>
       </c>
       <c r="M4" t="n">
         <v>0.95</v>
@@ -4760,7 +4760,7 @@
         <v>60.38</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5499</v>
+        <v>2.5096</v>
       </c>
       <c r="I5" t="n">
         <v>82.40000000000001</v>
@@ -4772,7 +4772,7 @@
         <v>5.77</v>
       </c>
       <c r="L5" t="n">
-        <v>-42.9</v>
+        <v>-43.2</v>
       </c>
       <c r="M5" t="n">
         <v>0.89</v>
@@ -4812,7 +4812,7 @@
         <v>61.76</v>
       </c>
       <c r="H6" t="n">
-        <v>7.7613</v>
+        <v>7.5598</v>
       </c>
       <c r="I6" t="n">
         <v>65.5</v>
@@ -4824,7 +4824,7 @@
         <v>6.72</v>
       </c>
       <c r="L6" t="n">
-        <v>-43.7</v>
+        <v>-44.3</v>
       </c>
       <c r="M6" t="n">
         <v>1.54</v>
@@ -4864,7 +4864,7 @@
         <v>38.24</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.2705</v>
+        <v>-1.0243</v>
       </c>
       <c r="I7" t="n">
         <v>23.8</v>
@@ -4876,7 +4876,7 @@
         <v>2.57</v>
       </c>
       <c r="L7" t="n">
-        <v>-26</v>
+        <v>-27.9</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -481,27 +481,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1770</v>
+        <v>51</v>
       </c>
       <c r="E2" t="n">
-        <v>8.59</v>
+        <v>4.51</v>
       </c>
       <c r="F2" t="n">
-        <v>259</v>
+        <v>435</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,33 +509,33 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>16.291</v>
+        <v>2.242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>48.8</v>
+        <v>356</v>
       </c>
       <c r="E3" t="n">
-        <v>9.91</v>
+        <v>3.04</v>
       </c>
       <c r="F3" t="n">
-        <v>253</v>
+        <v>291</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,33 +543,33 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.714</v>
+        <v>4.109</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>53.1</v>
+        <v>37.5</v>
       </c>
       <c r="E4" t="n">
-        <v>9.82</v>
+        <v>-1.06</v>
       </c>
       <c r="F4" t="n">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -577,33 +577,33 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.351</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>37.9</v>
+        <v>58.4</v>
       </c>
       <c r="E5" t="n">
-        <v>7.67</v>
+        <v>9.98</v>
       </c>
       <c r="F5" t="n">
-        <v>185</v>
+        <v>244</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,33 +611,33 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.196</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>19.65</v>
+        <v>76.2</v>
       </c>
       <c r="E6" t="n">
-        <v>2.61</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -645,67 +645,67 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.995</v>
+        <v>18.058</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1635</v>
+        <v>178.5</v>
       </c>
       <c r="E7" t="n">
-        <v>7.57</v>
+        <v>2.29</v>
       </c>
       <c r="F7" t="n">
-        <v>163</v>
+        <v>187</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>1.523</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Macronix (MXIC)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>46.55</v>
+        <v>76.2</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.02</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>160</v>
+        <v>186</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -713,33 +713,33 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.668</v>
+        <v>14.376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>286</v>
+        <v>248</v>
       </c>
       <c r="E9" t="n">
-        <v>5.34</v>
+        <v>9.98</v>
       </c>
       <c r="F9" t="n">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -747,33 +747,33 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>20.616</v>
+        <v>4.391</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>60.6</v>
+        <v>1795</v>
       </c>
       <c r="E10" t="n">
-        <v>3.59</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -781,33 +781,33 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>12.68</v>
+        <v>1.785</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1375</v>
+        <v>115.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1.85</v>
+        <v>2.21</v>
       </c>
       <c r="F11" t="n">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -815,101 +815,101 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.438</v>
+        <v>19.778</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>39.55</v>
+        <v>247</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.38</v>
+        <v>0.61</v>
       </c>
       <c r="F12" t="n">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.646</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>127.5</v>
+        <v>3430</v>
       </c>
       <c r="E13" t="n">
-        <v>3.24</v>
+        <v>-2.56</v>
       </c>
       <c r="F13" t="n">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Yếu</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.506</v>
+        <v>7.036</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>23.8</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>0.21</v>
+        <v>-0.86</v>
       </c>
       <c r="F14" t="n">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -917,67 +917,67 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.33</v>
+        <v>1.416</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>167</v>
+        <v>39.45</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.91</v>
+        <v>-0.25</v>
       </c>
       <c r="F15" t="n">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Yếu</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3.693</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Macronix (MXIC)</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>76.2</v>
+        <v>22.9</v>
       </c>
       <c r="E16" t="n">
-        <v>9.960000000000001</v>
+        <v>1.78</v>
       </c>
       <c r="F16" t="n">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -985,33 +985,33 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>13.316</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>345.5</v>
+        <v>50.8</v>
       </c>
       <c r="E17" t="n">
-        <v>9.859999999999999</v>
+        <v>-0.39</v>
       </c>
       <c r="F17" t="n">
-        <v>112</v>
+        <v>136</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1019,33 +1019,33 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>3.989</v>
+        <v>1.363</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>396</v>
+        <v>1775</v>
       </c>
       <c r="E18" t="n">
-        <v>0.76</v>
+        <v>0.28</v>
       </c>
       <c r="F18" t="n">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,33 +1053,33 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.816</v>
+        <v>16.871</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>252.5</v>
+        <v>2585</v>
       </c>
       <c r="E19" t="n">
-        <v>5.87</v>
+        <v>-1.34</v>
       </c>
       <c r="F19" t="n">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1087,33 +1087,33 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>4.734</v>
+        <v>7.894</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>69.3</v>
+        <v>1400</v>
       </c>
       <c r="E20" t="n">
-        <v>6.94</v>
+        <v>1.82</v>
       </c>
       <c r="F20" t="n">
-        <v>105</v>
+        <v>127</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1121,33 +1121,33 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>14.757</v>
+        <v>2.608</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>234</v>
+        <v>59.5</v>
       </c>
       <c r="E21" t="n">
-        <v>1.52</v>
+        <v>-1.82</v>
       </c>
       <c r="F21" t="n">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1155,67 +1155,67 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6.822</v>
+        <v>12.778</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>2620</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E22" t="n">
-        <v>-3.85</v>
+        <v>-1.56</v>
       </c>
       <c r="F22" t="n">
-        <v>104</v>
+        <v>122</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Yếu</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7.715</v>
+        <v>1.772</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>51</v>
+        <v>263.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.99</v>
+        <v>2.33</v>
       </c>
       <c r="F23" t="n">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1223,101 +1223,101 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.319</v>
+        <v>6.117</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>2075</v>
+        <v>74</v>
       </c>
       <c r="E24" t="n">
-        <v>3.75</v>
+        <v>-1.2</v>
       </c>
       <c r="F24" t="n">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>12.013</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1230</v>
+        <v>19.35</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.38</v>
+        <v>-1.53</v>
       </c>
       <c r="F25" t="n">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>14.991</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>93.2</v>
+        <v>23.7</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.32</v>
+        <v>-0.42</v>
       </c>
       <c r="F26" t="n">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1325,305 +1325,305 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1.354</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>74.90000000000001</v>
+        <v>277</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.06</v>
+        <v>-3.15</v>
       </c>
       <c r="F27" t="n">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.499</v>
+        <v>20.032</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>32.05</v>
+        <v>45.5</v>
       </c>
       <c r="E28" t="n">
-        <v>2.4</v>
+        <v>-2.26</v>
       </c>
       <c r="F28" t="n">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.14</v>
+        <v>1.706</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="E29" t="n">
-        <v>2.5</v>
+        <v>0.84</v>
       </c>
       <c r="F29" t="n">
-        <v>89</v>
+        <v>103</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5.863</v>
+        <v>8.552</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>297.5</v>
+        <v>124.5</v>
       </c>
       <c r="E30" t="n">
-        <v>3.84</v>
+        <v>1.22</v>
       </c>
       <c r="F30" t="n">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8.954000000000001</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>188.5</v>
+        <v>241</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.53</v>
+        <v>2.99</v>
       </c>
       <c r="F31" t="n">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.994</v>
+        <v>7.232</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3520</v>
+        <v>2120</v>
       </c>
       <c r="E32" t="n">
-        <v>2.62</v>
+        <v>2.17</v>
       </c>
       <c r="F32" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>7.073</v>
+        <v>12.121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>22.5</v>
+        <v>187</v>
       </c>
       <c r="E33" t="n">
-        <v>0.67</v>
+        <v>-0.8</v>
       </c>
       <c r="F33" t="n">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.796</v>
+        <v>1.996</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>77.09999999999999</v>
+        <v>124.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.65</v>
+        <v>-2.35</v>
       </c>
       <c r="F34" t="n">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Bùng nổ (Breakout)</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1.746</v>
+        <v>1.508</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>174.5</v>
+        <v>169.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.87</v>
+        <v>1.5</v>
       </c>
       <c r="F35" t="n">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1631,33 +1631,33 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.653</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>312</v>
+        <v>171.5</v>
       </c>
       <c r="E36" t="n">
-        <v>1.46</v>
+        <v>2.08</v>
       </c>
       <c r="F36" t="n">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1665,33 +1665,33 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6.619</v>
+        <v>2.191</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>38.5</v>
+        <v>530</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.77</v>
+        <v>2.51</v>
       </c>
       <c r="F37" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1699,67 +1699,67 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.29</v>
+        <v>2.057</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>224</v>
+        <v>159.5</v>
       </c>
       <c r="E38" t="n">
-        <v>1.13</v>
+        <v>10</v>
       </c>
       <c r="F38" t="n">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>11.821</v>
+        <v>7.076</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>123</v>
+        <v>395</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.99</v>
+        <v>-0.25</v>
       </c>
       <c r="F39" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1767,101 +1767,101 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.506</v>
+        <v>1.852</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>517</v>
+        <v>31.55</v>
       </c>
       <c r="E40" t="n">
-        <v>1.97</v>
+        <v>-1.56</v>
       </c>
       <c r="F40" t="n">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1.947</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>54.3</v>
+        <v>1780</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="F41" t="n">
-        <v>67</v>
+        <v>84</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.836</v>
+        <v>63.518</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>245.5</v>
+        <v>38.3</v>
       </c>
       <c r="E42" t="n">
-        <v>0.82</v>
+        <v>-0.52</v>
       </c>
       <c r="F42" t="n">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1869,67 +1869,67 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.095</v>
+        <v>1.292</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1755</v>
+        <v>134.5</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.85</v>
+        <v>-1.47</v>
       </c>
       <c r="F43" t="n">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>61.842</v>
+        <v>6.773</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>145</v>
+        <v>241</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.02</v>
+        <v>-4.55</v>
       </c>
       <c r="F44" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1937,33 +1937,33 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>6.209</v>
+        <v>4.573</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>257.5</v>
+        <v>1250</v>
       </c>
       <c r="E45" t="n">
-        <v>4.46</v>
+        <v>1.63</v>
       </c>
       <c r="F45" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1971,33 +1971,33 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>5.832</v>
+        <v>15.413</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>136.5</v>
+        <v>225.5</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F46" t="n">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2005,41 +2005,41 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>6.743</v>
+        <v>11.674</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>66.2</v>
+        <v>53.9</v>
       </c>
       <c r="E47" t="n">
-        <v>0.46</v>
+        <v>-0.74</v>
       </c>
       <c r="F47" t="n">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>4.597</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="48">
@@ -2059,13 +2059,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>77.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="E48" t="n">
-        <v>2.66</v>
+        <v>1.17</v>
       </c>
       <c r="F48" t="n">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2073,33 +2073,33 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1.162</v>
+        <v>1.198</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>168</v>
+        <v>66.59999999999999</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.18</v>
+        <v>0.6</v>
       </c>
       <c r="F49" t="n">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2107,7 +2107,7 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>2.088</v>
+        <v>4.647</v>
       </c>
     </row>
     <row r="50">
@@ -2127,13 +2127,13 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>525</v>
+        <v>511</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.57</v>
+        <v>-2.67</v>
       </c>
       <c r="F50" t="n">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2141,33 +2141,33 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>4.341</v>
+        <v>4.223</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>225.5</v>
+        <v>306.5</v>
       </c>
       <c r="E51" t="n">
-        <v>10</v>
+        <v>-1.76</v>
       </c>
       <c r="F51" t="n">
-        <v>37</v>
+        <v>58</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2175,33 +2175,33 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>3.935</v>
+        <v>6.299</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>113</v>
+        <v>287.5</v>
       </c>
       <c r="E52" t="n">
-        <v>9.710000000000001</v>
+        <v>0.17</v>
       </c>
       <c r="F52" t="n">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>18.702</v>
+        <v>5.83</v>
       </c>
     </row>
   </sheetData>
@@ -2290,246 +2290,246 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>94.39</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.55</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>13.316</v>
+        <v>14.376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>58.4</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="F3" t="n">
-        <v>1.34</v>
+        <v>0.89</v>
       </c>
       <c r="G3" t="n">
-        <v>12.013</v>
+        <v>7.076</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>55.98</v>
+        <v>58.21</v>
       </c>
       <c r="F4" t="n">
-        <v>0.98</v>
+        <v>1.46</v>
       </c>
       <c r="G4" t="n">
-        <v>3.989</v>
+        <v>12.121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>51.32</v>
+        <v>53.47</v>
       </c>
       <c r="F5" t="n">
-        <v>0.98</v>
+        <v>1.44</v>
       </c>
       <c r="G5" t="n">
-        <v>20.616</v>
+        <v>18.058</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>51.31</v>
+        <v>50.2</v>
       </c>
       <c r="F6" t="n">
-        <v>1.07</v>
+        <v>0.59</v>
       </c>
       <c r="G6" t="n">
-        <v>12.68</v>
+        <v>19.778</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Foundry - Memory</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>47.71</v>
+        <v>50.06</v>
       </c>
       <c r="F7" t="n">
-        <v>0.34</v>
+        <v>1.11</v>
       </c>
       <c r="G7" t="n">
-        <v>18.702</v>
+        <v>12.778</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>47.66</v>
+        <v>49.29</v>
       </c>
       <c r="F8" t="n">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="G8" t="n">
-        <v>6.209</v>
+        <v>6.117</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>47.14</v>
+        <v>48.95</v>
       </c>
       <c r="F9" t="n">
-        <v>0.87</v>
+        <v>0.55</v>
       </c>
       <c r="G9" t="n">
-        <v>5.832</v>
+        <v>4.391</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2538,385 +2538,385 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>41.38</v>
+        <v>47.72</v>
       </c>
       <c r="F10" t="n">
-        <v>0.24</v>
+        <v>1.51</v>
       </c>
       <c r="G10" t="n">
-        <v>3.935</v>
+        <v>4.109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>41.06</v>
+        <v>46.95</v>
       </c>
       <c r="F11" t="n">
-        <v>0.85</v>
+        <v>1.11</v>
       </c>
       <c r="G11" t="n">
-        <v>4.734</v>
+        <v>20.032</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>38.74</v>
+        <v>39.92</v>
       </c>
       <c r="F12" t="n">
-        <v>1.57</v>
+        <v>0.72</v>
       </c>
       <c r="G12" t="n">
-        <v>14.757</v>
+        <v>4.647</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>37.92</v>
+        <v>31.69</v>
       </c>
       <c r="F13" t="n">
-        <v>0.86</v>
+        <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>4.597</v>
+        <v>7.232</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>34.92</v>
+        <v>31.34</v>
       </c>
       <c r="F14" t="n">
-        <v>1.02</v>
+        <v>0.84</v>
       </c>
       <c r="G14" t="n">
-        <v>4.341</v>
+        <v>4.573</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>33.41</v>
+        <v>29.94</v>
       </c>
       <c r="F15" t="n">
-        <v>0.72</v>
+        <v>1.23</v>
       </c>
       <c r="G15" t="n">
-        <v>8.954000000000001</v>
+        <v>15.413</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>30.28</v>
+        <v>29.11</v>
       </c>
       <c r="F16" t="n">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="G16" t="n">
-        <v>16.291</v>
+        <v>2.242</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.73</v>
+        <v>27.73</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G17" t="n">
-        <v>6.619</v>
+        <v>4.223</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>28.66</v>
+        <v>27.42</v>
       </c>
       <c r="F18" t="n">
-        <v>1.21</v>
+        <v>1.56</v>
       </c>
       <c r="G18" t="n">
-        <v>14.991</v>
+        <v>16.871</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.64</v>
+        <v>25.79</v>
       </c>
       <c r="F19" t="n">
-        <v>1.14</v>
+        <v>1.09</v>
       </c>
       <c r="G19" t="n">
-        <v>1.506</v>
+        <v>7.894</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23.88</v>
+        <v>24.89</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="G20" t="n">
-        <v>7.715</v>
+        <v>1.508</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.48</v>
+        <v>22.45</v>
       </c>
       <c r="F21" t="n">
-        <v>1.07</v>
+        <v>0.85</v>
       </c>
       <c r="G21" t="n">
-        <v>6.822</v>
+        <v>8.552</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22.77</v>
+        <v>22.11</v>
       </c>
       <c r="F22" t="n">
-        <v>1.21</v>
+        <v>0.9</v>
       </c>
       <c r="G22" t="n">
-        <v>1.714</v>
+        <v>6.299</v>
       </c>
     </row>
     <row r="23">
@@ -2941,385 +2941,385 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>18.53</v>
+        <v>19.66</v>
       </c>
       <c r="F23" t="n">
-        <v>0.87</v>
+        <v>1.02</v>
       </c>
       <c r="G23" t="n">
-        <v>2.438</v>
+        <v>2.608</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16.23</v>
+        <v>16.42</v>
       </c>
       <c r="F24" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="G24" t="n">
-        <v>61.842</v>
+        <v>1.198</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>15.37</v>
+        <v>16.34</v>
       </c>
       <c r="F25" t="n">
-        <v>1.28</v>
+        <v>0.88</v>
       </c>
       <c r="G25" t="n">
-        <v>0.196</v>
+        <v>63.518</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>15.07</v>
+        <v>15.28</v>
       </c>
       <c r="F26" t="n">
-        <v>0.89</v>
+        <v>1.82</v>
       </c>
       <c r="G26" t="n">
-        <v>1.162</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>12.22</v>
+        <v>12.95</v>
       </c>
       <c r="F27" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="G27" t="n">
-        <v>0.796</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9.529999999999999</v>
+        <v>12.74</v>
       </c>
       <c r="F28" t="n">
-        <v>2.81</v>
+        <v>1.23</v>
       </c>
       <c r="G28" t="n">
-        <v>1.668</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>9.49</v>
+        <v>11.44</v>
       </c>
       <c r="F29" t="n">
-        <v>0.91</v>
+        <v>1.22</v>
       </c>
       <c r="G29" t="n">
-        <v>7.073</v>
+        <v>0.8169999999999999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>9.130000000000001</v>
+        <v>10.29</v>
       </c>
       <c r="F30" t="n">
-        <v>0.73</v>
+        <v>1.39</v>
       </c>
       <c r="G30" t="n">
-        <v>5.863</v>
+        <v>2.191</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>8.369999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="F31" t="n">
-        <v>2.22</v>
+        <v>0.7</v>
       </c>
       <c r="G31" t="n">
-        <v>0.506</v>
+        <v>2.057</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>7.35</v>
+        <v>9.32</v>
       </c>
       <c r="F32" t="n">
-        <v>1.54</v>
+        <v>0.71</v>
       </c>
       <c r="G32" t="n">
-        <v>2.088</v>
+        <v>5.83</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6.49</v>
+        <v>8.51</v>
       </c>
       <c r="F33" t="n">
-        <v>0.66</v>
+        <v>1.13</v>
       </c>
       <c r="G33" t="n">
-        <v>1.947</v>
+        <v>0.723</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6.02</v>
+        <v>7.06</v>
       </c>
       <c r="F34" t="n">
-        <v>1.08</v>
+        <v>2.8</v>
       </c>
       <c r="G34" t="n">
-        <v>1.816</v>
+        <v>1.706</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>5.76</v>
+        <v>4.91</v>
       </c>
       <c r="F35" t="n">
-        <v>0.96</v>
+        <v>1.06</v>
       </c>
       <c r="G35" t="n">
-        <v>0.653</v>
+        <v>1.852</v>
       </c>
     </row>
     <row r="36">
@@ -3344,44 +3344,44 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5.62</v>
+        <v>3.93</v>
       </c>
       <c r="F36" t="n">
-        <v>1.68</v>
+        <v>1.33</v>
       </c>
       <c r="G36" t="n">
-        <v>1.29</v>
+        <v>1.292</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4.24</v>
+        <v>3.76</v>
       </c>
       <c r="F37" t="n">
-        <v>0.98</v>
+        <v>1.68</v>
       </c>
       <c r="G37" t="n">
-        <v>0.995</v>
+        <v>1.785</v>
       </c>
     </row>
     <row r="38">
@@ -3406,168 +3406,168 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3.59</v>
+        <v>2.92</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="G38" t="n">
-        <v>0.095</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>3.07</v>
+        <v>2.73</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.81</v>
       </c>
       <c r="G39" t="n">
-        <v>1.746</v>
+        <v>3.82</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>2.77</v>
+        <v>1.31</v>
       </c>
       <c r="F40" t="n">
-        <v>1.75</v>
+        <v>0.96</v>
       </c>
       <c r="G40" t="n">
-        <v>3.693</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>2.41</v>
+        <v>1.18</v>
       </c>
       <c r="F41" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="G41" t="n">
-        <v>1.319</v>
+        <v>7.036</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>2.12</v>
+        <v>0.79</v>
       </c>
       <c r="F42" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="G42" t="n">
-        <v>0.351</v>
+        <v>1.363</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-0.67</v>
+        <v>-0.13</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G43" t="n">
-        <v>11.821</v>
+        <v>1.772</v>
       </c>
     </row>
     <row r="44">
@@ -3592,13 +3592,13 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-1.31</v>
+        <v>-1.84</v>
       </c>
       <c r="F44" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>1.994</v>
+        <v>1.996</v>
       </c>
     </row>
     <row r="45">
@@ -3623,199 +3623,199 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-2.59</v>
+        <v>-2.23</v>
       </c>
       <c r="F45" t="n">
-        <v>1.38</v>
+        <v>1.33</v>
       </c>
       <c r="G45" t="n">
-        <v>0.646</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-2.86</v>
+        <v>-2.38</v>
       </c>
       <c r="F46" t="n">
-        <v>1.46</v>
+        <v>0.87</v>
       </c>
       <c r="G46" t="n">
-        <v>0.33</v>
+        <v>11.674</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-3.21</v>
+        <v>-3.46</v>
       </c>
       <c r="F47" t="n">
-        <v>0.98</v>
+        <v>1.34</v>
       </c>
       <c r="G47" t="n">
-        <v>0.836</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-3.92</v>
+        <v>-4.77</v>
       </c>
       <c r="F48" t="n">
-        <v>1.14</v>
+        <v>0.91</v>
       </c>
       <c r="G48" t="n">
-        <v>1.354</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-4.39</v>
+        <v>-5.91</v>
       </c>
       <c r="F49" t="n">
-        <v>1.65</v>
+        <v>1.16</v>
       </c>
       <c r="G49" t="n">
-        <v>1.523</v>
+        <v>1.416</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-6.14</v>
+        <v>-6.24</v>
       </c>
       <c r="F50" t="n">
-        <v>1.02</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G50" t="n">
-        <v>0.499</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-6.15</v>
+        <v>-7.73</v>
       </c>
       <c r="F51" t="n">
-        <v>0.95</v>
+        <v>0.99</v>
       </c>
       <c r="G51" t="n">
-        <v>0.14</v>
+        <v>0.497</v>
       </c>
     </row>
     <row r="52">
@@ -3840,13 +3840,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-6.83</v>
+        <v>-7.88</v>
       </c>
       <c r="F52" t="n">
-        <v>0.91</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>6.743</v>
+        <v>6.773</v>
       </c>
     </row>
   </sheetData>
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>94.39</v>
+        <v>99.73999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>0.55</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>13.316</v>
+        <v>14.376</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3917,17 +3917,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>58.4</v>
+        <v>66.15000000000001</v>
       </c>
       <c r="C3" t="n">
-        <v>1.34</v>
+        <v>0.89</v>
       </c>
       <c r="D3" t="n">
-        <v>12.013</v>
+        <v>7.076</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3936,17 +3936,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>51.32</v>
+        <v>58.21</v>
       </c>
       <c r="C4" t="n">
-        <v>0.98</v>
+        <v>1.46</v>
       </c>
       <c r="D4" t="n">
-        <v>20.616</v>
+        <v>12.121</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3955,17 +3955,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>51.31</v>
+        <v>50.2</v>
       </c>
       <c r="C5" t="n">
-        <v>1.07</v>
+        <v>0.59</v>
       </c>
       <c r="D5" t="n">
-        <v>12.68</v>
+        <v>19.778</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3974,17 +3974,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Foundry - Memory</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>47.71</v>
+        <v>50.06</v>
       </c>
       <c r="C6" t="n">
-        <v>0.34</v>
+        <v>1.11</v>
       </c>
       <c r="D6" t="n">
-        <v>18.702</v>
+        <v>12.778</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -3993,17 +3993,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.66</v>
+        <v>46.95</v>
       </c>
       <c r="C7" t="n">
-        <v>0.97</v>
+        <v>1.11</v>
       </c>
       <c r="D7" t="n">
-        <v>6.209</v>
+        <v>20.032</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -4012,77 +4012,77 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>46.14000000000001</v>
+        <v>44.605</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>12.658</v>
+        <v>10.764</v>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.53</v>
+        <v>42.66999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.865</v>
+        <v>0.9666666666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>10.429</v>
+        <v>13.073</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33.41</v>
+        <v>34.905</v>
       </c>
       <c r="C10" t="n">
-        <v>0.72</v>
+        <v>1.16</v>
       </c>
       <c r="D10" t="n">
-        <v>8.954000000000001</v>
+        <v>81.57599999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>30.78</v>
+        <v>29.11</v>
       </c>
       <c r="C11" t="n">
-        <v>1.08</v>
+        <v>1.72</v>
       </c>
       <c r="D11" t="n">
-        <v>5.847</v>
+        <v>2.242</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>30.28</v>
+        <v>27.42</v>
       </c>
       <c r="C12" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="D12" t="n">
-        <v>16.291</v>
+        <v>16.871</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -4107,55 +4107,55 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>29.73</v>
+        <v>26.31</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9</v>
+        <v>1.015</v>
       </c>
       <c r="D13" t="n">
-        <v>6.619</v>
+        <v>5.731</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.485</v>
+        <v>22.45</v>
       </c>
       <c r="C14" t="n">
-        <v>1.23</v>
+        <v>0.85</v>
       </c>
       <c r="D14" t="n">
-        <v>76.599</v>
+        <v>8.552</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.77</v>
+        <v>22.11</v>
       </c>
       <c r="C15" t="n">
-        <v>1.21</v>
+        <v>0.9</v>
       </c>
       <c r="D15" t="n">
-        <v>1.714</v>
+        <v>6.299</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.53</v>
+        <v>19.66</v>
       </c>
       <c r="C16" t="n">
-        <v>0.87</v>
+        <v>1.02</v>
       </c>
       <c r="D16" t="n">
-        <v>2.438</v>
+        <v>2.608</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -4183,112 +4183,112 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16.685</v>
+        <v>19.08666666666667</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9550000000000001</v>
+        <v>1.416666666666667</v>
       </c>
       <c r="D17" t="n">
-        <v>14.788</v>
+        <v>9.946999999999999</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15.715</v>
+        <v>16.42</v>
       </c>
       <c r="C18" t="n">
-        <v>1.48</v>
+        <v>0.83</v>
       </c>
       <c r="D18" t="n">
-        <v>18.684</v>
+        <v>1.198</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15.37</v>
+        <v>16.335</v>
       </c>
       <c r="C19" t="n">
-        <v>1.28</v>
+        <v>1.52</v>
       </c>
       <c r="D19" t="n">
-        <v>0.196</v>
+        <v>19.233</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>15.07</v>
+        <v>13.485</v>
       </c>
       <c r="C20" t="n">
-        <v>0.89</v>
+        <v>1.05</v>
       </c>
       <c r="D20" t="n">
-        <v>1.162</v>
+        <v>14.93</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13.06666666666667</v>
+        <v>12.95</v>
       </c>
       <c r="C21" t="n">
-        <v>1.61</v>
+        <v>1.24</v>
       </c>
       <c r="D21" t="n">
-        <v>9.416</v>
+        <v>0.218</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.92</v>
+        <v>10.625</v>
       </c>
       <c r="C22" t="n">
-        <v>1.465</v>
+        <v>1.18</v>
       </c>
       <c r="D22" t="n">
-        <v>2.086</v>
+        <v>1.146</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
@@ -4301,13 +4301,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>6.49</v>
+        <v>9.5</v>
       </c>
       <c r="C23" t="n">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="D23" t="n">
-        <v>1.947</v>
+        <v>2.057</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -4316,36 +4316,36 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6.02</v>
+        <v>7.685</v>
       </c>
       <c r="C24" t="n">
-        <v>1.08</v>
+        <v>1.275</v>
       </c>
       <c r="D24" t="n">
-        <v>1.816</v>
+        <v>2.109</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.24</v>
+        <v>4.91</v>
       </c>
       <c r="C25" t="n">
-        <v>0.98</v>
+        <v>1.06</v>
       </c>
       <c r="D25" t="n">
-        <v>0.995</v>
+        <v>1.852</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -4354,20 +4354,20 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.94</v>
+        <v>3.76</v>
       </c>
       <c r="C26" t="n">
-        <v>0.955</v>
+        <v>1.68</v>
       </c>
       <c r="D26" t="n">
-        <v>1.004</v>
+        <v>1.785</v>
       </c>
       <c r="E26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>3.59</v>
+        <v>2.92</v>
       </c>
       <c r="C27" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="D27" t="n">
-        <v>0.095</v>
+        <v>0.101</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -4396,13 +4396,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.79</v>
+        <v>1.53</v>
       </c>
       <c r="C28" t="n">
-        <v>1.3625</v>
+        <v>1.2975</v>
       </c>
       <c r="D28" t="n">
-        <v>26.095</v>
+        <v>25.983</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -4411,58 +4411,58 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.7779999999999999</v>
+        <v>1.31</v>
       </c>
       <c r="C29" t="n">
-        <v>1.174</v>
+        <v>0.96</v>
       </c>
       <c r="D29" t="n">
-        <v>5.395</v>
+        <v>0.975</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-3.553333333333333</v>
+        <v>-2.188</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9833333333333334</v>
+        <v>1.166</v>
       </c>
       <c r="D30" t="n">
-        <v>3.329</v>
+        <v>5.563</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-4.39</v>
+        <v>-4.78</v>
       </c>
       <c r="C31" t="n">
-        <v>1.65</v>
+        <v>0.9466666666666667</v>
       </c>
       <c r="D31" t="n">
-        <v>1.523</v>
+        <v>3.308</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
@@ -4472,13 +4472,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.15</v>
+        <v>-6.24</v>
       </c>
       <c r="C32" t="n">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D32" t="n">
-        <v>0.14</v>
+        <v>0.137</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -4592,34 +4592,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2075</v>
+        <v>2120</v>
       </c>
       <c r="E2" t="n">
-        <v>3.75</v>
+        <v>2.17</v>
       </c>
       <c r="F2" t="n">
-        <v>58.4</v>
+        <v>58.21</v>
       </c>
       <c r="G2" t="n">
-        <v>75</v>
+        <v>74.59</v>
       </c>
       <c r="H2" t="n">
-        <v>204.9183</v>
+        <v>208.4439</v>
       </c>
       <c r="I2" t="n">
-        <v>86</v>
+        <v>87.3</v>
       </c>
       <c r="J2" t="n">
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>6.3</v>
+        <v>6.13</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.2</v>
+        <v>0.3</v>
       </c>
       <c r="M2" t="n">
-        <v>1.34</v>
+        <v>1.46</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -4644,38 +4644,38 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1770</v>
+        <v>1775</v>
       </c>
       <c r="E3" t="n">
-        <v>8.59</v>
+        <v>0.28</v>
       </c>
       <c r="F3" t="n">
-        <v>30.28</v>
+        <v>27.42</v>
       </c>
       <c r="G3" t="n">
         <v>77.14</v>
       </c>
       <c r="H3" t="n">
-        <v>54.3534</v>
+        <v>69.22280000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>133.9</v>
+        <v>115.2</v>
       </c>
       <c r="J3" t="n">
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>3.17</v>
+        <v>3.32</v>
       </c>
       <c r="L3" t="n">
-        <v>158.7</v>
+        <v>30</v>
       </c>
       <c r="M3" t="n">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>🚀 MUA ĐUỔI</t>
+          <t>👀 THEO DÕI</t>
         </is>
       </c>
     </row>
@@ -4696,34 +4696,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>53.1</v>
+        <v>58.4</v>
       </c>
       <c r="E4" t="n">
-        <v>9.82</v>
+        <v>9.98</v>
       </c>
       <c r="F4" t="n">
-        <v>2.12</v>
+        <v>12.74</v>
       </c>
       <c r="G4" t="n">
-        <v>55.42</v>
+        <v>59.6</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0427</v>
+        <v>0.632</v>
       </c>
       <c r="I4" t="n">
-        <v>76.7</v>
+        <v>127.5</v>
       </c>
       <c r="J4" t="n">
-        <v>82.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>4.82</v>
+        <v>4.47</v>
       </c>
       <c r="L4" t="n">
-        <v>110.5</v>
+        <v>144.4</v>
       </c>
       <c r="M4" t="n">
-        <v>0.95</v>
+        <v>1.23</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -4748,34 +4748,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>77.09999999999999</v>
+        <v>78</v>
       </c>
       <c r="E5" t="n">
-        <v>2.66</v>
+        <v>1.17</v>
       </c>
       <c r="F5" t="n">
-        <v>15.07</v>
+        <v>16.42</v>
       </c>
       <c r="G5" t="n">
-        <v>60.38</v>
+        <v>64.54000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2.5096</v>
+        <v>2.6452</v>
       </c>
       <c r="I5" t="n">
-        <v>82.40000000000001</v>
+        <v>83.5</v>
       </c>
       <c r="J5" t="n">
-        <v>92.90000000000001</v>
+        <v>99.3</v>
       </c>
       <c r="K5" t="n">
-        <v>5.77</v>
+        <v>5.82</v>
       </c>
       <c r="L5" t="n">
-        <v>-43.2</v>
+        <v>-32.7</v>
       </c>
       <c r="M5" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -4800,34 +4800,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>168</v>
+        <v>171.5</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.18</v>
+        <v>2.08</v>
       </c>
       <c r="F6" t="n">
-        <v>7.35</v>
+        <v>10.29</v>
       </c>
       <c r="G6" t="n">
-        <v>61.76</v>
+        <v>60.61</v>
       </c>
       <c r="H6" t="n">
-        <v>7.5598</v>
+        <v>7.3075</v>
       </c>
       <c r="I6" t="n">
-        <v>65.5</v>
+        <v>71.3</v>
       </c>
       <c r="J6" t="n">
-        <v>55.4</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="K6" t="n">
-        <v>6.72</v>
+        <v>6.52</v>
       </c>
       <c r="L6" t="n">
-        <v>-44.3</v>
+        <v>-4.3</v>
       </c>
       <c r="M6" t="n">
-        <v>1.54</v>
+        <v>1.39</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -4852,34 +4852,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>224</v>
+        <v>225.5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.13</v>
+        <v>0.67</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.67</v>
+        <v>-2.38</v>
       </c>
       <c r="G7" t="n">
-        <v>38.24</v>
+        <v>37</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.0243</v>
+        <v>-1.0052</v>
       </c>
       <c r="I7" t="n">
-        <v>23.8</v>
+        <v>32.5</v>
       </c>
       <c r="J7" t="n">
-        <v>25.6</v>
+        <v>41.9</v>
       </c>
       <c r="K7" t="n">
-        <v>2.57</v>
+        <v>2.44</v>
       </c>
       <c r="L7" t="n">
-        <v>-27.9</v>
+        <v>-29.3</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -501,7 +501,7 @@
         <v>4.51</v>
       </c>
       <c r="F2" t="n">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.242</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>3.04</v>
       </c>
       <c r="F3" t="n">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4.109</v>
+        <v>4.103</v>
       </c>
     </row>
     <row r="4">
@@ -603,7 +603,7 @@
         <v>9.98</v>
       </c>
       <c r="F5" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -637,7 +637,7 @@
         <v>9.960000000000001</v>
       </c>
       <c r="F6" t="n">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -645,33 +645,33 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>18.058</v>
+        <v>18.048</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Macronix (MXIC)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>178.5</v>
+        <v>76.2</v>
       </c>
       <c r="E7" t="n">
-        <v>2.29</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -679,33 +679,33 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.723</v>
+        <v>14.372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Macronix (MXIC)</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>76.2</v>
+        <v>178.5</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2.29</v>
       </c>
       <c r="F8" t="n">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>14.376</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="9">
@@ -739,7 +739,7 @@
         <v>9.98</v>
       </c>
       <c r="F9" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -747,33 +747,33 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4.391</v>
+        <v>4.388</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1795</v>
+        <v>115.5</v>
       </c>
       <c r="E10" t="n">
-        <v>9.789999999999999</v>
+        <v>2.21</v>
       </c>
       <c r="F10" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -781,33 +781,33 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1.785</v>
+        <v>19.768</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>115.5</v>
+        <v>1795</v>
       </c>
       <c r="E11" t="n">
-        <v>2.21</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>19.778</v>
+        <v>1.775</v>
       </c>
     </row>
     <row r="12">
@@ -841,7 +841,7 @@
         <v>0.61</v>
       </c>
       <c r="F12" t="n">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -855,27 +855,27 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3430</v>
+        <v>39.45</v>
       </c>
       <c r="E13" t="n">
-        <v>-2.56</v>
+        <v>-0.25</v>
       </c>
       <c r="F13" t="n">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -883,7 +883,7 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7.036</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="14">
@@ -909,7 +909,7 @@
         <v>-0.86</v>
       </c>
       <c r="F14" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -917,33 +917,33 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.416</v>
+        <v>1.415</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>39.45</v>
+        <v>3430</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.25</v>
+        <v>-2.56</v>
       </c>
       <c r="F15" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -951,7 +951,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.671</v>
+        <v>6.994</v>
       </c>
     </row>
     <row r="16">
@@ -1011,7 +1011,7 @@
         <v>-0.39</v>
       </c>
       <c r="F17" t="n">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>0.28</v>
       </c>
       <c r="F18" t="n">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,33 +1053,33 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>16.871</v>
+        <v>16.813</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>2585</v>
+        <v>1400</v>
       </c>
       <c r="E19" t="n">
-        <v>-1.34</v>
+        <v>1.82</v>
       </c>
       <c r="F19" t="n">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1087,33 +1087,33 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7.894</v>
+        <v>2.603</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1400</v>
+        <v>59.5</v>
       </c>
       <c r="E20" t="n">
-        <v>1.82</v>
+        <v>-1.82</v>
       </c>
       <c r="F20" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1121,33 +1121,33 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2.608</v>
+        <v>12.774</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>59.5</v>
+        <v>2585</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.82</v>
+        <v>-1.34</v>
       </c>
       <c r="F21" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>12.778</v>
+        <v>7.872</v>
       </c>
     </row>
     <row r="22">
@@ -1181,7 +1181,7 @@
         <v>-1.56</v>
       </c>
       <c r="F22" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1215,7 +1215,7 @@
         <v>2.33</v>
       </c>
       <c r="F23" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1223,7 +1223,7 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6.117</v>
+        <v>6.113</v>
       </c>
     </row>
     <row r="24">
@@ -1249,7 +1249,7 @@
         <v>-1.2</v>
       </c>
       <c r="F24" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.497</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="25">
@@ -1283,7 +1283,7 @@
         <v>-1.53</v>
       </c>
       <c r="F25" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1317,7 +1317,7 @@
         <v>-0.42</v>
       </c>
       <c r="F26" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1351,7 +1351,7 @@
         <v>-3.15</v>
       </c>
       <c r="F27" t="n">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1359,7 +1359,7 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>20.032</v>
+        <v>20.015</v>
       </c>
     </row>
     <row r="28">
@@ -1399,24 +1399,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>300</v>
+        <v>124.5</v>
       </c>
       <c r="E29" t="n">
-        <v>0.84</v>
+        <v>1.22</v>
       </c>
       <c r="F29" t="n">
         <v>103</v>
@@ -1427,33 +1427,33 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>8.552</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>124.5</v>
+        <v>300</v>
       </c>
       <c r="E30" t="n">
-        <v>1.22</v>
+        <v>0.84</v>
       </c>
       <c r="F30" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1461,7 +1461,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.524</v>
+        <v>8.545</v>
       </c>
     </row>
     <row r="31">
@@ -1487,7 +1487,7 @@
         <v>2.99</v>
       </c>
       <c r="F31" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1495,41 +1495,41 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>7.232</v>
+        <v>7.228</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2120</v>
+        <v>124.5</v>
       </c>
       <c r="E32" t="n">
-        <v>2.17</v>
+        <v>-2.35</v>
       </c>
       <c r="F32" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>12.121</v>
+        <v>1.508</v>
       </c>
     </row>
     <row r="33">
@@ -1555,7 +1555,7 @@
         <v>-0.8</v>
       </c>
       <c r="F33" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1563,41 +1563,41 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1.996</v>
+        <v>1.995</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>124.5</v>
+        <v>2120</v>
       </c>
       <c r="E34" t="n">
-        <v>-2.35</v>
+        <v>2.17</v>
       </c>
       <c r="F34" t="n">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1.508</v>
+        <v>12.101</v>
       </c>
     </row>
     <row r="35">
@@ -1623,7 +1623,7 @@
         <v>1.5</v>
       </c>
       <c r="F35" t="n">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1631,7 +1631,7 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3.82</v>
+        <v>3.818</v>
       </c>
     </row>
     <row r="36">
@@ -1657,7 +1657,7 @@
         <v>2.08</v>
       </c>
       <c r="F36" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1665,33 +1665,33 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2.191</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>530</v>
+        <v>159.5</v>
       </c>
       <c r="E37" t="n">
-        <v>2.51</v>
+        <v>10</v>
       </c>
       <c r="F37" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1699,33 +1699,33 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2.057</v>
+        <v>7.073</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>159.5</v>
+        <v>530</v>
       </c>
       <c r="E38" t="n">
-        <v>10</v>
+        <v>2.51</v>
       </c>
       <c r="F38" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1733,101 +1733,101 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>7.076</v>
+        <v>2.054</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>395</v>
+        <v>31.55</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.25</v>
+        <v>-1.56</v>
       </c>
       <c r="F39" t="n">
         <v>85</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1.852</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>31.55</v>
+        <v>395</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.56</v>
+        <v>-0.25</v>
       </c>
       <c r="F40" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.137</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1780</v>
+        <v>38.3</v>
       </c>
       <c r="E41" t="n">
-        <v>1.42</v>
+        <v>-0.52</v>
       </c>
       <c r="F41" t="n">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1835,33 +1835,33 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>63.518</v>
+        <v>1.292</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>38.3</v>
+        <v>1780</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.52</v>
+        <v>1.42</v>
       </c>
       <c r="F42" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1.292</v>
+        <v>63.422</v>
       </c>
     </row>
     <row r="43">
@@ -1895,7 +1895,7 @@
         <v>-1.47</v>
       </c>
       <c r="F43" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>6.773</v>
+        <v>6.768</v>
       </c>
     </row>
     <row r="44">
@@ -1929,7 +1929,7 @@
         <v>-4.55</v>
       </c>
       <c r="F44" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1937,7 +1937,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>4.573</v>
+        <v>4.571</v>
       </c>
     </row>
     <row r="45">
@@ -1963,7 +1963,7 @@
         <v>1.63</v>
       </c>
       <c r="F45" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>15.413</v>
+        <v>15.393</v>
       </c>
     </row>
     <row r="46">
@@ -1997,7 +1997,7 @@
         <v>0.67</v>
       </c>
       <c r="F46" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2005,75 +2005,75 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>11.674</v>
+        <v>11.667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>53.9</v>
+        <v>78</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.74</v>
+        <v>1.17</v>
       </c>
       <c r="F47" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Tích lũy (Up)</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.8149999999999999</v>
+        <v>1.198</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>78</v>
+        <v>53.9</v>
       </c>
       <c r="E48" t="n">
-        <v>1.17</v>
+        <v>-0.74</v>
       </c>
       <c r="F48" t="n">
         <v>67</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Yếu</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1.198</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -2133,7 +2133,7 @@
         <v>-2.67</v>
       </c>
       <c r="F50" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>4.223</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="51">
@@ -2167,7 +2167,7 @@
         <v>-1.76</v>
       </c>
       <c r="F51" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>6.299</v>
+        <v>6.296</v>
       </c>
     </row>
     <row r="52">
@@ -2201,7 +2201,7 @@
         <v>0.17</v>
       </c>
       <c r="F52" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>5.83</v>
+        <v>5.826</v>
       </c>
     </row>
   </sheetData>
@@ -2296,7 +2296,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="G2" t="n">
-        <v>14.376</v>
+        <v>14.372</v>
       </c>
     </row>
     <row r="3">
@@ -2327,7 +2327,7 @@
         <v>0.89</v>
       </c>
       <c r="G3" t="n">
-        <v>7.076</v>
+        <v>7.073</v>
       </c>
     </row>
     <row r="4">
@@ -2358,7 +2358,7 @@
         <v>1.46</v>
       </c>
       <c r="G4" t="n">
-        <v>12.121</v>
+        <v>12.101</v>
       </c>
     </row>
     <row r="5">
@@ -2386,10 +2386,10 @@
         <v>53.47</v>
       </c>
       <c r="F5" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="G5" t="n">
-        <v>18.058</v>
+        <v>18.048</v>
       </c>
     </row>
     <row r="6">
@@ -2420,7 +2420,7 @@
         <v>0.59</v>
       </c>
       <c r="G6" t="n">
-        <v>19.778</v>
+        <v>19.768</v>
       </c>
     </row>
     <row r="7">
@@ -2451,7 +2451,7 @@
         <v>1.11</v>
       </c>
       <c r="G7" t="n">
-        <v>12.778</v>
+        <v>12.774</v>
       </c>
     </row>
     <row r="8">
@@ -2482,7 +2482,7 @@
         <v>0.92</v>
       </c>
       <c r="G8" t="n">
-        <v>6.117</v>
+        <v>6.113</v>
       </c>
     </row>
     <row r="9">
@@ -2510,10 +2510,10 @@
         <v>48.95</v>
       </c>
       <c r="F9" t="n">
-        <v>0.55</v>
+        <v>0.54</v>
       </c>
       <c r="G9" t="n">
-        <v>4.391</v>
+        <v>4.388</v>
       </c>
     </row>
     <row r="10">
@@ -2544,7 +2544,7 @@
         <v>1.51</v>
       </c>
       <c r="G10" t="n">
-        <v>4.109</v>
+        <v>4.103</v>
       </c>
     </row>
     <row r="11">
@@ -2575,7 +2575,7 @@
         <v>1.11</v>
       </c>
       <c r="G11" t="n">
-        <v>20.032</v>
+        <v>20.015</v>
       </c>
     </row>
     <row r="12">
@@ -2637,7 +2637,7 @@
         <v>1.04</v>
       </c>
       <c r="G13" t="n">
-        <v>7.232</v>
+        <v>7.228</v>
       </c>
     </row>
     <row r="14">
@@ -2668,7 +2668,7 @@
         <v>0.84</v>
       </c>
       <c r="G14" t="n">
-        <v>4.573</v>
+        <v>4.571</v>
       </c>
     </row>
     <row r="15">
@@ -2696,10 +2696,10 @@
         <v>29.94</v>
       </c>
       <c r="F15" t="n">
-        <v>1.23</v>
+        <v>1.22</v>
       </c>
       <c r="G15" t="n">
-        <v>15.413</v>
+        <v>15.393</v>
       </c>
     </row>
     <row r="16">
@@ -2730,7 +2730,7 @@
         <v>1.72</v>
       </c>
       <c r="G16" t="n">
-        <v>2.242</v>
+        <v>2.24</v>
       </c>
     </row>
     <row r="17">
@@ -2761,7 +2761,7 @@
         <v>0.91</v>
       </c>
       <c r="G17" t="n">
-        <v>4.223</v>
+        <v>4.22</v>
       </c>
     </row>
     <row r="18">
@@ -2789,10 +2789,10 @@
         <v>27.42</v>
       </c>
       <c r="F18" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="G18" t="n">
-        <v>16.871</v>
+        <v>16.813</v>
       </c>
     </row>
     <row r="19">
@@ -2820,10 +2820,10 @@
         <v>25.79</v>
       </c>
       <c r="F19" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="G19" t="n">
-        <v>7.894</v>
+        <v>7.872</v>
       </c>
     </row>
     <row r="20">
@@ -2851,7 +2851,7 @@
         <v>24.89</v>
       </c>
       <c r="F20" t="n">
-        <v>1.12</v>
+        <v>1.11</v>
       </c>
       <c r="G20" t="n">
         <v>1.508</v>
@@ -2885,7 +2885,7 @@
         <v>0.85</v>
       </c>
       <c r="G21" t="n">
-        <v>8.552</v>
+        <v>8.545</v>
       </c>
     </row>
     <row r="22">
@@ -2916,7 +2916,7 @@
         <v>0.9</v>
       </c>
       <c r="G22" t="n">
-        <v>6.299</v>
+        <v>6.296</v>
       </c>
     </row>
     <row r="23">
@@ -2944,10 +2944,10 @@
         <v>19.66</v>
       </c>
       <c r="F23" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="G23" t="n">
-        <v>2.608</v>
+        <v>2.603</v>
       </c>
     </row>
     <row r="24">
@@ -3009,7 +3009,7 @@
         <v>0.88</v>
       </c>
       <c r="G25" t="n">
-        <v>63.518</v>
+        <v>63.422</v>
       </c>
     </row>
     <row r="26">
@@ -3037,7 +3037,7 @@
         <v>15.28</v>
       </c>
       <c r="F26" t="n">
-        <v>1.82</v>
+        <v>1.81</v>
       </c>
       <c r="G26" t="n">
         <v>0.524</v>
@@ -3164,7 +3164,7 @@
         <v>1.39</v>
       </c>
       <c r="G30" t="n">
-        <v>2.191</v>
+        <v>2.19</v>
       </c>
     </row>
     <row r="31">
@@ -3195,7 +3195,7 @@
         <v>0.7</v>
       </c>
       <c r="G31" t="n">
-        <v>2.057</v>
+        <v>2.054</v>
       </c>
     </row>
     <row r="32">
@@ -3226,7 +3226,7 @@
         <v>0.71</v>
       </c>
       <c r="G32" t="n">
-        <v>5.83</v>
+        <v>5.826</v>
       </c>
     </row>
     <row r="33">
@@ -3257,7 +3257,7 @@
         <v>1.13</v>
       </c>
       <c r="G33" t="n">
-        <v>0.723</v>
+        <v>0.722</v>
       </c>
     </row>
     <row r="34">
@@ -3316,10 +3316,10 @@
         <v>4.91</v>
       </c>
       <c r="F35" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="G35" t="n">
-        <v>1.852</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="36">
@@ -3378,10 +3378,10 @@
         <v>3.76</v>
       </c>
       <c r="F37" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="G37" t="n">
-        <v>1.785</v>
+        <v>1.775</v>
       </c>
     </row>
     <row r="38">
@@ -3409,7 +3409,7 @@
         <v>2.92</v>
       </c>
       <c r="F38" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="G38" t="n">
         <v>0.101</v>
@@ -3443,7 +3443,7 @@
         <v>1.81</v>
       </c>
       <c r="G39" t="n">
-        <v>3.82</v>
+        <v>3.818</v>
       </c>
     </row>
     <row r="40">
@@ -3502,10 +3502,10 @@
         <v>1.18</v>
       </c>
       <c r="F41" t="n">
-        <v>1.01</v>
+        <v>0.99</v>
       </c>
       <c r="G41" t="n">
-        <v>7.036</v>
+        <v>6.994</v>
       </c>
     </row>
     <row r="42">
@@ -3598,7 +3598,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>1.996</v>
+        <v>1.995</v>
       </c>
     </row>
     <row r="45">
@@ -3660,7 +3660,7 @@
         <v>0.87</v>
       </c>
       <c r="G46" t="n">
-        <v>11.674</v>
+        <v>11.667</v>
       </c>
     </row>
     <row r="47">
@@ -3722,7 +3722,7 @@
         <v>0.91</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.8139999999999999</v>
       </c>
     </row>
     <row r="49">
@@ -3753,7 +3753,7 @@
         <v>1.16</v>
       </c>
       <c r="G49" t="n">
-        <v>1.416</v>
+        <v>1.415</v>
       </c>
     </row>
     <row r="50">
@@ -3781,7 +3781,7 @@
         <v>-6.24</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="G50" t="n">
         <v>0.137</v>
@@ -3815,7 +3815,7 @@
         <v>0.99</v>
       </c>
       <c r="G51" t="n">
-        <v>0.497</v>
+        <v>0.496</v>
       </c>
     </row>
     <row r="52">
@@ -3846,7 +3846,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>6.773</v>
+        <v>6.768</v>
       </c>
     </row>
   </sheetData>
@@ -3908,7 +3908,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="D2" t="n">
-        <v>14.376</v>
+        <v>14.372</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>0.89</v>
       </c>
       <c r="D3" t="n">
-        <v>7.076</v>
+        <v>7.073</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3946,7 +3946,7 @@
         <v>1.46</v>
       </c>
       <c r="D4" t="n">
-        <v>12.121</v>
+        <v>12.101</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3965,7 +3965,7 @@
         <v>0.59</v>
       </c>
       <c r="D5" t="n">
-        <v>19.778</v>
+        <v>19.768</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3984,7 +3984,7 @@
         <v>1.11</v>
       </c>
       <c r="D6" t="n">
-        <v>12.778</v>
+        <v>12.774</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -4003,7 +4003,7 @@
         <v>1.11</v>
       </c>
       <c r="D7" t="n">
-        <v>20.032</v>
+        <v>20.015</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -4022,7 +4022,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>10.764</v>
+        <v>10.76</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -4038,10 +4038,10 @@
         <v>42.66999999999999</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9666666666666667</v>
+        <v>0.9633333333333334</v>
       </c>
       <c r="D9" t="n">
-        <v>13.073</v>
+        <v>13.062</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -4057,10 +4057,10 @@
         <v>34.905</v>
       </c>
       <c r="C10" t="n">
-        <v>1.16</v>
+        <v>1.155</v>
       </c>
       <c r="D10" t="n">
-        <v>81.57599999999999</v>
+        <v>81.47</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -4079,7 +4079,7 @@
         <v>1.72</v>
       </c>
       <c r="D11" t="n">
-        <v>2.242</v>
+        <v>2.24</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -4095,10 +4095,10 @@
         <v>27.42</v>
       </c>
       <c r="C12" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="D12" t="n">
-        <v>16.871</v>
+        <v>16.813</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -4114,10 +4114,10 @@
         <v>26.31</v>
       </c>
       <c r="C13" t="n">
-        <v>1.015</v>
+        <v>1.01</v>
       </c>
       <c r="D13" t="n">
-        <v>5.731</v>
+        <v>5.728</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -4136,7 +4136,7 @@
         <v>0.85</v>
       </c>
       <c r="D14" t="n">
-        <v>8.552</v>
+        <v>8.545</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -4155,7 +4155,7 @@
         <v>0.9</v>
       </c>
       <c r="D15" t="n">
-        <v>6.299</v>
+        <v>6.296</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -4171,10 +4171,10 @@
         <v>19.66</v>
       </c>
       <c r="C16" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="D16" t="n">
-        <v>2.608</v>
+        <v>2.603</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -4190,10 +4190,10 @@
         <v>19.08666666666667</v>
       </c>
       <c r="C17" t="n">
-        <v>1.416666666666667</v>
+        <v>1.413333333333333</v>
       </c>
       <c r="D17" t="n">
-        <v>9.946999999999999</v>
+        <v>9.942</v>
       </c>
       <c r="E17" t="n">
         <v>3</v>
@@ -4228,10 +4228,10 @@
         <v>16.335</v>
       </c>
       <c r="C19" t="n">
-        <v>1.52</v>
+        <v>1.515</v>
       </c>
       <c r="D19" t="n">
-        <v>19.233</v>
+        <v>19.211</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -4247,10 +4247,10 @@
         <v>13.485</v>
       </c>
       <c r="C20" t="n">
-        <v>1.05</v>
+        <v>1.035</v>
       </c>
       <c r="D20" t="n">
-        <v>14.93</v>
+        <v>14.866</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -4288,7 +4288,7 @@
         <v>1.18</v>
       </c>
       <c r="D22" t="n">
-        <v>1.146</v>
+        <v>1.145</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
@@ -4307,7 +4307,7 @@
         <v>0.7</v>
       </c>
       <c r="D23" t="n">
-        <v>2.057</v>
+        <v>2.054</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -4342,10 +4342,10 @@
         <v>4.91</v>
       </c>
       <c r="C25" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="D25" t="n">
-        <v>1.852</v>
+        <v>1.85</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -4361,10 +4361,10 @@
         <v>3.76</v>
       </c>
       <c r="C26" t="n">
-        <v>1.68</v>
+        <v>1.67</v>
       </c>
       <c r="D26" t="n">
-        <v>1.785</v>
+        <v>1.775</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4380,7 +4380,7 @@
         <v>2.92</v>
       </c>
       <c r="C27" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="D27" t="n">
         <v>0.101</v>
@@ -4402,7 +4402,7 @@
         <v>1.2975</v>
       </c>
       <c r="D28" t="n">
-        <v>25.983</v>
+        <v>25.967</v>
       </c>
       <c r="E28" t="n">
         <v>4</v>
@@ -4440,7 +4440,7 @@
         <v>1.166</v>
       </c>
       <c r="D30" t="n">
-        <v>5.563</v>
+        <v>5.562</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -4459,7 +4459,7 @@
         <v>0.9466666666666667</v>
       </c>
       <c r="D31" t="n">
-        <v>3.308</v>
+        <v>3.305</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
@@ -4475,7 +4475,7 @@
         <v>-6.24</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="D32" t="n">
         <v>0.137</v>
@@ -4604,7 +4604,7 @@
         <v>74.59</v>
       </c>
       <c r="H2" t="n">
-        <v>208.4439</v>
+        <v>209.1119</v>
       </c>
       <c r="I2" t="n">
         <v>87.3</v>
@@ -4616,7 +4616,7 @@
         <v>6.13</v>
       </c>
       <c r="L2" t="n">
-        <v>0.3</v>
+        <v>-2.9</v>
       </c>
       <c r="M2" t="n">
         <v>1.46</v>
@@ -4656,7 +4656,7 @@
         <v>77.14</v>
       </c>
       <c r="H3" t="n">
-        <v>69.22280000000001</v>
+        <v>67.0265</v>
       </c>
       <c r="I3" t="n">
         <v>115.2</v>
@@ -4668,10 +4668,10 @@
         <v>3.32</v>
       </c>
       <c r="L3" t="n">
-        <v>30</v>
+        <v>23.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.56</v>
+        <v>1.55</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -4708,7 +4708,7 @@
         <v>59.6</v>
       </c>
       <c r="H4" t="n">
-        <v>0.632</v>
+        <v>0.6723</v>
       </c>
       <c r="I4" t="n">
         <v>127.5</v>
@@ -4720,7 +4720,7 @@
         <v>4.47</v>
       </c>
       <c r="L4" t="n">
-        <v>144.4</v>
+        <v>143.4</v>
       </c>
       <c r="M4" t="n">
         <v>1.23</v>
@@ -4760,7 +4760,7 @@
         <v>64.54000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2.6452</v>
+        <v>2.7571</v>
       </c>
       <c r="I5" t="n">
         <v>83.5</v>
@@ -4772,7 +4772,7 @@
         <v>5.82</v>
       </c>
       <c r="L5" t="n">
-        <v>-32.7</v>
+        <v>-33.1</v>
       </c>
       <c r="M5" t="n">
         <v>0.83</v>
@@ -4812,7 +4812,7 @@
         <v>60.61</v>
       </c>
       <c r="H6" t="n">
-        <v>7.3075</v>
+        <v>7.4642</v>
       </c>
       <c r="I6" t="n">
         <v>71.3</v>
@@ -4824,7 +4824,7 @@
         <v>6.52</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.3</v>
+        <v>-4.9</v>
       </c>
       <c r="M6" t="n">
         <v>1.39</v>
@@ -4864,7 +4864,7 @@
         <v>37</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.0052</v>
+        <v>-0.8485</v>
       </c>
       <c r="I7" t="n">
         <v>32.5</v>
@@ -4876,7 +4876,7 @@
         <v>2.44</v>
       </c>
       <c r="L7" t="n">
-        <v>-29.3</v>
+        <v>-30.5</v>
       </c>
       <c r="M7" t="n">
         <v>0.87</v>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -7,10 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1_Tin_Hieu_Hom_Nay" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2_Xu_Huong_21_Ngay" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="3_Song_Nganh" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="4_My_Favorite" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1_Daily_Signals" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2_21Day_Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3_Industry_Analysis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4_My_Favorites" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,1361 +481,1361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>51</v>
+        <v>64.2</v>
       </c>
       <c r="E2" t="n">
-        <v>4.51</v>
+        <v>9.93</v>
       </c>
       <c r="F2" t="n">
-        <v>434</v>
+        <v>525</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.24</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>356</v>
+        <v>1970</v>
       </c>
       <c r="E3" t="n">
-        <v>3.04</v>
+        <v>9.75</v>
       </c>
       <c r="F3" t="n">
-        <v>288</v>
+        <v>371</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4.103</v>
+        <v>2.277</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>37.5</v>
+        <v>369</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.06</v>
+        <v>3.65</v>
       </c>
       <c r="F4" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.218</v>
+        <v>4.038</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>58.4</v>
+        <v>75.90000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>9.98</v>
+        <v>-0.39</v>
       </c>
       <c r="F5" t="n">
-        <v>243</v>
+        <v>201</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.423</v>
+        <v>19.871</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>76.2</v>
+        <v>51.3</v>
       </c>
       <c r="E6" t="n">
-        <v>9.960000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="F6" t="n">
-        <v>211</v>
+        <v>197</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>18.048</v>
+        <v>2.455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Macronix (MXIC)</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>76.2</v>
+        <v>173.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="F7" t="n">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>14.372</v>
+        <v>2.406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>178.5</v>
+        <v>261.5</v>
       </c>
       <c r="E8" t="n">
-        <v>2.29</v>
+        <v>-0.76</v>
       </c>
       <c r="F8" t="n">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.722</v>
+        <v>6.519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>248</v>
+        <v>297</v>
       </c>
       <c r="E9" t="n">
-        <v>9.98</v>
+        <v>7.22</v>
       </c>
       <c r="F9" t="n">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4.388</v>
+        <v>20.956</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>115.5</v>
+        <v>256.5</v>
       </c>
       <c r="E10" t="n">
-        <v>2.21</v>
+        <v>3.43</v>
       </c>
       <c r="F10" t="n">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>19.768</v>
+        <v>4.596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1795</v>
+        <v>65.40000000000001</v>
       </c>
       <c r="E11" t="n">
-        <v>9.789999999999999</v>
+        <v>9.92</v>
       </c>
       <c r="F11" t="n">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1.775</v>
+        <v>14.531</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>247</v>
+        <v>225.5</v>
       </c>
       <c r="E12" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.101</v>
+        <v>12.146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>39.45</v>
+        <v>123.5</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.25</v>
+        <v>-0.8</v>
       </c>
       <c r="F13" t="n">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.671</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>92.40000000000001</v>
+        <v>2285</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.86</v>
+        <v>7.78</v>
       </c>
       <c r="F14" t="n">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.415</v>
+        <v>13.226</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3430</v>
+        <v>163</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.56</v>
+        <v>2.19</v>
       </c>
       <c r="F15" t="n">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6.994</v>
+        <v>7.665</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>22.9</v>
+        <v>177</v>
       </c>
       <c r="E16" t="n">
-        <v>1.78</v>
+        <v>-0.84</v>
       </c>
       <c r="F16" t="n">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.8169999999999999</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>50.8</v>
+        <v>22.5</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.39</v>
+        <v>-1.75</v>
       </c>
       <c r="F17" t="n">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1.363</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1775</v>
+        <v>172.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.28</v>
+        <v>1.77</v>
       </c>
       <c r="F18" t="n">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>16.813</v>
+        <v>4.003</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1400</v>
+        <v>23.7</v>
       </c>
       <c r="E19" t="n">
-        <v>1.82</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.603</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>59.5</v>
+        <v>39.4</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.82</v>
+        <v>-0.13</v>
       </c>
       <c r="F20" t="n">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>12.774</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>2585</v>
+        <v>127</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.34</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="F21" t="n">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7.872</v>
+        <v>20.326</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>75.90000000000001</v>
+        <v>258</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.56</v>
+        <v>7.05</v>
       </c>
       <c r="F22" t="n">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.772</v>
+        <v>8.066000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>263.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E23" t="n">
-        <v>2.33</v>
+        <v>1.22</v>
       </c>
       <c r="F23" t="n">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6.113</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>74</v>
+        <v>192</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.2</v>
+        <v>2.67</v>
       </c>
       <c r="F24" t="n">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.496</v>
+        <v>2.102</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>19.35</v>
+        <v>92.5</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.53</v>
+        <v>0.11</v>
       </c>
       <c r="F25" t="n">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.975</v>
+        <v>1.455</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Macronix (MXIC)</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>23.7</v>
+        <v>83.8</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.42</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="F26" t="n">
         <v>107</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.341</v>
+        <v>16.266</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>277</v>
+        <v>1780</v>
       </c>
       <c r="E27" t="n">
-        <v>-3.15</v>
+        <v>0.28</v>
       </c>
       <c r="F27" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>20.015</v>
+        <v>17.353</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>45.5</v>
+        <v>54.8</v>
       </c>
       <c r="E28" t="n">
-        <v>-2.26</v>
+        <v>1.67</v>
       </c>
       <c r="F28" t="n">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.706</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>124.5</v>
+        <v>36.9</v>
       </c>
       <c r="E29" t="n">
-        <v>1.22</v>
+        <v>-1.6</v>
       </c>
       <c r="F29" t="n">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.524</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>300</v>
+        <v>19.6</v>
       </c>
       <c r="E30" t="n">
-        <v>0.84</v>
+        <v>1.29</v>
       </c>
       <c r="F30" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8.545</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>241</v>
+        <v>123.5</v>
       </c>
       <c r="E31" t="n">
-        <v>2.99</v>
+        <v>-0.8</v>
       </c>
       <c r="F31" t="n">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Bùng nổ (Breakout)</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>7.228</v>
+        <v>1.531</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>124.5</v>
+        <v>3370</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.35</v>
+        <v>-1.75</v>
       </c>
       <c r="F32" t="n">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1.508</v>
+        <v>6.778</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>187</v>
+        <v>509</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.8</v>
+        <v>-0.39</v>
       </c>
       <c r="F33" t="n">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1.995</v>
+        <v>4.257</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>2120</v>
+        <v>250.5</v>
       </c>
       <c r="E34" t="n">
-        <v>2.17</v>
+        <v>3.94</v>
       </c>
       <c r="F34" t="n">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>12.101</v>
+        <v>4.563</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>169.5</v>
+        <v>314</v>
       </c>
       <c r="E35" t="n">
-        <v>1.5</v>
+        <v>2.45</v>
       </c>
       <c r="F35" t="n">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3.818</v>
+        <v>6.509</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>171.5</v>
+        <v>31.35</v>
       </c>
       <c r="E36" t="n">
-        <v>2.08</v>
+        <v>-0.63</v>
       </c>
       <c r="F36" t="n">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>2.19</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>159.5</v>
+        <v>51.2</v>
       </c>
       <c r="E37" t="n">
-        <v>10</v>
+        <v>0.79</v>
       </c>
       <c r="F37" t="n">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>7.073</v>
+        <v>1.385</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>530</v>
+        <v>2580</v>
       </c>
       <c r="E38" t="n">
-        <v>2.51</v>
+        <v>-0.19</v>
       </c>
       <c r="F38" t="n">
         <v>88</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>2.054</v>
+        <v>8.071999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31.55</v>
+        <v>38.1</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.56</v>
+        <v>-0.52</v>
       </c>
       <c r="F39" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.137</v>
+        <v>1.307</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>395</v>
+        <v>244</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.25</v>
+        <v>-1.21</v>
       </c>
       <c r="F40" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1.85</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>38.3</v>
+        <v>1280</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.52</v>
+        <v>2.4</v>
       </c>
       <c r="F41" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1.292</v>
+        <v>16.179</v>
       </c>
     </row>
     <row r="42">
@@ -1855,361 +1855,361 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1780</v>
+        <v>1820</v>
       </c>
       <c r="E42" t="n">
-        <v>1.42</v>
+        <v>2.25</v>
       </c>
       <c r="F42" t="n">
         <v>81</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>63.422</v>
+        <v>65.664</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>134.5</v>
+        <v>311</v>
       </c>
       <c r="E43" t="n">
-        <v>-1.47</v>
+        <v>3.67</v>
       </c>
       <c r="F43" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>6.768</v>
+        <v>8.372999999999999</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>241</v>
+        <v>393</v>
       </c>
       <c r="E44" t="n">
-        <v>-4.55</v>
+        <v>-0.51</v>
       </c>
       <c r="F44" t="n">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>4.571</v>
+        <v>1.847</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1250</v>
+        <v>75.8</v>
       </c>
       <c r="E45" t="n">
-        <v>1.63</v>
+        <v>-0.13</v>
       </c>
       <c r="F45" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>15.393</v>
+        <v>1.729</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>225.5</v>
+        <v>287</v>
       </c>
       <c r="E46" t="n">
-        <v>0.67</v>
+        <v>-0.17</v>
       </c>
       <c r="F46" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>11.667</v>
+        <v>5.859</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>78</v>
+        <v>134.5</v>
       </c>
       <c r="E47" t="n">
-        <v>1.17</v>
+        <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1.198</v>
+        <v>6.854</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>53.9</v>
+        <v>525</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.74</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Yếu</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>0.8139999999999999</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>66.59999999999999</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>0.6</v>
+        <v>-3.33</v>
       </c>
       <c r="F49" t="n">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>4.647</v>
+        <v>1.185</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>511</v>
+        <v>46.1</v>
       </c>
       <c r="E50" t="n">
-        <v>-2.67</v>
+        <v>1.32</v>
       </c>
       <c r="F50" t="n">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>4.22</v>
+        <v>1.771</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>306.5</v>
+        <v>1375</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.76</v>
+        <v>-1.79</v>
       </c>
       <c r="F51" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>6.296</v>
+        <v>2.594</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>287.5</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E52" t="n">
-        <v>0.17</v>
+        <v>-1.5</v>
       </c>
       <c r="F52" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Tích lũy (Up)</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>5.826</v>
+        <v>4.576</v>
       </c>
     </row>
   </sheetData>
@@ -2249,7 +2249,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Ngành</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -2290,13 +2290,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>99.73999999999999</v>
+        <v>116.26</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="G2" t="n">
-        <v>14.372</v>
+        <v>16.266</v>
       </c>
     </row>
     <row r="3">
@@ -2321,13 +2321,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>66.15000000000001</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="G3" t="n">
-        <v>7.073</v>
+        <v>7.665</v>
       </c>
     </row>
     <row r="4">
@@ -2352,184 +2352,184 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>58.21</v>
+        <v>70.52</v>
       </c>
       <c r="F4" t="n">
-        <v>1.46</v>
+        <v>1.2</v>
       </c>
       <c r="G4" t="n">
-        <v>12.101</v>
+        <v>13.226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Foundry - Memory</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>53.47</v>
+        <v>62.48</v>
       </c>
       <c r="F5" t="n">
-        <v>1.43</v>
+        <v>1.24</v>
       </c>
       <c r="G5" t="n">
-        <v>18.048</v>
+        <v>14.531</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>50.2</v>
+        <v>53.33</v>
       </c>
       <c r="F6" t="n">
-        <v>0.59</v>
+        <v>1.36</v>
       </c>
       <c r="G6" t="n">
-        <v>19.768</v>
+        <v>19.871</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>50.06</v>
+        <v>52.7</v>
       </c>
       <c r="F7" t="n">
-        <v>1.11</v>
+        <v>1.39</v>
       </c>
       <c r="G7" t="n">
-        <v>12.774</v>
+        <v>20.956</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>49.29</v>
+        <v>51.73</v>
       </c>
       <c r="F8" t="n">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="G8" t="n">
-        <v>6.113</v>
+        <v>20.326</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>48.95</v>
+        <v>49.43</v>
       </c>
       <c r="F9" t="n">
-        <v>0.54</v>
+        <v>1.01</v>
       </c>
       <c r="G9" t="n">
-        <v>4.388</v>
+        <v>6.519</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2538,478 +2538,478 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>47.72</v>
+        <v>49.13</v>
       </c>
       <c r="F10" t="n">
-        <v>1.51</v>
+        <v>0.82</v>
       </c>
       <c r="G10" t="n">
-        <v>4.103</v>
+        <v>4.596</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>46.95</v>
+        <v>41.65</v>
       </c>
       <c r="F11" t="n">
-        <v>1.11</v>
+        <v>1.98</v>
       </c>
       <c r="G11" t="n">
-        <v>20.015</v>
+        <v>4.038</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>39.92</v>
+        <v>39.46</v>
       </c>
       <c r="F12" t="n">
-        <v>0.72</v>
+        <v>0.97</v>
       </c>
       <c r="G12" t="n">
-        <v>4.647</v>
+        <v>8.066000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>31.69</v>
+        <v>35.96</v>
       </c>
       <c r="F13" t="n">
-        <v>1.04</v>
+        <v>0.63</v>
       </c>
       <c r="G13" t="n">
-        <v>7.228</v>
+        <v>4.576</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31.34</v>
+        <v>33.19</v>
       </c>
       <c r="F14" t="n">
-        <v>0.84</v>
+        <v>1.08</v>
       </c>
       <c r="G14" t="n">
-        <v>4.571</v>
+        <v>16.179</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>29.94</v>
+        <v>31.2</v>
       </c>
       <c r="F15" t="n">
-        <v>1.22</v>
+        <v>1.91</v>
       </c>
       <c r="G15" t="n">
-        <v>15.393</v>
+        <v>2.455</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>29.11</v>
+        <v>27.81</v>
       </c>
       <c r="F16" t="n">
-        <v>1.72</v>
+        <v>0.87</v>
       </c>
       <c r="G16" t="n">
-        <v>2.24</v>
+        <v>4.563</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>27.73</v>
+        <v>27.78</v>
       </c>
       <c r="F17" t="n">
-        <v>0.91</v>
+        <v>1.54</v>
       </c>
       <c r="G17" t="n">
-        <v>4.22</v>
+        <v>17.353</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.42</v>
+        <v>27.72</v>
       </c>
       <c r="F18" t="n">
-        <v>1.55</v>
+        <v>0.93</v>
       </c>
       <c r="G18" t="n">
-        <v>16.813</v>
+        <v>8.372999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>25.79</v>
+        <v>26.1</v>
       </c>
       <c r="F19" t="n">
-        <v>1.08</v>
+        <v>0.87</v>
       </c>
       <c r="G19" t="n">
-        <v>7.872</v>
+        <v>6.509</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>24.89</v>
+        <v>25.85</v>
       </c>
       <c r="F20" t="n">
-        <v>1.11</v>
+        <v>1.06</v>
       </c>
       <c r="G20" t="n">
-        <v>1.508</v>
+        <v>8.071999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>22.45</v>
+        <v>23.84</v>
       </c>
       <c r="F21" t="n">
-        <v>0.85</v>
+        <v>0.88</v>
       </c>
       <c r="G21" t="n">
-        <v>8.545</v>
+        <v>4.257</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22.11</v>
+        <v>22.99</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9</v>
+        <v>1.85</v>
       </c>
       <c r="G22" t="n">
-        <v>6.296</v>
+        <v>0.614</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>19.66</v>
+        <v>19.74</v>
       </c>
       <c r="F23" t="n">
-        <v>1.01</v>
+        <v>0.78</v>
       </c>
       <c r="G23" t="n">
-        <v>2.603</v>
+        <v>65.664</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>16.42</v>
+        <v>19.72</v>
       </c>
       <c r="F24" t="n">
-        <v>0.83</v>
+        <v>1.01</v>
       </c>
       <c r="G24" t="n">
-        <v>1.198</v>
+        <v>1.531</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>16.34</v>
+        <v>17.02</v>
       </c>
       <c r="F25" t="n">
-        <v>0.88</v>
+        <v>0.97</v>
       </c>
       <c r="G25" t="n">
-        <v>63.422</v>
+        <v>2.594</v>
       </c>
     </row>
     <row r="26">
@@ -3034,230 +3034,230 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>15.28</v>
+        <v>14.88</v>
       </c>
       <c r="F26" t="n">
-        <v>1.81</v>
+        <v>1.28</v>
       </c>
       <c r="G26" t="n">
-        <v>0.524</v>
+        <v>0.552</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>12.95</v>
+        <v>14.24</v>
       </c>
       <c r="F27" t="n">
-        <v>1.24</v>
+        <v>0.83</v>
       </c>
       <c r="G27" t="n">
-        <v>0.218</v>
+        <v>1.185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>12.74</v>
+        <v>12.66</v>
       </c>
       <c r="F28" t="n">
-        <v>1.23</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.423</v>
+        <v>2.406</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>11.44</v>
+        <v>11.61</v>
       </c>
       <c r="F29" t="n">
-        <v>1.22</v>
+        <v>1.89</v>
       </c>
       <c r="G29" t="n">
-        <v>0.8169999999999999</v>
+        <v>2.277</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>10.29</v>
+        <v>11.39</v>
       </c>
       <c r="F30" t="n">
-        <v>1.39</v>
+        <v>1.12</v>
       </c>
       <c r="G30" t="n">
-        <v>2.19</v>
+        <v>0.827</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>9.5</v>
+        <v>11.14</v>
       </c>
       <c r="F31" t="n">
-        <v>0.7</v>
+        <v>1.22</v>
       </c>
       <c r="G31" t="n">
-        <v>2.054</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>9.32</v>
+        <v>9.15</v>
       </c>
       <c r="F32" t="n">
-        <v>0.71</v>
+        <v>0.68</v>
       </c>
       <c r="G32" t="n">
-        <v>5.826</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>8.51</v>
+        <v>9.130000000000001</v>
       </c>
       <c r="F33" t="n">
-        <v>1.13</v>
+        <v>0.71</v>
       </c>
       <c r="G33" t="n">
-        <v>0.722</v>
+        <v>5.859</v>
       </c>
     </row>
     <row r="34">
@@ -3282,168 +3282,168 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>7.06</v>
+        <v>8.98</v>
       </c>
       <c r="F34" t="n">
-        <v>2.8</v>
+        <v>2.34</v>
       </c>
       <c r="G34" t="n">
-        <v>1.706</v>
+        <v>1.771</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4.91</v>
+        <v>6.48</v>
       </c>
       <c r="F35" t="n">
-        <v>1.05</v>
+        <v>1.85</v>
       </c>
       <c r="G35" t="n">
-        <v>1.85</v>
+        <v>4.003</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.93</v>
+        <v>5.04</v>
       </c>
       <c r="F36" t="n">
-        <v>1.33</v>
+        <v>1.18</v>
       </c>
       <c r="G36" t="n">
-        <v>1.292</v>
+        <v>0.747</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3.76</v>
+        <v>4.96</v>
       </c>
       <c r="F37" t="n">
-        <v>1.67</v>
+        <v>1.15</v>
       </c>
       <c r="G37" t="n">
-        <v>1.775</v>
+        <v>1.307</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.92</v>
+        <v>4.94</v>
       </c>
       <c r="F38" t="n">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="G38" t="n">
-        <v>0.101</v>
+        <v>1.847</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.73</v>
+        <v>1.99</v>
       </c>
       <c r="F39" t="n">
-        <v>1.81</v>
+        <v>0.99</v>
       </c>
       <c r="G39" t="n">
-        <v>3.818</v>
+        <v>1.385</v>
       </c>
     </row>
     <row r="40">
@@ -3468,75 +3468,75 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1.31</v>
+        <v>1.82</v>
       </c>
       <c r="F40" t="n">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="G40" t="n">
-        <v>0.975</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1.18</v>
+        <v>1.46</v>
       </c>
       <c r="F41" t="n">
-        <v>0.99</v>
+        <v>1.02</v>
       </c>
       <c r="G41" t="n">
-        <v>6.994</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.79</v>
+        <v>0.52</v>
       </c>
       <c r="F42" t="n">
-        <v>1.01</v>
+        <v>0.9</v>
       </c>
       <c r="G42" t="n">
-        <v>1.363</v>
+        <v>2.102</v>
       </c>
     </row>
     <row r="43">
@@ -3561,44 +3561,44 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-0.13</v>
+        <v>-0.52</v>
       </c>
       <c r="F43" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G43" t="n">
-        <v>1.772</v>
+        <v>1.729</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-1.84</v>
+        <v>-1.1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="G44" t="n">
-        <v>1.995</v>
+        <v>12.146</v>
       </c>
     </row>
     <row r="45">
@@ -3623,44 +3623,44 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-2.23</v>
+        <v>-1.87</v>
       </c>
       <c r="F45" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="G45" t="n">
-        <v>0.671</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-2.38</v>
+        <v>-2.66</v>
       </c>
       <c r="F46" t="n">
         <v>0.87</v>
       </c>
       <c r="G46" t="n">
-        <v>11.667</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="47">
@@ -3685,44 +3685,44 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-3.46</v>
+        <v>-2.87</v>
       </c>
       <c r="F47" t="n">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="G47" t="n">
-        <v>0.341</v>
+        <v>0.354</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-4.77</v>
+        <v>-3.3</v>
       </c>
       <c r="F48" t="n">
-        <v>0.91</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8139999999999999</v>
+        <v>6.778</v>
       </c>
     </row>
     <row r="49">
@@ -3747,75 +3747,75 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-5.91</v>
+        <v>-4.64</v>
       </c>
       <c r="F49" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="G49" t="n">
-        <v>1.415</v>
+        <v>1.455</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-6.24</v>
+        <v>-5.79</v>
       </c>
       <c r="F50" t="n">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="G50" t="n">
-        <v>0.137</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-7.73</v>
+        <v>-6.84</v>
       </c>
       <c r="F51" t="n">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="G51" t="n">
-        <v>0.496</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="52">
@@ -3840,13 +3840,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-7.88</v>
+        <v>-8.5</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="G52" t="n">
-        <v>6.768</v>
+        <v>6.854</v>
       </c>
     </row>
   </sheetData>
@@ -3871,17 +3871,17 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Ngành</t>
+          <t>Sector</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Avg_%_1Tháng</t>
+          <t>Avg_Pct_1M</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Avg_Sức_Mạnh</t>
+          <t>Avg_Money_Flow</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -3891,7 +3891,7 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Số_Mã</t>
+          <t>Stock_Count</t>
         </is>
       </c>
     </row>
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>99.73999999999999</v>
+        <v>116.26</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="D2" t="n">
-        <v>14.372</v>
+        <v>16.266</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3921,13 +3921,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>66.15000000000001</v>
+        <v>72.48999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="D3" t="n">
-        <v>7.073</v>
+        <v>7.665</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3940,13 +3940,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58.21</v>
+        <v>70.52</v>
       </c>
       <c r="C4" t="n">
-        <v>1.46</v>
+        <v>1.2</v>
       </c>
       <c r="D4" t="n">
-        <v>12.101</v>
+        <v>13.226</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3955,17 +3955,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Foundry - Memory</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>50.2</v>
+        <v>62.48</v>
       </c>
       <c r="C5" t="n">
-        <v>0.59</v>
+        <v>1.24</v>
       </c>
       <c r="D5" t="n">
-        <v>19.768</v>
+        <v>14.531</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3974,17 +3974,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.06</v>
+        <v>52.7</v>
       </c>
       <c r="C6" t="n">
-        <v>1.11</v>
+        <v>1.39</v>
       </c>
       <c r="D6" t="n">
-        <v>12.774</v>
+        <v>20.956</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -3993,17 +3993,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46.95</v>
+        <v>51.73</v>
       </c>
       <c r="C7" t="n">
-        <v>1.11</v>
+        <v>0.78</v>
       </c>
       <c r="D7" t="n">
-        <v>20.015</v>
+        <v>20.326</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -4016,13 +4016,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>44.605</v>
+        <v>42.695</v>
       </c>
       <c r="C8" t="n">
         <v>0.8200000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>10.76</v>
+        <v>11.095</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -4035,13 +4035,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42.66999999999999</v>
+        <v>39.53</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9633333333333334</v>
+        <v>1.223333333333333</v>
       </c>
       <c r="D9" t="n">
-        <v>13.062</v>
+        <v>13.197</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -4054,13 +4054,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>34.905</v>
+        <v>36.535</v>
       </c>
       <c r="C10" t="n">
-        <v>1.155</v>
+        <v>1.07</v>
       </c>
       <c r="D10" t="n">
-        <v>81.47</v>
+        <v>85.535</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -4073,13 +4073,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>29.11</v>
+        <v>31.2</v>
       </c>
       <c r="C11" t="n">
-        <v>1.72</v>
+        <v>1.91</v>
       </c>
       <c r="D11" t="n">
-        <v>2.24</v>
+        <v>2.455</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.42</v>
+        <v>27.78</v>
       </c>
       <c r="C12" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="D12" t="n">
-        <v>16.813</v>
+        <v>17.353</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -4107,36 +4107,36 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>26.31</v>
+        <v>27.72</v>
       </c>
       <c r="C13" t="n">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
       <c r="D13" t="n">
-        <v>5.728</v>
+        <v>8.372999999999999</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.45</v>
+        <v>26.1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.85</v>
+        <v>0.87</v>
       </c>
       <c r="D14" t="n">
-        <v>8.545</v>
+        <v>6.509</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -4145,74 +4145,74 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.11</v>
+        <v>22.33333333333333</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9</v>
+        <v>1.083333333333333</v>
       </c>
       <c r="D15" t="n">
-        <v>6.296</v>
+        <v>11.024</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.66</v>
+        <v>21.78</v>
       </c>
       <c r="C16" t="n">
-        <v>1.01</v>
+        <v>0.9450000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>2.603</v>
+        <v>5.787999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.08666666666667</v>
+        <v>19.835</v>
       </c>
       <c r="C17" t="n">
-        <v>1.413333333333333</v>
+        <v>1.465</v>
       </c>
       <c r="D17" t="n">
-        <v>9.942</v>
+        <v>20.182</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16.42</v>
+        <v>17.02</v>
       </c>
       <c r="C18" t="n">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="D18" t="n">
-        <v>1.198</v>
+        <v>2.594</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -4221,36 +4221,36 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>16.335</v>
+        <v>14.24</v>
       </c>
       <c r="C19" t="n">
-        <v>1.515</v>
+        <v>0.83</v>
       </c>
       <c r="D19" t="n">
-        <v>19.211</v>
+        <v>1.185</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>13.485</v>
+        <v>14.015</v>
       </c>
       <c r="C20" t="n">
-        <v>1.035</v>
+        <v>1.515</v>
       </c>
       <c r="D20" t="n">
-        <v>14.866</v>
+        <v>1.361</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -4259,17 +4259,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>12.95</v>
+        <v>11.61</v>
       </c>
       <c r="C21" t="n">
-        <v>1.24</v>
+        <v>1.89</v>
       </c>
       <c r="D21" t="n">
-        <v>0.218</v>
+        <v>2.277</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -4278,17 +4278,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>10.625</v>
+        <v>11.275</v>
       </c>
       <c r="C22" t="n">
-        <v>1.18</v>
+        <v>1.03</v>
       </c>
       <c r="D22" t="n">
-        <v>1.145</v>
+        <v>14.85</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
@@ -4297,17 +4297,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>9.5</v>
+        <v>11.14</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7</v>
+        <v>1.22</v>
       </c>
       <c r="D23" t="n">
-        <v>2.054</v>
+        <v>0.224</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -4316,55 +4316,55 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.685</v>
+        <v>9.15</v>
       </c>
       <c r="C24" t="n">
-        <v>1.275</v>
+        <v>0.68</v>
       </c>
       <c r="D24" t="n">
-        <v>2.109</v>
+        <v>2.08</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.91</v>
+        <v>8.175000000000001</v>
       </c>
       <c r="C25" t="n">
-        <v>1.05</v>
+        <v>1.135</v>
       </c>
       <c r="D25" t="n">
-        <v>1.85</v>
+        <v>2.134</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.76</v>
+        <v>4.94</v>
       </c>
       <c r="C26" t="n">
-        <v>1.67</v>
+        <v>0.98</v>
       </c>
       <c r="D26" t="n">
-        <v>1.775</v>
+        <v>1.847</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4373,55 +4373,55 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.92</v>
+        <v>2.1275</v>
       </c>
       <c r="C27" t="n">
-        <v>1.04</v>
+        <v>1.1575</v>
       </c>
       <c r="D27" t="n">
-        <v>0.101</v>
+        <v>26.63</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.53</v>
+        <v>1.82</v>
       </c>
       <c r="C28" t="n">
-        <v>1.2975</v>
+        <v>0.98</v>
       </c>
       <c r="D28" t="n">
-        <v>25.967</v>
+        <v>0.991</v>
       </c>
       <c r="E28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.31</v>
+        <v>1.46</v>
       </c>
       <c r="C29" t="n">
-        <v>0.96</v>
+        <v>1.02</v>
       </c>
       <c r="D29" t="n">
-        <v>0.975</v>
+        <v>0.099</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -4434,13 +4434,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-2.188</v>
+        <v>-1.582</v>
       </c>
       <c r="C30" t="n">
-        <v>1.166</v>
+        <v>1.102</v>
       </c>
       <c r="D30" t="n">
-        <v>5.562</v>
+        <v>5.604</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -4453,13 +4453,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-4.78</v>
+        <v>-2.643333333333333</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9466666666666667</v>
+        <v>0.91</v>
       </c>
       <c r="D31" t="n">
-        <v>3.305</v>
+        <v>3.456</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
@@ -4472,13 +4472,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.24</v>
+        <v>-6.84</v>
       </c>
       <c r="C32" t="n">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="D32" t="n">
-        <v>0.137</v>
+        <v>0.136</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -4592,38 +4592,38 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2120</v>
+        <v>2285</v>
       </c>
       <c r="E2" t="n">
-        <v>2.17</v>
+        <v>7.78</v>
       </c>
       <c r="F2" t="n">
-        <v>58.21</v>
+        <v>70.52</v>
       </c>
       <c r="G2" t="n">
-        <v>74.59</v>
+        <v>77.98999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>209.1119</v>
+        <v>222.6131</v>
       </c>
       <c r="I2" t="n">
-        <v>87.3</v>
+        <v>99.3</v>
       </c>
       <c r="J2" t="n">
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>6.13</v>
+        <v>6.03</v>
       </c>
       <c r="L2" t="n">
-        <v>-2.9</v>
+        <v>34.1</v>
       </c>
       <c r="M2" t="n">
-        <v>1.46</v>
+        <v>1.2</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>👀 THEO DÕI</t>
+          <t>👀 WATCH</t>
         </is>
       </c>
     </row>
@@ -4644,38 +4644,38 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1775</v>
+        <v>1780</v>
       </c>
       <c r="E3" t="n">
         <v>0.28</v>
       </c>
       <c r="F3" t="n">
-        <v>27.42</v>
+        <v>27.78</v>
       </c>
       <c r="G3" t="n">
-        <v>77.14</v>
+        <v>84.54000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>67.0265</v>
+        <v>78.444</v>
       </c>
       <c r="I3" t="n">
-        <v>115.2</v>
+        <v>104.7</v>
       </c>
       <c r="J3" t="n">
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>3.32</v>
+        <v>3.29</v>
       </c>
       <c r="L3" t="n">
-        <v>23.6</v>
+        <v>0.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.55</v>
+        <v>1.54</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>👀 THEO DÕI</t>
+          <t>👀 WATCH</t>
         </is>
       </c>
     </row>
@@ -4696,38 +4696,38 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>58.4</v>
+        <v>64.2</v>
       </c>
       <c r="E4" t="n">
-        <v>9.98</v>
+        <v>9.93</v>
       </c>
       <c r="F4" t="n">
-        <v>12.74</v>
+        <v>22.99</v>
       </c>
       <c r="G4" t="n">
-        <v>59.6</v>
+        <v>74.22</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6723</v>
+        <v>1.5867</v>
       </c>
       <c r="I4" t="n">
-        <v>127.5</v>
+        <v>134.5</v>
       </c>
       <c r="J4" t="n">
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>4.47</v>
+        <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>143.4</v>
+        <v>425.2</v>
       </c>
       <c r="M4" t="n">
-        <v>1.23</v>
+        <v>1.85</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>🚀 MUA ĐUỔI</t>
+          <t>🚀 BUY STRONG</t>
         </is>
       </c>
     </row>
@@ -4748,38 +4748,38 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>78</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>1.17</v>
+        <v>-3.33</v>
       </c>
       <c r="F5" t="n">
-        <v>16.42</v>
+        <v>14.24</v>
       </c>
       <c r="G5" t="n">
-        <v>64.54000000000001</v>
+        <v>66.01000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2.7571</v>
+        <v>2.6177</v>
       </c>
       <c r="I5" t="n">
-        <v>83.5</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="J5" t="n">
-        <v>99.3</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="K5" t="n">
-        <v>5.82</v>
+        <v>6.13</v>
       </c>
       <c r="L5" t="n">
-        <v>-33.1</v>
+        <v>-32.2</v>
       </c>
       <c r="M5" t="n">
         <v>0.83</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>👀 THEO DÕI</t>
+          <t>👀 WATCH</t>
         </is>
       </c>
     </row>
@@ -4800,38 +4800,38 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>171.5</v>
+        <v>173.5</v>
       </c>
       <c r="E6" t="n">
-        <v>2.08</v>
+        <v>1.17</v>
       </c>
       <c r="F6" t="n">
-        <v>10.29</v>
+        <v>12.66</v>
       </c>
       <c r="G6" t="n">
-        <v>60.61</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>7.4642</v>
+        <v>7.3315</v>
       </c>
       <c r="I6" t="n">
-        <v>71.3</v>
+        <v>73.3</v>
       </c>
       <c r="J6" t="n">
-        <v>64.90000000000001</v>
+        <v>70.3</v>
       </c>
       <c r="K6" t="n">
-        <v>6.52</v>
+        <v>6.73</v>
       </c>
       <c r="L6" t="n">
-        <v>-4.9</v>
+        <v>78.09999999999999</v>
       </c>
       <c r="M6" t="n">
-        <v>1.39</v>
+        <v>1</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>👀 THEO DÕI</t>
+          <t>👀 WATCH</t>
         </is>
       </c>
     </row>
@@ -4855,35 +4855,35 @@
         <v>225.5</v>
       </c>
       <c r="E7" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.38</v>
+        <v>-1.1</v>
       </c>
       <c r="G7" t="n">
-        <v>37</v>
+        <v>45.12</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.8485</v>
+        <v>-0.8334</v>
       </c>
       <c r="I7" t="n">
-        <v>32.5</v>
+        <v>33.3</v>
       </c>
       <c r="J7" t="n">
         <v>41.9</v>
       </c>
       <c r="K7" t="n">
-        <v>2.44</v>
+        <v>2.36</v>
       </c>
       <c r="L7" t="n">
-        <v>-30.5</v>
+        <v>44.2</v>
       </c>
       <c r="M7" t="n">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>👀 THEO DÕI</t>
+          <t>👀 WATCH</t>
         </is>
       </c>
     </row>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="1_Daily_Signals" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="2_21Day_Trend" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="3_Industry_Analysis" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="4_My_Favorites" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_Daily_Signals" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2_21Day_Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_Industry_Analysis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4_My_Favorites" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -501,7 +501,7 @@
         <v>9.93</v>
       </c>
       <c r="F2" t="n">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.614</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="3">
@@ -535,7 +535,7 @@
         <v>9.75</v>
       </c>
       <c r="F3" t="n">
-        <v>371</v>
+        <v>389</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2.277</v>
+        <v>2.302</v>
       </c>
     </row>
     <row r="4">
@@ -569,7 +569,7 @@
         <v>3.65</v>
       </c>
       <c r="F4" t="n">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4.038</v>
+        <v>4.043</v>
       </c>
     </row>
     <row r="5">
@@ -611,7 +611,7 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>19.871</v>
+        <v>19.877</v>
       </c>
     </row>
     <row r="6">
@@ -637,7 +637,7 @@
         <v>0.59</v>
       </c>
       <c r="F6" t="n">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -645,7 +645,7 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2.455</v>
+        <v>2.456</v>
       </c>
     </row>
     <row r="7">
@@ -671,7 +671,7 @@
         <v>1.17</v>
       </c>
       <c r="F7" t="n">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -679,7 +679,7 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.406</v>
+        <v>2.407</v>
       </c>
     </row>
     <row r="8">
@@ -705,7 +705,7 @@
         <v>-0.76</v>
       </c>
       <c r="F8" t="n">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.519</v>
+        <v>6.524</v>
       </c>
     </row>
     <row r="9">
@@ -739,7 +739,7 @@
         <v>7.22</v>
       </c>
       <c r="F9" t="n">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -747,7 +747,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>20.956</v>
+        <v>20.971</v>
       </c>
     </row>
     <row r="10">
@@ -773,7 +773,7 @@
         <v>3.43</v>
       </c>
       <c r="F10" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -781,7 +781,7 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4.596</v>
+        <v>4.598</v>
       </c>
     </row>
     <row r="11">
@@ -807,7 +807,7 @@
         <v>9.92</v>
       </c>
       <c r="F11" t="n">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>14.531</v>
+        <v>14.537</v>
       </c>
     </row>
     <row r="12">
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -849,7 +849,7 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>12.146</v>
+        <v>12.168</v>
       </c>
     </row>
     <row r="13">
@@ -875,7 +875,7 @@
         <v>-0.8</v>
       </c>
       <c r="F13" t="n">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -909,7 +909,7 @@
         <v>7.78</v>
       </c>
       <c r="F14" t="n">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -917,33 +917,33 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>13.226</v>
+        <v>13.253</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>163</v>
+        <v>177</v>
       </c>
       <c r="E15" t="n">
-        <v>2.19</v>
+        <v>-0.84</v>
       </c>
       <c r="F15" t="n">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -951,33 +951,33 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>7.665</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>177</v>
+        <v>163</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.84</v>
+        <v>2.19</v>
       </c>
       <c r="F16" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -985,7 +985,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.747</v>
+        <v>7.668</v>
       </c>
     </row>
     <row r="17">
@@ -1011,7 +1011,7 @@
         <v>-1.75</v>
       </c>
       <c r="F17" t="n">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1045,7 +1045,7 @@
         <v>1.77</v>
       </c>
       <c r="F18" t="n">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,33 +1053,33 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4.003</v>
+        <v>4.006</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>23.7</v>
+        <v>39.4</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="F19" t="n">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1087,33 +1087,33 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.354</v>
+        <v>0.681</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>39.4</v>
+        <v>23.7</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1121,33 +1121,33 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.681</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>127</v>
+        <v>258</v>
       </c>
       <c r="E21" t="n">
-        <v>9.960000000000001</v>
+        <v>7.05</v>
       </c>
       <c r="F21" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1155,75 +1155,75 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>20.326</v>
+        <v>8.071</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>258</v>
+        <v>92.5</v>
       </c>
       <c r="E22" t="n">
-        <v>7.05</v>
+        <v>0.11</v>
       </c>
       <c r="F22" t="n">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>8.066000000000001</v>
+        <v>1.458</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>74.90000000000001</v>
+        <v>127</v>
       </c>
       <c r="E23" t="n">
-        <v>1.22</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="F23" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.52</v>
+        <v>20.337</v>
       </c>
     </row>
     <row r="24">
@@ -1249,7 +1249,7 @@
         <v>2.67</v>
       </c>
       <c r="F24" t="n">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1257,33 +1257,33 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2.102</v>
+        <v>2.104</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>92.5</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>0.11</v>
+        <v>1.22</v>
       </c>
       <c r="F25" t="n">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1291,7 +1291,7 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.455</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="26">
@@ -1325,7 +1325,7 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>16.266</v>
+        <v>16.271</v>
       </c>
     </row>
     <row r="27">
@@ -1351,7 +1351,7 @@
         <v>0.28</v>
       </c>
       <c r="F27" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1359,135 +1359,135 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>17.353</v>
+        <v>17.385</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>54.8</v>
+        <v>36.9</v>
       </c>
       <c r="E28" t="n">
-        <v>1.67</v>
+        <v>-1.6</v>
       </c>
       <c r="F28" t="n">
         <v>101</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.834</v>
+        <v>0.224</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>36.9</v>
+        <v>54.8</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.6</v>
+        <v>1.67</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.224</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>19.6</v>
+        <v>3370</v>
       </c>
       <c r="E30" t="n">
-        <v>1.29</v>
+        <v>-1.75</v>
       </c>
       <c r="F30" t="n">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.991</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>123.5</v>
+        <v>19.6</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.8</v>
+        <v>1.29</v>
       </c>
       <c r="F31" t="n">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1495,67 +1495,67 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.531</v>
+        <v>0.991</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3370</v>
+        <v>123.5</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.75</v>
+        <v>-0.8</v>
       </c>
       <c r="F32" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6.778</v>
+        <v>1.532</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>509</v>
+        <v>2580</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.39</v>
+        <v>-0.19</v>
       </c>
       <c r="F33" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1563,33 +1563,33 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>4.257</v>
+        <v>8.087999999999999</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>250.5</v>
+        <v>244</v>
       </c>
       <c r="E34" t="n">
-        <v>3.94</v>
+        <v>-1.21</v>
       </c>
       <c r="F34" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1597,33 +1597,33 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>4.563</v>
+        <v>0.099</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>314</v>
+        <v>509</v>
       </c>
       <c r="E35" t="n">
-        <v>2.45</v>
+        <v>-0.39</v>
       </c>
       <c r="F35" t="n">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1631,67 +1631,67 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>6.509</v>
+        <v>4.261</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>31.35</v>
+        <v>250.5</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.63</v>
+        <v>3.94</v>
       </c>
       <c r="F36" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.136</v>
+        <v>4.565</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>51.2</v>
+        <v>314</v>
       </c>
       <c r="E37" t="n">
-        <v>0.79</v>
+        <v>2.45</v>
       </c>
       <c r="F37" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1699,67 +1699,67 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.385</v>
+        <v>6.511</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>2580</v>
+        <v>31.35</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.19</v>
+        <v>-0.63</v>
       </c>
       <c r="F38" t="n">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>8.071999999999999</v>
+        <v>0.136</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>38.1</v>
+        <v>1280</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.52</v>
+        <v>2.4</v>
       </c>
       <c r="F39" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1767,33 +1767,33 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1.307</v>
+        <v>16.201</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>244</v>
+        <v>38.1</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.21</v>
+        <v>-0.52</v>
       </c>
       <c r="F40" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1801,33 +1801,33 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.099</v>
+        <v>1.307</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>1280</v>
+        <v>51.2</v>
       </c>
       <c r="E41" t="n">
-        <v>2.4</v>
+        <v>0.79</v>
       </c>
       <c r="F41" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1835,7 +1835,7 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>16.179</v>
+        <v>1.385</v>
       </c>
     </row>
     <row r="42">
@@ -1861,7 +1861,7 @@
         <v>2.25</v>
       </c>
       <c r="F42" t="n">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1869,7 +1869,7 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>65.664</v>
+        <v>65.798</v>
       </c>
     </row>
     <row r="43">
@@ -1895,7 +1895,7 @@
         <v>3.67</v>
       </c>
       <c r="F43" t="n">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1903,7 +1903,7 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>8.372999999999999</v>
+        <v>8.379</v>
       </c>
     </row>
     <row r="44">
@@ -1929,7 +1929,7 @@
         <v>-0.51</v>
       </c>
       <c r="F44" t="n">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1937,101 +1937,101 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1.847</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>75.8</v>
+        <v>287</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.13</v>
+        <v>-0.17</v>
       </c>
       <c r="F45" t="n">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1.729</v>
+        <v>5.865</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>287</v>
+        <v>134.5</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.17</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>73</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5.859</v>
+        <v>6.859</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>134.5</v>
+        <v>75.8</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>-0.13</v>
       </c>
       <c r="F47" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>6.854</v>
+        <v>1.729</v>
       </c>
     </row>
     <row r="48">
@@ -2065,7 +2065,7 @@
         <v>-0.9399999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2073,30 +2073,30 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2.08</v>
+        <v>2.082</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>75.40000000000001</v>
+        <v>46.1</v>
       </c>
       <c r="E49" t="n">
-        <v>-3.33</v>
+        <v>1.32</v>
       </c>
       <c r="F49" t="n">
         <v>68</v>
@@ -2107,30 +2107,30 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1.185</v>
+        <v>1.771</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>46.1</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E50" t="n">
-        <v>1.32</v>
+        <v>-3.33</v>
       </c>
       <c r="F50" t="n">
         <v>68</v>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1.771</v>
+        <v>1.186</v>
       </c>
     </row>
     <row r="51">
@@ -2167,7 +2167,7 @@
         <v>-1.79</v>
       </c>
       <c r="F51" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>2.594</v>
+        <v>2.599</v>
       </c>
     </row>
     <row r="52">
@@ -2296,7 +2296,7 @@
         <v>0.91</v>
       </c>
       <c r="G2" t="n">
-        <v>16.266</v>
+        <v>16.271</v>
       </c>
     </row>
     <row r="3">
@@ -2327,7 +2327,7 @@
         <v>0.88</v>
       </c>
       <c r="G3" t="n">
-        <v>7.665</v>
+        <v>7.668</v>
       </c>
     </row>
     <row r="4">
@@ -2355,10 +2355,10 @@
         <v>70.52</v>
       </c>
       <c r="F4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="G4" t="n">
-        <v>13.226</v>
+        <v>13.253</v>
       </c>
     </row>
     <row r="5">
@@ -2389,7 +2389,7 @@
         <v>1.24</v>
       </c>
       <c r="G5" t="n">
-        <v>14.531</v>
+        <v>14.537</v>
       </c>
     </row>
     <row r="6">
@@ -2420,7 +2420,7 @@
         <v>1.36</v>
       </c>
       <c r="G6" t="n">
-        <v>19.871</v>
+        <v>19.877</v>
       </c>
     </row>
     <row r="7">
@@ -2451,7 +2451,7 @@
         <v>1.39</v>
       </c>
       <c r="G7" t="n">
-        <v>20.956</v>
+        <v>20.971</v>
       </c>
     </row>
     <row r="8">
@@ -2482,7 +2482,7 @@
         <v>0.78</v>
       </c>
       <c r="G8" t="n">
-        <v>20.326</v>
+        <v>20.337</v>
       </c>
     </row>
     <row r="9">
@@ -2513,7 +2513,7 @@
         <v>1.01</v>
       </c>
       <c r="G9" t="n">
-        <v>6.519</v>
+        <v>6.524</v>
       </c>
     </row>
     <row r="10">
@@ -2544,7 +2544,7 @@
         <v>0.82</v>
       </c>
       <c r="G10" t="n">
-        <v>4.596</v>
+        <v>4.598</v>
       </c>
     </row>
     <row r="11">
@@ -2572,10 +2572,10 @@
         <v>41.65</v>
       </c>
       <c r="F11" t="n">
-        <v>1.98</v>
+        <v>1.99</v>
       </c>
       <c r="G11" t="n">
-        <v>4.038</v>
+        <v>4.043</v>
       </c>
     </row>
     <row r="12">
@@ -2606,7 +2606,7 @@
         <v>0.97</v>
       </c>
       <c r="G12" t="n">
-        <v>8.066000000000001</v>
+        <v>8.071</v>
       </c>
     </row>
     <row r="13">
@@ -2668,7 +2668,7 @@
         <v>1.08</v>
       </c>
       <c r="G14" t="n">
-        <v>16.179</v>
+        <v>16.201</v>
       </c>
     </row>
     <row r="15">
@@ -2699,7 +2699,7 @@
         <v>1.91</v>
       </c>
       <c r="G15" t="n">
-        <v>2.455</v>
+        <v>2.456</v>
       </c>
     </row>
     <row r="16">
@@ -2730,7 +2730,7 @@
         <v>0.87</v>
       </c>
       <c r="G16" t="n">
-        <v>4.563</v>
+        <v>4.565</v>
       </c>
     </row>
     <row r="17">
@@ -2761,7 +2761,7 @@
         <v>1.54</v>
       </c>
       <c r="G17" t="n">
-        <v>17.353</v>
+        <v>17.385</v>
       </c>
     </row>
     <row r="18">
@@ -2792,7 +2792,7 @@
         <v>0.93</v>
       </c>
       <c r="G18" t="n">
-        <v>8.372999999999999</v>
+        <v>8.379</v>
       </c>
     </row>
     <row r="19">
@@ -2820,10 +2820,10 @@
         <v>26.1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="G19" t="n">
-        <v>6.509</v>
+        <v>6.511</v>
       </c>
     </row>
     <row r="20">
@@ -2851,10 +2851,10 @@
         <v>25.85</v>
       </c>
       <c r="F20" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="G20" t="n">
-        <v>8.071999999999999</v>
+        <v>8.087999999999999</v>
       </c>
     </row>
     <row r="21">
@@ -2885,7 +2885,7 @@
         <v>0.88</v>
       </c>
       <c r="G21" t="n">
-        <v>4.257</v>
+        <v>4.261</v>
       </c>
     </row>
     <row r="22">
@@ -2916,7 +2916,7 @@
         <v>1.85</v>
       </c>
       <c r="G22" t="n">
-        <v>0.614</v>
+        <v>0.615</v>
       </c>
     </row>
     <row r="23">
@@ -2944,10 +2944,10 @@
         <v>19.74</v>
       </c>
       <c r="F23" t="n">
-        <v>0.78</v>
+        <v>0.79</v>
       </c>
       <c r="G23" t="n">
-        <v>65.664</v>
+        <v>65.798</v>
       </c>
     </row>
     <row r="24">
@@ -2978,7 +2978,7 @@
         <v>1.01</v>
       </c>
       <c r="G24" t="n">
-        <v>1.531</v>
+        <v>1.532</v>
       </c>
     </row>
     <row r="25">
@@ -3006,10 +3006,10 @@
         <v>17.02</v>
       </c>
       <c r="F25" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G25" t="n">
-        <v>2.594</v>
+        <v>2.599</v>
       </c>
     </row>
     <row r="26">
@@ -3071,7 +3071,7 @@
         <v>0.83</v>
       </c>
       <c r="G27" t="n">
-        <v>1.185</v>
+        <v>1.186</v>
       </c>
     </row>
     <row r="28">
@@ -3102,7 +3102,7 @@
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>2.406</v>
+        <v>2.407</v>
       </c>
     </row>
     <row r="29">
@@ -3130,10 +3130,10 @@
         <v>11.61</v>
       </c>
       <c r="F29" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="G29" t="n">
-        <v>2.277</v>
+        <v>2.302</v>
       </c>
     </row>
     <row r="30">
@@ -3226,7 +3226,7 @@
         <v>0.68</v>
       </c>
       <c r="G32" t="n">
-        <v>2.08</v>
+        <v>2.082</v>
       </c>
     </row>
     <row r="33">
@@ -3257,7 +3257,7 @@
         <v>0.71</v>
       </c>
       <c r="G33" t="n">
-        <v>5.859</v>
+        <v>5.865</v>
       </c>
     </row>
     <row r="34">
@@ -3319,7 +3319,7 @@
         <v>1.85</v>
       </c>
       <c r="G35" t="n">
-        <v>4.003</v>
+        <v>4.006</v>
       </c>
     </row>
     <row r="36">
@@ -3347,10 +3347,10 @@
         <v>5.04</v>
       </c>
       <c r="F36" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="G36" t="n">
-        <v>0.747</v>
+        <v>0.748</v>
       </c>
     </row>
     <row r="37">
@@ -3412,7 +3412,7 @@
         <v>0.98</v>
       </c>
       <c r="G38" t="n">
-        <v>1.847</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="39">
@@ -3502,7 +3502,7 @@
         <v>1.46</v>
       </c>
       <c r="F41" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="G41" t="n">
         <v>0.099</v>
@@ -3536,7 +3536,7 @@
         <v>0.9</v>
       </c>
       <c r="G42" t="n">
-        <v>2.102</v>
+        <v>2.104</v>
       </c>
     </row>
     <row r="43">
@@ -3598,7 +3598,7 @@
         <v>0.86</v>
       </c>
       <c r="G44" t="n">
-        <v>12.146</v>
+        <v>12.168</v>
       </c>
     </row>
     <row r="45">
@@ -3691,7 +3691,7 @@
         <v>1.19</v>
       </c>
       <c r="G47" t="n">
-        <v>0.354</v>
+        <v>0.355</v>
       </c>
     </row>
     <row r="48">
@@ -3719,10 +3719,10 @@
         <v>-3.3</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>1.01</v>
       </c>
       <c r="G48" t="n">
-        <v>6.778</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="49">
@@ -3753,7 +3753,7 @@
         <v>1.09</v>
       </c>
       <c r="G49" t="n">
-        <v>1.455</v>
+        <v>1.458</v>
       </c>
     </row>
     <row r="50">
@@ -3843,10 +3843,10 @@
         <v>-8.5</v>
       </c>
       <c r="F52" t="n">
-        <v>0.72</v>
+        <v>0.73</v>
       </c>
       <c r="G52" t="n">
-        <v>6.854</v>
+        <v>6.859</v>
       </c>
     </row>
   </sheetData>
@@ -3908,7 +3908,7 @@
         <v>0.91</v>
       </c>
       <c r="D2" t="n">
-        <v>16.266</v>
+        <v>16.271</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3927,7 +3927,7 @@
         <v>0.88</v>
       </c>
       <c r="D3" t="n">
-        <v>7.665</v>
+        <v>7.668</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3943,10 +3943,10 @@
         <v>70.52</v>
       </c>
       <c r="C4" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="D4" t="n">
-        <v>13.226</v>
+        <v>13.253</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3965,7 +3965,7 @@
         <v>1.24</v>
       </c>
       <c r="D5" t="n">
-        <v>14.531</v>
+        <v>14.537</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3984,7 +3984,7 @@
         <v>1.39</v>
       </c>
       <c r="D6" t="n">
-        <v>20.956</v>
+        <v>20.971</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -4003,7 +4003,7 @@
         <v>0.78</v>
       </c>
       <c r="D7" t="n">
-        <v>20.326</v>
+        <v>20.337</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -4022,7 +4022,7 @@
         <v>0.8200000000000001</v>
       </c>
       <c r="D8" t="n">
-        <v>11.095</v>
+        <v>11.1</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -4038,10 +4038,10 @@
         <v>39.53</v>
       </c>
       <c r="C9" t="n">
-        <v>1.223333333333333</v>
+        <v>1.226666666666667</v>
       </c>
       <c r="D9" t="n">
-        <v>13.197</v>
+        <v>13.206</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -4057,10 +4057,10 @@
         <v>36.535</v>
       </c>
       <c r="C10" t="n">
-        <v>1.07</v>
+        <v>1.075</v>
       </c>
       <c r="D10" t="n">
-        <v>85.535</v>
+        <v>85.675</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -4079,7 +4079,7 @@
         <v>1.91</v>
       </c>
       <c r="D11" t="n">
-        <v>2.455</v>
+        <v>2.456</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -4098,7 +4098,7 @@
         <v>1.54</v>
       </c>
       <c r="D12" t="n">
-        <v>17.353</v>
+        <v>17.385</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -4117,7 +4117,7 @@
         <v>0.93</v>
       </c>
       <c r="D13" t="n">
-        <v>8.372999999999999</v>
+        <v>8.379</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -4133,10 +4133,10 @@
         <v>26.1</v>
       </c>
       <c r="C14" t="n">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="D14" t="n">
-        <v>6.509</v>
+        <v>6.511</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -4155,7 +4155,7 @@
         <v>1.083333333333333</v>
       </c>
       <c r="D15" t="n">
-        <v>11.024</v>
+        <v>11.03</v>
       </c>
       <c r="E15" t="n">
         <v>3</v>
@@ -4174,7 +4174,7 @@
         <v>0.9450000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>5.787999999999999</v>
+        <v>5.793</v>
       </c>
       <c r="E16" t="n">
         <v>2</v>
@@ -4193,7 +4193,7 @@
         <v>1.465</v>
       </c>
       <c r="D17" t="n">
-        <v>20.182</v>
+        <v>20.207</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -4209,10 +4209,10 @@
         <v>17.02</v>
       </c>
       <c r="C18" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="D18" t="n">
-        <v>2.594</v>
+        <v>2.599</v>
       </c>
       <c r="E18" t="n">
         <v>1</v>
@@ -4231,7 +4231,7 @@
         <v>0.83</v>
       </c>
       <c r="D19" t="n">
-        <v>1.185</v>
+        <v>1.186</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -4247,10 +4247,10 @@
         <v>14.015</v>
       </c>
       <c r="C20" t="n">
-        <v>1.515</v>
+        <v>1.52</v>
       </c>
       <c r="D20" t="n">
-        <v>1.361</v>
+        <v>1.363</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -4266,10 +4266,10 @@
         <v>11.61</v>
       </c>
       <c r="C21" t="n">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="D21" t="n">
-        <v>2.277</v>
+        <v>2.302</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -4285,10 +4285,10 @@
         <v>11.275</v>
       </c>
       <c r="C22" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="D22" t="n">
-        <v>14.85</v>
+        <v>14.898</v>
       </c>
       <c r="E22" t="n">
         <v>2</v>
@@ -4326,7 +4326,7 @@
         <v>0.68</v>
       </c>
       <c r="D24" t="n">
-        <v>2.08</v>
+        <v>2.082</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -4364,7 +4364,7 @@
         <v>0.98</v>
       </c>
       <c r="D26" t="n">
-        <v>1.847</v>
+        <v>1.85</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4380,10 +4380,10 @@
         <v>2.1275</v>
       </c>
       <c r="C27" t="n">
-        <v>1.1575</v>
+        <v>1.16</v>
       </c>
       <c r="D27" t="n">
-        <v>26.63</v>
+        <v>26.663</v>
       </c>
       <c r="E27" t="n">
         <v>4</v>
@@ -4418,7 +4418,7 @@
         <v>1.46</v>
       </c>
       <c r="C29" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="D29" t="n">
         <v>0.099</v>
@@ -4440,7 +4440,7 @@
         <v>1.102</v>
       </c>
       <c r="D30" t="n">
-        <v>5.604</v>
+        <v>5.608000000000001</v>
       </c>
       <c r="E30" t="n">
         <v>5</v>
@@ -4459,7 +4459,7 @@
         <v>0.91</v>
       </c>
       <c r="D31" t="n">
-        <v>3.456</v>
+        <v>3.458</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
@@ -4616,10 +4616,10 @@
         <v>6.03</v>
       </c>
       <c r="L2" t="n">
-        <v>34.1</v>
+        <v>37.9</v>
       </c>
       <c r="M2" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         <v>3.29</v>
       </c>
       <c r="L3" t="n">
-        <v>0.6</v>
+        <v>4.1</v>
       </c>
       <c r="M3" t="n">
         <v>1.54</v>
@@ -4720,7 +4720,7 @@
         <v>4.4</v>
       </c>
       <c r="L4" t="n">
-        <v>425.2</v>
+        <v>426.6</v>
       </c>
       <c r="M4" t="n">
         <v>1.85</v>
@@ -4772,7 +4772,7 @@
         <v>6.13</v>
       </c>
       <c r="L5" t="n">
-        <v>-32.2</v>
+        <v>-31.8</v>
       </c>
       <c r="M5" t="n">
         <v>0.83</v>
@@ -4824,7 +4824,7 @@
         <v>6.73</v>
       </c>
       <c r="L6" t="n">
-        <v>78.09999999999999</v>
+        <v>79.2</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -4876,7 +4876,7 @@
         <v>2.36</v>
       </c>
       <c r="L7" t="n">
-        <v>44.2</v>
+        <v>47.6</v>
       </c>
       <c r="M7" t="n">
         <v>0.86</v>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1_Daily_Signals" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2_21Day_Trend" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3_Industry_Analysis" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4_My_Favorites" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="1_Daily_Signals" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="2_21Day_Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="3_Industry_Analysis" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="4_My_Favorites" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -495,13 +495,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>64.2</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>9.93</v>
+        <v>8.1</v>
       </c>
       <c r="F2" t="n">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,33 +509,33 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.615</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1970</v>
+        <v>20.7</v>
       </c>
       <c r="E3" t="n">
-        <v>9.75</v>
+        <v>5.61</v>
       </c>
       <c r="F3" t="n">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,33 +543,33 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2.302</v>
+        <v>1.282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>369</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>3.65</v>
+        <v>-0.46</v>
       </c>
       <c r="F4" t="n">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -577,33 +577,33 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4.043</v>
+        <v>15.753</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75.90000000000001</v>
+        <v>360</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.39</v>
+        <v>-2.44</v>
       </c>
       <c r="F5" t="n">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,33 +611,33 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>19.877</v>
+        <v>3.301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>51.3</v>
+        <v>130</v>
       </c>
       <c r="E6" t="n">
-        <v>0.59</v>
+        <v>2.36</v>
       </c>
       <c r="F6" t="n">
-        <v>198</v>
+        <v>239</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -645,33 +645,33 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>2.456</v>
+        <v>21.125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>Macronix (MXIC)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>173.5</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>1.17</v>
+        <v>9.9</v>
       </c>
       <c r="F7" t="n">
-        <v>179</v>
+        <v>225</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -679,33 +679,33 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.407</v>
+        <v>18.805</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>261.5</v>
+        <v>297</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.76</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -713,67 +713,67 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>6.524</v>
+        <v>21.132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>297</v>
+        <v>511</v>
       </c>
       <c r="E9" t="n">
-        <v>7.22</v>
+        <v>-2.67</v>
       </c>
       <c r="F9" t="n">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>20.971</v>
+        <v>2.188</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>256.5</v>
+        <v>2305</v>
       </c>
       <c r="E10" t="n">
-        <v>3.43</v>
+        <v>0.88</v>
       </c>
       <c r="F10" t="n">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -781,33 +781,33 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4.598</v>
+        <v>12.745</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>65.40000000000001</v>
+        <v>246.5</v>
       </c>
       <c r="E11" t="n">
-        <v>9.92</v>
+        <v>1.02</v>
       </c>
       <c r="F11" t="n">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -815,67 +815,67 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>14.537</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>225.5</v>
+        <v>1905</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>-3.3</v>
       </c>
       <c r="F12" t="n">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>12.168</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>123.5</v>
+        <v>52</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.8</v>
+        <v>1.56</v>
       </c>
       <c r="F13" t="n">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -883,33 +883,33 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.552</v>
+        <v>1.451</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2285</v>
+        <v>259</v>
       </c>
       <c r="E14" t="n">
-        <v>7.78</v>
+        <v>3.39</v>
       </c>
       <c r="F14" t="n">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -917,33 +917,33 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>13.253</v>
+        <v>4.725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>177</v>
+        <v>249.5</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.84</v>
+        <v>-2.73</v>
       </c>
       <c r="F15" t="n">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -951,33 +951,33 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.748</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>163</v>
+        <v>49.3</v>
       </c>
       <c r="E16" t="n">
-        <v>2.19</v>
+        <v>-3.9</v>
       </c>
       <c r="F16" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -985,67 +985,67 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7.668</v>
+        <v>2.495</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>22.5</v>
+        <v>39.35</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.75</v>
+        <v>-0.13</v>
       </c>
       <c r="F17" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.827</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>172.5</v>
+        <v>2695</v>
       </c>
       <c r="E18" t="n">
-        <v>1.77</v>
+        <v>4.46</v>
       </c>
       <c r="F18" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,41 +1053,41 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4.006</v>
+        <v>8.548999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>39.4</v>
+        <v>384.5</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.13</v>
+        <v>-2.16</v>
       </c>
       <c r="F19" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.681</v>
+        <v>1.794</v>
       </c>
     </row>
     <row r="20">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>23.7</v>
+        <v>23.85</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="F20" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1121,135 +1121,135 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.355</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>258</v>
+        <v>3270</v>
       </c>
       <c r="E21" t="n">
-        <v>7.05</v>
+        <v>-2.97</v>
       </c>
       <c r="F21" t="n">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>8.071</v>
+        <v>6.689</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>92.5</v>
+        <v>305</v>
       </c>
       <c r="E22" t="n">
-        <v>0.11</v>
+        <v>-1.93</v>
       </c>
       <c r="F22" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.458</v>
+        <v>7.658</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>127</v>
+        <v>31.8</v>
       </c>
       <c r="E23" t="n">
-        <v>9.960000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="F23" t="n">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>20.337</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>192</v>
+        <v>171.5</v>
       </c>
       <c r="E24" t="n">
-        <v>2.67</v>
+        <v>-3.11</v>
       </c>
       <c r="F24" t="n">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1257,135 +1257,135 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2.104</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>74.90000000000001</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>1.22</v>
+        <v>-9.880000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.52</v>
+        <v>18.768</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Macronix (MXIC)</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>83.8</v>
+        <v>1255</v>
       </c>
       <c r="E26" t="n">
-        <v>9.970000000000001</v>
+        <v>-1.95</v>
       </c>
       <c r="F26" t="n">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>16.271</v>
+        <v>16.111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1780</v>
+        <v>224</v>
       </c>
       <c r="E27" t="n">
-        <v>0.28</v>
+        <v>-0.67</v>
       </c>
       <c r="F27" t="n">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>17.385</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>36.9</v>
+        <v>502</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.6</v>
+        <v>-1.38</v>
       </c>
       <c r="F28" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1393,67 +1393,67 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.224</v>
+        <v>4.318</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>54.8</v>
+        <v>1780</v>
       </c>
       <c r="E29" t="n">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.834</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>3370</v>
+        <v>92.3</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.75</v>
+        <v>-0.22</v>
       </c>
       <c r="F30" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1461,33 +1461,33 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>6.81</v>
+        <v>1.465</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>19.6</v>
+        <v>310</v>
       </c>
       <c r="E31" t="n">
-        <v>1.29</v>
+        <v>-1.27</v>
       </c>
       <c r="F31" t="n">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1495,33 +1495,33 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.991</v>
+        <v>6.447</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>123.5</v>
+        <v>255.5</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.8</v>
+        <v>-2.29</v>
       </c>
       <c r="F32" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1529,33 +1529,33 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1.532</v>
+        <v>6.541</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>2580</v>
+        <v>1805</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.19</v>
+        <v>-0.82</v>
       </c>
       <c r="F33" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1563,33 +1563,33 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>8.087999999999999</v>
+        <v>65.351</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>244</v>
+        <v>167</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.21</v>
+        <v>-3.19</v>
       </c>
       <c r="F34" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1597,33 +1597,33 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.099</v>
+        <v>3.929</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>509</v>
+        <v>117</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.39</v>
+        <v>-5.26</v>
       </c>
       <c r="F35" t="n">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1631,33 +1631,33 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4.261</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>250.5</v>
+        <v>147</v>
       </c>
       <c r="E36" t="n">
-        <v>3.94</v>
+        <v>-9.82</v>
       </c>
       <c r="F36" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1665,33 +1665,33 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>4.565</v>
+        <v>7.152</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>314</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>2.45</v>
+        <v>0.79</v>
       </c>
       <c r="F37" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1699,67 +1699,67 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>6.511</v>
+        <v>1.668</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>31.35</v>
+        <v>245</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.63</v>
+        <v>-5.04</v>
       </c>
       <c r="F38" t="n">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.136</v>
+        <v>7.857</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1280</v>
+        <v>45.05</v>
       </c>
       <c r="E39" t="n">
-        <v>2.4</v>
+        <v>-2.28</v>
       </c>
       <c r="F39" t="n">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1767,67 +1767,67 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>16.201</v>
+        <v>1.764</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>38.1</v>
+        <v>74.3</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.52</v>
+        <v>-0.8</v>
       </c>
       <c r="F40" t="n">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1.307</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>51.2</v>
+        <v>22.3</v>
       </c>
       <c r="E41" t="n">
-        <v>0.79</v>
+        <v>-0.89</v>
       </c>
       <c r="F41" t="n">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1835,67 +1835,67 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1.385</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>1820</v>
+        <v>132.5</v>
       </c>
       <c r="E42" t="n">
-        <v>2.25</v>
+        <v>-1.49</v>
       </c>
       <c r="F42" t="n">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>65.798</v>
+        <v>6.641</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>311</v>
+        <v>37.95</v>
       </c>
       <c r="E43" t="n">
-        <v>3.67</v>
+        <v>-0.39</v>
       </c>
       <c r="F43" t="n">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1903,67 +1903,67 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>8.379</v>
+        <v>1.314</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>393</v>
+        <v>190</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.51</v>
+        <v>-1.04</v>
       </c>
       <c r="F44" t="n">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1.85</v>
+        <v>2.074</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>287</v>
+        <v>36.1</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.17</v>
+        <v>-2.17</v>
       </c>
       <c r="F45" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1971,33 +1971,33 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>5.865</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>134.5</v>
+        <v>54.7</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="F46" t="n">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2005,67 +2005,67 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>6.859</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>75.8</v>
+        <v>121</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.13</v>
+        <v>-2.02</v>
       </c>
       <c r="F47" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1.729</v>
+        <v>1.473</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>525</v>
+        <v>171</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.9399999999999999</v>
+        <v>-1.44</v>
       </c>
       <c r="F48" t="n">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2073,33 +2073,33 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2.082</v>
+        <v>2.422</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>46.1</v>
+        <v>283</v>
       </c>
       <c r="E49" t="n">
-        <v>1.32</v>
+        <v>-1.39</v>
       </c>
       <c r="F49" t="n">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2107,33 +2107,33 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1.771</v>
+        <v>5.595</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>75.40000000000001</v>
+        <v>62.2</v>
       </c>
       <c r="E50" t="n">
-        <v>-3.33</v>
+        <v>-5.18</v>
       </c>
       <c r="F50" t="n">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1.186</v>
+        <v>4.318</v>
       </c>
     </row>
     <row r="51">
@@ -2161,13 +2161,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1375</v>
+        <v>1330</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.79</v>
+        <v>-3.27</v>
       </c>
       <c r="F51" t="n">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2175,41 +2175,41 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>2.599</v>
+        <v>2.511</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>65.59999999999999</v>
+        <v>72.2</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.5</v>
+        <v>-4.24</v>
       </c>
       <c r="F52" t="n">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>4.576</v>
+        <v>1.129</v>
       </c>
     </row>
   </sheetData>
@@ -2290,137 +2290,137 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>116.26</v>
+        <v>133.46</v>
       </c>
       <c r="F2" t="n">
-        <v>0.91</v>
+        <v>1.25</v>
       </c>
       <c r="G2" t="n">
-        <v>16.271</v>
+        <v>18.805</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Foundry - Memory</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>72.48999999999999</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0.88</v>
+        <v>1.54</v>
       </c>
       <c r="G3" t="n">
-        <v>7.668</v>
+        <v>15.753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>70.52</v>
+        <v>59.61</v>
       </c>
       <c r="F4" t="n">
-        <v>1.21</v>
+        <v>0.85</v>
       </c>
       <c r="G4" t="n">
-        <v>13.253</v>
+        <v>7.152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>62.48</v>
+        <v>58.97</v>
       </c>
       <c r="F5" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="G5" t="n">
-        <v>14.537</v>
+        <v>12.745</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>53.33</v>
+        <v>57.38</v>
       </c>
       <c r="F6" t="n">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="G6" t="n">
-        <v>19.877</v>
+        <v>21.125</v>
       </c>
     </row>
     <row r="7">
@@ -2445,277 +2445,277 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>52.7</v>
+        <v>53.89</v>
       </c>
       <c r="F7" t="n">
-        <v>1.39</v>
+        <v>1.67</v>
       </c>
       <c r="G7" t="n">
-        <v>20.971</v>
+        <v>21.132</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>51.73</v>
+        <v>47.69</v>
       </c>
       <c r="F8" t="n">
-        <v>0.78</v>
+        <v>0.95</v>
       </c>
       <c r="G8" t="n">
-        <v>20.337</v>
+        <v>6.541</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>49.43</v>
+        <v>38.88</v>
       </c>
       <c r="F9" t="n">
-        <v>1.01</v>
+        <v>1.31</v>
       </c>
       <c r="G9" t="n">
-        <v>6.524</v>
+        <v>18.768</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>49.13</v>
+        <v>36.08</v>
       </c>
       <c r="F10" t="n">
-        <v>0.82</v>
+        <v>2.37</v>
       </c>
       <c r="G10" t="n">
-        <v>4.598</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>41.65</v>
+        <v>33.88</v>
       </c>
       <c r="F11" t="n">
-        <v>1.99</v>
+        <v>0.9</v>
       </c>
       <c r="G11" t="n">
-        <v>4.043</v>
+        <v>7.857</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>39.46</v>
+        <v>32.14</v>
       </c>
       <c r="F12" t="n">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>8.071</v>
+        <v>4.725</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>35.96</v>
+        <v>32.01</v>
       </c>
       <c r="F13" t="n">
-        <v>0.63</v>
+        <v>1.09</v>
       </c>
       <c r="G13" t="n">
-        <v>4.576</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>33.19</v>
+        <v>31.92</v>
       </c>
       <c r="F14" t="n">
-        <v>1.08</v>
+        <v>0.61</v>
       </c>
       <c r="G14" t="n">
-        <v>16.201</v>
+        <v>4.318</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>31.2</v>
+        <v>30.32</v>
       </c>
       <c r="F15" t="n">
-        <v>1.91</v>
+        <v>0.96</v>
       </c>
       <c r="G15" t="n">
-        <v>2.456</v>
+        <v>16.111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2724,13 +2724,13 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>27.81</v>
+        <v>28.8</v>
       </c>
       <c r="F16" t="n">
-        <v>0.87</v>
+        <v>2.76</v>
       </c>
       <c r="G16" t="n">
-        <v>4.565</v>
+        <v>3.301</v>
       </c>
     </row>
     <row r="17">
@@ -2755,106 +2755,106 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>27.78</v>
+        <v>26.89</v>
       </c>
       <c r="F17" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="G17" t="n">
-        <v>17.385</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>27.72</v>
+        <v>26.82</v>
       </c>
       <c r="F18" t="n">
-        <v>0.93</v>
+        <v>1.1</v>
       </c>
       <c r="G18" t="n">
-        <v>8.379</v>
+        <v>8.548999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.1</v>
+        <v>26.41</v>
       </c>
       <c r="F19" t="n">
-        <v>0.88</v>
+        <v>1.92</v>
       </c>
       <c r="G19" t="n">
-        <v>6.511</v>
+        <v>2.495</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>25.85</v>
+        <v>23.75</v>
       </c>
       <c r="F20" t="n">
-        <v>1.07</v>
+        <v>0.87</v>
       </c>
       <c r="G20" t="n">
-        <v>8.087999999999999</v>
+        <v>6.447</v>
       </c>
     </row>
     <row r="21">
@@ -2879,44 +2879,44 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.84</v>
+        <v>23.65</v>
       </c>
       <c r="F21" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="G21" t="n">
-        <v>4.261</v>
+        <v>4.318</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>22.99</v>
+        <v>23.23</v>
       </c>
       <c r="F22" t="n">
-        <v>1.85</v>
+        <v>1.05</v>
       </c>
       <c r="G22" t="n">
-        <v>0.615</v>
+        <v>7.658</v>
       </c>
     </row>
     <row r="23">
@@ -2941,13 +2941,13 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>19.74</v>
+        <v>16.45</v>
       </c>
       <c r="F23" t="n">
-        <v>0.79</v>
+        <v>0.78</v>
       </c>
       <c r="G23" t="n">
-        <v>65.798</v>
+        <v>65.351</v>
       </c>
     </row>
     <row r="24">
@@ -2972,308 +2972,308 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.72</v>
+        <v>14.54</v>
       </c>
       <c r="F24" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="G24" t="n">
-        <v>1.532</v>
+        <v>1.473</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>17.02</v>
+        <v>12.87</v>
       </c>
       <c r="F25" t="n">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="G25" t="n">
-        <v>2.599</v>
+        <v>2.422</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>14.88</v>
+        <v>10.4</v>
       </c>
       <c r="F26" t="n">
-        <v>1.28</v>
+        <v>1.03</v>
       </c>
       <c r="G26" t="n">
-        <v>0.552</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>14.24</v>
+        <v>10.12</v>
       </c>
       <c r="F27" t="n">
-        <v>0.83</v>
+        <v>1.74</v>
       </c>
       <c r="G27" t="n">
-        <v>1.186</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>12.66</v>
+        <v>9.92</v>
       </c>
       <c r="F28" t="n">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G28" t="n">
-        <v>2.407</v>
+        <v>2.511</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>11.61</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>1.91</v>
+        <v>0.98</v>
       </c>
       <c r="G29" t="n">
-        <v>2.302</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>11.39</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>1.12</v>
+        <v>1.52</v>
       </c>
       <c r="G30" t="n">
-        <v>0.827</v>
+        <v>1.282</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>11.14</v>
+        <v>7.12</v>
       </c>
       <c r="F31" t="n">
-        <v>1.22</v>
+        <v>0.59</v>
       </c>
       <c r="G31" t="n">
-        <v>0.224</v>
+        <v>1.129</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>9.15</v>
+        <v>5.01</v>
       </c>
       <c r="F32" t="n">
-        <v>0.68</v>
+        <v>1.74</v>
       </c>
       <c r="G32" t="n">
-        <v>2.082</v>
+        <v>1.764</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>9.130000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="F33" t="n">
-        <v>0.71</v>
+        <v>0.9</v>
       </c>
       <c r="G33" t="n">
-        <v>5.865</v>
+        <v>2.188</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3282,478 +3282,478 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>8.98</v>
+        <v>4.04</v>
       </c>
       <c r="F34" t="n">
-        <v>2.34</v>
+        <v>0.68</v>
       </c>
       <c r="G34" t="n">
-        <v>1.771</v>
+        <v>5.595</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6.48</v>
+        <v>3.83</v>
       </c>
       <c r="F35" t="n">
-        <v>1.85</v>
+        <v>0.86</v>
       </c>
       <c r="G35" t="n">
-        <v>4.006</v>
+        <v>1.314</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>5.04</v>
+        <v>3.59</v>
       </c>
       <c r="F36" t="n">
-        <v>1.19</v>
+        <v>1.07</v>
       </c>
       <c r="G36" t="n">
-        <v>0.748</v>
+        <v>1.451</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4.96</v>
+        <v>2.81</v>
       </c>
       <c r="F37" t="n">
-        <v>1.15</v>
+        <v>1.1</v>
       </c>
       <c r="G37" t="n">
-        <v>1.307</v>
+        <v>1.794</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>4.94</v>
+        <v>2.71</v>
       </c>
       <c r="F38" t="n">
-        <v>0.98</v>
+        <v>1.13</v>
       </c>
       <c r="G38" t="n">
-        <v>1.85</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>1.99</v>
+        <v>2.14</v>
       </c>
       <c r="F39" t="n">
-        <v>0.99</v>
+        <v>1.54</v>
       </c>
       <c r="G39" t="n">
-        <v>1.385</v>
+        <v>3.929</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1.82</v>
+        <v>0.98</v>
       </c>
       <c r="F40" t="n">
-        <v>0.98</v>
+        <v>1.26</v>
       </c>
       <c r="G40" t="n">
-        <v>0.991</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1.46</v>
+        <v>0.79</v>
       </c>
       <c r="F41" t="n">
-        <v>1.03</v>
+        <v>0.97</v>
       </c>
       <c r="G41" t="n">
-        <v>0.099</v>
+        <v>1.668</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.52</v>
+        <v>0.59</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9</v>
+        <v>1.18</v>
       </c>
       <c r="G42" t="n">
-        <v>2.104</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-0.52</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.97</v>
+        <v>0.87</v>
       </c>
       <c r="G43" t="n">
-        <v>1.729</v>
+        <v>2.074</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-1.1</v>
+        <v>-1.63</v>
       </c>
       <c r="F44" t="n">
-        <v>0.86</v>
+        <v>1.24</v>
       </c>
       <c r="G44" t="n">
-        <v>12.168</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-1.87</v>
+        <v>-1.8</v>
       </c>
       <c r="F45" t="n">
-        <v>1.27</v>
+        <v>0.83</v>
       </c>
       <c r="G45" t="n">
-        <v>0.681</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-2.66</v>
+        <v>-1.85</v>
       </c>
       <c r="F46" t="n">
-        <v>0.87</v>
+        <v>1.11</v>
       </c>
       <c r="G46" t="n">
-        <v>0.834</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-2.87</v>
+        <v>-2.82</v>
       </c>
       <c r="F47" t="n">
-        <v>1.19</v>
+        <v>0.87</v>
       </c>
       <c r="G47" t="n">
-        <v>0.355</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-3.3</v>
+        <v>-3.95</v>
       </c>
       <c r="F48" t="n">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="G48" t="n">
-        <v>6.81</v>
+        <v>1.465</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-4.64</v>
+        <v>-4.07</v>
       </c>
       <c r="F49" t="n">
-        <v>1.09</v>
+        <v>0.97</v>
       </c>
       <c r="G49" t="n">
-        <v>1.458</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="50">
@@ -3778,44 +3778,44 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-5.79</v>
+        <v>-5.71</v>
       </c>
       <c r="F50" t="n">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="G50" t="n">
-        <v>0.52</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E51" t="n">
         <v>-6.84</v>
       </c>
       <c r="F51" t="n">
-        <v>0.92</v>
+        <v>1.05</v>
       </c>
       <c r="G51" t="n">
-        <v>0.136</v>
+        <v>6.689</v>
       </c>
     </row>
     <row r="52">
@@ -3840,13 +3840,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-8.5</v>
+        <v>-11.96</v>
       </c>
       <c r="F52" t="n">
-        <v>0.73</v>
+        <v>0.7</v>
       </c>
       <c r="G52" t="n">
-        <v>6.859</v>
+        <v>6.641</v>
       </c>
     </row>
   </sheetData>
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>116.26</v>
+        <v>133.46</v>
       </c>
       <c r="C2" t="n">
-        <v>0.91</v>
+        <v>1.25</v>
       </c>
       <c r="D2" t="n">
-        <v>16.271</v>
+        <v>18.805</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3917,17 +3917,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Foundry - Memory</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>72.48999999999999</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>0.88</v>
+        <v>1.54</v>
       </c>
       <c r="D3" t="n">
-        <v>7.668</v>
+        <v>15.753</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3936,17 +3936,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>70.52</v>
+        <v>59.61</v>
       </c>
       <c r="C4" t="n">
-        <v>1.21</v>
+        <v>0.85</v>
       </c>
       <c r="D4" t="n">
-        <v>13.253</v>
+        <v>7.152</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3955,17 +3955,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>62.48</v>
+        <v>58.97</v>
       </c>
       <c r="C5" t="n">
-        <v>1.24</v>
+        <v>1.2</v>
       </c>
       <c r="D5" t="n">
-        <v>14.537</v>
+        <v>12.745</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3974,17 +3974,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>52.7</v>
+        <v>57.38</v>
       </c>
       <c r="C6" t="n">
-        <v>1.39</v>
+        <v>1.18</v>
       </c>
       <c r="D6" t="n">
-        <v>20.971</v>
+        <v>21.125</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -3993,17 +3993,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>51.73</v>
+        <v>53.89</v>
       </c>
       <c r="C7" t="n">
-        <v>0.78</v>
+        <v>1.67</v>
       </c>
       <c r="D7" t="n">
-        <v>20.337</v>
+        <v>21.132</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -4016,13 +4016,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>42.695</v>
+        <v>39.805</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="D8" t="n">
-        <v>11.1</v>
+        <v>10.859</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -4035,13 +4035,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>39.53</v>
+        <v>30.98333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>1.226666666666667</v>
+        <v>1.616666666666666</v>
       </c>
       <c r="D9" t="n">
-        <v>13.206</v>
+        <v>12.316</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -4054,13 +4054,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>36.535</v>
+        <v>27.665</v>
       </c>
       <c r="C10" t="n">
-        <v>1.075</v>
+        <v>1.045</v>
       </c>
       <c r="D10" t="n">
-        <v>85.675</v>
+        <v>84.119</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -4069,17 +4069,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>31.2</v>
+        <v>26.89</v>
       </c>
       <c r="C11" t="n">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="D11" t="n">
-        <v>2.456</v>
+        <v>17.66</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -4088,17 +4088,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>27.78</v>
+        <v>26.41</v>
       </c>
       <c r="C12" t="n">
-        <v>1.54</v>
+        <v>1.92</v>
       </c>
       <c r="D12" t="n">
-        <v>17.385</v>
+        <v>2.495</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -4107,17 +4107,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27.72</v>
+        <v>23.75</v>
       </c>
       <c r="C13" t="n">
-        <v>0.93</v>
+        <v>0.87</v>
       </c>
       <c r="D13" t="n">
-        <v>8.379</v>
+        <v>6.447</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -4126,17 +4126,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>26.1</v>
+        <v>23.23</v>
       </c>
       <c r="C14" t="n">
-        <v>0.88</v>
+        <v>1.05</v>
       </c>
       <c r="D14" t="n">
-        <v>6.511</v>
+        <v>7.658</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -4145,55 +4145,55 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.33333333333333</v>
+        <v>19.095</v>
       </c>
       <c r="C15" t="n">
-        <v>1.083333333333333</v>
+        <v>0.885</v>
       </c>
       <c r="D15" t="n">
-        <v>11.03</v>
+        <v>5.790999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.78</v>
+        <v>18.87</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9450000000000001</v>
+        <v>0.9233333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>5.793</v>
+        <v>10.818</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>19.835</v>
+        <v>18.335</v>
       </c>
       <c r="C17" t="n">
-        <v>1.465</v>
+        <v>1.775</v>
       </c>
       <c r="D17" t="n">
-        <v>20.207</v>
+        <v>1.611</v>
       </c>
       <c r="E17" t="n">
         <v>2</v>
@@ -4202,36 +4202,36 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>17.02</v>
+        <v>16.23</v>
       </c>
       <c r="C18" t="n">
-        <v>0.98</v>
+        <v>1.25</v>
       </c>
       <c r="D18" t="n">
-        <v>2.599</v>
+        <v>20.04</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>14.24</v>
+        <v>10.12</v>
       </c>
       <c r="C19" t="n">
-        <v>0.83</v>
+        <v>1.74</v>
       </c>
       <c r="D19" t="n">
-        <v>1.186</v>
+        <v>2.33</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -4240,17 +4240,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>14.015</v>
+        <v>9.99</v>
       </c>
       <c r="C20" t="n">
-        <v>1.52</v>
+        <v>1.075</v>
       </c>
       <c r="D20" t="n">
-        <v>1.363</v>
+        <v>15.238</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -4259,17 +4259,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.61</v>
+        <v>9.92</v>
       </c>
       <c r="C21" t="n">
-        <v>1.91</v>
+        <v>0.98</v>
       </c>
       <c r="D21" t="n">
-        <v>2.302</v>
+        <v>2.511</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -4278,36 +4278,36 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.275</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.04</v>
+        <v>1.52</v>
       </c>
       <c r="D22" t="n">
-        <v>14.898</v>
+        <v>1.282</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>11.14</v>
+        <v>7.12</v>
       </c>
       <c r="C23" t="n">
-        <v>1.22</v>
+        <v>0.59</v>
       </c>
       <c r="D23" t="n">
-        <v>0.224</v>
+        <v>1.129</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -4316,39 +4316,39 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>9.15</v>
+        <v>7.115</v>
       </c>
       <c r="C24" t="n">
-        <v>0.68</v>
+        <v>0.9450000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>2.082</v>
+        <v>2.139</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8.175000000000001</v>
+        <v>4.5</v>
       </c>
       <c r="C25" t="n">
-        <v>1.135</v>
+        <v>0.9</v>
       </c>
       <c r="D25" t="n">
-        <v>2.134</v>
+        <v>2.188</v>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -4358,13 +4358,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>4.94</v>
+        <v>2.81</v>
       </c>
       <c r="C26" t="n">
-        <v>0.98</v>
+        <v>1.1</v>
       </c>
       <c r="D26" t="n">
-        <v>1.85</v>
+        <v>1.794</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4373,36 +4373,36 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.1275</v>
+        <v>2.71</v>
       </c>
       <c r="C27" t="n">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="D27" t="n">
-        <v>26.663</v>
+        <v>0.105</v>
       </c>
       <c r="E27" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1.82</v>
+        <v>0.98</v>
       </c>
       <c r="C28" t="n">
-        <v>0.98</v>
+        <v>1.26</v>
       </c>
       <c r="D28" t="n">
-        <v>0.991</v>
+        <v>0.208</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -4411,39 +4411,39 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.46</v>
+        <v>-0.6100000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>1.03</v>
+        <v>1.086</v>
       </c>
       <c r="D29" t="n">
-        <v>0.099</v>
+        <v>5.657</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.582</v>
+        <v>-1.4325</v>
       </c>
       <c r="C30" t="n">
-        <v>1.102</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>5.608000000000001</v>
+        <v>26.22</v>
       </c>
       <c r="E30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
@@ -4453,13 +4453,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2.643333333333333</v>
+        <v>-2.503333333333333</v>
       </c>
       <c r="C31" t="n">
-        <v>0.91</v>
+        <v>0.89</v>
       </c>
       <c r="D31" t="n">
-        <v>3.458</v>
+        <v>3.426</v>
       </c>
       <c r="E31" t="n">
         <v>3</v>
@@ -4472,13 +4472,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-6.84</v>
+        <v>-4.07</v>
       </c>
       <c r="C32" t="n">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="D32" t="n">
-        <v>0.136</v>
+        <v>0.139</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -4592,34 +4592,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2285</v>
+        <v>2305</v>
       </c>
       <c r="E2" t="n">
-        <v>7.78</v>
+        <v>0.88</v>
       </c>
       <c r="F2" t="n">
-        <v>70.52</v>
+        <v>58.97</v>
       </c>
       <c r="G2" t="n">
-        <v>77.98999999999999</v>
+        <v>83.92</v>
       </c>
       <c r="H2" t="n">
-        <v>222.6131</v>
+        <v>232.2496</v>
       </c>
       <c r="I2" t="n">
-        <v>99.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="J2" t="n">
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>6.03</v>
+        <v>5.87</v>
       </c>
       <c r="L2" t="n">
-        <v>37.9</v>
+        <v>51.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -4647,19 +4647,19 @@
         <v>1780</v>
       </c>
       <c r="E3" t="n">
-        <v>0.28</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>27.78</v>
+        <v>26.89</v>
       </c>
       <c r="G3" t="n">
-        <v>84.54000000000001</v>
+        <v>89.13</v>
       </c>
       <c r="H3" t="n">
-        <v>78.444</v>
+        <v>86.4954</v>
       </c>
       <c r="I3" t="n">
-        <v>104.7</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="J3" t="n">
         <v>100</v>
@@ -4668,10 +4668,10 @@
         <v>3.29</v>
       </c>
       <c r="L3" t="n">
-        <v>4.1</v>
+        <v>-1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.54</v>
+        <v>1.55</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -4696,34 +4696,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64.2</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>9.93</v>
+        <v>8.1</v>
       </c>
       <c r="F4" t="n">
-        <v>22.99</v>
+        <v>36.08</v>
       </c>
       <c r="G4" t="n">
-        <v>74.22</v>
+        <v>77.53</v>
       </c>
       <c r="H4" t="n">
-        <v>1.5867</v>
+        <v>2.6998</v>
       </c>
       <c r="I4" t="n">
-        <v>134.5</v>
+        <v>128.3</v>
       </c>
       <c r="J4" t="n">
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>4.4</v>
+        <v>4.38</v>
       </c>
       <c r="L4" t="n">
-        <v>426.6</v>
+        <v>411.8</v>
       </c>
       <c r="M4" t="n">
-        <v>1.85</v>
+        <v>2.37</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -4748,34 +4748,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>75.40000000000001</v>
+        <v>72.2</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.33</v>
+        <v>-4.24</v>
       </c>
       <c r="F5" t="n">
-        <v>14.24</v>
+        <v>7.12</v>
       </c>
       <c r="G5" t="n">
-        <v>66.01000000000001</v>
+        <v>58.58</v>
       </c>
       <c r="H5" t="n">
-        <v>2.6177</v>
+        <v>2.2234</v>
       </c>
       <c r="I5" t="n">
-        <v>67.40000000000001</v>
+        <v>48.1</v>
       </c>
       <c r="J5" t="n">
-        <v>77.90000000000001</v>
+        <v>45.9</v>
       </c>
       <c r="K5" t="n">
-        <v>6.13</v>
+        <v>6.56</v>
       </c>
       <c r="L5" t="n">
-        <v>-31.8</v>
+        <v>-59.4</v>
       </c>
       <c r="M5" t="n">
-        <v>0.83</v>
+        <v>0.59</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -4800,34 +4800,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>173.5</v>
+        <v>171</v>
       </c>
       <c r="E6" t="n">
-        <v>1.17</v>
+        <v>-1.44</v>
       </c>
       <c r="F6" t="n">
-        <v>12.66</v>
+        <v>12.87</v>
       </c>
       <c r="G6" t="n">
         <v>64.59999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>7.3315</v>
+        <v>6.9446</v>
       </c>
       <c r="I6" t="n">
-        <v>73.3</v>
+        <v>66</v>
       </c>
       <c r="J6" t="n">
-        <v>70.3</v>
+        <v>52.6</v>
       </c>
       <c r="K6" t="n">
-        <v>6.73</v>
+        <v>6.7</v>
       </c>
       <c r="L6" t="n">
-        <v>79.2</v>
+        <v>-41.7</v>
       </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -4852,34 +4852,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>225.5</v>
+        <v>224</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-0.67</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.1</v>
+        <v>-2.82</v>
       </c>
       <c r="G7" t="n">
-        <v>45.12</v>
+        <v>42.17</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.8334</v>
+        <v>-0.9318</v>
       </c>
       <c r="I7" t="n">
-        <v>33.3</v>
+        <v>28.2</v>
       </c>
       <c r="J7" t="n">
-        <v>41.9</v>
+        <v>32.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.36</v>
+        <v>2.39</v>
       </c>
       <c r="L7" t="n">
-        <v>47.6</v>
+        <v>-0.4</v>
       </c>
       <c r="M7" t="n">
-        <v>0.86</v>
+        <v>0.87</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -495,13 +495,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>69.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="E2" t="n">
-        <v>8.1</v>
+        <v>9.94</v>
       </c>
       <c r="F2" t="n">
-        <v>512</v>
+        <v>361</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.87</v>
+        <v>1.117</v>
       </c>
     </row>
     <row r="3">
@@ -529,13 +529,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20.7</v>
+        <v>20.75</v>
       </c>
       <c r="E3" t="n">
-        <v>5.61</v>
+        <v>0.24</v>
       </c>
       <c r="F3" t="n">
-        <v>406</v>
+        <v>328</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,67 +543,67 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.282</v>
+        <v>1.494</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>65.09999999999999</v>
+        <v>38.8</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.46</v>
+        <v>-1.4</v>
       </c>
       <c r="F4" t="n">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>15.753</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>360</v>
+        <v>69.5</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.44</v>
+        <v>6.76</v>
       </c>
       <c r="F5" t="n">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,33 +611,33 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3.301</v>
+        <v>17.338</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>130</v>
+        <v>363.5</v>
       </c>
       <c r="E6" t="n">
-        <v>2.36</v>
+        <v>0.97</v>
       </c>
       <c r="F6" t="n">
-        <v>239</v>
+        <v>201</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -645,67 +645,67 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>21.125</v>
+        <v>3.564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Macronix (MXIC)</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>92.09999999999999</v>
+        <v>23.55</v>
       </c>
       <c r="E7" t="n">
-        <v>9.9</v>
+        <v>-1.26</v>
       </c>
       <c r="F7" t="n">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>18.805</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>Macronix (MXIC)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>297</v>
+        <v>92.8</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.76</v>
       </c>
       <c r="F8" t="n">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -713,67 +713,67 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>21.132</v>
+        <v>19.997</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>511</v>
+        <v>326.5</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.67</v>
+        <v>9.93</v>
       </c>
       <c r="F9" t="n">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2.188</v>
+        <v>23.065</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2305</v>
+        <v>128.5</v>
       </c>
       <c r="E10" t="n">
-        <v>0.88</v>
+        <v>-1.15</v>
       </c>
       <c r="F10" t="n">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -781,33 +781,33 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>12.745</v>
+        <v>19.831</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>246.5</v>
+        <v>2380</v>
       </c>
       <c r="E11" t="n">
-        <v>1.02</v>
+        <v>3.25</v>
       </c>
       <c r="F11" t="n">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -815,101 +815,101 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.105</v>
+        <v>13.431</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1905</v>
+        <v>483.5</v>
       </c>
       <c r="E12" t="n">
-        <v>-3.3</v>
+        <v>-5.38</v>
       </c>
       <c r="F12" t="n">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2.33</v>
+        <v>2.148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>52</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="E13" t="n">
-        <v>1.56</v>
+        <v>-1.52</v>
       </c>
       <c r="F13" t="n">
         <v>145</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.451</v>
+        <v>1.492</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>259</v>
+        <v>2620</v>
       </c>
       <c r="E14" t="n">
-        <v>3.39</v>
+        <v>-2.78</v>
       </c>
       <c r="F14" t="n">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -917,67 +917,67 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4.725</v>
+        <v>8.430999999999999</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>249.5</v>
+        <v>375</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.73</v>
+        <v>-2.47</v>
       </c>
       <c r="F15" t="n">
         <v>136</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4.29</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>49.3</v>
+        <v>50.9</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.9</v>
+        <v>-2.12</v>
       </c>
       <c r="F16" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -985,101 +985,101 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2.495</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>39.35</v>
+        <v>143.5</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.13</v>
+        <v>-2.38</v>
       </c>
       <c r="F17" t="n">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.704</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2695</v>
+        <v>220.5</v>
       </c>
       <c r="E18" t="n">
-        <v>4.46</v>
+        <v>-1.56</v>
       </c>
       <c r="F18" t="n">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8.548999999999999</v>
+        <v>12.175</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>384.5</v>
+        <v>62.4</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.16</v>
+        <v>-8.77</v>
       </c>
       <c r="F19" t="n">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1087,33 +1087,33 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.794</v>
+        <v>18.188</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>23.85</v>
+        <v>73.5</v>
       </c>
       <c r="E20" t="n">
-        <v>0.63</v>
+        <v>-1.08</v>
       </c>
       <c r="F20" t="n">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1121,67 +1121,67 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.369</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3270</v>
+        <v>297</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.97</v>
+        <v>-4.19</v>
       </c>
       <c r="F21" t="n">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6.689</v>
+        <v>6.206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>305</v>
+        <v>266.5</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.93</v>
+        <v>2.9</v>
       </c>
       <c r="F22" t="n">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1189,33 +1189,33 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7.658</v>
+        <v>4.935</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31.8</v>
+        <v>3125</v>
       </c>
       <c r="E23" t="n">
-        <v>1.44</v>
+        <v>-4.43</v>
       </c>
       <c r="F23" t="n">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1223,33 +1223,33 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.139</v>
+        <v>6.276</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>171.5</v>
+        <v>252.5</v>
       </c>
       <c r="E24" t="n">
-        <v>-3.11</v>
+        <v>1.2</v>
       </c>
       <c r="F24" t="n">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1257,33 +1257,33 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.741</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>68.40000000000001</v>
+        <v>1775</v>
       </c>
       <c r="E25" t="n">
-        <v>-9.880000000000001</v>
+        <v>-1.66</v>
       </c>
       <c r="F25" t="n">
-        <v>101</v>
+        <v>119</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1291,101 +1291,101 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>18.768</v>
+        <v>64.806</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1255</v>
+        <v>31.05</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.95</v>
+        <v>-2.36</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>16.111</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>224</v>
+        <v>1830</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.67</v>
+        <v>-3.94</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>12.22</v>
+        <v>2.324</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>502</v>
+        <v>1760</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.38</v>
+        <v>-1.12</v>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1393,135 +1393,135 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4.318</v>
+        <v>17.441</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1780</v>
+        <v>186</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-2.11</v>
       </c>
       <c r="F29" t="n">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>17.66</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>92.3</v>
+        <v>22.2</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.22</v>
+        <v>-0.45</v>
       </c>
       <c r="F30" t="n">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1.465</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>310</v>
+        <v>167</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.27</v>
+        <v>-2.62</v>
       </c>
       <c r="F31" t="n">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6.447</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>255.5</v>
+        <v>47.3</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.29</v>
+        <v>-4.06</v>
       </c>
       <c r="F32" t="n">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1529,135 +1529,135 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6.541</v>
+        <v>2.461</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1805</v>
+        <v>75.40000000000001</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.82</v>
+        <v>-1.31</v>
       </c>
       <c r="F33" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>65.351</v>
+        <v>1.626</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>167</v>
+        <v>239</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.19</v>
+        <v>-3.04</v>
       </c>
       <c r="F34" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3.929</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>117</v>
+        <v>280</v>
       </c>
       <c r="E35" t="n">
-        <v>-5.26</v>
+        <v>-1.06</v>
       </c>
       <c r="F35" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.539</v>
+        <v>5.459</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>147</v>
+        <v>1220</v>
       </c>
       <c r="E36" t="n">
-        <v>-9.82</v>
+        <v>-2.79</v>
       </c>
       <c r="F36" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1665,67 +1665,67 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>7.152</v>
+        <v>15.528</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>76.40000000000001</v>
+        <v>53.4</v>
       </c>
       <c r="E37" t="n">
-        <v>0.79</v>
+        <v>-2.38</v>
       </c>
       <c r="F37" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.668</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>245</v>
+        <v>296</v>
       </c>
       <c r="E38" t="n">
-        <v>-5.04</v>
+        <v>-2.95</v>
       </c>
       <c r="F38" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1733,67 +1733,67 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>7.857</v>
+        <v>6.855</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>45.05</v>
+        <v>130.5</v>
       </c>
       <c r="E39" t="n">
-        <v>-2.28</v>
+        <v>-1.51</v>
       </c>
       <c r="F39" t="n">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1.764</v>
+        <v>6.182</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>74.3</v>
+        <v>37.4</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.8</v>
+        <v>-1.45</v>
       </c>
       <c r="F40" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1801,169 +1801,169 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.523</v>
+        <v>1.308</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>22.3</v>
+        <v>164</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.89</v>
+        <v>-1.8</v>
       </c>
       <c r="F41" t="n">
         <v>72</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.825</v>
+        <v>3.795</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>132.5</v>
+        <v>120</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.49</v>
+        <v>-0.83</v>
       </c>
       <c r="F42" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6.641</v>
+        <v>1.441</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>37.95</v>
+        <v>35.15</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.39</v>
+        <v>-2.63</v>
       </c>
       <c r="F43" t="n">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1.314</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>190</v>
+        <v>497</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.04</v>
+        <v>-1</v>
       </c>
       <c r="F44" t="n">
         <v>65</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2.074</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>36.1</v>
+        <v>254</v>
       </c>
       <c r="E45" t="n">
-        <v>-2.17</v>
+        <v>-0.59</v>
       </c>
       <c r="F45" t="n">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1971,101 +1971,101 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.208</v>
+        <v>6.439</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>54.7</v>
+        <v>45</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.18</v>
+        <v>-0.11</v>
       </c>
       <c r="F46" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.829</v>
+        <v>1.755</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.02</v>
+        <v>-4.27</v>
       </c>
       <c r="F47" t="n">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1.473</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>171</v>
+        <v>234.5</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.44</v>
+        <v>-4.29</v>
       </c>
       <c r="F48" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2073,101 +2073,101 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2.422</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>283</v>
+        <v>60.2</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.39</v>
+        <v>-3.22</v>
       </c>
       <c r="F49" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>5.595</v>
+        <v>4.184</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>62.2</v>
+        <v>1290</v>
       </c>
       <c r="E50" t="n">
-        <v>-5.18</v>
+        <v>-3.01</v>
       </c>
       <c r="F50" t="n">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>4.318</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1330</v>
+        <v>168</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.27</v>
+        <v>-1.75</v>
       </c>
       <c r="F51" t="n">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>2.511</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="52">
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>72.2</v>
+        <v>68.7</v>
       </c>
       <c r="E52" t="n">
-        <v>-4.24</v>
+        <v>-4.85</v>
       </c>
       <c r="F52" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1.129</v>
+        <v>1.022</v>
       </c>
     </row>
   </sheetData>
@@ -2290,13 +2290,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>133.46</v>
+        <v>114.07</v>
       </c>
       <c r="F2" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>18.805</v>
+        <v>19.997</v>
       </c>
     </row>
     <row r="3">
@@ -2321,230 +2321,230 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>64.59999999999999</v>
+        <v>65.08</v>
       </c>
       <c r="F3" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="G3" t="n">
-        <v>15.753</v>
+        <v>17.338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>59.61</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="F4" t="n">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="G4" t="n">
-        <v>7.152</v>
+        <v>13.431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>58.97</v>
+        <v>57.73</v>
       </c>
       <c r="F5" t="n">
-        <v>1.2</v>
+        <v>1.58</v>
       </c>
       <c r="G5" t="n">
-        <v>12.745</v>
+        <v>23.065</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>57.38</v>
+        <v>55.47</v>
       </c>
       <c r="F6" t="n">
-        <v>1.18</v>
+        <v>0.93</v>
       </c>
       <c r="G6" t="n">
-        <v>21.125</v>
+        <v>7.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53.89</v>
+        <v>44.23</v>
       </c>
       <c r="F7" t="n">
-        <v>1.67</v>
+        <v>2.71</v>
       </c>
       <c r="G7" t="n">
-        <v>21.132</v>
+        <v>1.117</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>47.69</v>
+        <v>41.52</v>
       </c>
       <c r="F8" t="n">
-        <v>0.95</v>
+        <v>1.5</v>
       </c>
       <c r="G8" t="n">
-        <v>6.541</v>
+        <v>19.831</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>38.88</v>
+        <v>38.42</v>
       </c>
       <c r="F9" t="n">
-        <v>1.31</v>
+        <v>0.96</v>
       </c>
       <c r="G9" t="n">
-        <v>18.768</v>
+        <v>6.439</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36.08</v>
+        <v>31.28</v>
       </c>
       <c r="F10" t="n">
-        <v>2.37</v>
+        <v>1.05</v>
       </c>
       <c r="G10" t="n">
-        <v>0.87</v>
+        <v>4.935</v>
       </c>
     </row>
     <row r="11">
@@ -2569,29 +2569,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.88</v>
+        <v>31.01</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="G11" t="n">
-        <v>7.857</v>
+        <v>7.5</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2600,29 +2600,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.14</v>
+        <v>30.49</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="G12" t="n">
-        <v>4.725</v>
+        <v>4.13</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2631,633 +2631,633 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.01</v>
+        <v>29.59</v>
       </c>
       <c r="F13" t="n">
-        <v>1.09</v>
+        <v>2.34</v>
       </c>
       <c r="G13" t="n">
-        <v>4.29</v>
+        <v>3.564</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31.92</v>
+        <v>28.13</v>
       </c>
       <c r="F14" t="n">
-        <v>0.61</v>
+        <v>1.3</v>
       </c>
       <c r="G14" t="n">
-        <v>4.318</v>
+        <v>18.188</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30.32</v>
+        <v>23.87</v>
       </c>
       <c r="F15" t="n">
-        <v>0.96</v>
+        <v>0.54</v>
       </c>
       <c r="G15" t="n">
-        <v>16.111</v>
+        <v>4.184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.8</v>
+        <v>23.33</v>
       </c>
       <c r="F16" t="n">
-        <v>2.76</v>
+        <v>0.71</v>
       </c>
       <c r="G16" t="n">
-        <v>3.301</v>
+        <v>4.32</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>26.89</v>
+        <v>23.02</v>
       </c>
       <c r="F17" t="n">
-        <v>1.55</v>
+        <v>1.88</v>
       </c>
       <c r="G17" t="n">
-        <v>17.66</v>
+        <v>2.461</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.82</v>
+        <v>22.61</v>
       </c>
       <c r="F18" t="n">
-        <v>1.1</v>
+        <v>0.86</v>
       </c>
       <c r="G18" t="n">
-        <v>8.548999999999999</v>
+        <v>15.528</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.41</v>
+        <v>22.05</v>
       </c>
       <c r="F19" t="n">
-        <v>1.92</v>
+        <v>1.34</v>
       </c>
       <c r="G19" t="n">
-        <v>2.495</v>
+        <v>17.441</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23.75</v>
+        <v>19.91</v>
       </c>
       <c r="F20" t="n">
-        <v>0.87</v>
+        <v>1.12</v>
       </c>
       <c r="G20" t="n">
-        <v>6.447</v>
+        <v>8.430999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.65</v>
+        <v>15.12</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="G21" t="n">
-        <v>4.318</v>
+        <v>6.206</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>23.23</v>
+        <v>11.99</v>
       </c>
       <c r="F22" t="n">
-        <v>1.05</v>
+        <v>0.86</v>
       </c>
       <c r="G22" t="n">
-        <v>7.658</v>
+        <v>64.806</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16.45</v>
+        <v>11.63</v>
       </c>
       <c r="F23" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>65.351</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>14.54</v>
+        <v>11.21</v>
       </c>
       <c r="F24" t="n">
-        <v>0.97</v>
+        <v>0.83</v>
       </c>
       <c r="G24" t="n">
-        <v>1.473</v>
+        <v>2.43</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12.87</v>
+        <v>10.67</v>
       </c>
       <c r="F25" t="n">
-        <v>0.89</v>
+        <v>1.88</v>
       </c>
       <c r="G25" t="n">
-        <v>2.422</v>
+        <v>1.494</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>10.4</v>
+        <v>10.65</v>
       </c>
       <c r="F26" t="n">
         <v>1.03</v>
       </c>
       <c r="G26" t="n">
-        <v>0.825</v>
+        <v>6.855</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>10.12</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="F27" t="n">
-        <v>1.74</v>
+        <v>1.01</v>
       </c>
       <c r="G27" t="n">
-        <v>2.33</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9.92</v>
+        <v>9.48</v>
       </c>
       <c r="F28" t="n">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="G28" t="n">
-        <v>2.511</v>
+        <v>1.441</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>9.859999999999999</v>
+        <v>6.4</v>
       </c>
       <c r="F29" t="n">
-        <v>0.98</v>
+        <v>1.67</v>
       </c>
       <c r="G29" t="n">
-        <v>0.539</v>
+        <v>2.324</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8.949999999999999</v>
+        <v>6.16</v>
       </c>
       <c r="F30" t="n">
-        <v>1.52</v>
+        <v>0.85</v>
       </c>
       <c r="G30" t="n">
-        <v>1.282</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.12</v>
+        <v>2.47</v>
       </c>
       <c r="F31" t="n">
-        <v>0.59</v>
+        <v>0.76</v>
       </c>
       <c r="G31" t="n">
-        <v>1.129</v>
+        <v>1.308</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5.01</v>
+        <v>2.18</v>
       </c>
       <c r="F32" t="n">
-        <v>1.74</v>
+        <v>1.03</v>
       </c>
       <c r="G32" t="n">
-        <v>1.764</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9</v>
+        <v>1.33</v>
       </c>
       <c r="G33" t="n">
-        <v>2.188</v>
+        <v>0.199</v>
       </c>
     </row>
     <row r="34">
@@ -3282,60 +3282,60 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4.04</v>
+        <v>1.08</v>
       </c>
       <c r="F34" t="n">
-        <v>0.68</v>
+        <v>0.74</v>
       </c>
       <c r="G34" t="n">
-        <v>5.595</v>
+        <v>5.459</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.83</v>
+        <v>1.01</v>
       </c>
       <c r="F35" t="n">
-        <v>0.86</v>
+        <v>0.89</v>
       </c>
       <c r="G35" t="n">
-        <v>1.314</v>
+        <v>1.755</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3344,385 +3344,385 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.59</v>
+        <v>0.27</v>
       </c>
       <c r="F36" t="n">
-        <v>1.07</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>1.451</v>
+        <v>1.626</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.81</v>
+        <v>0.2</v>
       </c>
       <c r="F37" t="n">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="G37" t="n">
-        <v>1.794</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.71</v>
+        <v>-0.82</v>
       </c>
       <c r="F38" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="G38" t="n">
-        <v>0.105</v>
+        <v>2.148</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.14</v>
+        <v>-1.24</v>
       </c>
       <c r="F39" t="n">
-        <v>1.54</v>
+        <v>1.04</v>
       </c>
       <c r="G39" t="n">
-        <v>3.929</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.98</v>
+        <v>-1.8</v>
       </c>
       <c r="F40" t="n">
-        <v>1.26</v>
+        <v>1</v>
       </c>
       <c r="G40" t="n">
-        <v>0.208</v>
+        <v>3.795</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.79</v>
+        <v>-2.05</v>
       </c>
       <c r="F41" t="n">
-        <v>0.97</v>
+        <v>1.12</v>
       </c>
       <c r="G41" t="n">
-        <v>1.668</v>
+        <v>0.731</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.59</v>
+        <v>-2.28</v>
       </c>
       <c r="F42" t="n">
-        <v>1.18</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G42" t="n">
-        <v>0.741</v>
+        <v>1.022</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-2.89</v>
       </c>
       <c r="F43" t="n">
-        <v>0.87</v>
+        <v>1.2</v>
       </c>
       <c r="G43" t="n">
-        <v>2.074</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-1.63</v>
+        <v>-3.63</v>
       </c>
       <c r="F44" t="n">
-        <v>1.24</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G44" t="n">
-        <v>0.704</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-1.8</v>
+        <v>-3.72</v>
       </c>
       <c r="F45" t="n">
-        <v>0.83</v>
+        <v>1.42</v>
       </c>
       <c r="G45" t="n">
-        <v>0.829</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-1.85</v>
+        <v>-4.64</v>
       </c>
       <c r="F46" t="n">
-        <v>1.11</v>
+        <v>0.76</v>
       </c>
       <c r="G46" t="n">
-        <v>0.369</v>
+        <v>0.8070000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-2.82</v>
+        <v>-4.92</v>
       </c>
       <c r="F47" t="n">
-        <v>0.87</v>
+        <v>1.13</v>
       </c>
       <c r="G47" t="n">
-        <v>12.22</v>
+        <v>1.492</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-3.95</v>
+        <v>-4.96</v>
       </c>
       <c r="F48" t="n">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="G48" t="n">
-        <v>1.465</v>
+        <v>12.175</v>
       </c>
     </row>
     <row r="49">
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-4.07</v>
+        <v>-5.05</v>
       </c>
       <c r="F49" t="n">
-        <v>0.97</v>
+        <v>0.98</v>
       </c>
       <c r="G49" t="n">
-        <v>0.139</v>
+        <v>0.134</v>
       </c>
     </row>
     <row r="50">
@@ -3778,13 +3778,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-5.71</v>
+        <v>-7.66</v>
       </c>
       <c r="F50" t="n">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="G50" t="n">
-        <v>0.523</v>
+        <v>0.521</v>
       </c>
     </row>
     <row r="51">
@@ -3809,13 +3809,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-6.84</v>
+        <v>-14.03</v>
       </c>
       <c r="F51" t="n">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="G51" t="n">
-        <v>6.689</v>
+        <v>6.276</v>
       </c>
     </row>
     <row r="52">
@@ -3840,13 +3840,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-11.96</v>
+        <v>-15.81</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G52" t="n">
-        <v>6.641</v>
+        <v>6.182</v>
       </c>
     </row>
   </sheetData>
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133.46</v>
+        <v>114.07</v>
       </c>
       <c r="C2" t="n">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="D2" t="n">
-        <v>18.805</v>
+        <v>19.997</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3921,13 +3921,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.59999999999999</v>
+        <v>65.08</v>
       </c>
       <c r="C3" t="n">
-        <v>1.54</v>
+        <v>1.63</v>
       </c>
       <c r="D3" t="n">
-        <v>15.753</v>
+        <v>17.338</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3936,17 +3936,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.61</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="C4" t="n">
-        <v>0.85</v>
+        <v>1.29</v>
       </c>
       <c r="D4" t="n">
-        <v>7.152</v>
+        <v>13.431</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3955,17 +3955,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.97</v>
+        <v>57.73</v>
       </c>
       <c r="C5" t="n">
-        <v>1.2</v>
+        <v>1.58</v>
       </c>
       <c r="D5" t="n">
-        <v>12.745</v>
+        <v>23.065</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3974,17 +3974,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.38</v>
+        <v>55.47</v>
       </c>
       <c r="C6" t="n">
-        <v>1.18</v>
+        <v>0.93</v>
       </c>
       <c r="D6" t="n">
-        <v>21.125</v>
+        <v>7.41</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -3993,17 +3993,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.89</v>
+        <v>41.52</v>
       </c>
       <c r="C7" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="D7" t="n">
-        <v>21.132</v>
+        <v>19.831</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -4016,13 +4016,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.805</v>
+        <v>31.145</v>
       </c>
       <c r="C8" t="n">
-        <v>0.78</v>
+        <v>0.75</v>
       </c>
       <c r="D8" t="n">
-        <v>10.859</v>
+        <v>10.623</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -4035,13 +4035,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.98333333333333</v>
+        <v>30.45333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>1.616666666666666</v>
+        <v>1.58</v>
       </c>
       <c r="D9" t="n">
-        <v>12.316</v>
+        <v>12.629</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -4050,20 +4050,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.665</v>
+        <v>23.02</v>
       </c>
       <c r="C10" t="n">
-        <v>1.045</v>
+        <v>1.88</v>
       </c>
       <c r="D10" t="n">
-        <v>84.119</v>
+        <v>2.461</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -4073,13 +4073,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.89</v>
+        <v>22.05</v>
       </c>
       <c r="C11" t="n">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="D11" t="n">
-        <v>17.66</v>
+        <v>17.441</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -4088,150 +4088,150 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.41</v>
+        <v>21.09</v>
       </c>
       <c r="C12" t="n">
-        <v>1.92</v>
+        <v>1.915</v>
       </c>
       <c r="D12" t="n">
-        <v>2.495</v>
+        <v>1.848</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.75</v>
+        <v>20.06</v>
       </c>
       <c r="C13" t="n">
-        <v>0.87</v>
+        <v>1.08</v>
       </c>
       <c r="D13" t="n">
-        <v>6.447</v>
+        <v>82.994</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.23</v>
+        <v>16.405</v>
       </c>
       <c r="C14" t="n">
-        <v>1.05</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>7.658</v>
+        <v>5.761</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.095</v>
+        <v>16.26666666666667</v>
       </c>
       <c r="C15" t="n">
-        <v>0.885</v>
+        <v>0.84</v>
       </c>
       <c r="D15" t="n">
-        <v>5.790999999999999</v>
+        <v>10.431</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.87</v>
+        <v>15.12</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.88</v>
       </c>
       <c r="D16" t="n">
-        <v>10.818</v>
+        <v>6.206</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18.335</v>
+        <v>11.21</v>
       </c>
       <c r="C17" t="n">
-        <v>1.775</v>
+        <v>0.83</v>
       </c>
       <c r="D17" t="n">
-        <v>1.611</v>
+        <v>2.43</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16.23</v>
+        <v>10.67</v>
       </c>
       <c r="C18" t="n">
-        <v>1.25</v>
+        <v>1.88</v>
       </c>
       <c r="D18" t="n">
-        <v>20.04</v>
+        <v>1.494</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.12</v>
+        <v>10.65</v>
       </c>
       <c r="C19" t="n">
-        <v>1.74</v>
+        <v>1.03</v>
       </c>
       <c r="D19" t="n">
-        <v>2.33</v>
+        <v>6.855</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -4240,17 +4240,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.99</v>
+        <v>10.405</v>
       </c>
       <c r="C20" t="n">
-        <v>1.075</v>
+        <v>0.9299999999999999</v>
       </c>
       <c r="D20" t="n">
-        <v>15.238</v>
+        <v>19.323</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -4259,17 +4259,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.92</v>
+        <v>6.4</v>
       </c>
       <c r="C21" t="n">
-        <v>0.98</v>
+        <v>1.67</v>
       </c>
       <c r="D21" t="n">
-        <v>2.511</v>
+        <v>2.324</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -4278,74 +4278,74 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.949999999999999</v>
+        <v>6.050000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>1.52</v>
+        <v>0.885</v>
       </c>
       <c r="D22" t="n">
-        <v>1.282</v>
+        <v>2.155</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.12</v>
+        <v>2.94</v>
       </c>
       <c r="C23" t="n">
-        <v>0.59</v>
+        <v>1.105</v>
       </c>
       <c r="D23" t="n">
-        <v>1.129</v>
+        <v>14.707</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.115</v>
+        <v>2.18</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9450000000000001</v>
+        <v>1.03</v>
       </c>
       <c r="D24" t="n">
-        <v>2.139</v>
+        <v>1.77</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.5</v>
+        <v>1.3</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9</v>
+        <v>1.33</v>
       </c>
       <c r="D25" t="n">
-        <v>2.188</v>
+        <v>0.199</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -4354,17 +4354,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.81</v>
+        <v>-0.82</v>
       </c>
       <c r="C26" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="D26" t="n">
-        <v>1.794</v>
+        <v>2.148</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.71</v>
+        <v>-1.24</v>
       </c>
       <c r="C27" t="n">
-        <v>1.13</v>
+        <v>1.04</v>
       </c>
       <c r="D27" t="n">
-        <v>0.105</v>
+        <v>0.102</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -4392,39 +4392,39 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.98</v>
+        <v>-2.212</v>
       </c>
       <c r="C28" t="n">
-        <v>1.26</v>
+        <v>1.174</v>
       </c>
       <c r="D28" t="n">
-        <v>0.208</v>
+        <v>5.702</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.6100000000000001</v>
+        <v>-2.28</v>
       </c>
       <c r="C29" t="n">
-        <v>1.086</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D29" t="n">
-        <v>5.657</v>
+        <v>1.022</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -4434,13 +4434,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.4325</v>
+        <v>-4.67</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.8425</v>
       </c>
       <c r="D30" t="n">
-        <v>26.22</v>
+        <v>25.571</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -4449,39 +4449,39 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2.503333333333333</v>
+        <v>-5.05</v>
       </c>
       <c r="C31" t="n">
-        <v>0.89</v>
+        <v>0.98</v>
       </c>
       <c r="D31" t="n">
-        <v>3.426</v>
+        <v>0.134</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-4.07</v>
+        <v>-5.31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.97</v>
+        <v>0.9033333333333333</v>
       </c>
       <c r="D32" t="n">
-        <v>0.139</v>
+        <v>3.328</v>
       </c>
       <c r="E32" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4592,38 +4592,38 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2305</v>
+        <v>2380</v>
       </c>
       <c r="E2" t="n">
-        <v>0.88</v>
+        <v>3.25</v>
       </c>
       <c r="F2" t="n">
-        <v>58.97</v>
+        <v>64.70999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>83.92</v>
+        <v>82.7</v>
       </c>
       <c r="H2" t="n">
-        <v>232.2496</v>
+        <v>243.1357</v>
       </c>
       <c r="I2" t="n">
-        <v>95.59999999999999</v>
+        <v>97.5</v>
       </c>
       <c r="J2" t="n">
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>5.87</v>
+        <v>5.69</v>
       </c>
       <c r="L2" t="n">
-        <v>51.6</v>
+        <v>60.4</v>
       </c>
       <c r="M2" t="n">
-        <v>1.2</v>
+        <v>1.29</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>👀 WATCH</t>
+          <t>🚀 BUY STRONG</t>
         </is>
       </c>
     </row>
@@ -4644,34 +4644,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1780</v>
+        <v>1760</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-1.12</v>
       </c>
       <c r="F3" t="n">
-        <v>26.89</v>
+        <v>22.05</v>
       </c>
       <c r="G3" t="n">
-        <v>89.13</v>
+        <v>84.62</v>
       </c>
       <c r="H3" t="n">
-        <v>86.4954</v>
+        <v>90.22239999999999</v>
       </c>
       <c r="I3" t="n">
-        <v>96.90000000000001</v>
+        <v>87.8</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>93.7</v>
       </c>
       <c r="K3" t="n">
-        <v>3.29</v>
+        <v>3.39</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.2</v>
+        <v>13.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -4696,34 +4696,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>69.40000000000001</v>
+        <v>76.3</v>
       </c>
       <c r="E4" t="n">
-        <v>8.1</v>
+        <v>9.94</v>
       </c>
       <c r="F4" t="n">
-        <v>36.08</v>
+        <v>44.23</v>
       </c>
       <c r="G4" t="n">
-        <v>77.53</v>
+        <v>81.78</v>
       </c>
       <c r="H4" t="n">
-        <v>2.6998</v>
+        <v>4.0915</v>
       </c>
       <c r="I4" t="n">
-        <v>128.3</v>
+        <v>125.2</v>
       </c>
       <c r="J4" t="n">
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>4.38</v>
+        <v>4.53</v>
       </c>
       <c r="L4" t="n">
-        <v>411.8</v>
+        <v>260.8</v>
       </c>
       <c r="M4" t="n">
-        <v>2.37</v>
+        <v>2.71</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -4748,34 +4748,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72.2</v>
+        <v>68.7</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.24</v>
+        <v>-4.85</v>
       </c>
       <c r="F5" t="n">
-        <v>7.12</v>
+        <v>-2.28</v>
       </c>
       <c r="G5" t="n">
-        <v>58.58</v>
+        <v>51.93</v>
       </c>
       <c r="H5" t="n">
-        <v>2.2234</v>
+        <v>1.6099</v>
       </c>
       <c r="I5" t="n">
-        <v>48.1</v>
+        <v>28.6</v>
       </c>
       <c r="J5" t="n">
-        <v>45.9</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6.56</v>
+        <v>7.02</v>
       </c>
       <c r="L5" t="n">
-        <v>-59.4</v>
+        <v>-62.2</v>
       </c>
       <c r="M5" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -4800,34 +4800,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.44</v>
+        <v>-1.75</v>
       </c>
       <c r="F6" t="n">
-        <v>12.87</v>
+        <v>11.63</v>
       </c>
       <c r="G6" t="n">
-        <v>64.59999999999999</v>
+        <v>54.35</v>
       </c>
       <c r="H6" t="n">
-        <v>6.9446</v>
+        <v>6.323</v>
       </c>
       <c r="I6" t="n">
-        <v>66</v>
+        <v>57.7</v>
       </c>
       <c r="J6" t="n">
-        <v>52.6</v>
+        <v>42.1</v>
       </c>
       <c r="K6" t="n">
-        <v>6.7</v>
+        <v>6.63</v>
       </c>
       <c r="L6" t="n">
-        <v>-41.7</v>
+        <v>-58.6</v>
       </c>
       <c r="M6" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -4852,34 +4852,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>224</v>
+        <v>220.5</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.67</v>
+        <v>-1.56</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.82</v>
+        <v>-4.96</v>
       </c>
       <c r="G7" t="n">
-        <v>42.17</v>
+        <v>40.7</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.9318</v>
+        <v>-1.2774</v>
       </c>
       <c r="I7" t="n">
-        <v>28.2</v>
+        <v>16.2</v>
       </c>
       <c r="J7" t="n">
-        <v>32.3</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="K7" t="n">
-        <v>2.39</v>
+        <v>2.46</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.4</v>
+        <v>28.4</v>
       </c>
       <c r="M7" t="n">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -495,13 +495,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>76.3</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E2" t="n">
-        <v>9.94</v>
+        <v>8.1</v>
       </c>
       <c r="F2" t="n">
-        <v>361</v>
+        <v>512</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.117</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="3">
@@ -529,13 +529,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20.75</v>
+        <v>20.7</v>
       </c>
       <c r="E3" t="n">
-        <v>0.24</v>
+        <v>5.61</v>
       </c>
       <c r="F3" t="n">
-        <v>328</v>
+        <v>406</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,67 +543,67 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.494</v>
+        <v>1.282</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>38.8</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.4</v>
+        <v>-0.46</v>
       </c>
       <c r="F4" t="n">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.77</v>
+        <v>15.753</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>69.5</v>
+        <v>360</v>
       </c>
       <c r="E5" t="n">
-        <v>6.76</v>
+        <v>-2.44</v>
       </c>
       <c r="F5" t="n">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,33 +611,33 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>17.338</v>
+        <v>3.301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>363.5</v>
+        <v>130</v>
       </c>
       <c r="E6" t="n">
-        <v>0.97</v>
+        <v>2.36</v>
       </c>
       <c r="F6" t="n">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -645,67 +645,67 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3.564</v>
+        <v>21.125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Macronix (MXIC)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23.55</v>
+        <v>92.09999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.26</v>
+        <v>9.9</v>
       </c>
       <c r="F7" t="n">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.394</v>
+        <v>18.805</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Macronix (MXIC)</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>92.8</v>
+        <v>297</v>
       </c>
       <c r="E8" t="n">
-        <v>0.76</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -713,67 +713,67 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>19.997</v>
+        <v>21.132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>326.5</v>
+        <v>511</v>
       </c>
       <c r="E9" t="n">
-        <v>9.93</v>
+        <v>-2.67</v>
       </c>
       <c r="F9" t="n">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>23.065</v>
+        <v>2.188</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>128.5</v>
+        <v>2305</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.15</v>
+        <v>0.88</v>
       </c>
       <c r="F10" t="n">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -781,33 +781,33 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>19.831</v>
+        <v>12.745</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2380</v>
+        <v>246.5</v>
       </c>
       <c r="E11" t="n">
-        <v>3.25</v>
+        <v>1.02</v>
       </c>
       <c r="F11" t="n">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -815,101 +815,101 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>13.431</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>483.5</v>
+        <v>1905</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.38</v>
+        <v>-3.3</v>
       </c>
       <c r="F12" t="n">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2.148</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>90.90000000000001</v>
+        <v>52</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.52</v>
+        <v>1.56</v>
       </c>
       <c r="F13" t="n">
         <v>145</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.492</v>
+        <v>1.451</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>2620</v>
+        <v>259</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.78</v>
+        <v>3.39</v>
       </c>
       <c r="F14" t="n">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -917,67 +917,67 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>8.430999999999999</v>
+        <v>4.725</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>375</v>
+        <v>249.5</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.47</v>
+        <v>-2.73</v>
       </c>
       <c r="F15" t="n">
         <v>136</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.77</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>50.9</v>
+        <v>49.3</v>
       </c>
       <c r="E16" t="n">
-        <v>-2.12</v>
+        <v>-3.9</v>
       </c>
       <c r="F16" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -985,101 +985,101 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>1.42</v>
+        <v>2.495</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>143.5</v>
+        <v>39.35</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.38</v>
+        <v>-0.13</v>
       </c>
       <c r="F17" t="n">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7.41</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>220.5</v>
+        <v>2695</v>
       </c>
       <c r="E18" t="n">
-        <v>-1.56</v>
+        <v>4.46</v>
       </c>
       <c r="F18" t="n">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>12.175</v>
+        <v>8.548999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>62.4</v>
+        <v>384.5</v>
       </c>
       <c r="E19" t="n">
-        <v>-8.77</v>
+        <v>-2.16</v>
       </c>
       <c r="F19" t="n">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1087,33 +1087,33 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>18.188</v>
+        <v>1.794</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>73.5</v>
+        <v>23.85</v>
       </c>
       <c r="E20" t="n">
-        <v>-1.08</v>
+        <v>0.63</v>
       </c>
       <c r="F20" t="n">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1121,67 +1121,67 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.521</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>297</v>
+        <v>3270</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.19</v>
+        <v>-2.97</v>
       </c>
       <c r="F21" t="n">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6.206</v>
+        <v>6.689</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>266.5</v>
+        <v>305</v>
       </c>
       <c r="E22" t="n">
-        <v>2.9</v>
+        <v>-1.93</v>
       </c>
       <c r="F22" t="n">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1189,33 +1189,33 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>4.935</v>
+        <v>7.658</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3125</v>
+        <v>31.8</v>
       </c>
       <c r="E23" t="n">
-        <v>-4.43</v>
+        <v>1.44</v>
       </c>
       <c r="F23" t="n">
-        <v>121</v>
+        <v>103</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1223,33 +1223,33 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>6.276</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>252.5</v>
+        <v>171.5</v>
       </c>
       <c r="E24" t="n">
-        <v>1.2</v>
+        <v>-3.11</v>
       </c>
       <c r="F24" t="n">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1257,33 +1257,33 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4.13</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>1775</v>
+        <v>68.40000000000001</v>
       </c>
       <c r="E25" t="n">
-        <v>-1.66</v>
+        <v>-9.880000000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>119</v>
+        <v>101</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1291,101 +1291,101 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>64.806</v>
+        <v>18.768</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>31.05</v>
+        <v>1255</v>
       </c>
       <c r="E26" t="n">
-        <v>-2.36</v>
+        <v>-1.95</v>
       </c>
       <c r="F26" t="n">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.134</v>
+        <v>16.111</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1830</v>
+        <v>224</v>
       </c>
       <c r="E27" t="n">
-        <v>-3.94</v>
+        <v>-0.67</v>
       </c>
       <c r="F27" t="n">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>2.324</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1760</v>
+        <v>502</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.12</v>
+        <v>-1.38</v>
       </c>
       <c r="F28" t="n">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1393,135 +1393,135 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>17.441</v>
+        <v>4.318</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>186</v>
+        <v>1780</v>
       </c>
       <c r="E29" t="n">
-        <v>-2.11</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>22.2</v>
+        <v>92.3</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.45</v>
+        <v>-0.22</v>
       </c>
       <c r="F30" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.847</v>
+        <v>1.465</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>167</v>
+        <v>310</v>
       </c>
       <c r="E31" t="n">
-        <v>-2.62</v>
+        <v>-1.27</v>
       </c>
       <c r="F31" t="n">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.731</v>
+        <v>6.447</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>47.3</v>
+        <v>255.5</v>
       </c>
       <c r="E32" t="n">
-        <v>-4.06</v>
+        <v>-2.29</v>
       </c>
       <c r="F32" t="n">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1529,135 +1529,135 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>2.461</v>
+        <v>6.541</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>75.40000000000001</v>
+        <v>1805</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.31</v>
+        <v>-0.82</v>
       </c>
       <c r="F33" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1.626</v>
+        <v>65.351</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>239</v>
+        <v>167</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.04</v>
+        <v>-3.19</v>
       </c>
       <c r="F34" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.102</v>
+        <v>3.929</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>280</v>
+        <v>117</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.06</v>
+        <v>-5.26</v>
       </c>
       <c r="F35" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>5.459</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>1220</v>
+        <v>147</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.79</v>
+        <v>-9.82</v>
       </c>
       <c r="F36" t="n">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1665,67 +1665,67 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>15.528</v>
+        <v>7.152</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>53.4</v>
+        <v>76.40000000000001</v>
       </c>
       <c r="E37" t="n">
-        <v>-2.38</v>
+        <v>0.79</v>
       </c>
       <c r="F37" t="n">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.8070000000000001</v>
+        <v>1.668</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>296</v>
+        <v>245</v>
       </c>
       <c r="E38" t="n">
-        <v>-2.95</v>
+        <v>-5.04</v>
       </c>
       <c r="F38" t="n">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1733,67 +1733,67 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6.855</v>
+        <v>7.857</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>130.5</v>
+        <v>45.05</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.51</v>
+        <v>-2.28</v>
       </c>
       <c r="F39" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>6.182</v>
+        <v>1.764</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>37.4</v>
+        <v>74.3</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.45</v>
+        <v>-0.8</v>
       </c>
       <c r="F40" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1801,169 +1801,169 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1.308</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>164</v>
+        <v>22.3</v>
       </c>
       <c r="E41" t="n">
-        <v>-1.8</v>
+        <v>-0.89</v>
       </c>
       <c r="F41" t="n">
         <v>72</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>3.795</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>120</v>
+        <v>132.5</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.83</v>
+        <v>-1.49</v>
       </c>
       <c r="F42" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1.441</v>
+        <v>6.641</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>35.15</v>
+        <v>37.95</v>
       </c>
       <c r="E43" t="n">
-        <v>-2.63</v>
+        <v>-0.39</v>
       </c>
       <c r="F43" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.199</v>
+        <v>1.314</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>497</v>
+        <v>190</v>
       </c>
       <c r="E44" t="n">
-        <v>-1</v>
+        <v>-1.04</v>
       </c>
       <c r="F44" t="n">
         <v>65</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H44" t="n">
-        <v>4.32</v>
+        <v>2.074</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>254</v>
+        <v>36.1</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.59</v>
+        <v>-2.17</v>
       </c>
       <c r="F45" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1971,101 +1971,101 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>6.439</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>45</v>
+        <v>54.7</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.11</v>
+        <v>-0.18</v>
       </c>
       <c r="F46" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1.755</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="E47" t="n">
-        <v>-4.27</v>
+        <v>-2.02</v>
       </c>
       <c r="F47" t="n">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.521</v>
+        <v>1.473</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>234.5</v>
+        <v>171</v>
       </c>
       <c r="E48" t="n">
-        <v>-4.29</v>
+        <v>-1.44</v>
       </c>
       <c r="F48" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2073,101 +2073,101 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>7.5</v>
+        <v>2.422</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>60.2</v>
+        <v>283</v>
       </c>
       <c r="E49" t="n">
-        <v>-3.22</v>
+        <v>-1.39</v>
       </c>
       <c r="F49" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>4.184</v>
+        <v>5.595</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1290</v>
+        <v>62.2</v>
       </c>
       <c r="E50" t="n">
-        <v>-3.01</v>
+        <v>-5.18</v>
       </c>
       <c r="F50" t="n">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2.43</v>
+        <v>4.318</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>168</v>
+        <v>1330</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.75</v>
+        <v>-3.27</v>
       </c>
       <c r="F51" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>2.41</v>
+        <v>2.511</v>
       </c>
     </row>
     <row r="52">
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>68.7</v>
+        <v>72.2</v>
       </c>
       <c r="E52" t="n">
-        <v>-4.85</v>
+        <v>-4.24</v>
       </c>
       <c r="F52" t="n">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1.022</v>
+        <v>1.129</v>
       </c>
     </row>
   </sheetData>
@@ -2290,13 +2290,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>114.07</v>
+        <v>133.46</v>
       </c>
       <c r="F2" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="G2" t="n">
-        <v>19.997</v>
+        <v>18.805</v>
       </c>
     </row>
     <row r="3">
@@ -2321,230 +2321,230 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>65.08</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="G3" t="n">
-        <v>17.338</v>
+        <v>15.753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>64.70999999999999</v>
+        <v>59.61</v>
       </c>
       <c r="F4" t="n">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="G4" t="n">
-        <v>13.431</v>
+        <v>7.152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>57.73</v>
+        <v>58.97</v>
       </c>
       <c r="F5" t="n">
-        <v>1.58</v>
+        <v>1.2</v>
       </c>
       <c r="G5" t="n">
-        <v>23.065</v>
+        <v>12.745</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>55.47</v>
+        <v>57.38</v>
       </c>
       <c r="F6" t="n">
-        <v>0.93</v>
+        <v>1.18</v>
       </c>
       <c r="G6" t="n">
-        <v>7.41</v>
+        <v>21.125</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>44.23</v>
+        <v>53.89</v>
       </c>
       <c r="F7" t="n">
-        <v>2.71</v>
+        <v>1.67</v>
       </c>
       <c r="G7" t="n">
-        <v>1.117</v>
+        <v>21.132</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>41.52</v>
+        <v>47.69</v>
       </c>
       <c r="F8" t="n">
-        <v>1.5</v>
+        <v>0.95</v>
       </c>
       <c r="G8" t="n">
-        <v>19.831</v>
+        <v>6.541</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>38.42</v>
+        <v>38.88</v>
       </c>
       <c r="F9" t="n">
-        <v>0.96</v>
+        <v>1.31</v>
       </c>
       <c r="G9" t="n">
-        <v>6.439</v>
+        <v>18.768</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>31.28</v>
+        <v>36.08</v>
       </c>
       <c r="F10" t="n">
-        <v>1.05</v>
+        <v>2.37</v>
       </c>
       <c r="G10" t="n">
-        <v>4.935</v>
+        <v>0.87</v>
       </c>
     </row>
     <row r="11">
@@ -2569,29 +2569,29 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.01</v>
+        <v>33.88</v>
       </c>
       <c r="F11" t="n">
-        <v>0.86</v>
+        <v>0.9</v>
       </c>
       <c r="G11" t="n">
-        <v>7.5</v>
+        <v>7.857</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2600,29 +2600,29 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>30.49</v>
+        <v>32.14</v>
       </c>
       <c r="F12" t="n">
-        <v>1.35</v>
+        <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>4.13</v>
+        <v>4.725</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2631,633 +2631,633 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>29.59</v>
+        <v>32.01</v>
       </c>
       <c r="F13" t="n">
-        <v>2.34</v>
+        <v>1.09</v>
       </c>
       <c r="G13" t="n">
-        <v>3.564</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>28.13</v>
+        <v>31.92</v>
       </c>
       <c r="F14" t="n">
-        <v>1.3</v>
+        <v>0.61</v>
       </c>
       <c r="G14" t="n">
-        <v>18.188</v>
+        <v>4.318</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23.87</v>
+        <v>30.32</v>
       </c>
       <c r="F15" t="n">
-        <v>0.54</v>
+        <v>0.96</v>
       </c>
       <c r="G15" t="n">
-        <v>4.184</v>
+        <v>16.111</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>23.33</v>
+        <v>28.8</v>
       </c>
       <c r="F16" t="n">
-        <v>0.71</v>
+        <v>2.76</v>
       </c>
       <c r="G16" t="n">
-        <v>4.32</v>
+        <v>3.301</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>23.02</v>
+        <v>26.89</v>
       </c>
       <c r="F17" t="n">
-        <v>1.88</v>
+        <v>1.55</v>
       </c>
       <c r="G17" t="n">
-        <v>2.461</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>22.61</v>
+        <v>26.82</v>
       </c>
       <c r="F18" t="n">
-        <v>0.86</v>
+        <v>1.1</v>
       </c>
       <c r="G18" t="n">
-        <v>15.528</v>
+        <v>8.548999999999999</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>22.05</v>
+        <v>26.41</v>
       </c>
       <c r="F19" t="n">
-        <v>1.34</v>
+        <v>1.92</v>
       </c>
       <c r="G19" t="n">
-        <v>17.441</v>
+        <v>2.495</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>19.91</v>
+        <v>23.75</v>
       </c>
       <c r="F20" t="n">
-        <v>1.12</v>
+        <v>0.87</v>
       </c>
       <c r="G20" t="n">
-        <v>8.430999999999999</v>
+        <v>6.447</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15.12</v>
+        <v>23.65</v>
       </c>
       <c r="F21" t="n">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="G21" t="n">
-        <v>6.206</v>
+        <v>4.318</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>11.99</v>
+        <v>23.23</v>
       </c>
       <c r="F22" t="n">
-        <v>0.86</v>
+        <v>1.05</v>
       </c>
       <c r="G22" t="n">
-        <v>64.806</v>
+        <v>7.658</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>11.63</v>
+        <v>16.45</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.78</v>
       </c>
       <c r="G23" t="n">
-        <v>2.41</v>
+        <v>65.351</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>11.21</v>
+        <v>14.54</v>
       </c>
       <c r="F24" t="n">
-        <v>0.83</v>
+        <v>0.97</v>
       </c>
       <c r="G24" t="n">
-        <v>2.43</v>
+        <v>1.473</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>10.67</v>
+        <v>12.87</v>
       </c>
       <c r="F25" t="n">
-        <v>1.88</v>
+        <v>0.89</v>
       </c>
       <c r="G25" t="n">
-        <v>1.494</v>
+        <v>2.422</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>10.65</v>
+        <v>10.4</v>
       </c>
       <c r="F26" t="n">
         <v>1.03</v>
       </c>
       <c r="G26" t="n">
-        <v>6.855</v>
+        <v>0.825</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>9.630000000000001</v>
+        <v>10.12</v>
       </c>
       <c r="F27" t="n">
-        <v>1.01</v>
+        <v>1.74</v>
       </c>
       <c r="G27" t="n">
-        <v>0.847</v>
+        <v>2.33</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9.48</v>
+        <v>9.92</v>
       </c>
       <c r="F28" t="n">
-        <v>0.92</v>
+        <v>0.98</v>
       </c>
       <c r="G28" t="n">
-        <v>1.441</v>
+        <v>2.511</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6.4</v>
+        <v>9.859999999999999</v>
       </c>
       <c r="F29" t="n">
-        <v>1.67</v>
+        <v>0.98</v>
       </c>
       <c r="G29" t="n">
-        <v>2.324</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6.16</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="F30" t="n">
-        <v>0.85</v>
+        <v>1.52</v>
       </c>
       <c r="G30" t="n">
-        <v>0.521</v>
+        <v>1.282</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.47</v>
+        <v>7.12</v>
       </c>
       <c r="F31" t="n">
-        <v>0.76</v>
+        <v>0.59</v>
       </c>
       <c r="G31" t="n">
-        <v>1.308</v>
+        <v>1.129</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.18</v>
+        <v>5.01</v>
       </c>
       <c r="F32" t="n">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
       <c r="G32" t="n">
-        <v>1.77</v>
+        <v>1.764</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="F33" t="n">
-        <v>1.33</v>
+        <v>0.9</v>
       </c>
       <c r="G33" t="n">
-        <v>0.199</v>
+        <v>2.188</v>
       </c>
     </row>
     <row r="34">
@@ -3282,60 +3282,60 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>1.08</v>
+        <v>4.04</v>
       </c>
       <c r="F34" t="n">
-        <v>0.74</v>
+        <v>0.68</v>
       </c>
       <c r="G34" t="n">
-        <v>5.459</v>
+        <v>5.595</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.01</v>
+        <v>3.83</v>
       </c>
       <c r="F35" t="n">
-        <v>0.89</v>
+        <v>0.86</v>
       </c>
       <c r="G35" t="n">
-        <v>1.755</v>
+        <v>1.314</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -3344,385 +3344,385 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0.27</v>
+        <v>3.59</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.07</v>
       </c>
       <c r="G36" t="n">
-        <v>1.626</v>
+        <v>1.451</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>0.2</v>
+        <v>2.81</v>
       </c>
       <c r="F37" t="n">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="G37" t="n">
-        <v>1.42</v>
+        <v>1.794</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-0.82</v>
+        <v>2.71</v>
       </c>
       <c r="F38" t="n">
-        <v>1.03</v>
+        <v>1.13</v>
       </c>
       <c r="G38" t="n">
-        <v>2.148</v>
+        <v>0.105</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-1.24</v>
+        <v>2.14</v>
       </c>
       <c r="F39" t="n">
-        <v>1.04</v>
+        <v>1.54</v>
       </c>
       <c r="G39" t="n">
-        <v>0.102</v>
+        <v>3.929</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-1.8</v>
+        <v>0.98</v>
       </c>
       <c r="F40" t="n">
-        <v>1</v>
+        <v>1.26</v>
       </c>
       <c r="G40" t="n">
-        <v>3.795</v>
+        <v>0.208</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-2.05</v>
+        <v>0.79</v>
       </c>
       <c r="F41" t="n">
-        <v>1.12</v>
+        <v>0.97</v>
       </c>
       <c r="G41" t="n">
-        <v>0.731</v>
+        <v>1.668</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-2.28</v>
+        <v>0.59</v>
       </c>
       <c r="F42" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.18</v>
       </c>
       <c r="G42" t="n">
-        <v>1.022</v>
+        <v>0.741</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-2.89</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>1.2</v>
+        <v>0.87</v>
       </c>
       <c r="G43" t="n">
-        <v>0.394</v>
+        <v>2.074</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-3.63</v>
+        <v>-1.63</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.24</v>
       </c>
       <c r="G44" t="n">
-        <v>2</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-3.72</v>
+        <v>-1.8</v>
       </c>
       <c r="F45" t="n">
-        <v>1.42</v>
+        <v>0.83</v>
       </c>
       <c r="G45" t="n">
-        <v>0.77</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-4.64</v>
+        <v>-1.85</v>
       </c>
       <c r="F46" t="n">
-        <v>0.76</v>
+        <v>1.11</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8070000000000001</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-4.92</v>
+        <v>-2.82</v>
       </c>
       <c r="F47" t="n">
-        <v>1.13</v>
+        <v>0.87</v>
       </c>
       <c r="G47" t="n">
-        <v>1.492</v>
+        <v>12.22</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-4.96</v>
+        <v>-3.95</v>
       </c>
       <c r="F48" t="n">
-        <v>1</v>
+        <v>1.04</v>
       </c>
       <c r="G48" t="n">
-        <v>12.175</v>
+        <v>1.465</v>
       </c>
     </row>
     <row r="49">
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-5.05</v>
+        <v>-4.07</v>
       </c>
       <c r="F49" t="n">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G49" t="n">
-        <v>0.134</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="50">
@@ -3778,13 +3778,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-7.66</v>
+        <v>-5.71</v>
       </c>
       <c r="F50" t="n">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="G50" t="n">
-        <v>0.521</v>
+        <v>0.523</v>
       </c>
     </row>
     <row r="51">
@@ -3809,13 +3809,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-14.03</v>
+        <v>-6.84</v>
       </c>
       <c r="F51" t="n">
-        <v>1.09</v>
+        <v>1.05</v>
       </c>
       <c r="G51" t="n">
-        <v>6.276</v>
+        <v>6.689</v>
       </c>
     </row>
     <row r="52">
@@ -3840,13 +3840,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-15.81</v>
+        <v>-11.96</v>
       </c>
       <c r="F52" t="n">
-        <v>0.74</v>
+        <v>0.7</v>
       </c>
       <c r="G52" t="n">
-        <v>6.182</v>
+        <v>6.641</v>
       </c>
     </row>
   </sheetData>
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114.07</v>
+        <v>133.46</v>
       </c>
       <c r="C2" t="n">
-        <v>1.5</v>
+        <v>1.25</v>
       </c>
       <c r="D2" t="n">
-        <v>19.997</v>
+        <v>18.805</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3921,13 +3921,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>65.08</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>1.63</v>
+        <v>1.54</v>
       </c>
       <c r="D3" t="n">
-        <v>17.338</v>
+        <v>15.753</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3936,17 +3936,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.70999999999999</v>
+        <v>59.61</v>
       </c>
       <c r="C4" t="n">
-        <v>1.29</v>
+        <v>0.85</v>
       </c>
       <c r="D4" t="n">
-        <v>13.431</v>
+        <v>7.152</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3955,17 +3955,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>57.73</v>
+        <v>58.97</v>
       </c>
       <c r="C5" t="n">
-        <v>1.58</v>
+        <v>1.2</v>
       </c>
       <c r="D5" t="n">
-        <v>23.065</v>
+        <v>12.745</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3974,17 +3974,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>55.47</v>
+        <v>57.38</v>
       </c>
       <c r="C6" t="n">
-        <v>0.93</v>
+        <v>1.18</v>
       </c>
       <c r="D6" t="n">
-        <v>7.41</v>
+        <v>21.125</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -3993,17 +3993,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.52</v>
+        <v>53.89</v>
       </c>
       <c r="C7" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="D7" t="n">
-        <v>19.831</v>
+        <v>21.132</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -4016,13 +4016,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.145</v>
+        <v>39.805</v>
       </c>
       <c r="C8" t="n">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="D8" t="n">
-        <v>10.623</v>
+        <v>10.859</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -4035,13 +4035,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.45333333333333</v>
+        <v>30.98333333333333</v>
       </c>
       <c r="C9" t="n">
-        <v>1.58</v>
+        <v>1.616666666666666</v>
       </c>
       <c r="D9" t="n">
-        <v>12.629</v>
+        <v>12.316</v>
       </c>
       <c r="E9" t="n">
         <v>3</v>
@@ -4050,20 +4050,20 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>23.02</v>
+        <v>27.665</v>
       </c>
       <c r="C10" t="n">
-        <v>1.88</v>
+        <v>1.045</v>
       </c>
       <c r="D10" t="n">
-        <v>2.461</v>
+        <v>84.119</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
@@ -4073,13 +4073,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.05</v>
+        <v>26.89</v>
       </c>
       <c r="C11" t="n">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="D11" t="n">
-        <v>17.441</v>
+        <v>17.66</v>
       </c>
       <c r="E11" t="n">
         <v>1</v>
@@ -4088,150 +4088,150 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>21.09</v>
+        <v>26.41</v>
       </c>
       <c r="C12" t="n">
-        <v>1.915</v>
+        <v>1.92</v>
       </c>
       <c r="D12" t="n">
-        <v>1.848</v>
+        <v>2.495</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.06</v>
+        <v>23.75</v>
       </c>
       <c r="C13" t="n">
-        <v>1.08</v>
+        <v>0.87</v>
       </c>
       <c r="D13" t="n">
-        <v>82.994</v>
+        <v>6.447</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.405</v>
+        <v>23.23</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8149999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="D14" t="n">
-        <v>5.761</v>
+        <v>7.658</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>16.26666666666667</v>
+        <v>19.095</v>
       </c>
       <c r="C15" t="n">
-        <v>0.84</v>
+        <v>0.885</v>
       </c>
       <c r="D15" t="n">
-        <v>10.431</v>
+        <v>5.790999999999999</v>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.12</v>
+        <v>18.87</v>
       </c>
       <c r="C16" t="n">
-        <v>0.88</v>
+        <v>0.9233333333333333</v>
       </c>
       <c r="D16" t="n">
-        <v>6.206</v>
+        <v>10.818</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>11.21</v>
+        <v>18.335</v>
       </c>
       <c r="C17" t="n">
-        <v>0.83</v>
+        <v>1.775</v>
       </c>
       <c r="D17" t="n">
-        <v>2.43</v>
+        <v>1.611</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>10.67</v>
+        <v>16.23</v>
       </c>
       <c r="C18" t="n">
-        <v>1.88</v>
+        <v>1.25</v>
       </c>
       <c r="D18" t="n">
-        <v>1.494</v>
+        <v>20.04</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.65</v>
+        <v>10.12</v>
       </c>
       <c r="C19" t="n">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
       <c r="D19" t="n">
-        <v>6.855</v>
+        <v>2.33</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -4240,17 +4240,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.405</v>
+        <v>9.99</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9299999999999999</v>
+        <v>1.075</v>
       </c>
       <c r="D20" t="n">
-        <v>19.323</v>
+        <v>15.238</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -4259,17 +4259,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.4</v>
+        <v>9.92</v>
       </c>
       <c r="C21" t="n">
-        <v>1.67</v>
+        <v>0.98</v>
       </c>
       <c r="D21" t="n">
-        <v>2.324</v>
+        <v>2.511</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -4278,74 +4278,74 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.050000000000001</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.885</v>
+        <v>1.52</v>
       </c>
       <c r="D22" t="n">
-        <v>2.155</v>
+        <v>1.282</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2.94</v>
+        <v>7.12</v>
       </c>
       <c r="C23" t="n">
-        <v>1.105</v>
+        <v>0.59</v>
       </c>
       <c r="D23" t="n">
-        <v>14.707</v>
+        <v>1.129</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2.18</v>
+        <v>7.115</v>
       </c>
       <c r="C24" t="n">
-        <v>1.03</v>
+        <v>0.9450000000000001</v>
       </c>
       <c r="D24" t="n">
-        <v>1.77</v>
+        <v>2.139</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1.3</v>
+        <v>4.5</v>
       </c>
       <c r="C25" t="n">
-        <v>1.33</v>
+        <v>0.9</v>
       </c>
       <c r="D25" t="n">
-        <v>0.199</v>
+        <v>2.188</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -4354,17 +4354,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.82</v>
+        <v>2.81</v>
       </c>
       <c r="C26" t="n">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="D26" t="n">
-        <v>2.148</v>
+        <v>1.794</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-1.24</v>
+        <v>2.71</v>
       </c>
       <c r="C27" t="n">
-        <v>1.04</v>
+        <v>1.13</v>
       </c>
       <c r="D27" t="n">
-        <v>0.102</v>
+        <v>0.105</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -4392,39 +4392,39 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-2.212</v>
+        <v>0.98</v>
       </c>
       <c r="C28" t="n">
-        <v>1.174</v>
+        <v>1.26</v>
       </c>
       <c r="D28" t="n">
-        <v>5.702</v>
+        <v>0.208</v>
       </c>
       <c r="E28" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-2.28</v>
+        <v>-0.6100000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5600000000000001</v>
+        <v>1.086</v>
       </c>
       <c r="D29" t="n">
-        <v>1.022</v>
+        <v>5.657</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30">
@@ -4434,13 +4434,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-4.67</v>
+        <v>-1.4325</v>
       </c>
       <c r="C30" t="n">
-        <v>0.8425</v>
+        <v>0.9975000000000001</v>
       </c>
       <c r="D30" t="n">
-        <v>25.571</v>
+        <v>26.22</v>
       </c>
       <c r="E30" t="n">
         <v>4</v>
@@ -4449,39 +4449,39 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-5.05</v>
+        <v>-2.503333333333333</v>
       </c>
       <c r="C31" t="n">
-        <v>0.98</v>
+        <v>0.89</v>
       </c>
       <c r="D31" t="n">
-        <v>0.134</v>
+        <v>3.426</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-5.31</v>
+        <v>-4.07</v>
       </c>
       <c r="C32" t="n">
-        <v>0.9033333333333333</v>
+        <v>0.97</v>
       </c>
       <c r="D32" t="n">
-        <v>3.328</v>
+        <v>0.139</v>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4592,38 +4592,38 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2380</v>
+        <v>2305</v>
       </c>
       <c r="E2" t="n">
-        <v>3.25</v>
+        <v>0.88</v>
       </c>
       <c r="F2" t="n">
-        <v>64.70999999999999</v>
+        <v>58.97</v>
       </c>
       <c r="G2" t="n">
-        <v>82.7</v>
+        <v>83.92</v>
       </c>
       <c r="H2" t="n">
-        <v>243.1357</v>
+        <v>235.6148</v>
       </c>
       <c r="I2" t="n">
-        <v>97.5</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="J2" t="n">
         <v>100</v>
       </c>
       <c r="K2" t="n">
-        <v>5.69</v>
+        <v>5.87</v>
       </c>
       <c r="L2" t="n">
-        <v>60.4</v>
+        <v>51.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>🚀 BUY STRONG</t>
+          <t>👀 WATCH</t>
         </is>
       </c>
     </row>
@@ -4644,34 +4644,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1760</v>
+        <v>1780</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.12</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>22.05</v>
+        <v>26.89</v>
       </c>
       <c r="G3" t="n">
-        <v>84.62</v>
+        <v>89.13</v>
       </c>
       <c r="H3" t="n">
-        <v>90.22239999999999</v>
+        <v>88.1409</v>
       </c>
       <c r="I3" t="n">
-        <v>87.8</v>
+        <v>96.90000000000001</v>
       </c>
       <c r="J3" t="n">
-        <v>93.7</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>3.39</v>
+        <v>3.29</v>
       </c>
       <c r="L3" t="n">
-        <v>13.2</v>
+        <v>-1.2</v>
       </c>
       <c r="M3" t="n">
-        <v>1.34</v>
+        <v>1.55</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -4696,34 +4696,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>76.3</v>
+        <v>69.40000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>9.94</v>
+        <v>8.1</v>
       </c>
       <c r="F4" t="n">
-        <v>44.23</v>
+        <v>36.08</v>
       </c>
       <c r="G4" t="n">
-        <v>81.78</v>
+        <v>77.53</v>
       </c>
       <c r="H4" t="n">
-        <v>4.0915</v>
+        <v>2.6742</v>
       </c>
       <c r="I4" t="n">
-        <v>125.2</v>
+        <v>128.3</v>
       </c>
       <c r="J4" t="n">
         <v>100</v>
       </c>
       <c r="K4" t="n">
-        <v>4.53</v>
+        <v>4.38</v>
       </c>
       <c r="L4" t="n">
-        <v>260.8</v>
+        <v>411.8</v>
       </c>
       <c r="M4" t="n">
-        <v>2.71</v>
+        <v>2.37</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -4748,34 +4748,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>68.7</v>
+        <v>72.2</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.85</v>
+        <v>-4.24</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.28</v>
+        <v>7.12</v>
       </c>
       <c r="G5" t="n">
-        <v>51.93</v>
+        <v>58.58</v>
       </c>
       <c r="H5" t="n">
-        <v>1.6099</v>
+        <v>2.1676</v>
       </c>
       <c r="I5" t="n">
-        <v>28.6</v>
+        <v>48.1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>45.9</v>
       </c>
       <c r="K5" t="n">
-        <v>7.02</v>
+        <v>6.56</v>
       </c>
       <c r="L5" t="n">
-        <v>-62.2</v>
+        <v>-59.4</v>
       </c>
       <c r="M5" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.59</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -4800,34 +4800,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.75</v>
+        <v>-1.44</v>
       </c>
       <c r="F6" t="n">
-        <v>11.63</v>
+        <v>12.87</v>
       </c>
       <c r="G6" t="n">
-        <v>54.35</v>
+        <v>64.59999999999999</v>
       </c>
       <c r="H6" t="n">
-        <v>6.323</v>
+        <v>6.9962</v>
       </c>
       <c r="I6" t="n">
-        <v>57.7</v>
+        <v>66</v>
       </c>
       <c r="J6" t="n">
-        <v>42.1</v>
+        <v>52.6</v>
       </c>
       <c r="K6" t="n">
-        <v>6.63</v>
+        <v>6.7</v>
       </c>
       <c r="L6" t="n">
-        <v>-58.6</v>
+        <v>-41.7</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -4852,34 +4852,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>220.5</v>
+        <v>224</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.56</v>
+        <v>-0.67</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.96</v>
+        <v>-2.82</v>
       </c>
       <c r="G7" t="n">
-        <v>40.7</v>
+        <v>42.17</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.2774</v>
+        <v>-1.228</v>
       </c>
       <c r="I7" t="n">
-        <v>16.2</v>
+        <v>28.2</v>
       </c>
       <c r="J7" t="n">
-        <v>9.699999999999999</v>
+        <v>32.3</v>
       </c>
       <c r="K7" t="n">
-        <v>2.46</v>
+        <v>2.39</v>
       </c>
       <c r="L7" t="n">
-        <v>28.4</v>
+        <v>-0.4</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -495,13 +495,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>69.40000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="E2" t="n">
-        <v>8.1</v>
+        <v>-4.06</v>
       </c>
       <c r="F2" t="n">
-        <v>512</v>
+        <v>315</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,7 +509,7 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.87</v>
+        <v>1.241</v>
       </c>
     </row>
     <row r="3">
@@ -529,13 +529,13 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>20.7</v>
+        <v>21.1</v>
       </c>
       <c r="E3" t="n">
-        <v>5.61</v>
+        <v>1.69</v>
       </c>
       <c r="F3" t="n">
-        <v>406</v>
+        <v>241</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,33 +543,33 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.282</v>
+        <v>1.682</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>65.09999999999999</v>
+        <v>2685</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.46</v>
+        <v>2.48</v>
       </c>
       <c r="F4" t="n">
-        <v>244</v>
+        <v>154</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>15.753</v>
+        <v>8.766999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>360</v>
+        <v>331</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.44</v>
+        <v>-8.94</v>
       </c>
       <c r="F5" t="n">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,33 +611,33 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3.301</v>
+        <v>3.388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>130</v>
+        <v>294</v>
       </c>
       <c r="E6" t="n">
-        <v>2.36</v>
+        <v>-9.949999999999999</v>
       </c>
       <c r="F6" t="n">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -645,33 +645,33 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>21.125</v>
+        <v>20.504</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Macronix (MXIC)</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>92.09999999999999</v>
+        <v>2145</v>
       </c>
       <c r="E7" t="n">
-        <v>9.9</v>
+        <v>-9.869999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -679,67 +679,67 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>18.805</v>
+        <v>11.989</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>297</v>
+        <v>74.3</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>-1.46</v>
       </c>
       <c r="F8" t="n">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>21.132</v>
+        <v>1.617</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>511</v>
+        <v>90.5</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.67</v>
+        <v>-0.44</v>
       </c>
       <c r="F9" t="n">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -747,67 +747,67 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>2.188</v>
+        <v>1.521</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2305</v>
+        <v>23.35</v>
       </c>
       <c r="E10" t="n">
-        <v>0.88</v>
+        <v>-0.85</v>
       </c>
       <c r="F10" t="n">
-        <v>152</v>
+        <v>117</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>12.745</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>246.5</v>
+        <v>116</v>
       </c>
       <c r="E11" t="n">
-        <v>1.02</v>
+        <v>-9.73</v>
       </c>
       <c r="F11" t="n">
-        <v>151</v>
+        <v>116</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -815,33 +815,33 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.105</v>
+        <v>16.328</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1905</v>
+        <v>62.6</v>
       </c>
       <c r="E12" t="n">
-        <v>-3.3</v>
+        <v>-9.93</v>
       </c>
       <c r="F12" t="n">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -849,33 +849,33 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>2.33</v>
+        <v>15.273</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>52</v>
+        <v>1700</v>
       </c>
       <c r="E13" t="n">
-        <v>1.56</v>
+        <v>-7.1</v>
       </c>
       <c r="F13" t="n">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -883,67 +883,67 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1.451</v>
+        <v>2.145</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>259</v>
+        <v>214.5</v>
       </c>
       <c r="E14" t="n">
-        <v>3.39</v>
+        <v>-2.72</v>
       </c>
       <c r="F14" t="n">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4.725</v>
+        <v>11.805</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Macronix (MXIC)</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>249.5</v>
+        <v>84.8</v>
       </c>
       <c r="E15" t="n">
-        <v>-2.73</v>
+        <v>-8.619999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>136</v>
+        <v>107</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -951,177 +951,177 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4.29</v>
+        <v>19.143</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>49.3</v>
+        <v>30.7</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.9</v>
+        <v>-1.13</v>
       </c>
       <c r="F16" t="n">
-        <v>129</v>
+        <v>101</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2.495</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>39.35</v>
+        <v>1175</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.13</v>
+        <v>-3.69</v>
       </c>
       <c r="F17" t="n">
-        <v>128</v>
+        <v>98</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.704</v>
+        <v>14.917</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>2695</v>
+        <v>73.5</v>
       </c>
       <c r="E18" t="n">
-        <v>4.46</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>124</v>
+        <v>96</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>8.548999999999999</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>384.5</v>
+        <v>38.8</v>
       </c>
       <c r="E19" t="n">
-        <v>-2.16</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.794</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>23.85</v>
+        <v>50.9</v>
       </c>
       <c r="E20" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.369</v>
+        <v>1.396</v>
       </c>
     </row>
     <row r="21">
@@ -1141,13 +1141,13 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3270</v>
+        <v>3140</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.97</v>
+        <v>0.48</v>
       </c>
       <c r="F21" t="n">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1155,75 +1155,75 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6.689</v>
+        <v>6.238</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>305</v>
+        <v>1705</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.93</v>
+        <v>-3.12</v>
       </c>
       <c r="F22" t="n">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>7.658</v>
+        <v>16.461</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>31.8</v>
+        <v>44.3</v>
       </c>
       <c r="E23" t="n">
-        <v>1.44</v>
+        <v>-6.34</v>
       </c>
       <c r="F23" t="n">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.139</v>
+        <v>2.372</v>
       </c>
     </row>
     <row r="24">
@@ -1243,81 +1243,81 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>171.5</v>
+        <v>160</v>
       </c>
       <c r="E24" t="n">
-        <v>-3.11</v>
+        <v>-4.19</v>
       </c>
       <c r="F24" t="n">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.741</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>68.40000000000001</v>
+        <v>273</v>
       </c>
       <c r="E25" t="n">
-        <v>-9.880000000000001</v>
+        <v>-2.5</v>
       </c>
       <c r="F25" t="n">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>18.768</v>
+        <v>5.195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1255</v>
+        <v>231</v>
       </c>
       <c r="E26" t="n">
-        <v>-1.95</v>
+        <v>-8.51</v>
       </c>
       <c r="F26" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1325,33 +1325,33 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>16.111</v>
+        <v>3.524</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.67</v>
+        <v>-1.26</v>
       </c>
       <c r="F27" t="n">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1359,101 +1359,101 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>12.22</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>502</v>
+        <v>1765</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.38</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="F28" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>4.318</v>
+        <v>60.787</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1780</v>
+        <v>368.5</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>-1.73</v>
       </c>
       <c r="F29" t="n">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>17.66</v>
+        <v>1.669</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>92.3</v>
+        <v>160.5</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.22</v>
+        <v>-2.13</v>
       </c>
       <c r="F30" t="n">
-        <v>96</v>
+        <v>78</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1461,67 +1461,67 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1.465</v>
+        <v>3.638</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>310</v>
+        <v>184</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.27</v>
+        <v>-1.08</v>
       </c>
       <c r="F31" t="n">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>6.447</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>255.5</v>
+        <v>285</v>
       </c>
       <c r="E32" t="n">
-        <v>-2.29</v>
+        <v>-3.72</v>
       </c>
       <c r="F32" t="n">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1529,33 +1529,33 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6.541</v>
+        <v>6.227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1805</v>
+        <v>21.95</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.82</v>
+        <v>-1.13</v>
       </c>
       <c r="F33" t="n">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1563,169 +1563,169 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>65.351</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>167</v>
+        <v>475</v>
       </c>
       <c r="E34" t="n">
-        <v>-3.19</v>
+        <v>-1.76</v>
       </c>
       <c r="F34" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3.929</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>117</v>
+        <v>35.65</v>
       </c>
       <c r="E35" t="n">
-        <v>-5.26</v>
+        <v>1.42</v>
       </c>
       <c r="F35" t="n">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.539</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>147</v>
+        <v>52.3</v>
       </c>
       <c r="E36" t="n">
-        <v>-9.82</v>
+        <v>-2.06</v>
       </c>
       <c r="F36" t="n">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>7.152</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>76.40000000000001</v>
+        <v>240</v>
       </c>
       <c r="E37" t="n">
-        <v>0.79</v>
+        <v>-9.94</v>
       </c>
       <c r="F37" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.668</v>
+        <v>4.345</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>245</v>
+        <v>136.5</v>
       </c>
       <c r="E38" t="n">
-        <v>-5.04</v>
+        <v>-4.88</v>
       </c>
       <c r="F38" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1733,67 +1733,67 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>7.857</v>
+        <v>7.217</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>45.05</v>
+        <v>156.5</v>
       </c>
       <c r="E39" t="n">
-        <v>-2.28</v>
+        <v>-6.85</v>
       </c>
       <c r="F39" t="n">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1.764</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>74.3</v>
+        <v>292</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.8</v>
+        <v>-1.68</v>
       </c>
       <c r="F40" t="n">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1801,67 +1801,67 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.523</v>
+        <v>5.971</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>22.3</v>
+        <v>221.5</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.89</v>
+        <v>-5.54</v>
       </c>
       <c r="F41" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.825</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>132.5</v>
+        <v>60.7</v>
       </c>
       <c r="E42" t="n">
-        <v>-1.49</v>
+        <v>-2.72</v>
       </c>
       <c r="F42" t="n">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1869,67 +1869,67 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>6.641</v>
+        <v>18.138</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>37.95</v>
+        <v>112.5</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.39</v>
+        <v>-6.25</v>
       </c>
       <c r="F43" t="n">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1.314</v>
+        <v>1.324</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>190</v>
+        <v>103.5</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.04</v>
+        <v>-7.59</v>
       </c>
       <c r="F44" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1937,67 +1937,67 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>2.074</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>36.1</v>
+        <v>128</v>
       </c>
       <c r="E45" t="n">
-        <v>-2.17</v>
+        <v>-1.92</v>
       </c>
       <c r="F45" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.208</v>
+        <v>5.881</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>54.7</v>
+        <v>473</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.18</v>
+        <v>-4.83</v>
       </c>
       <c r="F46" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2005,101 +2005,101 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.829</v>
+        <v>4.123</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>121</v>
+        <v>37.5</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.02</v>
+        <v>0.27</v>
       </c>
       <c r="F47" t="n">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1.473</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>171</v>
+        <v>43.85</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.44</v>
+        <v>-2.56</v>
       </c>
       <c r="F48" t="n">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2.422</v>
+        <v>1.718</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>283</v>
+        <v>244.5</v>
       </c>
       <c r="E49" t="n">
-        <v>-1.39</v>
+        <v>-3.74</v>
       </c>
       <c r="F49" t="n">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2107,101 +2107,101 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>5.595</v>
+        <v>5.949</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>62.2</v>
+        <v>1250</v>
       </c>
       <c r="E50" t="n">
-        <v>-5.18</v>
+        <v>-3.1</v>
       </c>
       <c r="F50" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>4.318</v>
+        <v>2.361</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>1330</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>-3.27</v>
+        <v>-6.7</v>
       </c>
       <c r="F51" t="n">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>2.511</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>72.2</v>
+        <v>57.9</v>
       </c>
       <c r="E52" t="n">
-        <v>-4.24</v>
+        <v>-3.82</v>
       </c>
       <c r="F52" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>1.129</v>
+        <v>3.905</v>
       </c>
     </row>
   </sheetData>
@@ -2290,137 +2290,137 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>133.46</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="G2" t="n">
-        <v>18.805</v>
+        <v>19.143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>64.59999999999999</v>
+        <v>46.46</v>
       </c>
       <c r="F3" t="n">
-        <v>1.54</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>15.753</v>
+        <v>7.217</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>59.61</v>
+        <v>45.92</v>
       </c>
       <c r="F4" t="n">
-        <v>0.85</v>
+        <v>1.36</v>
       </c>
       <c r="G4" t="n">
-        <v>7.152</v>
+        <v>11.989</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Foundry - Memory</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>58.97</v>
+        <v>44.07</v>
       </c>
       <c r="F5" t="n">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="G5" t="n">
-        <v>12.745</v>
+        <v>15.273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>57.38</v>
+        <v>41.59</v>
       </c>
       <c r="F6" t="n">
-        <v>1.18</v>
+        <v>2.81</v>
       </c>
       <c r="G6" t="n">
-        <v>21.125</v>
+        <v>1.241</v>
       </c>
     </row>
     <row r="7">
@@ -2445,106 +2445,106 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>53.89</v>
+        <v>41.35</v>
       </c>
       <c r="F7" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="G7" t="n">
-        <v>21.132</v>
+        <v>20.504</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>47.69</v>
+        <v>25.15</v>
       </c>
       <c r="F8" t="n">
-        <v>0.95</v>
+        <v>1.25</v>
       </c>
       <c r="G8" t="n">
-        <v>6.541</v>
+        <v>18.138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>38.88</v>
+        <v>21.47</v>
       </c>
       <c r="F9" t="n">
-        <v>1.31</v>
+        <v>1.79</v>
       </c>
       <c r="G9" t="n">
-        <v>18.768</v>
+        <v>16.328</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>36.08</v>
+        <v>21.34</v>
       </c>
       <c r="F10" t="n">
-        <v>2.37</v>
+        <v>0.98</v>
       </c>
       <c r="G10" t="n">
-        <v>0.87</v>
+        <v>5.949</v>
       </c>
     </row>
     <row r="11">
@@ -2569,44 +2569,44 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>33.88</v>
+        <v>21.04</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9</v>
+        <v>0.8</v>
       </c>
       <c r="G11" t="n">
-        <v>7.857</v>
+        <v>7.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>32.14</v>
+        <v>20.12</v>
       </c>
       <c r="F12" t="n">
-        <v>1</v>
+        <v>0.51</v>
       </c>
       <c r="G12" t="n">
-        <v>4.725</v>
+        <v>3.905</v>
       </c>
     </row>
     <row r="13">
@@ -2631,44 +2631,44 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>32.01</v>
+        <v>19.07</v>
       </c>
       <c r="F13" t="n">
-        <v>1.09</v>
+        <v>1.52</v>
       </c>
       <c r="G13" t="n">
-        <v>4.29</v>
+        <v>3.524</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>31.92</v>
+        <v>16.58</v>
       </c>
       <c r="F14" t="n">
-        <v>0.61</v>
+        <v>1.67</v>
       </c>
       <c r="G14" t="n">
-        <v>4.318</v>
+        <v>2.372</v>
       </c>
     </row>
     <row r="15">
@@ -2693,29 +2693,29 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>30.32</v>
+        <v>16.34</v>
       </c>
       <c r="F15" t="n">
-        <v>0.96</v>
+        <v>0.87</v>
       </c>
       <c r="G15" t="n">
-        <v>16.111</v>
+        <v>14.917</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2724,556 +2724,556 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>28.8</v>
+        <v>16.22</v>
       </c>
       <c r="F16" t="n">
-        <v>2.76</v>
+        <v>0.99</v>
       </c>
       <c r="G16" t="n">
-        <v>3.301</v>
+        <v>4.345</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>26.89</v>
+        <v>15.73</v>
       </c>
       <c r="F17" t="n">
-        <v>1.55</v>
+        <v>1.22</v>
       </c>
       <c r="G17" t="n">
-        <v>17.66</v>
+        <v>8.766999999999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.82</v>
+        <v>14.53</v>
       </c>
       <c r="F18" t="n">
-        <v>1.1</v>
+        <v>0.73</v>
       </c>
       <c r="G18" t="n">
-        <v>8.548999999999999</v>
+        <v>4.123</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.41</v>
+        <v>14.14</v>
       </c>
       <c r="F19" t="n">
-        <v>1.92</v>
+        <v>2.29</v>
       </c>
       <c r="G19" t="n">
-        <v>2.495</v>
+        <v>3.388</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>23.75</v>
+        <v>13.97</v>
       </c>
       <c r="F20" t="n">
-        <v>0.87</v>
+        <v>1.05</v>
       </c>
       <c r="G20" t="n">
-        <v>6.447</v>
+        <v>16.461</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>23.65</v>
+        <v>13.44</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8</v>
+        <v>1.97</v>
       </c>
       <c r="G21" t="n">
-        <v>4.318</v>
+        <v>1.682</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>23.23</v>
+        <v>10.82</v>
       </c>
       <c r="F22" t="n">
-        <v>1.05</v>
+        <v>0.87</v>
       </c>
       <c r="G22" t="n">
-        <v>7.658</v>
+        <v>5.971</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>16.45</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>65.351</v>
+        <v>6.227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>14.54</v>
+        <v>7.33</v>
       </c>
       <c r="F24" t="n">
-        <v>0.97</v>
+        <v>1.01</v>
       </c>
       <c r="G24" t="n">
-        <v>1.473</v>
+        <v>0.826</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>12.87</v>
+        <v>5.69</v>
       </c>
       <c r="F25" t="n">
-        <v>0.89</v>
+        <v>0.93</v>
       </c>
       <c r="G25" t="n">
-        <v>2.422</v>
+        <v>60.787</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>10.4</v>
+        <v>5.39</v>
       </c>
       <c r="F26" t="n">
-        <v>1.03</v>
+        <v>0.83</v>
       </c>
       <c r="G26" t="n">
-        <v>0.825</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>10.12</v>
+        <v>5.04</v>
       </c>
       <c r="F27" t="n">
-        <v>1.74</v>
+        <v>0.63</v>
       </c>
       <c r="G27" t="n">
-        <v>2.33</v>
+        <v>2.361</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>9.92</v>
+        <v>3.03</v>
       </c>
       <c r="F28" t="n">
-        <v>0.98</v>
+        <v>1.66</v>
       </c>
       <c r="G28" t="n">
-        <v>2.511</v>
+        <v>2.145</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>9.859999999999999</v>
+        <v>3.02</v>
       </c>
       <c r="F29" t="n">
-        <v>0.98</v>
+        <v>0.73</v>
       </c>
       <c r="G29" t="n">
-        <v>0.539</v>
+        <v>1.316</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>8.949999999999999</v>
+        <v>2</v>
       </c>
       <c r="F30" t="n">
-        <v>1.52</v>
+        <v>1.19</v>
       </c>
       <c r="G30" t="n">
-        <v>1.282</v>
+        <v>1.396</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>7.12</v>
+        <v>1.52</v>
       </c>
       <c r="F31" t="n">
-        <v>0.59</v>
+        <v>1.01</v>
       </c>
       <c r="G31" t="n">
-        <v>1.129</v>
+        <v>1.669</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>5.01</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F32" t="n">
-        <v>1.74</v>
+        <v>0.79</v>
       </c>
       <c r="G32" t="n">
-        <v>1.764</v>
+        <v>1.324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9</v>
+        <v>1.08</v>
       </c>
       <c r="G33" t="n">
-        <v>2.188</v>
+        <v>0.101</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -3282,215 +3282,215 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4.04</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.68</v>
+        <v>0.7</v>
       </c>
       <c r="G34" t="n">
-        <v>5.595</v>
+        <v>1.718</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>3.83</v>
+        <v>-0.48</v>
       </c>
       <c r="F35" t="n">
-        <v>0.86</v>
+        <v>0.85</v>
       </c>
       <c r="G35" t="n">
-        <v>1.314</v>
+        <v>0.488</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.59</v>
+        <v>-0.7</v>
       </c>
       <c r="F36" t="n">
-        <v>1.07</v>
+        <v>1.17</v>
       </c>
       <c r="G36" t="n">
-        <v>1.451</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2.81</v>
+        <v>-1.8</v>
       </c>
       <c r="F37" t="n">
-        <v>1.1</v>
+        <v>0.74</v>
       </c>
       <c r="G37" t="n">
-        <v>1.794</v>
+        <v>5.195</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2.71</v>
+        <v>-2.88</v>
       </c>
       <c r="F38" t="n">
-        <v>1.13</v>
+        <v>1.03</v>
       </c>
       <c r="G38" t="n">
-        <v>0.105</v>
+        <v>1.617</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>2.14</v>
+        <v>-3.16</v>
       </c>
       <c r="F39" t="n">
-        <v>1.54</v>
+        <v>0.93</v>
       </c>
       <c r="G39" t="n">
-        <v>3.929</v>
+        <v>1.96</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>0.98</v>
+        <v>-3.61</v>
       </c>
       <c r="F40" t="n">
-        <v>1.26</v>
+        <v>1.04</v>
       </c>
       <c r="G40" t="n">
-        <v>0.208</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -3499,199 +3499,199 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>0.79</v>
+        <v>-3.72</v>
       </c>
       <c r="F41" t="n">
-        <v>0.97</v>
+        <v>1.35</v>
       </c>
       <c r="G41" t="n">
-        <v>1.668</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>0.59</v>
+        <v>-3.75</v>
       </c>
       <c r="F42" t="n">
-        <v>1.18</v>
+        <v>1.04</v>
       </c>
       <c r="G42" t="n">
-        <v>0.741</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>-3.91</v>
       </c>
       <c r="F43" t="n">
-        <v>0.87</v>
+        <v>1.19</v>
       </c>
       <c r="G43" t="n">
-        <v>2.074</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-1.63</v>
+        <v>-4.74</v>
       </c>
       <c r="F44" t="n">
-        <v>1.24</v>
+        <v>0.77</v>
       </c>
       <c r="G44" t="n">
-        <v>0.704</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-1.8</v>
+        <v>-5.04</v>
       </c>
       <c r="F45" t="n">
-        <v>0.83</v>
+        <v>1.16</v>
       </c>
       <c r="G45" t="n">
-        <v>0.829</v>
+        <v>0.704</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-1.85</v>
+        <v>-5.31</v>
       </c>
       <c r="F46" t="n">
-        <v>1.11</v>
+        <v>0.92</v>
       </c>
       <c r="G46" t="n">
-        <v>0.369</v>
+        <v>3.638</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-2.82</v>
+        <v>-6.25</v>
       </c>
       <c r="F47" t="n">
-        <v>0.87</v>
+        <v>1.03</v>
       </c>
       <c r="G47" t="n">
-        <v>12.22</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="48">
@@ -3716,75 +3716,75 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-3.95</v>
+        <v>-6.89</v>
       </c>
       <c r="F48" t="n">
-        <v>1.04</v>
+        <v>1.18</v>
       </c>
       <c r="G48" t="n">
-        <v>1.465</v>
+        <v>1.521</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-4.07</v>
+        <v>-7.37</v>
       </c>
       <c r="F49" t="n">
-        <v>0.97</v>
+        <v>0.55</v>
       </c>
       <c r="G49" t="n">
-        <v>0.139</v>
+        <v>0.896</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-5.71</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="F50" t="n">
-        <v>0.97</v>
+        <v>1.08</v>
       </c>
       <c r="G50" t="n">
-        <v>0.523</v>
+        <v>11.805</v>
       </c>
     </row>
     <row r="51">
@@ -3809,13 +3809,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-6.84</v>
+        <v>-13.97</v>
       </c>
       <c r="F51" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="G51" t="n">
-        <v>6.689</v>
+        <v>6.238</v>
       </c>
     </row>
     <row r="52">
@@ -3840,13 +3840,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-11.96</v>
+        <v>-17.42</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="G52" t="n">
-        <v>6.641</v>
+        <v>5.881</v>
       </c>
     </row>
   </sheetData>
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>133.46</v>
+        <v>77.95999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>1.25</v>
+        <v>1.46</v>
       </c>
       <c r="D2" t="n">
-        <v>18.805</v>
+        <v>19.143</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3917,17 +3917,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>64.59999999999999</v>
+        <v>46.46</v>
       </c>
       <c r="C3" t="n">
-        <v>1.54</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="D3" t="n">
-        <v>15.753</v>
+        <v>7.217</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3936,17 +3936,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.61</v>
+        <v>45.92</v>
       </c>
       <c r="C4" t="n">
-        <v>0.85</v>
+        <v>1.36</v>
       </c>
       <c r="D4" t="n">
-        <v>7.152</v>
+        <v>11.989</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3955,17 +3955,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Foundry - Memory</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>58.97</v>
+        <v>44.07</v>
       </c>
       <c r="C5" t="n">
-        <v>1.2</v>
+        <v>1.63</v>
       </c>
       <c r="D5" t="n">
-        <v>12.745</v>
+        <v>15.273</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3974,17 +3974,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>57.38</v>
+        <v>41.35</v>
       </c>
       <c r="C6" t="n">
-        <v>1.18</v>
+        <v>1.56</v>
       </c>
       <c r="D6" t="n">
-        <v>21.125</v>
+        <v>20.504</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -3993,17 +3993,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.89</v>
+        <v>21.47</v>
       </c>
       <c r="C7" t="n">
-        <v>1.67</v>
+        <v>1.79</v>
       </c>
       <c r="D7" t="n">
-        <v>21.132</v>
+        <v>16.328</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -4016,13 +4016,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>39.805</v>
+        <v>20.73</v>
       </c>
       <c r="C8" t="n">
-        <v>0.78</v>
+        <v>0.745</v>
       </c>
       <c r="D8" t="n">
-        <v>10.859</v>
+        <v>9.853999999999999</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -4031,93 +4031,93 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30.98333333333333</v>
+        <v>18.275</v>
       </c>
       <c r="C9" t="n">
-        <v>1.616666666666666</v>
+        <v>1.985</v>
       </c>
       <c r="D9" t="n">
-        <v>12.316</v>
+        <v>1.945</v>
       </c>
       <c r="E9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27.665</v>
+        <v>16.58</v>
       </c>
       <c r="C10" t="n">
-        <v>1.045</v>
+        <v>1.67</v>
       </c>
       <c r="D10" t="n">
-        <v>84.119</v>
+        <v>2.372</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>26.89</v>
+        <v>16.47666666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="D11" t="n">
-        <v>17.66</v>
+        <v>11.257</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>26.41</v>
+        <v>15.42</v>
       </c>
       <c r="C12" t="n">
-        <v>1.92</v>
+        <v>1.09</v>
       </c>
       <c r="D12" t="n">
-        <v>2.495</v>
+        <v>78.925</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>23.75</v>
+        <v>13.97</v>
       </c>
       <c r="C13" t="n">
-        <v>0.87</v>
+        <v>1.05</v>
       </c>
       <c r="D13" t="n">
-        <v>6.447</v>
+        <v>16.461</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -4126,17 +4126,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>23.23</v>
+        <v>13.44</v>
       </c>
       <c r="C14" t="n">
-        <v>1.05</v>
+        <v>1.97</v>
       </c>
       <c r="D14" t="n">
-        <v>7.658</v>
+        <v>1.682</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -4145,20 +4145,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>19.095</v>
+        <v>10.82</v>
       </c>
       <c r="C15" t="n">
-        <v>0.885</v>
+        <v>0.87</v>
       </c>
       <c r="D15" t="n">
-        <v>5.790999999999999</v>
+        <v>5.971</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -4168,13 +4168,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>18.87</v>
+        <v>8.65</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.8266666666666667</v>
       </c>
       <c r="D16" t="n">
-        <v>10.818</v>
+        <v>9.878</v>
       </c>
       <c r="E16" t="n">
         <v>3</v>
@@ -4183,36 +4183,36 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>18.335</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="C17" t="n">
-        <v>1.775</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>1.611</v>
+        <v>6.227</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>16.23</v>
+        <v>7.67</v>
       </c>
       <c r="C18" t="n">
-        <v>1.25</v>
+        <v>0.76</v>
       </c>
       <c r="D18" t="n">
-        <v>20.04</v>
+        <v>5.447</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -4221,36 +4221,36 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>10.12</v>
+        <v>5.515000000000001</v>
       </c>
       <c r="C19" t="n">
-        <v>1.74</v>
+        <v>0.895</v>
       </c>
       <c r="D19" t="n">
-        <v>2.33</v>
+        <v>18.555</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>9.99</v>
+        <v>5.175</v>
       </c>
       <c r="C20" t="n">
-        <v>1.075</v>
+        <v>0.87</v>
       </c>
       <c r="D20" t="n">
-        <v>15.238</v>
+        <v>2.142</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -4263,13 +4263,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.92</v>
+        <v>5.04</v>
       </c>
       <c r="C21" t="n">
-        <v>0.98</v>
+        <v>0.63</v>
       </c>
       <c r="D21" t="n">
-        <v>2.511</v>
+        <v>2.361</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -4278,17 +4278,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.949999999999999</v>
+        <v>3.03</v>
       </c>
       <c r="C22" t="n">
-        <v>1.52</v>
+        <v>1.66</v>
       </c>
       <c r="D22" t="n">
-        <v>1.282</v>
+        <v>2.145</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -4297,17 +4297,17 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>7.12</v>
+        <v>1.52</v>
       </c>
       <c r="C23" t="n">
-        <v>0.59</v>
+        <v>1.01</v>
       </c>
       <c r="D23" t="n">
-        <v>1.129</v>
+        <v>1.669</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -4316,17 +4316,17 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>7.115</v>
+        <v>0.8799999999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9450000000000001</v>
+        <v>1.15</v>
       </c>
       <c r="D24" t="n">
-        <v>2.139</v>
+        <v>15.005</v>
       </c>
       <c r="E24" t="n">
         <v>2</v>
@@ -4335,17 +4335,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9</v>
+        <v>1.08</v>
       </c>
       <c r="D25" t="n">
-        <v>2.188</v>
+        <v>0.101</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -4354,17 +4354,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2.81</v>
+        <v>-0.7</v>
       </c>
       <c r="C26" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="D26" t="n">
-        <v>1.794</v>
+        <v>0.194</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4373,36 +4373,36 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2.71</v>
+        <v>-3.08</v>
       </c>
       <c r="C27" t="n">
-        <v>1.13</v>
+        <v>1.188</v>
       </c>
       <c r="D27" t="n">
-        <v>0.105</v>
+        <v>5.715</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.98</v>
+        <v>-3.61</v>
       </c>
       <c r="C28" t="n">
-        <v>1.26</v>
+        <v>1.04</v>
       </c>
       <c r="D28" t="n">
-        <v>0.208</v>
+        <v>0.125</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -4411,74 +4411,74 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.6100000000000001</v>
+        <v>-3.75</v>
       </c>
       <c r="C29" t="n">
-        <v>1.086</v>
+        <v>1.04</v>
       </c>
       <c r="D29" t="n">
-        <v>5.657</v>
+        <v>2.12</v>
       </c>
       <c r="E29" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-1.4325</v>
+        <v>-4.716666666666667</v>
       </c>
       <c r="C30" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="D30" t="n">
-        <v>26.22</v>
+        <v>3.261</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-2.503333333333333</v>
+        <v>-6.937500000000001</v>
       </c>
       <c r="C31" t="n">
-        <v>0.89</v>
+        <v>0.8200000000000001</v>
       </c>
       <c r="D31" t="n">
-        <v>3.426</v>
+        <v>24.599</v>
       </c>
       <c r="E31" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-4.07</v>
+        <v>-7.37</v>
       </c>
       <c r="C32" t="n">
-        <v>0.97</v>
+        <v>0.55</v>
       </c>
       <c r="D32" t="n">
-        <v>0.139</v>
+        <v>0.896</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -4592,38 +4592,38 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2305</v>
+        <v>2145</v>
       </c>
       <c r="E2" t="n">
-        <v>0.88</v>
+        <v>-9.869999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>58.97</v>
+        <v>45.92</v>
       </c>
       <c r="G2" t="n">
-        <v>83.92</v>
+        <v>66.23</v>
       </c>
       <c r="H2" t="n">
-        <v>235.6148</v>
+        <v>230.8196</v>
       </c>
       <c r="I2" t="n">
-        <v>95.59999999999999</v>
+        <v>71.90000000000001</v>
       </c>
       <c r="J2" t="n">
-        <v>100</v>
+        <v>61.2</v>
       </c>
       <c r="K2" t="n">
-        <v>5.87</v>
+        <v>6.71</v>
       </c>
       <c r="L2" t="n">
-        <v>51.6</v>
+        <v>33.6</v>
       </c>
       <c r="M2" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>👀 WATCH</t>
+          <t>⚠️ TAKE PROFIT</t>
         </is>
       </c>
     </row>
@@ -4644,34 +4644,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1780</v>
+        <v>1705</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-3.12</v>
       </c>
       <c r="F3" t="n">
-        <v>26.89</v>
+        <v>13.97</v>
       </c>
       <c r="G3" t="n">
-        <v>89.13</v>
+        <v>73.40000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>88.1409</v>
+        <v>88.2649</v>
       </c>
       <c r="I3" t="n">
-        <v>96.90000000000001</v>
+        <v>75</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>76.2</v>
       </c>
       <c r="K3" t="n">
-        <v>3.29</v>
+        <v>3.64</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.2</v>
+        <v>-8.9</v>
       </c>
       <c r="M3" t="n">
-        <v>1.55</v>
+        <v>1.05</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -4696,38 +4696,38 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>69.40000000000001</v>
+        <v>73.2</v>
       </c>
       <c r="E4" t="n">
-        <v>8.1</v>
+        <v>-4.06</v>
       </c>
       <c r="F4" t="n">
-        <v>36.08</v>
+        <v>41.59</v>
       </c>
       <c r="G4" t="n">
-        <v>77.53</v>
+        <v>78.34999999999999</v>
       </c>
       <c r="H4" t="n">
-        <v>2.6742</v>
+        <v>4.6577</v>
       </c>
       <c r="I4" t="n">
-        <v>128.3</v>
+        <v>102.9</v>
       </c>
       <c r="J4" t="n">
-        <v>100</v>
+        <v>88.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>4.38</v>
+        <v>5.09</v>
       </c>
       <c r="L4" t="n">
-        <v>411.8</v>
+        <v>214.7</v>
       </c>
       <c r="M4" t="n">
-        <v>2.37</v>
+        <v>2.81</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>🚀 BUY STRONG</t>
+          <t>💰 STRONG INFLOW</t>
         </is>
       </c>
     </row>
@@ -4748,34 +4748,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>72.2</v>
+        <v>64.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>-4.24</v>
+        <v>-6.7</v>
       </c>
       <c r="F5" t="n">
-        <v>7.12</v>
+        <v>-7.37</v>
       </c>
       <c r="G5" t="n">
-        <v>58.58</v>
+        <v>43.17</v>
       </c>
       <c r="H5" t="n">
-        <v>2.1676</v>
+        <v>0.7317</v>
       </c>
       <c r="I5" t="n">
-        <v>48.1</v>
+        <v>7.1</v>
       </c>
       <c r="J5" t="n">
-        <v>45.9</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6.56</v>
+        <v>7.71</v>
       </c>
       <c r="L5" t="n">
-        <v>-59.4</v>
+        <v>-61.8</v>
       </c>
       <c r="M5" t="n">
-        <v>0.59</v>
+        <v>0.55</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -4800,34 +4800,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>171</v>
+        <v>156.5</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.44</v>
+        <v>-6.85</v>
       </c>
       <c r="F6" t="n">
-        <v>12.87</v>
+        <v>5.39</v>
       </c>
       <c r="G6" t="n">
-        <v>64.59999999999999</v>
+        <v>50.34</v>
       </c>
       <c r="H6" t="n">
-        <v>6.9962</v>
+        <v>4.9582</v>
       </c>
       <c r="I6" t="n">
-        <v>66</v>
+        <v>29.3</v>
       </c>
       <c r="J6" t="n">
-        <v>52.6</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>6.7</v>
+        <v>7.28</v>
       </c>
       <c r="L6" t="n">
-        <v>-41.7</v>
+        <v>-34.5</v>
       </c>
       <c r="M6" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -4852,34 +4852,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>224</v>
+        <v>214.5</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.67</v>
+        <v>-2.72</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.82</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="G7" t="n">
-        <v>42.17</v>
+        <v>37.23</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.228</v>
+        <v>-2.3794</v>
       </c>
       <c r="I7" t="n">
-        <v>28.2</v>
+        <v>-0.9</v>
       </c>
       <c r="J7" t="n">
-        <v>32.3</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>2.39</v>
+        <v>2.61</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.4</v>
+        <v>11.7</v>
       </c>
       <c r="M7" t="n">
-        <v>0.87</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -481,61 +481,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>73.2</v>
+        <v>105.5</v>
       </c>
       <c r="E2" t="n">
-        <v>-4.06</v>
+        <v>-9.050000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.241</v>
+        <v>15.087</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>21.1</v>
+        <v>1990</v>
       </c>
       <c r="E3" t="n">
-        <v>1.69</v>
+        <v>-7.23</v>
       </c>
       <c r="F3" t="n">
-        <v>241</v>
+        <v>305</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,33 +543,33 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.682</v>
+        <v>11.871</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2685</v>
+        <v>277.5</v>
       </c>
       <c r="E4" t="n">
-        <v>2.48</v>
+        <v>-5.61</v>
       </c>
       <c r="F4" t="n">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8.766999999999999</v>
+        <v>19.648</v>
       </c>
     </row>
     <row r="5">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>331</v>
+        <v>312.5</v>
       </c>
       <c r="E5" t="n">
-        <v>-8.94</v>
+        <v>-5.59</v>
       </c>
       <c r="F5" t="n">
-        <v>153</v>
+        <v>212</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,33 +611,33 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3.388</v>
+        <v>3.463</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>Macronix (MXIC)</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>294</v>
+        <v>84.5</v>
       </c>
       <c r="E6" t="n">
-        <v>-9.949999999999999</v>
+        <v>-0.35</v>
       </c>
       <c r="F6" t="n">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -645,33 +645,33 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>20.504</v>
+        <v>19.174</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2145</v>
+        <v>2705</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.869999999999999</v>
+        <v>0.74</v>
       </c>
       <c r="F7" t="n">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -679,135 +679,135 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>11.989</v>
+        <v>8.771000000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>74.3</v>
+        <v>59.7</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.46</v>
+        <v>-4.63</v>
       </c>
       <c r="F8" t="n">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.617</v>
+        <v>14.151</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>90.5</v>
+        <v>221.5</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.44</v>
+        <v>-4.11</v>
       </c>
       <c r="F9" t="n">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.521</v>
+        <v>3.216</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>23.35</v>
+        <v>20.65</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.85</v>
+        <v>-2.13</v>
       </c>
       <c r="F10" t="n">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.399</v>
+        <v>1.714</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>116</v>
+        <v>1795</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.73</v>
+        <v>5.28</v>
       </c>
       <c r="F11" t="n">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -815,67 +815,67 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>16.328</v>
+        <v>17.61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>62.6</v>
+        <v>3320</v>
       </c>
       <c r="E12" t="n">
-        <v>-9.93</v>
+        <v>5.73</v>
       </c>
       <c r="F12" t="n">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>15.273</v>
+        <v>6.484</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>1700</v>
+        <v>172</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.1</v>
+        <v>9.9</v>
       </c>
       <c r="F13" t="n">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -883,75 +883,75 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2.145</v>
+        <v>2.634</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>214.5</v>
+        <v>302</v>
       </c>
       <c r="E14" t="n">
-        <v>-2.72</v>
+        <v>3.42</v>
       </c>
       <c r="F14" t="n">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>11.805</v>
+        <v>6.045</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Macronix (MXIC)</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>84.8</v>
+        <v>170.5</v>
       </c>
       <c r="E15" t="n">
-        <v>-8.619999999999999</v>
+        <v>6.23</v>
       </c>
       <c r="F15" t="n">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>19.143</v>
+        <v>3.894</v>
       </c>
     </row>
     <row r="16">
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30.7</v>
+        <v>30.3</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.13</v>
+        <v>-1.3</v>
       </c>
       <c r="F16" t="n">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -985,33 +985,33 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.125</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1175</v>
+        <v>38.05</v>
       </c>
       <c r="E17" t="n">
-        <v>-3.69</v>
+        <v>1.47</v>
       </c>
       <c r="F17" t="n">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1019,67 +1019,67 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>14.917</v>
+        <v>1.363</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>73.5</v>
+        <v>22.3</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="F18" t="n">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.518</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>38.8</v>
+        <v>1690</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>-0.59</v>
       </c>
       <c r="F19" t="n">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1087,33 +1087,33 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.782</v>
+        <v>2.145</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>50.9</v>
+        <v>1215</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="F20" t="n">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1121,33 +1121,33 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1.396</v>
+        <v>15.119</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>3140</v>
+        <v>231</v>
       </c>
       <c r="E21" t="n">
-        <v>0.48</v>
+        <v>-3.75</v>
       </c>
       <c r="F21" t="n">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1155,135 +1155,135 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>6.238</v>
+        <v>4.078</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>1705</v>
+        <v>234.5</v>
       </c>
       <c r="E22" t="n">
-        <v>-3.12</v>
+        <v>-0.64</v>
       </c>
       <c r="F22" t="n">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>16.461</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>44.3</v>
+        <v>91.8</v>
       </c>
       <c r="E23" t="n">
-        <v>-6.34</v>
+        <v>1.44</v>
       </c>
       <c r="F23" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2.372</v>
+        <v>1.548</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>160</v>
+        <v>1800</v>
       </c>
       <c r="E24" t="n">
-        <v>-4.19</v>
+        <v>1.98</v>
       </c>
       <c r="F24" t="n">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>0.704</v>
+        <v>60.192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>273</v>
+        <v>487</v>
       </c>
       <c r="E25" t="n">
-        <v>-2.5</v>
+        <v>2.53</v>
       </c>
       <c r="F25" t="n">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1291,67 +1291,67 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>5.195</v>
+        <v>2.188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>231</v>
+        <v>216.5</v>
       </c>
       <c r="E26" t="n">
-        <v>-8.51</v>
+        <v>0.93</v>
       </c>
       <c r="F26" t="n">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>3.524</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>236</v>
+        <v>276.5</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.26</v>
+        <v>1.28</v>
       </c>
       <c r="F27" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1359,67 +1359,67 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.101</v>
+        <v>5.124</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1765</v>
+        <v>23.5</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="F28" t="n">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>60.787</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>368.5</v>
+        <v>185</v>
       </c>
       <c r="E29" t="n">
-        <v>-1.73</v>
+        <v>0.54</v>
       </c>
       <c r="F29" t="n">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1427,101 +1427,101 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1.669</v>
+        <v>1.988</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>160.5</v>
+        <v>51.1</v>
       </c>
       <c r="E30" t="n">
-        <v>-2.13</v>
+        <v>0.39</v>
       </c>
       <c r="F30" t="n">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>3.638</v>
+        <v>1.385</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>184</v>
+        <v>135.5</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.08</v>
+        <v>-0.73</v>
       </c>
       <c r="F31" t="n">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.96</v>
+        <v>7.223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="E32" t="n">
-        <v>-3.72</v>
+        <v>5.11</v>
       </c>
       <c r="F32" t="n">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1529,67 +1529,67 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>6.227</v>
+        <v>5.962</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>21.95</v>
+        <v>74.7</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.13</v>
+        <v>0.54</v>
       </c>
       <c r="F33" t="n">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.826</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>475</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.76</v>
+        <v>0.42</v>
       </c>
       <c r="F34" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1597,33 +1597,33 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2.12</v>
+        <v>3.919</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>35.65</v>
+        <v>60.8</v>
       </c>
       <c r="E35" t="n">
-        <v>1.42</v>
+        <v>0.16</v>
       </c>
       <c r="F35" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1631,67 +1631,67 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.194</v>
+        <v>18.579</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>52.3</v>
+        <v>36.1</v>
       </c>
       <c r="E36" t="n">
-        <v>-2.06</v>
+        <v>1.26</v>
       </c>
       <c r="F36" t="n">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.783</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>240</v>
+        <v>44.05</v>
       </c>
       <c r="E37" t="n">
-        <v>-9.94</v>
+        <v>0.46</v>
       </c>
       <c r="F37" t="n">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1699,33 +1699,33 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4.345</v>
+        <v>1.745</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>136.5</v>
+        <v>293.5</v>
       </c>
       <c r="E38" t="n">
-        <v>-4.88</v>
+        <v>2.98</v>
       </c>
       <c r="F38" t="n">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1733,67 +1733,67 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>7.217</v>
+        <v>6.219</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>156.5</v>
+        <v>236.5</v>
       </c>
       <c r="E39" t="n">
-        <v>-6.85</v>
+        <v>6.77</v>
       </c>
       <c r="F39" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>2.29</v>
+        <v>7.544</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>292</v>
+        <v>128.5</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.68</v>
+        <v>0.39</v>
       </c>
       <c r="F40" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1801,33 +1801,33 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>5.971</v>
+        <v>5.855</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>221.5</v>
+        <v>38.9</v>
       </c>
       <c r="E41" t="n">
-        <v>-5.54</v>
+        <v>0.26</v>
       </c>
       <c r="F41" t="n">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1835,33 +1835,33 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>7.1</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>60.7</v>
+        <v>73.59999999999999</v>
       </c>
       <c r="E42" t="n">
-        <v>-2.72</v>
+        <v>0.14</v>
       </c>
       <c r="F42" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1869,41 +1869,41 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>18.138</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>112.5</v>
+        <v>44.95</v>
       </c>
       <c r="E43" t="n">
-        <v>-6.25</v>
+        <v>1.47</v>
       </c>
       <c r="F43" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1.324</v>
+        <v>2.427</v>
       </c>
     </row>
     <row r="44">
@@ -1923,13 +1923,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>103.5</v>
+        <v>108</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.59</v>
+        <v>4.35</v>
       </c>
       <c r="F44" t="n">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1937,33 +1937,33 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.488</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>128</v>
+        <v>52.4</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.92</v>
+        <v>0.19</v>
       </c>
       <c r="F45" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1971,33 +1971,33 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>5.881</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>473</v>
+        <v>1315</v>
       </c>
       <c r="E46" t="n">
-        <v>-4.83</v>
+        <v>5.2</v>
       </c>
       <c r="F46" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2005,33 +2005,33 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>4.123</v>
+        <v>2.483</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>37.5</v>
+        <v>56.3</v>
       </c>
       <c r="E47" t="n">
-        <v>0.27</v>
+        <v>-2.76</v>
       </c>
       <c r="F47" t="n">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2039,33 +2039,33 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1.316</v>
+        <v>3.718</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>43.85</v>
+        <v>373.5</v>
       </c>
       <c r="E48" t="n">
-        <v>-2.56</v>
+        <v>1.36</v>
       </c>
       <c r="F48" t="n">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2073,33 +2073,33 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1.718</v>
+        <v>1.648</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>244.5</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E49" t="n">
-        <v>-3.74</v>
+        <v>0.96</v>
       </c>
       <c r="F49" t="n">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2107,33 +2107,33 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>5.949</v>
+        <v>1.256</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>1250</v>
+        <v>114.5</v>
       </c>
       <c r="E50" t="n">
-        <v>-3.1</v>
+        <v>1.78</v>
       </c>
       <c r="F50" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2141,33 +2141,33 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>2.361</v>
+        <v>1.247</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>64.09999999999999</v>
+        <v>161.5</v>
       </c>
       <c r="E51" t="n">
-        <v>-6.7</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F51" t="n">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2175,33 +2175,33 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0.896</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>57.9</v>
+        <v>63.9</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.82</v>
+        <v>-0.31</v>
       </c>
       <c r="F52" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>3.905</v>
+        <v>0.882</v>
       </c>
     </row>
   </sheetData>
@@ -2290,168 +2290,168 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>77.95999999999999</v>
+        <v>61.26</v>
       </c>
       <c r="F2" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>19.143</v>
+        <v>19.174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>46.46</v>
+        <v>45.19</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.67</v>
       </c>
       <c r="G3" t="n">
-        <v>7.217</v>
+        <v>1.256</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>45.92</v>
+        <v>36.18</v>
       </c>
       <c r="F4" t="n">
-        <v>1.36</v>
+        <v>0.91</v>
       </c>
       <c r="G4" t="n">
-        <v>11.989</v>
+        <v>7.223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>44.07</v>
+        <v>28.53</v>
       </c>
       <c r="F5" t="n">
-        <v>1.63</v>
+        <v>0.73</v>
       </c>
       <c r="G5" t="n">
-        <v>15.273</v>
+        <v>7.544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>41.59</v>
+        <v>25.98</v>
       </c>
       <c r="F6" t="n">
-        <v>2.81</v>
+        <v>0.93</v>
       </c>
       <c r="G6" t="n">
-        <v>1.241</v>
+        <v>5.962</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Foundry - Memory</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>41.35</v>
+        <v>25.03</v>
       </c>
       <c r="F7" t="n">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="G7" t="n">
-        <v>20.504</v>
+        <v>14.151</v>
       </c>
     </row>
     <row r="8">
@@ -2476,1005 +2476,1005 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>25.15</v>
+        <v>23.58</v>
       </c>
       <c r="F8" t="n">
-        <v>1.25</v>
+        <v>1.01</v>
       </c>
       <c r="G8" t="n">
-        <v>18.138</v>
+        <v>18.579</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>21.47</v>
+        <v>23.22</v>
       </c>
       <c r="F9" t="n">
-        <v>1.79</v>
+        <v>1.69</v>
       </c>
       <c r="G9" t="n">
-        <v>16.328</v>
+        <v>11.871</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>21.34</v>
+        <v>21.44</v>
       </c>
       <c r="F10" t="n">
-        <v>0.98</v>
+        <v>1.81</v>
       </c>
       <c r="G10" t="n">
-        <v>5.949</v>
+        <v>19.648</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>21.04</v>
+        <v>20.88</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8</v>
+        <v>1.02</v>
       </c>
       <c r="G11" t="n">
-        <v>7.1</v>
+        <v>17.61</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>20.12</v>
+        <v>17.67</v>
       </c>
       <c r="F12" t="n">
-        <v>0.51</v>
+        <v>1.05</v>
       </c>
       <c r="G12" t="n">
-        <v>3.905</v>
+        <v>2.427</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>19.07</v>
+        <v>16.22</v>
       </c>
       <c r="F13" t="n">
-        <v>1.52</v>
+        <v>0.84</v>
       </c>
       <c r="G13" t="n">
-        <v>3.524</v>
+        <v>2.634</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>16.58</v>
+        <v>15.71</v>
       </c>
       <c r="F14" t="n">
-        <v>1.67</v>
+        <v>0.92</v>
       </c>
       <c r="G14" t="n">
-        <v>2.372</v>
+        <v>15.119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>16.34</v>
+        <v>11.62</v>
       </c>
       <c r="F15" t="n">
-        <v>0.87</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>14.917</v>
+        <v>1.714</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>16.22</v>
+        <v>11.23</v>
       </c>
       <c r="F16" t="n">
-        <v>0.99</v>
+        <v>0.97</v>
       </c>
       <c r="G16" t="n">
-        <v>4.345</v>
+        <v>6.045</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>15.73</v>
+        <v>10.5</v>
       </c>
       <c r="F17" t="n">
-        <v>1.22</v>
+        <v>0.49</v>
       </c>
       <c r="G17" t="n">
-        <v>8.766999999999999</v>
+        <v>2.483</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>14.53</v>
+        <v>9.93</v>
       </c>
       <c r="F18" t="n">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="G18" t="n">
-        <v>4.123</v>
+        <v>6.219</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>14.14</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F19" t="n">
-        <v>2.29</v>
+        <v>0.78</v>
       </c>
       <c r="G19" t="n">
-        <v>3.388</v>
+        <v>3.919</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>13.97</v>
+        <v>9.32</v>
       </c>
       <c r="F20" t="n">
-        <v>1.05</v>
+        <v>0.48</v>
       </c>
       <c r="G20" t="n">
-        <v>16.461</v>
+        <v>3.718</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>13.44</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="F21" t="n">
-        <v>1.97</v>
+        <v>1.41</v>
       </c>
       <c r="G21" t="n">
-        <v>1.682</v>
+        <v>3.216</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>10.82</v>
+        <v>8.85</v>
       </c>
       <c r="F22" t="n">
-        <v>0.87</v>
+        <v>1.27</v>
       </c>
       <c r="G22" t="n">
-        <v>5.971</v>
+        <v>8.771000000000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.369999999999999</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G23" t="n">
-        <v>6.227</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>7.33</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="F24" t="n">
-        <v>1.01</v>
+        <v>1.94</v>
       </c>
       <c r="G24" t="n">
-        <v>0.826</v>
+        <v>3.463</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>5.69</v>
+        <v>6.7</v>
       </c>
       <c r="F25" t="n">
-        <v>0.93</v>
+        <v>1.03</v>
       </c>
       <c r="G25" t="n">
-        <v>60.787</v>
+        <v>4.078</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5.39</v>
+        <v>5.57</v>
       </c>
       <c r="F26" t="n">
-        <v>0.83</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G26" t="n">
-        <v>2.29</v>
+        <v>60.192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>5.04</v>
+        <v>4.82</v>
       </c>
       <c r="F27" t="n">
-        <v>0.63</v>
+        <v>0.74</v>
       </c>
       <c r="G27" t="n">
-        <v>2.361</v>
+        <v>1.363</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.03</v>
+        <v>2.51</v>
       </c>
       <c r="F28" t="n">
-        <v>1.66</v>
+        <v>1.08</v>
       </c>
       <c r="G28" t="n">
-        <v>2.145</v>
+        <v>1.385</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3.02</v>
+        <v>1.97</v>
       </c>
       <c r="F29" t="n">
-        <v>0.73</v>
+        <v>0.61</v>
       </c>
       <c r="G29" t="n">
-        <v>1.316</v>
+        <v>1.745</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="F30" t="n">
-        <v>1.19</v>
+        <v>0.76</v>
       </c>
       <c r="G30" t="n">
-        <v>1.396</v>
+        <v>0.508</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="F31" t="n">
-        <v>1.01</v>
+        <v>0.77</v>
       </c>
       <c r="G31" t="n">
-        <v>1.669</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.44</v>
       </c>
       <c r="F32" t="n">
-        <v>0.79</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>1.324</v>
+        <v>15.087</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>1.08</v>
+        <v>0.92</v>
       </c>
       <c r="G33" t="n">
-        <v>0.101</v>
+        <v>3.894</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>-1.19</v>
       </c>
       <c r="F34" t="n">
-        <v>0.7</v>
+        <v>0.95</v>
       </c>
       <c r="G34" t="n">
-        <v>1.718</v>
+        <v>1.648</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-0.48</v>
+        <v>-1.71</v>
       </c>
       <c r="F35" t="n">
-        <v>0.85</v>
+        <v>0.9</v>
       </c>
       <c r="G35" t="n">
-        <v>0.488</v>
+        <v>1.62</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-0.7</v>
+        <v>-1.95</v>
       </c>
       <c r="F36" t="n">
-        <v>1.17</v>
+        <v>0.79</v>
       </c>
       <c r="G36" t="n">
-        <v>0.194</v>
+        <v>5.124</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-1.8</v>
+        <v>-2.31</v>
       </c>
       <c r="F37" t="n">
-        <v>0.74</v>
+        <v>1.59</v>
       </c>
       <c r="G37" t="n">
-        <v>5.195</v>
+        <v>2.145</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-2.88</v>
+        <v>-2.37</v>
       </c>
       <c r="F38" t="n">
-        <v>1.03</v>
+        <v>0.87</v>
       </c>
       <c r="G38" t="n">
-        <v>1.617</v>
+        <v>1.988</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-3.16</v>
+        <v>-2.59</v>
       </c>
       <c r="F39" t="n">
-        <v>0.93</v>
+        <v>0.7</v>
       </c>
       <c r="G39" t="n">
-        <v>1.96</v>
+        <v>1.247</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-3.61</v>
+        <v>-3.29</v>
       </c>
       <c r="F40" t="n">
-        <v>1.04</v>
+        <v>1.15</v>
       </c>
       <c r="G40" t="n">
-        <v>0.125</v>
+        <v>0.403</v>
       </c>
     </row>
     <row r="41">
@@ -3499,184 +3499,184 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-3.72</v>
+        <v>-4.07</v>
       </c>
       <c r="F41" t="n">
-        <v>1.35</v>
+        <v>1.23</v>
       </c>
       <c r="G41" t="n">
-        <v>0.782</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-3.75</v>
+        <v>-4.29</v>
       </c>
       <c r="F42" t="n">
-        <v>1.04</v>
+        <v>0.98</v>
       </c>
       <c r="G42" t="n">
-        <v>2.12</v>
+        <v>0.098</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-3.91</v>
+        <v>-4.57</v>
       </c>
       <c r="F43" t="n">
-        <v>1.19</v>
+        <v>1.06</v>
       </c>
       <c r="G43" t="n">
-        <v>0.399</v>
+        <v>0.123</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-4.74</v>
+        <v>-4.77</v>
       </c>
       <c r="F44" t="n">
-        <v>0.77</v>
+        <v>1.08</v>
       </c>
       <c r="G44" t="n">
-        <v>0.783</v>
+        <v>1.548</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-5.04</v>
+        <v>-4.88</v>
       </c>
       <c r="F45" t="n">
-        <v>1.16</v>
+        <v>1.03</v>
       </c>
       <c r="G45" t="n">
-        <v>0.704</v>
+        <v>2.188</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-5.31</v>
+        <v>-5.56</v>
       </c>
       <c r="F46" t="n">
-        <v>0.92</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>3.638</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -3685,44 +3685,44 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-6.25</v>
+        <v>-5.59</v>
       </c>
       <c r="F47" t="n">
-        <v>1.03</v>
+        <v>0.75</v>
       </c>
       <c r="G47" t="n">
-        <v>0.518</v>
+        <v>0.763</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-6.89</v>
+        <v>-5.88</v>
       </c>
       <c r="F48" t="n">
-        <v>1.18</v>
+        <v>0.92</v>
       </c>
       <c r="G48" t="n">
-        <v>1.521</v>
+        <v>0.515</v>
       </c>
     </row>
     <row r="49">
@@ -3747,13 +3747,13 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-7.37</v>
+        <v>-7.93</v>
       </c>
       <c r="F49" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="G49" t="n">
-        <v>0.896</v>
+        <v>0.882</v>
       </c>
     </row>
     <row r="50">
@@ -3778,13 +3778,13 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-8.529999999999999</v>
+        <v>-8.26</v>
       </c>
       <c r="F50" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="G50" t="n">
-        <v>11.805</v>
+        <v>11.66</v>
       </c>
     </row>
     <row r="51">
@@ -3809,13 +3809,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-13.97</v>
+        <v>-11.11</v>
       </c>
       <c r="F51" t="n">
-        <v>1.08</v>
+        <v>1.03</v>
       </c>
       <c r="G51" t="n">
-        <v>6.238</v>
+        <v>6.484</v>
       </c>
     </row>
     <row r="52">
@@ -3840,13 +3840,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-17.42</v>
+        <v>-16.83</v>
       </c>
       <c r="F52" t="n">
-        <v>0.76</v>
+        <v>0.71</v>
       </c>
       <c r="G52" t="n">
-        <v>5.881</v>
+        <v>5.855</v>
       </c>
     </row>
   </sheetData>
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77.95999999999999</v>
+        <v>61.26</v>
       </c>
       <c r="C2" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="D2" t="n">
-        <v>19.143</v>
+        <v>19.174</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3921,13 +3921,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>46.46</v>
+        <v>36.18</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.91</v>
       </c>
       <c r="D3" t="n">
-        <v>7.217</v>
+        <v>7.223</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3936,17 +3936,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Foundry - Memory</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>45.92</v>
+        <v>25.03</v>
       </c>
       <c r="C4" t="n">
-        <v>1.36</v>
+        <v>1.72</v>
       </c>
       <c r="D4" t="n">
-        <v>11.989</v>
+        <v>14.151</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3955,17 +3955,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>44.07</v>
+        <v>23.22</v>
       </c>
       <c r="C5" t="n">
-        <v>1.63</v>
+        <v>1.69</v>
       </c>
       <c r="D5" t="n">
-        <v>15.273</v>
+        <v>11.871</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3978,13 +3978,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.35</v>
+        <v>21.44</v>
       </c>
       <c r="C6" t="n">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="D6" t="n">
-        <v>20.504</v>
+        <v>19.648</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -3993,17 +3993,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.47</v>
+        <v>20.88</v>
       </c>
       <c r="C7" t="n">
-        <v>1.79</v>
+        <v>1.02</v>
       </c>
       <c r="D7" t="n">
-        <v>16.328</v>
+        <v>17.61</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -4012,17 +4012,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.73</v>
+        <v>19.815</v>
       </c>
       <c r="C8" t="n">
-        <v>0.745</v>
+        <v>1.805</v>
       </c>
       <c r="D8" t="n">
-        <v>9.853999999999999</v>
+        <v>1.924</v>
       </c>
       <c r="E8" t="n">
         <v>2</v>
@@ -4031,55 +4031,55 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>18.275</v>
+        <v>17.67</v>
       </c>
       <c r="C9" t="n">
-        <v>1.985</v>
+        <v>1.05</v>
       </c>
       <c r="D9" t="n">
-        <v>1.945</v>
+        <v>2.427</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.58</v>
+        <v>17.65</v>
       </c>
       <c r="C10" t="n">
-        <v>1.67</v>
+        <v>0.7050000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>2.372</v>
+        <v>9.68</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.47666666666667</v>
+        <v>15.54666666666667</v>
       </c>
       <c r="C11" t="n">
-        <v>1.6</v>
+        <v>0.7766666666666667</v>
       </c>
       <c r="D11" t="n">
-        <v>11.257</v>
+        <v>10.686</v>
       </c>
       <c r="E11" t="n">
         <v>3</v>
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>15.42</v>
+        <v>14.575</v>
       </c>
       <c r="C12" t="n">
-        <v>1.09</v>
+        <v>0.975</v>
       </c>
       <c r="D12" t="n">
-        <v>78.925</v>
+        <v>78.771</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -4107,17 +4107,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13.97</v>
+        <v>11.62</v>
       </c>
       <c r="C13" t="n">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>16.461</v>
+        <v>1.714</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
@@ -4126,17 +4126,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13.44</v>
+        <v>11.23</v>
       </c>
       <c r="C14" t="n">
-        <v>1.97</v>
+        <v>0.97</v>
       </c>
       <c r="D14" t="n">
-        <v>1.682</v>
+        <v>6.045</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -4145,17 +4145,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.82</v>
+        <v>10.5</v>
       </c>
       <c r="C15" t="n">
-        <v>0.87</v>
+        <v>0.49</v>
       </c>
       <c r="D15" t="n">
-        <v>5.971</v>
+        <v>2.483</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -4164,55 +4164,55 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.65</v>
+        <v>9.93</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8266666666666667</v>
+        <v>0.88</v>
       </c>
       <c r="D16" t="n">
-        <v>9.878</v>
+        <v>6.219</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>8.369999999999999</v>
+        <v>7.98</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>1.46</v>
       </c>
       <c r="D17" t="n">
-        <v>6.227</v>
+        <v>10.757</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.67</v>
+        <v>7.855</v>
       </c>
       <c r="C18" t="n">
-        <v>0.76</v>
+        <v>0.92</v>
       </c>
       <c r="D18" t="n">
-        <v>5.447</v>
+        <v>19.013</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -4221,17 +4221,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>5.515000000000001</v>
+        <v>6.8</v>
       </c>
       <c r="C19" t="n">
-        <v>0.895</v>
+        <v>0.825</v>
       </c>
       <c r="D19" t="n">
-        <v>18.555</v>
+        <v>2.219</v>
       </c>
       <c r="E19" t="n">
         <v>2</v>
@@ -4240,17 +4240,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>5.175</v>
+        <v>3.555</v>
       </c>
       <c r="C20" t="n">
-        <v>0.87</v>
+        <v>0.74</v>
       </c>
       <c r="D20" t="n">
-        <v>2.142</v>
+        <v>5.166</v>
       </c>
       <c r="E20" t="n">
         <v>2</v>
@@ -4259,17 +4259,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.04</v>
+        <v>1.55</v>
       </c>
       <c r="C21" t="n">
-        <v>0.63</v>
+        <v>0.77</v>
       </c>
       <c r="D21" t="n">
-        <v>2.361</v>
+        <v>0.194</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -4278,17 +4278,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3.03</v>
+        <v>1.44</v>
       </c>
       <c r="C22" t="n">
-        <v>1.66</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>2.145</v>
+        <v>15.087</v>
       </c>
       <c r="E22" t="n">
         <v>1</v>
@@ -4297,74 +4297,74 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1.52</v>
+        <v>-1.13</v>
       </c>
       <c r="C23" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="D23" t="n">
-        <v>1.669</v>
+        <v>15.255</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8799999999999999</v>
+        <v>-1.19</v>
       </c>
       <c r="C24" t="n">
-        <v>1.15</v>
+        <v>0.95</v>
       </c>
       <c r="D24" t="n">
-        <v>15.005</v>
+        <v>1.648</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>-2.266</v>
       </c>
       <c r="C25" t="n">
-        <v>1.08</v>
+        <v>1.088</v>
       </c>
       <c r="D25" t="n">
-        <v>0.101</v>
+        <v>5.729</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.7</v>
+        <v>-2.31</v>
       </c>
       <c r="C26" t="n">
-        <v>1.17</v>
+        <v>1.59</v>
       </c>
       <c r="D26" t="n">
-        <v>0.194</v>
+        <v>2.145</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4373,20 +4373,20 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-3.08</v>
+        <v>-4.29</v>
       </c>
       <c r="C27" t="n">
-        <v>1.188</v>
+        <v>0.98</v>
       </c>
       <c r="D27" t="n">
-        <v>5.715</v>
+        <v>0.098</v>
       </c>
       <c r="E27" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -4396,13 +4396,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-3.61</v>
+        <v>-4.57</v>
       </c>
       <c r="C28" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="D28" t="n">
-        <v>0.125</v>
+        <v>0.123</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -4411,39 +4411,39 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-3.75</v>
+        <v>-4.613333333333333</v>
       </c>
       <c r="C29" t="n">
-        <v>1.04</v>
+        <v>0.8466666666666667</v>
       </c>
       <c r="D29" t="n">
-        <v>2.12</v>
+        <v>3.266</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-4.716666666666667</v>
+        <v>-4.88</v>
       </c>
       <c r="C30" t="n">
-        <v>0.91</v>
+        <v>1.03</v>
       </c>
       <c r="D30" t="n">
-        <v>3.261</v>
+        <v>2.188</v>
       </c>
       <c r="E30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -4453,13 +4453,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-6.937500000000001</v>
+        <v>-6.267499999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8200000000000001</v>
+        <v>0.8075</v>
       </c>
       <c r="D31" t="n">
-        <v>24.599</v>
+        <v>24.384</v>
       </c>
       <c r="E31" t="n">
         <v>4</v>
@@ -4472,13 +4472,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-7.37</v>
+        <v>-7.93</v>
       </c>
       <c r="C32" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="D32" t="n">
-        <v>0.896</v>
+        <v>0.882</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -4592,34 +4592,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2145</v>
+        <v>1990</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.869999999999999</v>
+        <v>-7.23</v>
       </c>
       <c r="F2" t="n">
-        <v>45.92</v>
+        <v>23.22</v>
       </c>
       <c r="G2" t="n">
-        <v>66.23</v>
+        <v>58.24</v>
       </c>
       <c r="H2" t="n">
-        <v>230.8196</v>
+        <v>202.2672</v>
       </c>
       <c r="I2" t="n">
-        <v>71.90000000000001</v>
+        <v>53.2</v>
       </c>
       <c r="J2" t="n">
-        <v>61.2</v>
+        <v>33.3</v>
       </c>
       <c r="K2" t="n">
-        <v>6.71</v>
+        <v>8.33</v>
       </c>
       <c r="L2" t="n">
-        <v>33.6</v>
+        <v>205.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.36</v>
+        <v>1.69</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -4644,34 +4644,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1705</v>
+        <v>1795</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.12</v>
+        <v>5.28</v>
       </c>
       <c r="F3" t="n">
-        <v>13.97</v>
+        <v>20.88</v>
       </c>
       <c r="G3" t="n">
-        <v>73.40000000000001</v>
+        <v>77.06</v>
       </c>
       <c r="H3" t="n">
-        <v>88.2649</v>
+        <v>91.791</v>
       </c>
       <c r="I3" t="n">
-        <v>75</v>
+        <v>86.7</v>
       </c>
       <c r="J3" t="n">
-        <v>76.2</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>3.64</v>
+        <v>3.78</v>
       </c>
       <c r="L3" t="n">
-        <v>-8.9</v>
+        <v>12.5</v>
       </c>
       <c r="M3" t="n">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -4696,34 +4696,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>73.2</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.06</v>
+        <v>0.96</v>
       </c>
       <c r="F4" t="n">
-        <v>41.59</v>
+        <v>45.19</v>
       </c>
       <c r="G4" t="n">
-        <v>78.34999999999999</v>
+        <v>78.52</v>
       </c>
       <c r="H4" t="n">
-        <v>4.6577</v>
+        <v>5.1507</v>
       </c>
       <c r="I4" t="n">
-        <v>102.9</v>
+        <v>96.7</v>
       </c>
       <c r="J4" t="n">
-        <v>88.90000000000001</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>5.09</v>
+        <v>5.34</v>
       </c>
       <c r="L4" t="n">
-        <v>214.7</v>
+        <v>-61.1</v>
       </c>
       <c r="M4" t="n">
-        <v>2.81</v>
+        <v>2.67</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -4748,34 +4748,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>64.09999999999999</v>
+        <v>63.9</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.7</v>
+        <v>-0.31</v>
       </c>
       <c r="F5" t="n">
-        <v>-7.37</v>
+        <v>-7.93</v>
       </c>
       <c r="G5" t="n">
-        <v>43.17</v>
+        <v>31.49</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7317</v>
+        <v>-0.0643</v>
       </c>
       <c r="I5" t="n">
-        <v>7.1</v>
+        <v>10.2</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>7.71</v>
+        <v>7.37</v>
       </c>
       <c r="L5" t="n">
-        <v>-61.8</v>
+        <v>-71.40000000000001</v>
       </c>
       <c r="M5" t="n">
-        <v>0.55</v>
+        <v>0.46</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -4800,34 +4800,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>156.5</v>
+        <v>172</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.85</v>
+        <v>9.9</v>
       </c>
       <c r="F6" t="n">
-        <v>5.39</v>
+        <v>16.22</v>
       </c>
       <c r="G6" t="n">
-        <v>50.34</v>
+        <v>56.98</v>
       </c>
       <c r="H6" t="n">
-        <v>4.9582</v>
+        <v>4.8179</v>
       </c>
       <c r="I6" t="n">
-        <v>29.3</v>
+        <v>64.8</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>55.4</v>
       </c>
       <c r="K6" t="n">
-        <v>7.28</v>
+        <v>6.98</v>
       </c>
       <c r="L6" t="n">
-        <v>-34.5</v>
+        <v>2.6</v>
       </c>
       <c r="M6" t="n">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -4852,34 +4852,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>214.5</v>
+        <v>216.5</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.72</v>
+        <v>0.93</v>
       </c>
       <c r="F7" t="n">
-        <v>-8.529999999999999</v>
+        <v>-8.26</v>
       </c>
       <c r="G7" t="n">
-        <v>37.23</v>
+        <v>28.05</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.3794</v>
+        <v>-2.791</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.9</v>
+        <v>11.5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K7" t="n">
-        <v>2.61</v>
+        <v>2.51</v>
       </c>
       <c r="L7" t="n">
-        <v>11.7</v>
+        <v>-25</v>
       </c>
       <c r="M7" t="n">
-        <v>1.08</v>
+        <v>1.12</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -481,61 +481,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>105.5</v>
+        <v>181.5</v>
       </c>
       <c r="E2" t="n">
-        <v>-9.050000000000001</v>
+        <v>5.52</v>
       </c>
       <c r="F2" t="n">
-        <v>312</v>
+        <v>183</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>15.087</v>
+        <v>2.943</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1990</v>
+        <v>333</v>
       </c>
       <c r="E3" t="n">
-        <v>-7.23</v>
+        <v>6.56</v>
       </c>
       <c r="F3" t="n">
-        <v>305</v>
+        <v>160</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,67 +543,67 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>11.871</v>
+        <v>3.945</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>277.5</v>
+        <v>108.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.61</v>
+        <v>2.84</v>
       </c>
       <c r="F4" t="n">
-        <v>247</v>
+        <v>153</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>19.648</v>
+        <v>14.752</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>312.5</v>
+        <v>295</v>
       </c>
       <c r="E5" t="n">
-        <v>-5.59</v>
+        <v>6.31</v>
       </c>
       <c r="F5" t="n">
-        <v>212</v>
+        <v>150</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,33 +611,33 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>3.463</v>
+        <v>19.953</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Macronix (MXIC)</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>84.5</v>
+        <v>173.5</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.35</v>
+        <v>1.76</v>
       </c>
       <c r="F6" t="n">
-        <v>176</v>
+        <v>142</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -645,33 +645,33 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>19.174</v>
+        <v>4.029</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2705</v>
+        <v>2055</v>
       </c>
       <c r="E7" t="n">
-        <v>0.74</v>
+        <v>3.27</v>
       </c>
       <c r="F7" t="n">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -679,67 +679,67 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>8.771000000000001</v>
+        <v>12.699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>59.7</v>
+        <v>2530</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.63</v>
+        <v>-6.47</v>
       </c>
       <c r="F8" t="n">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>14.151</v>
+        <v>8.333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Macronix (MXIC)</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>221.5</v>
+        <v>89.7</v>
       </c>
       <c r="E9" t="n">
-        <v>-4.11</v>
+        <v>6.15</v>
       </c>
       <c r="F9" t="n">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -747,33 +747,33 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3.216</v>
+        <v>19.395</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>20.65</v>
+        <v>1800</v>
       </c>
       <c r="E10" t="n">
-        <v>-2.13</v>
+        <v>0.28</v>
       </c>
       <c r="F10" t="n">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -781,33 +781,33 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>1.714</v>
+        <v>18.037</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1795</v>
+        <v>36.7</v>
       </c>
       <c r="E11" t="n">
-        <v>5.28</v>
+        <v>1.66</v>
       </c>
       <c r="F11" t="n">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -815,305 +815,305 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>17.61</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>3320</v>
+        <v>20.95</v>
       </c>
       <c r="E12" t="n">
-        <v>5.73</v>
+        <v>1.45</v>
       </c>
       <c r="F12" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>6.484</v>
+        <v>1.724</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>172</v>
+        <v>3385</v>
       </c>
       <c r="E13" t="n">
-        <v>9.9</v>
+        <v>1.96</v>
       </c>
       <c r="F13" t="n">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>2.634</v>
+        <v>6.596</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>302</v>
+        <v>115.5</v>
       </c>
       <c r="E14" t="n">
-        <v>3.42</v>
+        <v>6.94</v>
       </c>
       <c r="F14" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>6.045</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>170.5</v>
+        <v>92.7</v>
       </c>
       <c r="E15" t="n">
-        <v>6.23</v>
+        <v>0.98</v>
       </c>
       <c r="F15" t="n">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3.894</v>
+        <v>1.586</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>30.3</v>
+        <v>65.59999999999999</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.3</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="F16" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.123</v>
+        <v>14.526</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>38.05</v>
+        <v>367.5</v>
       </c>
       <c r="E17" t="n">
-        <v>1.47</v>
+        <v>-1.61</v>
       </c>
       <c r="F17" t="n">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1.363</v>
+        <v>1.526</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>22.3</v>
+        <v>476</v>
       </c>
       <c r="E18" t="n">
-        <v>1.59</v>
+        <v>-2.26</v>
       </c>
       <c r="F18" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.856</v>
+        <v>2.171</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1690</v>
+        <v>51.2</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.59</v>
+        <v>0.2</v>
       </c>
       <c r="F19" t="n">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.145</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1215</v>
+        <v>1785</v>
       </c>
       <c r="E20" t="n">
-        <v>3.4</v>
+        <v>-0.83</v>
       </c>
       <c r="F20" t="n">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1121,67 +1121,67 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>15.119</v>
+        <v>57.646</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>231</v>
+        <v>76.2</v>
       </c>
       <c r="E21" t="n">
-        <v>-3.75</v>
+        <v>2.01</v>
       </c>
       <c r="F21" t="n">
         <v>82</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.078</v>
+        <v>1.658</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>234.5</v>
+        <v>122</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.64</v>
+        <v>-9.960000000000001</v>
       </c>
       <c r="F22" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1189,67 +1189,67 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.098</v>
+        <v>6.536</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>91.8</v>
+        <v>1715</v>
       </c>
       <c r="E23" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="F23" t="n">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.548</v>
+        <v>2.193</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1800</v>
+        <v>251.5</v>
       </c>
       <c r="E24" t="n">
-        <v>1.98</v>
+        <v>6.34</v>
       </c>
       <c r="F24" t="n">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1257,67 +1257,67 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>60.192</v>
+        <v>7.974</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>487</v>
+        <v>229.5</v>
       </c>
       <c r="E25" t="n">
-        <v>2.53</v>
+        <v>3.61</v>
       </c>
       <c r="F25" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2.188</v>
+        <v>3.114</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>216.5</v>
+        <v>23.55</v>
       </c>
       <c r="E26" t="n">
-        <v>0.93</v>
+        <v>0.21</v>
       </c>
       <c r="F26" t="n">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1325,33 +1325,33 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>11.66</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>276.5</v>
+        <v>31.05</v>
       </c>
       <c r="E27" t="n">
-        <v>1.28</v>
+        <v>2.48</v>
       </c>
       <c r="F27" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1359,33 +1359,33 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>5.124</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>23.5</v>
+        <v>75</v>
       </c>
       <c r="E28" t="n">
-        <v>0.64</v>
+        <v>1.9</v>
       </c>
       <c r="F28" t="n">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1393,67 +1393,67 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.403</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>185</v>
+        <v>22.65</v>
       </c>
       <c r="E29" t="n">
-        <v>0.54</v>
+        <v>1.57</v>
       </c>
       <c r="F29" t="n">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1.988</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>51.1</v>
+        <v>302.5</v>
       </c>
       <c r="E30" t="n">
-        <v>0.39</v>
+        <v>0.17</v>
       </c>
       <c r="F30" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1461,67 +1461,67 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1.385</v>
+        <v>5.855</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>135.5</v>
+        <v>228.5</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.73</v>
+        <v>-1.08</v>
       </c>
       <c r="F31" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>7.223</v>
+        <v>4.081</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>257</v>
+        <v>38.4</v>
       </c>
       <c r="E32" t="n">
-        <v>5.11</v>
+        <v>0.92</v>
       </c>
       <c r="F32" t="n">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1529,67 +1529,67 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>5.962</v>
+        <v>1.372</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>74.7</v>
+        <v>1210</v>
       </c>
       <c r="E33" t="n">
-        <v>0.54</v>
+        <v>-0.41</v>
       </c>
       <c r="F33" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1.62</v>
+        <v>14.388</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>475</v>
+        <v>39.15</v>
       </c>
       <c r="E34" t="n">
-        <v>0.42</v>
+        <v>0.64</v>
       </c>
       <c r="F34" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1597,33 +1597,33 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3.919</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>60.8</v>
+        <v>232.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.16</v>
+        <v>-0.85</v>
       </c>
       <c r="F35" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1631,33 +1631,33 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>18.579</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>36.1</v>
+        <v>297</v>
       </c>
       <c r="E36" t="n">
-        <v>1.26</v>
+        <v>1.19</v>
       </c>
       <c r="F36" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1665,33 +1665,33 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.194</v>
+        <v>6.096</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>44.05</v>
+        <v>188.5</v>
       </c>
       <c r="E37" t="n">
-        <v>0.46</v>
+        <v>1.89</v>
       </c>
       <c r="F37" t="n">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1699,101 +1699,101 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.745</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>293.5</v>
+        <v>479.5</v>
       </c>
       <c r="E38" t="n">
-        <v>2.98</v>
+        <v>0.95</v>
       </c>
       <c r="F38" t="n">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H38" t="n">
-        <v>6.219</v>
+        <v>3.684</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>236.5</v>
+        <v>219</v>
       </c>
       <c r="E39" t="n">
-        <v>6.77</v>
+        <v>1.15</v>
       </c>
       <c r="F39" t="n">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>7.544</v>
+        <v>11.188</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>128.5</v>
+        <v>278</v>
       </c>
       <c r="E40" t="n">
-        <v>0.39</v>
+        <v>0.54</v>
       </c>
       <c r="F40" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1801,67 +1801,67 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>5.855</v>
+        <v>5.025</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>38.9</v>
+        <v>46.85</v>
       </c>
       <c r="E41" t="n">
-        <v>0.26</v>
+        <v>4.23</v>
       </c>
       <c r="F41" t="n">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.773</v>
+        <v>2.468</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>73.59999999999999</v>
+        <v>52.8</v>
       </c>
       <c r="E42" t="n">
-        <v>0.14</v>
+        <v>0.76</v>
       </c>
       <c r="F42" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1869,67 +1869,67 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.515</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>44.95</v>
+        <v>129</v>
       </c>
       <c r="E43" t="n">
-        <v>1.47</v>
+        <v>0.39</v>
       </c>
       <c r="F43" t="n">
         <v>51</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2.427</v>
+        <v>5.526</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>108</v>
+        <v>118.5</v>
       </c>
       <c r="E44" t="n">
-        <v>4.35</v>
+        <v>3.49</v>
       </c>
       <c r="F44" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1937,101 +1937,101 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>0.508</v>
+        <v>1.217</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>52.4</v>
+        <v>1335</v>
       </c>
       <c r="E45" t="n">
-        <v>0.19</v>
+        <v>1.52</v>
       </c>
       <c r="F45" t="n">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.763</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>1315</v>
+        <v>252.5</v>
       </c>
       <c r="E46" t="n">
-        <v>5.2</v>
+        <v>-1.75</v>
       </c>
       <c r="F46" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>2.483</v>
+        <v>5.615</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>56.3</v>
+        <v>61.8</v>
       </c>
       <c r="E47" t="n">
-        <v>-2.76</v>
+        <v>1.64</v>
       </c>
       <c r="F47" t="n">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2039,101 +2039,101 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>3.718</v>
+        <v>18.486</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>373.5</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E48" t="n">
-        <v>1.36</v>
+        <v>-5.14</v>
       </c>
       <c r="F48" t="n">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1.648</v>
+        <v>1.152</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>73.90000000000001</v>
+        <v>44.8</v>
       </c>
       <c r="E49" t="n">
-        <v>0.96</v>
+        <v>1.7</v>
       </c>
       <c r="F49" t="n">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1.256</v>
+        <v>1.773</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>114.5</v>
+        <v>163.5</v>
       </c>
       <c r="E50" t="n">
-        <v>1.78</v>
+        <v>1.24</v>
       </c>
       <c r="F50" t="n">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2141,33 +2141,33 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1.247</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>161.5</v>
+        <v>56.3</v>
       </c>
       <c r="E51" t="n">
-        <v>0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0.668</v>
+        <v>3.573</v>
       </c>
     </row>
     <row r="52">
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>63.9</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.31</v>
+        <v>1.56</v>
       </c>
       <c r="F52" t="n">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0.882</v>
+        <v>0.88</v>
       </c>
     </row>
   </sheetData>
@@ -2290,106 +2290,106 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>61.26</v>
+        <v>55.73</v>
       </c>
       <c r="F2" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="G2" t="n">
-        <v>19.174</v>
+        <v>19.395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>45.19</v>
+        <v>35.22</v>
       </c>
       <c r="F3" t="n">
-        <v>2.67</v>
+        <v>0.67</v>
       </c>
       <c r="G3" t="n">
-        <v>1.256</v>
+        <v>7.974</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Foundry - Memory</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>36.18</v>
+        <v>33.33</v>
       </c>
       <c r="F4" t="n">
-        <v>0.91</v>
+        <v>1.71</v>
       </c>
       <c r="G4" t="n">
-        <v>7.223</v>
+        <v>14.526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>28.53</v>
+        <v>29.57</v>
       </c>
       <c r="F5" t="n">
-        <v>0.73</v>
+        <v>2.21</v>
       </c>
       <c r="G5" t="n">
-        <v>7.544</v>
+        <v>1.152</v>
       </c>
     </row>
     <row r="6">
@@ -2414,897 +2414,897 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>25.98</v>
+        <v>22.87</v>
       </c>
       <c r="F6" t="n">
-        <v>0.93</v>
+        <v>0.66</v>
       </c>
       <c r="G6" t="n">
-        <v>5.962</v>
+        <v>5.615</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>25.03</v>
+        <v>22.69</v>
       </c>
       <c r="F7" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="G7" t="n">
-        <v>14.151</v>
+        <v>12.699</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>23.58</v>
+        <v>22.41</v>
       </c>
       <c r="F8" t="n">
-        <v>1.01</v>
+        <v>1.85</v>
       </c>
       <c r="G8" t="n">
-        <v>18.579</v>
+        <v>19.953</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.22</v>
+        <v>20.81</v>
       </c>
       <c r="F9" t="n">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="G9" t="n">
-        <v>11.871</v>
+        <v>18.037</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>21.44</v>
+        <v>17.87</v>
       </c>
       <c r="F10" t="n">
-        <v>1.81</v>
+        <v>0.83</v>
       </c>
       <c r="G10" t="n">
-        <v>19.648</v>
+        <v>6.536</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>20.88</v>
+        <v>17.86</v>
       </c>
       <c r="F11" t="n">
-        <v>1.02</v>
+        <v>0.85</v>
       </c>
       <c r="G11" t="n">
-        <v>17.61</v>
+        <v>2.943</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.67</v>
+        <v>17.48</v>
       </c>
       <c r="F12" t="n">
-        <v>1.05</v>
+        <v>0.9</v>
       </c>
       <c r="G12" t="n">
-        <v>2.427</v>
+        <v>14.388</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>16.22</v>
+        <v>15.25</v>
       </c>
       <c r="F13" t="n">
-        <v>0.84</v>
+        <v>0.82</v>
       </c>
       <c r="G13" t="n">
-        <v>2.634</v>
+        <v>2.468</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>15.71</v>
+        <v>14.83</v>
       </c>
       <c r="F14" t="n">
-        <v>0.92</v>
+        <v>1.68</v>
       </c>
       <c r="G14" t="n">
-        <v>15.119</v>
+        <v>3.945</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.62</v>
+        <v>14.23</v>
       </c>
       <c r="F15" t="n">
-        <v>2</v>
+        <v>0.75</v>
       </c>
       <c r="G15" t="n">
-        <v>1.714</v>
+        <v>18.486</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>11.23</v>
+        <v>14.18</v>
       </c>
       <c r="F16" t="n">
-        <v>0.97</v>
+        <v>1.23</v>
       </c>
       <c r="G16" t="n">
-        <v>6.045</v>
+        <v>3.114</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.5</v>
+        <v>11.44</v>
       </c>
       <c r="F17" t="n">
-        <v>0.49</v>
+        <v>0.82</v>
       </c>
       <c r="G17" t="n">
-        <v>2.483</v>
+        <v>6.096</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>9.93</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0.88</v>
+        <v>0.95</v>
       </c>
       <c r="G18" t="n">
-        <v>6.219</v>
+        <v>5.855</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9.699999999999999</v>
+        <v>9.16</v>
       </c>
       <c r="F19" t="n">
-        <v>0.78</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G19" t="n">
-        <v>3.919</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>9.32</v>
+        <v>7.71</v>
       </c>
       <c r="F20" t="n">
-        <v>0.48</v>
+        <v>2.11</v>
       </c>
       <c r="G20" t="n">
-        <v>3.718</v>
+        <v>1.724</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>9.109999999999999</v>
+        <v>6.57</v>
       </c>
       <c r="F21" t="n">
-        <v>1.41</v>
+        <v>0.96</v>
       </c>
       <c r="G21" t="n">
-        <v>3.216</v>
+        <v>57.646</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>8.85</v>
+        <v>6.12</v>
       </c>
       <c r="F22" t="n">
-        <v>1.27</v>
+        <v>0.95</v>
       </c>
       <c r="G22" t="n">
-        <v>8.771000000000001</v>
+        <v>4.029</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>8.779999999999999</v>
+        <v>5.96</v>
       </c>
       <c r="F23" t="n">
-        <v>0.91</v>
+        <v>0.7</v>
       </c>
       <c r="G23" t="n">
-        <v>0.856</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>8.130000000000001</v>
+        <v>5.83</v>
       </c>
       <c r="F24" t="n">
-        <v>1.94</v>
+        <v>0.44</v>
       </c>
       <c r="G24" t="n">
-        <v>3.463</v>
+        <v>3.573</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6.7</v>
+        <v>4.63</v>
       </c>
       <c r="F25" t="n">
-        <v>1.03</v>
+        <v>0.7</v>
       </c>
       <c r="G25" t="n">
-        <v>4.078</v>
+        <v>1.372</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5.57</v>
+        <v>3.75</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.09</v>
       </c>
       <c r="G26" t="n">
-        <v>60.192</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>4.82</v>
+        <v>2.3</v>
       </c>
       <c r="F27" t="n">
-        <v>0.74</v>
+        <v>0.46</v>
       </c>
       <c r="G27" t="n">
-        <v>1.363</v>
+        <v>2.46</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.51</v>
+        <v>2.17</v>
       </c>
       <c r="F28" t="n">
-        <v>1.08</v>
+        <v>0.54</v>
       </c>
       <c r="G28" t="n">
-        <v>1.385</v>
+        <v>1.773</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.97</v>
+        <v>2.02</v>
       </c>
       <c r="F29" t="n">
-        <v>0.61</v>
+        <v>0.75</v>
       </c>
       <c r="G29" t="n">
-        <v>1.745</v>
+        <v>3.684</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.89</v>
+        <v>1.88</v>
       </c>
       <c r="F30" t="n">
-        <v>0.76</v>
+        <v>2.14</v>
       </c>
       <c r="G30" t="n">
-        <v>0.508</v>
+        <v>14.752</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="F31" t="n">
-        <v>0.77</v>
+        <v>1.34</v>
       </c>
       <c r="G31" t="n">
-        <v>0.194</v>
+        <v>8.333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1.44</v>
+        <v>0.79</v>
       </c>
       <c r="F32" t="n">
-        <v>2</v>
+        <v>0.91</v>
       </c>
       <c r="G32" t="n">
-        <v>15.087</v>
+        <v>1.658</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="F33" t="n">
-        <v>0.92</v>
+        <v>0.78</v>
       </c>
       <c r="G33" t="n">
-        <v>3.894</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-1.19</v>
+        <v>-1.42</v>
       </c>
       <c r="F34" t="n">
-        <v>0.95</v>
+        <v>0.75</v>
       </c>
       <c r="G34" t="n">
-        <v>1.648</v>
+        <v>5.025</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3313,323 +3313,323 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1.71</v>
+        <v>-2.08</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="G35" t="n">
-        <v>1.62</v>
+        <v>0.398</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-1.95</v>
+        <v>-2.97</v>
       </c>
       <c r="F36" t="n">
-        <v>0.79</v>
+        <v>1.15</v>
       </c>
       <c r="G36" t="n">
-        <v>5.124</v>
+        <v>0.772</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-2.31</v>
+        <v>-3.27</v>
       </c>
       <c r="F37" t="n">
-        <v>1.59</v>
+        <v>1.01</v>
       </c>
       <c r="G37" t="n">
-        <v>2.145</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-2.37</v>
+        <v>-3.38</v>
       </c>
       <c r="F38" t="n">
-        <v>0.87</v>
+        <v>1.06</v>
       </c>
       <c r="G38" t="n">
-        <v>1.988</v>
+        <v>2.193</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-2.59</v>
+        <v>-3.54</v>
       </c>
       <c r="F39" t="n">
-        <v>0.7</v>
+        <v>1.07</v>
       </c>
       <c r="G39" t="n">
-        <v>1.247</v>
+        <v>1.586</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-3.29</v>
+        <v>-3.58</v>
       </c>
       <c r="F40" t="n">
-        <v>1.15</v>
+        <v>0.8</v>
       </c>
       <c r="G40" t="n">
-        <v>0.403</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-4.07</v>
+        <v>-3.66</v>
       </c>
       <c r="F41" t="n">
-        <v>1.23</v>
+        <v>0.61</v>
       </c>
       <c r="G41" t="n">
-        <v>0.773</v>
+        <v>1.217</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-4.29</v>
+        <v>-3.85</v>
       </c>
       <c r="F42" t="n">
-        <v>0.98</v>
+        <v>0.35</v>
       </c>
       <c r="G42" t="n">
-        <v>0.098</v>
+        <v>0.88</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-4.57</v>
+        <v>-3.99</v>
       </c>
       <c r="F43" t="n">
-        <v>1.06</v>
+        <v>0.96</v>
       </c>
       <c r="G43" t="n">
-        <v>0.123</v>
+        <v>4.081</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-4.77</v>
+        <v>-5.87</v>
       </c>
       <c r="F44" t="n">
-        <v>1.08</v>
+        <v>0.96</v>
       </c>
       <c r="G44" t="n">
-        <v>1.548</v>
+        <v>0.094</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-4.88</v>
+        <v>-6.83</v>
       </c>
       <c r="F45" t="n">
-        <v>1.03</v>
+        <v>0.88</v>
       </c>
       <c r="G45" t="n">
-        <v>2.188</v>
+        <v>0.491</v>
       </c>
     </row>
     <row r="46">
@@ -3654,168 +3654,168 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-5.56</v>
+        <v>-7.63</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="G46" t="n">
-        <v>0.668</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-5.59</v>
+        <v>-8.02</v>
       </c>
       <c r="F47" t="n">
-        <v>0.75</v>
+        <v>1.06</v>
       </c>
       <c r="G47" t="n">
-        <v>0.763</v>
+        <v>6.596</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-5.88</v>
+        <v>-8.18</v>
       </c>
       <c r="F48" t="n">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="G48" t="n">
-        <v>0.515</v>
+        <v>11.188</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-7.93</v>
+        <v>-8.33</v>
       </c>
       <c r="F49" t="n">
-        <v>0.46</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G49" t="n">
-        <v>0.882</v>
+        <v>0.702</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-8.26</v>
+        <v>-8.58</v>
       </c>
       <c r="F50" t="n">
-        <v>1.12</v>
+        <v>1.04</v>
       </c>
       <c r="G50" t="n">
-        <v>11.66</v>
+        <v>1.526</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-11.11</v>
+        <v>-10.19</v>
       </c>
       <c r="F51" t="n">
-        <v>1.03</v>
+        <v>1.08</v>
       </c>
       <c r="G51" t="n">
-        <v>6.484</v>
+        <v>2.171</v>
       </c>
     </row>
     <row r="52">
@@ -3840,13 +3840,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-16.83</v>
+        <v>-18.61</v>
       </c>
       <c r="F52" t="n">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>5.855</v>
+        <v>5.526</v>
       </c>
     </row>
   </sheetData>
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>61.26</v>
+        <v>55.73</v>
       </c>
       <c r="C2" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="D2" t="n">
-        <v>19.174</v>
+        <v>19.395</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3917,17 +3917,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Foundry - Memory</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.18</v>
+        <v>33.33</v>
       </c>
       <c r="C3" t="n">
-        <v>0.91</v>
+        <v>1.71</v>
       </c>
       <c r="D3" t="n">
-        <v>7.223</v>
+        <v>14.526</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3936,17 +3936,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.03</v>
+        <v>22.69</v>
       </c>
       <c r="C4" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="D4" t="n">
-        <v>14.151</v>
+        <v>12.699</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3955,17 +3955,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>23.22</v>
+        <v>22.41</v>
       </c>
       <c r="C5" t="n">
-        <v>1.69</v>
+        <v>1.85</v>
       </c>
       <c r="D5" t="n">
-        <v>11.871</v>
+        <v>19.953</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3974,17 +3974,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>21.44</v>
+        <v>20.81</v>
       </c>
       <c r="C6" t="n">
-        <v>1.81</v>
+        <v>1.03</v>
       </c>
       <c r="D6" t="n">
-        <v>19.648</v>
+        <v>18.037</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -3993,39 +3993,39 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20.88</v>
+        <v>19.68</v>
       </c>
       <c r="C7" t="n">
-        <v>1.02</v>
+        <v>0.7399999999999999</v>
       </c>
       <c r="D7" t="n">
-        <v>17.61</v>
+        <v>11.468</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19.815</v>
+        <v>17.87</v>
       </c>
       <c r="C8" t="n">
-        <v>1.805</v>
+        <v>0.83</v>
       </c>
       <c r="D8" t="n">
-        <v>1.924</v>
+        <v>6.536</v>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -4035,13 +4035,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>17.67</v>
+        <v>15.25</v>
       </c>
       <c r="C9" t="n">
-        <v>1.05</v>
+        <v>0.82</v>
       </c>
       <c r="D9" t="n">
-        <v>2.427</v>
+        <v>2.468</v>
       </c>
       <c r="E9" t="n">
         <v>1</v>
@@ -4054,13 +4054,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>17.65</v>
+        <v>14.35</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7050000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="D10" t="n">
-        <v>9.68</v>
+        <v>9.188000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -4069,93 +4069,93 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>15.54666666666667</v>
+        <v>11.8</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7766666666666667</v>
+        <v>0.925</v>
       </c>
       <c r="D11" t="n">
-        <v>10.686</v>
+        <v>18.417</v>
       </c>
       <c r="E11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>14.575</v>
+        <v>11.44</v>
       </c>
       <c r="C12" t="n">
-        <v>0.975</v>
+        <v>0.82</v>
       </c>
       <c r="D12" t="n">
-        <v>78.771</v>
+        <v>6.096</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.62</v>
+        <v>10.97</v>
       </c>
       <c r="C13" t="n">
+        <v>1.515</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1.748</v>
+      </c>
+      <c r="E13" t="n">
         <v>2</v>
-      </c>
-      <c r="D13" t="n">
-        <v>1.714</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>11.23</v>
+        <v>10.4</v>
       </c>
       <c r="C14" t="n">
-        <v>0.97</v>
+        <v>0.855</v>
       </c>
       <c r="D14" t="n">
-        <v>6.045</v>
+        <v>76.13200000000001</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="C15" t="n">
-        <v>0.49</v>
+        <v>0.95</v>
       </c>
       <c r="D15" t="n">
-        <v>2.483</v>
+        <v>5.855</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -4164,55 +4164,55 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>9.93</v>
+        <v>8.34</v>
       </c>
       <c r="C16" t="n">
-        <v>0.88</v>
+        <v>1.29</v>
       </c>
       <c r="D16" t="n">
-        <v>6.219</v>
+        <v>11.14</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.98</v>
+        <v>7.71</v>
       </c>
       <c r="C17" t="n">
-        <v>1.46</v>
+        <v>2.11</v>
       </c>
       <c r="D17" t="n">
-        <v>10.757</v>
+        <v>1.724</v>
       </c>
       <c r="E17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.855</v>
+        <v>6.895</v>
       </c>
       <c r="C18" t="n">
-        <v>0.92</v>
+        <v>0.755</v>
       </c>
       <c r="D18" t="n">
-        <v>19.013</v>
+        <v>2.233</v>
       </c>
       <c r="E18" t="n">
         <v>2</v>
@@ -4221,39 +4221,39 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.8</v>
+        <v>2.3</v>
       </c>
       <c r="C19" t="n">
-        <v>0.825</v>
+        <v>0.46</v>
       </c>
       <c r="D19" t="n">
-        <v>2.219</v>
+        <v>2.46</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.555</v>
+        <v>1.88</v>
       </c>
       <c r="C20" t="n">
-        <v>0.74</v>
+        <v>2.14</v>
       </c>
       <c r="D20" t="n">
-        <v>5.166</v>
+        <v>14.752</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -4263,13 +4263,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.55</v>
+        <v>0.41</v>
       </c>
       <c r="C21" t="n">
-        <v>0.77</v>
+        <v>0.78</v>
       </c>
       <c r="D21" t="n">
-        <v>0.194</v>
+        <v>0.19</v>
       </c>
       <c r="E21" t="n">
         <v>1</v>
@@ -4278,36 +4278,36 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.44</v>
+        <v>-0.8100000000000002</v>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>1.064</v>
       </c>
       <c r="D22" t="n">
-        <v>15.087</v>
+        <v>5.794</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.13</v>
+        <v>-0.8200000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>1.15</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="D23" t="n">
-        <v>15.255</v>
+        <v>4.901</v>
       </c>
       <c r="E23" t="n">
         <v>2</v>
@@ -4316,39 +4316,39 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.19</v>
+        <v>-3.205</v>
       </c>
       <c r="C24" t="n">
-        <v>0.95</v>
+        <v>1.2</v>
       </c>
       <c r="D24" t="n">
-        <v>1.648</v>
+        <v>14.929</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-2.266</v>
+        <v>-3.27</v>
       </c>
       <c r="C25" t="n">
-        <v>1.088</v>
+        <v>1.01</v>
       </c>
       <c r="D25" t="n">
-        <v>5.729</v>
+        <v>0.125</v>
       </c>
       <c r="E25" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -4358,13 +4358,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-2.31</v>
+        <v>-3.38</v>
       </c>
       <c r="C26" t="n">
-        <v>1.59</v>
+        <v>1.06</v>
       </c>
       <c r="D26" t="n">
-        <v>2.145</v>
+        <v>2.193</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4373,17 +4373,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-4.29</v>
+        <v>-3.85</v>
       </c>
       <c r="C27" t="n">
-        <v>0.98</v>
+        <v>0.35</v>
       </c>
       <c r="D27" t="n">
-        <v>0.098</v>
+        <v>0.88</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -4392,17 +4392,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-4.57</v>
+        <v>-5.87</v>
       </c>
       <c r="C28" t="n">
-        <v>1.06</v>
+        <v>0.96</v>
       </c>
       <c r="D28" t="n">
-        <v>0.123</v>
+        <v>0.094</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -4415,13 +4415,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-4.613333333333333</v>
+        <v>-6.246666666666667</v>
       </c>
       <c r="C29" t="n">
-        <v>0.8466666666666667</v>
+        <v>0.79</v>
       </c>
       <c r="D29" t="n">
-        <v>3.266</v>
+        <v>3.083</v>
       </c>
       <c r="E29" t="n">
         <v>3</v>
@@ -4430,55 +4430,55 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-4.88</v>
+        <v>-6.51</v>
       </c>
       <c r="C30" t="n">
-        <v>1.03</v>
+        <v>0.7424999999999999</v>
       </c>
       <c r="D30" t="n">
-        <v>2.188</v>
+        <v>23.512</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-6.267499999999999</v>
+        <v>-8.58</v>
       </c>
       <c r="C31" t="n">
-        <v>0.8075</v>
+        <v>1.04</v>
       </c>
       <c r="D31" t="n">
-        <v>24.384</v>
+        <v>1.526</v>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-7.93</v>
+        <v>-10.19</v>
       </c>
       <c r="C32" t="n">
-        <v>0.46</v>
+        <v>1.08</v>
       </c>
       <c r="D32" t="n">
-        <v>0.882</v>
+        <v>2.171</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -4592,38 +4592,38 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1990</v>
+        <v>2055</v>
       </c>
       <c r="E2" t="n">
-        <v>-7.23</v>
+        <v>3.27</v>
       </c>
       <c r="F2" t="n">
-        <v>23.22</v>
+        <v>22.69</v>
       </c>
       <c r="G2" t="n">
-        <v>58.24</v>
+        <v>59.63</v>
       </c>
       <c r="H2" t="n">
-        <v>202.2672</v>
+        <v>185.5957</v>
       </c>
       <c r="I2" t="n">
-        <v>53.2</v>
+        <v>58.9</v>
       </c>
       <c r="J2" t="n">
-        <v>33.3</v>
+        <v>33.7</v>
       </c>
       <c r="K2" t="n">
-        <v>8.33</v>
+        <v>8.359999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>205.5</v>
+        <v>32.8</v>
       </c>
       <c r="M2" t="n">
-        <v>1.69</v>
+        <v>1.65</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>⚠️ TAKE PROFIT</t>
+          <t>👀 WATCH</t>
         </is>
       </c>
     </row>
@@ -4644,34 +4644,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1795</v>
+        <v>1800</v>
       </c>
       <c r="E3" t="n">
-        <v>5.28</v>
+        <v>0.28</v>
       </c>
       <c r="F3" t="n">
-        <v>20.88</v>
+        <v>20.81</v>
       </c>
       <c r="G3" t="n">
-        <v>77.06</v>
+        <v>78.7</v>
       </c>
       <c r="H3" t="n">
-        <v>91.791</v>
+        <v>94.46250000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>86.7</v>
+        <v>83.5</v>
       </c>
       <c r="J3" t="n">
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>3.78</v>
+        <v>3.91</v>
       </c>
       <c r="L3" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -4696,34 +4696,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>73.90000000000001</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>0.96</v>
+        <v>-5.14</v>
       </c>
       <c r="F4" t="n">
-        <v>45.19</v>
+        <v>29.57</v>
       </c>
       <c r="G4" t="n">
-        <v>78.52</v>
+        <v>72.65000000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>5.1507</v>
+        <v>5.2998</v>
       </c>
       <c r="I4" t="n">
-        <v>96.7</v>
+        <v>82.59999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>91.40000000000001</v>
+        <v>77.8</v>
       </c>
       <c r="K4" t="n">
-        <v>5.34</v>
+        <v>5.92</v>
       </c>
       <c r="L4" t="n">
-        <v>-61.1</v>
+        <v>-70.3</v>
       </c>
       <c r="M4" t="n">
-        <v>2.67</v>
+        <v>2.21</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -4748,34 +4748,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>63.9</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.31</v>
+        <v>1.56</v>
       </c>
       <c r="F5" t="n">
-        <v>-7.93</v>
+        <v>-3.85</v>
       </c>
       <c r="G5" t="n">
-        <v>31.49</v>
+        <v>35.87</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.0643</v>
+        <v>-0.5281</v>
       </c>
       <c r="I5" t="n">
-        <v>10.2</v>
+        <v>16.8</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>7.37</v>
+        <v>6.77</v>
       </c>
       <c r="L5" t="n">
-        <v>-71.40000000000001</v>
+        <v>-81.7</v>
       </c>
       <c r="M5" t="n">
-        <v>0.46</v>
+        <v>0.35</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -4800,38 +4800,38 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>172</v>
+        <v>181.5</v>
       </c>
       <c r="E6" t="n">
-        <v>9.9</v>
+        <v>5.52</v>
       </c>
       <c r="F6" t="n">
-        <v>16.22</v>
+        <v>17.86</v>
       </c>
       <c r="G6" t="n">
-        <v>56.98</v>
+        <v>57.47</v>
       </c>
       <c r="H6" t="n">
-        <v>4.8179</v>
+        <v>5.5432</v>
       </c>
       <c r="I6" t="n">
-        <v>64.8</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>55.4</v>
+        <v>89.3</v>
       </c>
       <c r="K6" t="n">
-        <v>6.98</v>
+        <v>6.69</v>
       </c>
       <c r="L6" t="n">
-        <v>2.6</v>
+        <v>82.90000000000001</v>
       </c>
       <c r="M6" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>👀 WATCH</t>
+          <t>🚀 BUY STRONG</t>
         </is>
       </c>
     </row>
@@ -4852,34 +4852,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>216.5</v>
+        <v>219</v>
       </c>
       <c r="E7" t="n">
-        <v>0.93</v>
+        <v>1.15</v>
       </c>
       <c r="F7" t="n">
-        <v>-8.26</v>
+        <v>-8.18</v>
       </c>
       <c r="G7" t="n">
-        <v>28.05</v>
+        <v>32.94</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.791</v>
+        <v>-2.8444</v>
       </c>
       <c r="I7" t="n">
-        <v>11.5</v>
+        <v>23.1</v>
       </c>
       <c r="J7" t="n">
-        <v>10</v>
+        <v>22.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.51</v>
+        <v>2.53</v>
       </c>
       <c r="L7" t="n">
-        <v>-25</v>
+        <v>-47.2</v>
       </c>
       <c r="M7" t="n">
-        <v>1.12</v>
+        <v>0.99</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -481,27 +481,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>181.5</v>
+        <v>333.5</v>
       </c>
       <c r="E2" t="n">
-        <v>5.52</v>
+        <v>0.15</v>
       </c>
       <c r="F2" t="n">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,75 +509,75 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>2.943</v>
+        <v>4.356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>333</v>
+        <v>284</v>
       </c>
       <c r="E3" t="n">
-        <v>6.56</v>
+        <v>-6.12</v>
       </c>
       <c r="F3" t="n">
-        <v>160</v>
+        <v>190</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3.945</v>
+        <v>5.767</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>108.5</v>
+        <v>1770</v>
       </c>
       <c r="E4" t="n">
-        <v>2.84</v>
+        <v>-1.67</v>
       </c>
       <c r="F4" t="n">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>14.752</v>
+        <v>18.406</v>
       </c>
     </row>
     <row r="5">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>295</v>
+        <v>275</v>
       </c>
       <c r="E5" t="n">
-        <v>6.31</v>
+        <v>-6.78</v>
       </c>
       <c r="F5" t="n">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,67 +611,67 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>19.953</v>
+        <v>18.557</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>173.5</v>
+        <v>3245</v>
       </c>
       <c r="E6" t="n">
-        <v>1.76</v>
+        <v>-4.14</v>
       </c>
       <c r="F6" t="n">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4.029</v>
+        <v>6.504</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>2055</v>
+        <v>37.15</v>
       </c>
       <c r="E7" t="n">
-        <v>3.27</v>
+        <v>1.23</v>
       </c>
       <c r="F7" t="n">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -679,33 +679,33 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>12.699</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>2530</v>
+        <v>1150</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.47</v>
+        <v>-4.96</v>
       </c>
       <c r="F8" t="n">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -713,7 +713,7 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>8.333</v>
+        <v>13.978</v>
       </c>
     </row>
     <row r="9">
@@ -733,13 +733,13 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>89.7</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>6.15</v>
+        <v>-2.01</v>
       </c>
       <c r="F9" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -747,33 +747,33 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>19.395</v>
+        <v>17.695</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1800</v>
+        <v>1795</v>
       </c>
       <c r="E10" t="n">
-        <v>0.28</v>
+        <v>4.66</v>
       </c>
       <c r="F10" t="n">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -781,169 +781,169 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>18.037</v>
+        <v>2.351</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>36.7</v>
+        <v>102.5</v>
       </c>
       <c r="E11" t="n">
-        <v>1.66</v>
+        <v>-5.53</v>
       </c>
       <c r="F11" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.19</v>
+        <v>13.662</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>20.95</v>
+        <v>2340</v>
       </c>
       <c r="E12" t="n">
-        <v>1.45</v>
+        <v>-7.51</v>
       </c>
       <c r="F12" t="n">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1.724</v>
+        <v>7.927</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>3385</v>
+        <v>2020</v>
       </c>
       <c r="E13" t="n">
-        <v>1.96</v>
+        <v>-1.7</v>
       </c>
       <c r="F13" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6.596</v>
+        <v>12.924</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>115.5</v>
+        <v>170.5</v>
       </c>
       <c r="E14" t="n">
-        <v>6.94</v>
+        <v>-6.06</v>
       </c>
       <c r="F14" t="n">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.551</v>
+        <v>2.837</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>92.7</v>
+        <v>229</v>
       </c>
       <c r="E15" t="n">
-        <v>0.98</v>
+        <v>-1.51</v>
       </c>
       <c r="F15" t="n">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -951,67 +951,67 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.586</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>65.59999999999999</v>
+        <v>1255</v>
       </c>
       <c r="E16" t="n">
-        <v>9.880000000000001</v>
+        <v>-5.99</v>
       </c>
       <c r="F16" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>14.526</v>
+        <v>2.197</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>367.5</v>
+        <v>463</v>
       </c>
       <c r="E17" t="n">
-        <v>-1.61</v>
+        <v>-2.73</v>
       </c>
       <c r="F17" t="n">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1019,101 +1019,101 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1.526</v>
+        <v>2.157</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>476</v>
+        <v>51.7</v>
       </c>
       <c r="E18" t="n">
-        <v>-2.26</v>
+        <v>0.98</v>
       </c>
       <c r="F18" t="n">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>2.171</v>
+        <v>1.412</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>51.2</v>
+        <v>39.7</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2</v>
+        <v>1.4</v>
       </c>
       <c r="F19" t="n">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.38</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>1785</v>
+        <v>62.8</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.83</v>
+        <v>-4.27</v>
       </c>
       <c r="F20" t="n">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1121,33 +1121,33 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>57.646</v>
+        <v>13.569</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>76.2</v>
+        <v>240</v>
       </c>
       <c r="E21" t="n">
-        <v>2.01</v>
+        <v>-4.57</v>
       </c>
       <c r="F21" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1155,33 +1155,33 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>1.658</v>
+        <v>7.414</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>122</v>
+        <v>165.5</v>
       </c>
       <c r="E22" t="n">
-        <v>-9.960000000000001</v>
+        <v>-4.61</v>
       </c>
       <c r="F22" t="n">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1189,135 +1189,135 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>6.536</v>
+        <v>3.914</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>1715</v>
+        <v>215.5</v>
       </c>
       <c r="E23" t="n">
-        <v>1.48</v>
+        <v>-1.6</v>
       </c>
       <c r="F23" t="n">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>2.193</v>
+        <v>10.539</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>251.5</v>
+        <v>361</v>
       </c>
       <c r="E24" t="n">
-        <v>6.34</v>
+        <v>-1.77</v>
       </c>
       <c r="F24" t="n">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>7.974</v>
+        <v>1.434</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>229.5</v>
+        <v>280.5</v>
       </c>
       <c r="E25" t="n">
-        <v>3.61</v>
+        <v>-5.56</v>
       </c>
       <c r="F25" t="n">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>3.114</v>
+        <v>5.755</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>23.55</v>
+        <v>113.5</v>
       </c>
       <c r="E26" t="n">
-        <v>0.21</v>
+        <v>-6.97</v>
       </c>
       <c r="F26" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1325,203 +1325,203 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.398</v>
+        <v>5.756</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>31.05</v>
+        <v>93.5</v>
       </c>
       <c r="E27" t="n">
-        <v>2.48</v>
+        <v>0.86</v>
       </c>
       <c r="F27" t="n">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.125</v>
+        <v>1.621</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>75</v>
+        <v>1765</v>
       </c>
       <c r="E28" t="n">
-        <v>1.9</v>
+        <v>-1.12</v>
       </c>
       <c r="F28" t="n">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.491</v>
+        <v>56.743</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>22.65</v>
+        <v>23.75</v>
       </c>
       <c r="E29" t="n">
-        <v>1.57</v>
+        <v>0.85</v>
       </c>
       <c r="F29" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.861</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>302.5</v>
+        <v>127.5</v>
       </c>
       <c r="E30" t="n">
-        <v>0.17</v>
+        <v>-1.16</v>
       </c>
       <c r="F30" t="n">
-        <v>65</v>
+        <v>79</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5.855</v>
+        <v>5.214</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>228.5</v>
+        <v>38.45</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.08</v>
+        <v>0.13</v>
       </c>
       <c r="F31" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>4.081</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>38.4</v>
+        <v>116.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0.92</v>
+        <v>0.87</v>
       </c>
       <c r="F32" t="n">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1529,135 +1529,135 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1.372</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>1210</v>
+        <v>273</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.41</v>
+        <v>-1.8</v>
       </c>
       <c r="F33" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>14.388</v>
+        <v>4.762</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>39.15</v>
+        <v>227</v>
       </c>
       <c r="E34" t="n">
-        <v>0.64</v>
+        <v>-1.09</v>
       </c>
       <c r="F34" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.772</v>
+        <v>2.671</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>232.5</v>
+        <v>22.75</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.85</v>
+        <v>0.44</v>
       </c>
       <c r="F35" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.094</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>297</v>
+        <v>20.95</v>
       </c>
       <c r="E36" t="n">
-        <v>1.19</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1665,33 +1665,33 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>6.096</v>
+        <v>1.703</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>188.5</v>
+        <v>52.8</v>
       </c>
       <c r="E37" t="n">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1699,33 +1699,33 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.89</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>479.5</v>
+        <v>162</v>
       </c>
       <c r="E38" t="n">
-        <v>0.95</v>
+        <v>-0.92</v>
       </c>
       <c r="F38" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1733,33 +1733,33 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>3.684</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="E39" t="n">
-        <v>1.15</v>
+        <v>-0.16</v>
       </c>
       <c r="F39" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1767,135 +1767,135 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>11.188</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>278</v>
+        <v>76</v>
       </c>
       <c r="E40" t="n">
-        <v>0.54</v>
+        <v>-0.26</v>
       </c>
       <c r="F40" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>5.025</v>
+        <v>1.637</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>46.85</v>
+        <v>74.8</v>
       </c>
       <c r="E41" t="n">
-        <v>4.23</v>
+        <v>-0.27</v>
       </c>
       <c r="F41" t="n">
         <v>52</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2.468</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>52.8</v>
+        <v>47.2</v>
       </c>
       <c r="E42" t="n">
-        <v>0.76</v>
+        <v>0.75</v>
       </c>
       <c r="F42" t="n">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.702</v>
+        <v>2.394</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="E43" t="n">
-        <v>0.39</v>
+        <v>-0.8</v>
       </c>
       <c r="F43" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1903,33 +1903,33 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>5.526</v>
+        <v>1.829</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>118.5</v>
+        <v>244</v>
       </c>
       <c r="E44" t="n">
-        <v>3.49</v>
+        <v>-3.37</v>
       </c>
       <c r="F44" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1937,101 +1937,101 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1.217</v>
+        <v>5.372</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1335</v>
+        <v>219</v>
       </c>
       <c r="E45" t="n">
-        <v>1.52</v>
+        <v>-4.16</v>
       </c>
       <c r="F45" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>2.46</v>
+        <v>3.618</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>252.5</v>
+        <v>114</v>
       </c>
       <c r="E46" t="n">
-        <v>-1.75</v>
+        <v>-3.8</v>
       </c>
       <c r="F46" t="n">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>5.615</v>
+        <v>1.124</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>61.8</v>
+        <v>44.05</v>
       </c>
       <c r="E47" t="n">
-        <v>1.64</v>
+        <v>-1.67</v>
       </c>
       <c r="F47" t="n">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2039,101 +2039,101 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>18.486</v>
+        <v>1.748</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>70.09999999999999</v>
+        <v>61.5</v>
       </c>
       <c r="E48" t="n">
-        <v>-5.14</v>
+        <v>-0.49</v>
       </c>
       <c r="F48" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H48" t="n">
-        <v>1.152</v>
+        <v>16.697</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>44.8</v>
+        <v>66.5</v>
       </c>
       <c r="E49" t="n">
-        <v>1.7</v>
+        <v>-5.14</v>
       </c>
       <c r="F49" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1.773</v>
+        <v>1.086</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>163.5</v>
+        <v>464</v>
       </c>
       <c r="E50" t="n">
-        <v>1.24</v>
+        <v>-3.23</v>
       </c>
       <c r="F50" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2141,7 +2141,7 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0.596</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="51">
@@ -2161,10 +2161,10 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>56.3</v>
+        <v>53.1</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>-5.68</v>
       </c>
       <c r="F51" t="n">
         <v>23</v>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>3.573</v>
+        <v>3.314</v>
       </c>
     </row>
     <row r="52">
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>64.90000000000001</v>
+        <v>63.2</v>
       </c>
       <c r="E52" t="n">
-        <v>1.56</v>
+        <v>-2.62</v>
       </c>
       <c r="F52" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0.88</v>
+        <v>0.847</v>
       </c>
     </row>
   </sheetData>
@@ -2290,44 +2290,44 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>55.73</v>
+        <v>38.86</v>
       </c>
       <c r="F2" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="G2" t="n">
-        <v>19.395</v>
+        <v>17.695</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>35.22</v>
+        <v>28.63</v>
       </c>
       <c r="F3" t="n">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="G3" t="n">
-        <v>7.974</v>
+        <v>1.086</v>
       </c>
     </row>
     <row r="4">
@@ -2352,230 +2352,230 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>33.33</v>
+        <v>26.49</v>
       </c>
       <c r="F4" t="n">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="G4" t="n">
-        <v>14.526</v>
+        <v>13.569</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>29.57</v>
+        <v>22.49</v>
       </c>
       <c r="F5" t="n">
-        <v>2.21</v>
+        <v>1.11</v>
       </c>
       <c r="G5" t="n">
-        <v>1.152</v>
+        <v>18.406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>22.87</v>
+        <v>21.52</v>
       </c>
       <c r="F6" t="n">
-        <v>0.66</v>
+        <v>0.7</v>
       </c>
       <c r="G6" t="n">
-        <v>5.615</v>
+        <v>7.414</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>22.69</v>
+        <v>20.2</v>
       </c>
       <c r="F7" t="n">
-        <v>1.65</v>
+        <v>0.54</v>
       </c>
       <c r="G7" t="n">
-        <v>12.699</v>
+        <v>5.372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>22.41</v>
+        <v>18.82</v>
       </c>
       <c r="F8" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="G8" t="n">
-        <v>19.953</v>
+        <v>12.924</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>20.81</v>
+        <v>16.61</v>
       </c>
       <c r="F9" t="n">
-        <v>1.03</v>
+        <v>1.6</v>
       </c>
       <c r="G9" t="n">
-        <v>18.037</v>
+        <v>4.356</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>17.87</v>
+        <v>16.48</v>
       </c>
       <c r="F10" t="n">
-        <v>0.83</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G10" t="n">
-        <v>6.536</v>
+        <v>16.697</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>17.86</v>
+        <v>13.87</v>
       </c>
       <c r="F11" t="n">
-        <v>0.85</v>
+        <v>1.74</v>
       </c>
       <c r="G11" t="n">
-        <v>2.943</v>
+        <v>18.557</v>
       </c>
     </row>
     <row r="12">
@@ -2600,478 +2600,478 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>17.48</v>
+        <v>13.86</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="G12" t="n">
-        <v>14.388</v>
+        <v>13.978</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>15.25</v>
+        <v>13.67</v>
       </c>
       <c r="F13" t="n">
-        <v>0.82</v>
+        <v>0.95</v>
       </c>
       <c r="G13" t="n">
-        <v>2.468</v>
+        <v>2.837</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>14.83</v>
+        <v>13.19</v>
       </c>
       <c r="F14" t="n">
-        <v>1.68</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G14" t="n">
-        <v>3.945</v>
+        <v>2.394</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>14.23</v>
+        <v>11.52</v>
       </c>
       <c r="F15" t="n">
-        <v>0.75</v>
+        <v>0.79</v>
       </c>
       <c r="G15" t="n">
-        <v>18.486</v>
+        <v>0.856</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>14.18</v>
+        <v>9.4</v>
       </c>
       <c r="F16" t="n">
-        <v>1.23</v>
+        <v>1.63</v>
       </c>
       <c r="G16" t="n">
-        <v>3.114</v>
+        <v>1.703</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>11.44</v>
+        <v>8.1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.82</v>
+        <v>1.15</v>
       </c>
       <c r="G17" t="n">
-        <v>6.096</v>
+        <v>2.671</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>7.81</v>
       </c>
       <c r="F18" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="G18" t="n">
-        <v>5.855</v>
+        <v>2.351</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>9.16</v>
+        <v>6.65</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.73</v>
       </c>
       <c r="G19" t="n">
-        <v>0.861</v>
+        <v>5.755</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.71</v>
+        <v>5.91</v>
       </c>
       <c r="F20" t="n">
-        <v>2.11</v>
+        <v>0.68</v>
       </c>
       <c r="G20" t="n">
-        <v>1.724</v>
+        <v>0.549</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6.57</v>
+        <v>5.49</v>
       </c>
       <c r="F21" t="n">
-        <v>0.96</v>
+        <v>0.7</v>
       </c>
       <c r="G21" t="n">
-        <v>57.646</v>
+        <v>1.39</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>6.12</v>
+        <v>5.09</v>
       </c>
       <c r="F22" t="n">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="G22" t="n">
-        <v>4.029</v>
+        <v>0.194</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>5.96</v>
+        <v>4.76</v>
       </c>
       <c r="F23" t="n">
-        <v>0.7</v>
+        <v>0.97</v>
       </c>
       <c r="G23" t="n">
-        <v>0.551</v>
+        <v>1.412</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>5.83</v>
+        <v>4.75</v>
       </c>
       <c r="F24" t="n">
-        <v>0.44</v>
+        <v>0.93</v>
       </c>
       <c r="G24" t="n">
-        <v>3.573</v>
+        <v>56.743</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4.63</v>
+        <v>4.13</v>
       </c>
       <c r="F25" t="n">
-        <v>0.7</v>
+        <v>0.88</v>
       </c>
       <c r="G25" t="n">
-        <v>1.372</v>
+        <v>5.756</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.75</v>
+        <v>3.84</v>
       </c>
       <c r="F26" t="n">
         <v>1.09</v>
       </c>
       <c r="G26" t="n">
-        <v>1.38</v>
+        <v>5.767</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.3</v>
+        <v>3.11</v>
       </c>
       <c r="F27" t="n">
-        <v>0.46</v>
+        <v>0.61</v>
       </c>
       <c r="G27" t="n">
-        <v>2.46</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="28">
@@ -3096,106 +3096,106 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.17</v>
+        <v>2.68</v>
       </c>
       <c r="F28" t="n">
-        <v>0.54</v>
+        <v>0.45</v>
       </c>
       <c r="G28" t="n">
-        <v>1.773</v>
+        <v>1.748</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.02</v>
+        <v>2.48</v>
       </c>
       <c r="F29" t="n">
-        <v>0.75</v>
+        <v>0.93</v>
       </c>
       <c r="G29" t="n">
-        <v>3.684</v>
+        <v>3.914</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.88</v>
+        <v>0.19</v>
       </c>
       <c r="F30" t="n">
-        <v>2.14</v>
+        <v>0.37</v>
       </c>
       <c r="G30" t="n">
-        <v>14.752</v>
+        <v>3.314</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.61</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.34</v>
+        <v>0.78</v>
       </c>
       <c r="G31" t="n">
-        <v>8.333</v>
+        <v>4.762</v>
       </c>
     </row>
     <row r="32">
@@ -3220,602 +3220,602 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.79</v>
+        <v>-0.52</v>
       </c>
       <c r="F32" t="n">
-        <v>0.91</v>
+        <v>0.86</v>
       </c>
       <c r="G32" t="n">
-        <v>1.658</v>
+        <v>1.637</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.41</v>
+        <v>-0.87</v>
       </c>
       <c r="F33" t="n">
-        <v>0.78</v>
+        <v>0.57</v>
       </c>
       <c r="G33" t="n">
-        <v>0.19</v>
+        <v>1.124</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-1.42</v>
+        <v>-1.04</v>
       </c>
       <c r="F34" t="n">
-        <v>0.75</v>
+        <v>1.07</v>
       </c>
       <c r="G34" t="n">
-        <v>5.025</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-2.08</v>
+        <v>-1.4</v>
       </c>
       <c r="F35" t="n">
-        <v>1.1</v>
+        <v>0.3</v>
       </c>
       <c r="G35" t="n">
-        <v>0.398</v>
+        <v>0.847</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-2.97</v>
+        <v>-1.57</v>
       </c>
       <c r="F36" t="n">
-        <v>1.15</v>
+        <v>0.59</v>
       </c>
       <c r="G36" t="n">
-        <v>0.772</v>
+        <v>2.197</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-3.27</v>
+        <v>-1.85</v>
       </c>
       <c r="F37" t="n">
-        <v>1.01</v>
+        <v>1.11</v>
       </c>
       <c r="G37" t="n">
-        <v>0.125</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-3.38</v>
+        <v>-2.97</v>
       </c>
       <c r="F38" t="n">
-        <v>1.06</v>
+        <v>0.91</v>
       </c>
       <c r="G38" t="n">
-        <v>2.193</v>
+        <v>0.122</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-3.54</v>
+        <v>-3.36</v>
       </c>
       <c r="F39" t="n">
-        <v>1.07</v>
+        <v>0.77</v>
       </c>
       <c r="G39" t="n">
-        <v>1.586</v>
+        <v>1.829</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-3.58</v>
+        <v>-3.61</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8</v>
+        <v>1.04</v>
       </c>
       <c r="G40" t="n">
-        <v>1.89</v>
+        <v>1.621</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-3.66</v>
+        <v>-4.49</v>
       </c>
       <c r="F41" t="n">
-        <v>0.61</v>
+        <v>1.29</v>
       </c>
       <c r="G41" t="n">
-        <v>1.217</v>
+        <v>7.927</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-3.85</v>
+        <v>-4.99</v>
       </c>
       <c r="F42" t="n">
-        <v>0.35</v>
+        <v>0.72</v>
       </c>
       <c r="G42" t="n">
-        <v>0.88</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-3.99</v>
+        <v>-5.53</v>
       </c>
       <c r="F43" t="n">
-        <v>0.96</v>
+        <v>1.82</v>
       </c>
       <c r="G43" t="n">
-        <v>4.081</v>
+        <v>13.662</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-5.87</v>
+        <v>-5.56</v>
       </c>
       <c r="F44" t="n">
-        <v>0.96</v>
+        <v>0.85</v>
       </c>
       <c r="G44" t="n">
-        <v>0.094</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-6.83</v>
+        <v>-6.1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.88</v>
+        <v>0.98</v>
       </c>
       <c r="G45" t="n">
-        <v>0.491</v>
+        <v>10.539</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-7.63</v>
+        <v>-6.22</v>
       </c>
       <c r="F46" t="n">
-        <v>0.82</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G46" t="n">
-        <v>0.596</v>
+        <v>0.663</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-8.02</v>
+        <v>-6.23</v>
       </c>
       <c r="F47" t="n">
-        <v>1.06</v>
+        <v>0.97</v>
       </c>
       <c r="G47" t="n">
-        <v>6.596</v>
+        <v>1.434</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-8.18</v>
+        <v>-9.859999999999999</v>
       </c>
       <c r="F48" t="n">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
       <c r="G48" t="n">
-        <v>11.188</v>
+        <v>6.504</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-8.33</v>
+        <v>-10.02</v>
       </c>
       <c r="F49" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.92</v>
       </c>
       <c r="G49" t="n">
-        <v>0.702</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-8.58</v>
+        <v>-12.48</v>
       </c>
       <c r="F50" t="n">
-        <v>1.04</v>
+        <v>0.93</v>
       </c>
       <c r="G50" t="n">
-        <v>1.526</v>
+        <v>2.157</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-10.19</v>
+        <v>-14.95</v>
       </c>
       <c r="F51" t="n">
-        <v>1.08</v>
+        <v>0.82</v>
       </c>
       <c r="G51" t="n">
-        <v>2.171</v>
+        <v>3.618</v>
       </c>
     </row>
     <row r="52">
@@ -3840,13 +3840,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-18.61</v>
+        <v>-15.56</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="G52" t="n">
-        <v>5.526</v>
+        <v>5.214</v>
       </c>
     </row>
   </sheetData>
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55.73</v>
+        <v>38.86</v>
       </c>
       <c r="C2" t="n">
-        <v>1.62</v>
+        <v>1.51</v>
       </c>
       <c r="D2" t="n">
-        <v>19.395</v>
+        <v>17.695</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3921,13 +3921,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.33</v>
+        <v>26.49</v>
       </c>
       <c r="C3" t="n">
-        <v>1.71</v>
+        <v>1.4</v>
       </c>
       <c r="D3" t="n">
-        <v>14.526</v>
+        <v>13.569</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3936,17 +3936,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.69</v>
+        <v>22.49</v>
       </c>
       <c r="C4" t="n">
-        <v>1.65</v>
+        <v>1.11</v>
       </c>
       <c r="D4" t="n">
-        <v>12.699</v>
+        <v>18.406</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3955,17 +3955,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.41</v>
+        <v>18.82</v>
       </c>
       <c r="C5" t="n">
-        <v>1.85</v>
+        <v>1.55</v>
       </c>
       <c r="D5" t="n">
-        <v>19.953</v>
+        <v>12.924</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3974,17 +3974,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.81</v>
+        <v>13.87</v>
       </c>
       <c r="C6" t="n">
-        <v>1.03</v>
+        <v>1.74</v>
       </c>
       <c r="D6" t="n">
-        <v>18.037</v>
+        <v>18.557</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -3997,13 +3997,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.68</v>
+        <v>13.7</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7399999999999999</v>
+        <v>0.7766666666666667</v>
       </c>
       <c r="D7" t="n">
-        <v>11.468</v>
+        <v>10.8</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -4012,17 +4012,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.87</v>
+        <v>13.19</v>
       </c>
       <c r="C8" t="n">
-        <v>0.83</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D8" t="n">
-        <v>6.536</v>
+        <v>2.394</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -4031,36 +4031,36 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.25</v>
+        <v>11.82</v>
       </c>
       <c r="C9" t="n">
-        <v>0.82</v>
+        <v>1.11</v>
       </c>
       <c r="D9" t="n">
-        <v>2.468</v>
+        <v>1.637</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.35</v>
+        <v>10.615</v>
       </c>
       <c r="C10" t="n">
-        <v>0.55</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>9.188000000000001</v>
+        <v>73.44</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -4069,17 +4069,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.8</v>
+        <v>10.195</v>
       </c>
       <c r="C11" t="n">
-        <v>0.925</v>
+        <v>0.455</v>
       </c>
       <c r="D11" t="n">
-        <v>18.417</v>
+        <v>8.686</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -4088,17 +4088,17 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.44</v>
+        <v>9.4</v>
       </c>
       <c r="C12" t="n">
-        <v>0.82</v>
+        <v>1.63</v>
       </c>
       <c r="D12" t="n">
-        <v>6.096</v>
+        <v>1.703</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -4107,17 +4107,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10.97</v>
+        <v>8.504999999999999</v>
       </c>
       <c r="C13" t="n">
-        <v>1.515</v>
+        <v>0.745</v>
       </c>
       <c r="D13" t="n">
-        <v>1.748</v>
+        <v>2.246</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -4126,17 +4126,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.4</v>
+        <v>8.17</v>
       </c>
       <c r="C14" t="n">
-        <v>0.855</v>
+        <v>0.92</v>
       </c>
       <c r="D14" t="n">
-        <v>76.13200000000001</v>
+        <v>17.892</v>
       </c>
       <c r="E14" t="n">
         <v>2</v>
@@ -4145,17 +4145,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
+        <v>7.81</v>
       </c>
       <c r="C15" t="n">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="D15" t="n">
-        <v>5.855</v>
+        <v>2.351</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -4164,36 +4164,36 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>8.34</v>
+        <v>6.65</v>
       </c>
       <c r="C16" t="n">
-        <v>1.29</v>
+        <v>0.73</v>
       </c>
       <c r="D16" t="n">
-        <v>11.14</v>
+        <v>5.755</v>
       </c>
       <c r="E16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>7.71</v>
+        <v>5.09</v>
       </c>
       <c r="C17" t="n">
-        <v>2.11</v>
+        <v>0.88</v>
       </c>
       <c r="D17" t="n">
-        <v>1.724</v>
+        <v>0.194</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -4202,36 +4202,36 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.895</v>
+        <v>4.13</v>
       </c>
       <c r="C18" t="n">
-        <v>0.755</v>
+        <v>0.88</v>
       </c>
       <c r="D18" t="n">
-        <v>2.233</v>
+        <v>5.756</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.3</v>
+        <v>3.84</v>
       </c>
       <c r="C19" t="n">
-        <v>0.46</v>
+        <v>1.09</v>
       </c>
       <c r="D19" t="n">
-        <v>2.46</v>
+        <v>5.767</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -4240,39 +4240,39 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.88</v>
+        <v>3.253333333333333</v>
       </c>
       <c r="C20" t="n">
-        <v>2.14</v>
+        <v>1.19</v>
       </c>
       <c r="D20" t="n">
-        <v>14.752</v>
+        <v>10.645</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.41</v>
+        <v>1.12</v>
       </c>
       <c r="C21" t="n">
-        <v>0.78</v>
+        <v>0.59</v>
       </c>
       <c r="D21" t="n">
-        <v>0.19</v>
+        <v>4.574</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
@@ -4282,13 +4282,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.8100000000000002</v>
+        <v>-0.4520000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>1.064</v>
+        <v>1.01</v>
       </c>
       <c r="D22" t="n">
-        <v>5.794</v>
+        <v>5.859</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -4297,39 +4297,39 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.8200000000000001</v>
+        <v>-1.4</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6799999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="D23" t="n">
-        <v>4.901</v>
+        <v>0.847</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-3.205</v>
+        <v>-1.57</v>
       </c>
       <c r="C24" t="n">
-        <v>1.2</v>
+        <v>0.59</v>
       </c>
       <c r="D24" t="n">
-        <v>14.929</v>
+        <v>2.197</v>
       </c>
       <c r="E24" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -4339,13 +4339,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-3.27</v>
+        <v>-2.97</v>
       </c>
       <c r="C25" t="n">
-        <v>1.01</v>
+        <v>0.91</v>
       </c>
       <c r="D25" t="n">
-        <v>0.125</v>
+        <v>0.122</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -4354,55 +4354,55 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-3.38</v>
+        <v>-4.745</v>
       </c>
       <c r="C26" t="n">
-        <v>1.06</v>
+        <v>0.7275</v>
       </c>
       <c r="D26" t="n">
-        <v>2.193</v>
+        <v>22.263</v>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-3.85</v>
+        <v>-5.046666666666666</v>
       </c>
       <c r="C27" t="n">
-        <v>0.35</v>
+        <v>0.77</v>
       </c>
       <c r="D27" t="n">
-        <v>0.88</v>
+        <v>2.965</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-5.87</v>
+        <v>-5.53</v>
       </c>
       <c r="C28" t="n">
-        <v>0.96</v>
+        <v>1.82</v>
       </c>
       <c r="D28" t="n">
-        <v>0.094</v>
+        <v>13.662</v>
       </c>
       <c r="E28" t="n">
         <v>1</v>
@@ -4411,55 +4411,55 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.246666666666667</v>
+        <v>-6.23</v>
       </c>
       <c r="C29" t="n">
-        <v>0.79</v>
+        <v>0.97</v>
       </c>
       <c r="D29" t="n">
-        <v>3.083</v>
+        <v>1.434</v>
       </c>
       <c r="E29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-6.51</v>
+        <v>-7.175</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7424999999999999</v>
+        <v>1.175</v>
       </c>
       <c r="D30" t="n">
-        <v>23.512</v>
+        <v>14.431</v>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-8.58</v>
+        <v>-10.02</v>
       </c>
       <c r="C31" t="n">
-        <v>1.04</v>
+        <v>0.92</v>
       </c>
       <c r="D31" t="n">
-        <v>1.526</v>
+        <v>0.083</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -4472,13 +4472,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-10.19</v>
+        <v>-12.48</v>
       </c>
       <c r="C32" t="n">
-        <v>1.08</v>
+        <v>0.93</v>
       </c>
       <c r="D32" t="n">
-        <v>2.171</v>
+        <v>2.157</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -4592,34 +4592,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2055</v>
+        <v>2020</v>
       </c>
       <c r="E2" t="n">
-        <v>3.27</v>
+        <v>-1.7</v>
       </c>
       <c r="F2" t="n">
-        <v>22.69</v>
+        <v>18.82</v>
       </c>
       <c r="G2" t="n">
-        <v>59.63</v>
+        <v>55.04</v>
       </c>
       <c r="H2" t="n">
-        <v>185.5957</v>
+        <v>167.6269</v>
       </c>
       <c r="I2" t="n">
-        <v>58.9</v>
+        <v>52.9</v>
       </c>
       <c r="J2" t="n">
-        <v>33.7</v>
+        <v>24.2</v>
       </c>
       <c r="K2" t="n">
-        <v>8.359999999999999</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>32.8</v>
+        <v>6.9</v>
       </c>
       <c r="M2" t="n">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -4644,38 +4644,38 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1800</v>
+        <v>1770</v>
       </c>
       <c r="E3" t="n">
-        <v>0.28</v>
+        <v>-1.67</v>
       </c>
       <c r="F3" t="n">
-        <v>20.81</v>
+        <v>22.49</v>
       </c>
       <c r="G3" t="n">
-        <v>78.7</v>
+        <v>73.87</v>
       </c>
       <c r="H3" t="n">
-        <v>94.46250000000001</v>
+        <v>93.086</v>
       </c>
       <c r="I3" t="n">
-        <v>83.5</v>
+        <v>75.7</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="K3" t="n">
-        <v>3.91</v>
+        <v>4.08</v>
       </c>
       <c r="L3" t="n">
-        <v>12.4</v>
+        <v>51</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>👀 WATCH</t>
+          <t>⚠️ TAKE PROFIT</t>
         </is>
       </c>
     </row>
@@ -4696,38 +4696,38 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>70.09999999999999</v>
+        <v>66.5</v>
       </c>
       <c r="E4" t="n">
         <v>-5.14</v>
       </c>
       <c r="F4" t="n">
-        <v>29.57</v>
+        <v>28.63</v>
       </c>
       <c r="G4" t="n">
-        <v>72.65000000000001</v>
+        <v>67.45</v>
       </c>
       <c r="H4" t="n">
-        <v>5.2998</v>
+        <v>5.069</v>
       </c>
       <c r="I4" t="n">
-        <v>82.59999999999999</v>
+        <v>71.09999999999999</v>
       </c>
       <c r="J4" t="n">
-        <v>77.8</v>
+        <v>64.90000000000001</v>
       </c>
       <c r="K4" t="n">
-        <v>5.92</v>
+        <v>6.39</v>
       </c>
       <c r="L4" t="n">
-        <v>-70.3</v>
+        <v>-67.09999999999999</v>
       </c>
       <c r="M4" t="n">
-        <v>2.21</v>
+        <v>1.5</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>💰 STRONG INFLOW</t>
+          <t>⚠️ TAKE PROFIT</t>
         </is>
       </c>
     </row>
@@ -4748,34 +4748,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>64.90000000000001</v>
+        <v>63.2</v>
       </c>
       <c r="E5" t="n">
-        <v>1.56</v>
+        <v>-2.62</v>
       </c>
       <c r="F5" t="n">
-        <v>-3.85</v>
+        <v>-1.4</v>
       </c>
       <c r="G5" t="n">
-        <v>35.87</v>
+        <v>33.91</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5281</v>
+        <v>-1.0211</v>
       </c>
       <c r="I5" t="n">
-        <v>16.8</v>
+        <v>9.4</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6.77</v>
+        <v>6.67</v>
       </c>
       <c r="L5" t="n">
-        <v>-81.7</v>
+        <v>-80.3</v>
       </c>
       <c r="M5" t="n">
-        <v>0.35</v>
+        <v>0.3</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -4800,38 +4800,38 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>181.5</v>
+        <v>170.5</v>
       </c>
       <c r="E6" t="n">
-        <v>5.52</v>
+        <v>-6.06</v>
       </c>
       <c r="F6" t="n">
-        <v>17.86</v>
+        <v>13.67</v>
       </c>
       <c r="G6" t="n">
-        <v>57.47</v>
+        <v>50</v>
       </c>
       <c r="H6" t="n">
-        <v>5.5432</v>
+        <v>5.1708</v>
       </c>
       <c r="I6" t="n">
-        <v>85.40000000000001</v>
+        <v>55.2</v>
       </c>
       <c r="J6" t="n">
-        <v>89.3</v>
+        <v>50</v>
       </c>
       <c r="K6" t="n">
-        <v>6.69</v>
+        <v>7.21</v>
       </c>
       <c r="L6" t="n">
-        <v>82.90000000000001</v>
+        <v>7.4</v>
       </c>
       <c r="M6" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>🚀 BUY STRONG</t>
+          <t>👀 WATCH</t>
         </is>
       </c>
     </row>
@@ -4852,34 +4852,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>219</v>
+        <v>215.5</v>
       </c>
       <c r="E7" t="n">
-        <v>1.15</v>
+        <v>-1.6</v>
       </c>
       <c r="F7" t="n">
-        <v>-8.18</v>
+        <v>-6.1</v>
       </c>
       <c r="G7" t="n">
-        <v>32.94</v>
+        <v>28.89</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.8444</v>
+        <v>-3.1331</v>
       </c>
       <c r="I7" t="n">
-        <v>23.1</v>
+        <v>12.9</v>
       </c>
       <c r="J7" t="n">
-        <v>22.5</v>
+        <v>6.7</v>
       </c>
       <c r="K7" t="n">
-        <v>2.53</v>
+        <v>2.6</v>
       </c>
       <c r="L7" t="n">
-        <v>-47.2</v>
+        <v>-14.2</v>
       </c>
       <c r="M7" t="n">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -481,27 +481,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>333.5</v>
+        <v>304.5</v>
       </c>
       <c r="E2" t="n">
-        <v>0.15</v>
+        <v>7.22</v>
       </c>
       <c r="F2" t="n">
-        <v>204</v>
+        <v>228</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,33 +509,33 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.356</v>
+        <v>6.674</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>284</v>
+        <v>1895</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.12</v>
+        <v>-6.19</v>
       </c>
       <c r="F3" t="n">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,67 +543,67 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5.767</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1770</v>
+        <v>306.5</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.67</v>
+        <v>-8.1</v>
       </c>
       <c r="F4" t="n">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>18.406</v>
+        <v>4.328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>275</v>
+        <v>1850</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.78</v>
+        <v>3.06</v>
       </c>
       <c r="F5" t="n">
-        <v>128</v>
+        <v>182</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,33 +611,33 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>18.557</v>
+        <v>2.578</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>3245</v>
+        <v>264</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.14</v>
+        <v>-4</v>
       </c>
       <c r="F6" t="n">
-        <v>127</v>
+        <v>180</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -645,135 +645,135 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6.504</v>
+        <v>19.283</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>37.15</v>
+        <v>97.8</v>
       </c>
       <c r="E7" t="n">
-        <v>1.23</v>
+        <v>-4.59</v>
       </c>
       <c r="F7" t="n">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.194</v>
+        <v>13.771</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>1150</v>
+        <v>63.5</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.96</v>
+        <v>1.11</v>
       </c>
       <c r="F8" t="n">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>13.978</v>
+        <v>14.479</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Macronix (MXIC)</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>87.90000000000001</v>
+        <v>283.5</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.01</v>
+        <v>1.07</v>
       </c>
       <c r="F9" t="n">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>17.695</v>
+        <v>5.976</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Macronix (MXIC)</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1795</v>
+        <v>80.8</v>
       </c>
       <c r="E10" t="n">
-        <v>4.66</v>
+        <v>-8.08</v>
       </c>
       <c r="F10" t="n">
-        <v>111</v>
+        <v>133</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -781,33 +781,33 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2.351</v>
+        <v>14.241</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>102.5</v>
+        <v>220</v>
       </c>
       <c r="E11" t="n">
-        <v>-5.53</v>
+        <v>-3.93</v>
       </c>
       <c r="F11" t="n">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -815,33 +815,33 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>13.662</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>2340</v>
+        <v>279.5</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.51</v>
+        <v>2.38</v>
       </c>
       <c r="F12" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -849,98 +849,98 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>7.927</v>
+        <v>4.441</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>2020</v>
+        <v>120</v>
       </c>
       <c r="E13" t="n">
-        <v>-1.7</v>
+        <v>5.73</v>
       </c>
       <c r="F13" t="n">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>12.924</v>
+        <v>6.048</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>170.5</v>
+        <v>215</v>
       </c>
       <c r="E14" t="n">
-        <v>-6.06</v>
+        <v>-0.23</v>
       </c>
       <c r="F14" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2.837</v>
+        <v>10.713</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>229</v>
+        <v>3115</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.51</v>
+        <v>-4.01</v>
       </c>
       <c r="F15" t="n">
         <v>104</v>
@@ -951,33 +951,33 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.083</v>
+        <v>6.414</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1255</v>
+        <v>2375</v>
       </c>
       <c r="E16" t="n">
-        <v>-5.99</v>
+        <v>1.5</v>
       </c>
       <c r="F16" t="n">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -985,101 +985,101 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2.197</v>
+        <v>8.177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>463</v>
+        <v>1780</v>
       </c>
       <c r="E17" t="n">
-        <v>-2.73</v>
+        <v>0.85</v>
       </c>
       <c r="F17" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2.157</v>
+        <v>56.858</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>51.7</v>
+        <v>1710</v>
       </c>
       <c r="E18" t="n">
-        <v>0.98</v>
+        <v>-3.39</v>
       </c>
       <c r="F18" t="n">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1.412</v>
+        <v>18.021</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>39.7</v>
+        <v>221</v>
       </c>
       <c r="E19" t="n">
-        <v>1.4</v>
+        <v>0.91</v>
       </c>
       <c r="F19" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1087,101 +1087,101 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.789</v>
+        <v>3.544</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>62.8</v>
+        <v>210.5</v>
       </c>
       <c r="E20" t="n">
-        <v>-4.27</v>
+        <v>-7.27</v>
       </c>
       <c r="F20" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>13.569</v>
+        <v>2.296</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>240</v>
+        <v>30.8</v>
       </c>
       <c r="E21" t="n">
-        <v>-4.57</v>
+        <v>-0.65</v>
       </c>
       <c r="F21" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>7.414</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>165.5</v>
+        <v>365</v>
       </c>
       <c r="E22" t="n">
-        <v>-4.61</v>
+        <v>1.11</v>
       </c>
       <c r="F22" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1189,33 +1189,33 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3.914</v>
+        <v>1.444</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>215.5</v>
+        <v>75.7</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.6</v>
+        <v>-0.39</v>
       </c>
       <c r="F23" t="n">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1223,33 +1223,33 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>10.539</v>
+        <v>1.642</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>361</v>
+        <v>1160</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.77</v>
+        <v>0.87</v>
       </c>
       <c r="F24" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1257,33 +1257,33 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.434</v>
+        <v>14.265</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>280.5</v>
+        <v>116.5</v>
       </c>
       <c r="E25" t="n">
-        <v>-5.56</v>
+        <v>2.19</v>
       </c>
       <c r="F25" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1291,33 +1291,33 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>5.755</v>
+        <v>1.161</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>113.5</v>
+        <v>472.5</v>
       </c>
       <c r="E26" t="n">
-        <v>-6.97</v>
+        <v>2.05</v>
       </c>
       <c r="F26" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1325,132 +1325,132 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>5.756</v>
+        <v>2.224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>93.5</v>
+        <v>219.5</v>
       </c>
       <c r="E27" t="n">
-        <v>0.86</v>
+        <v>-8.539999999999999</v>
       </c>
       <c r="F27" t="n">
         <v>82</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1.621</v>
+        <v>6.366</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1765</v>
+        <v>35.6</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.12</v>
+        <v>-4.17</v>
       </c>
       <c r="F28" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>56.743</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>23.75</v>
+        <v>51.6</v>
       </c>
       <c r="E29" t="n">
-        <v>0.85</v>
+        <v>-0.19</v>
       </c>
       <c r="F29" t="n">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.4</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>127.5</v>
+        <v>43.8</v>
       </c>
       <c r="E30" t="n">
-        <v>-1.16</v>
+        <v>-0.57</v>
       </c>
       <c r="F30" t="n">
         <v>79</v>
@@ -1461,169 +1461,169 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>5.214</v>
+        <v>1.789</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>38.45</v>
+        <v>52.2</v>
       </c>
       <c r="E31" t="n">
-        <v>0.13</v>
+        <v>-1.14</v>
       </c>
       <c r="F31" t="n">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.39</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>116.5</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="E32" t="n">
-        <v>0.87</v>
+        <v>-1.18</v>
       </c>
       <c r="F32" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.549</v>
+        <v>1.591</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>273</v>
+        <v>45.75</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.8</v>
+        <v>-3.07</v>
       </c>
       <c r="F33" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>4.762</v>
+        <v>2.295</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.09</v>
+        <v>1.18</v>
       </c>
       <c r="F34" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>2.671</v>
+        <v>5.128</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>22.75</v>
+        <v>39.8</v>
       </c>
       <c r="E35" t="n">
-        <v>0.44</v>
+        <v>0.25</v>
       </c>
       <c r="F35" t="n">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1631,101 +1631,101 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.856</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>20.95</v>
+        <v>23.65</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-0.42</v>
       </c>
       <c r="F36" t="n">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1.703</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>52.8</v>
+        <v>38.6</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.39</v>
       </c>
       <c r="F37" t="n">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.663</v>
+        <v>1.388</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>162</v>
+        <v>164.5</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.92</v>
+        <v>-3.52</v>
       </c>
       <c r="F38" t="n">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1733,33 +1733,33 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.551</v>
+        <v>2.727</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>31</v>
+        <v>1235</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.16</v>
+        <v>-1.59</v>
       </c>
       <c r="F39" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1767,143 +1767,143 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.122</v>
+        <v>1.998</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>76</v>
+        <v>73.90000000000001</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.26</v>
+        <v>-1.2</v>
       </c>
       <c r="F40" t="n">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1.637</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>74.8</v>
+        <v>20.4</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.27</v>
+        <v>-2.63</v>
       </c>
       <c r="F41" t="n">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.473</v>
+        <v>1.673</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>47.2</v>
+        <v>111.5</v>
       </c>
       <c r="E42" t="n">
-        <v>0.75</v>
+        <v>-4.29</v>
       </c>
       <c r="F42" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2.394</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>187</v>
+        <v>22.65</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.8</v>
+        <v>-0.44</v>
       </c>
       <c r="F43" t="n">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1.829</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="44">
@@ -1923,13 +1923,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>244</v>
+        <v>239.5</v>
       </c>
       <c r="E44" t="n">
-        <v>-3.37</v>
+        <v>-1.84</v>
       </c>
       <c r="F44" t="n">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1937,33 +1937,33 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>5.372</v>
+        <v>5.188</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>219</v>
+        <v>160</v>
       </c>
       <c r="E45" t="n">
-        <v>-4.16</v>
+        <v>-1.23</v>
       </c>
       <c r="F45" t="n">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1971,33 +1971,33 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3.618</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>114</v>
+        <v>164.5</v>
       </c>
       <c r="E46" t="n">
-        <v>-3.8</v>
+        <v>-0.6</v>
       </c>
       <c r="F46" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2005,33 +2005,33 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>1.124</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>44.05</v>
+        <v>466</v>
       </c>
       <c r="E47" t="n">
-        <v>-1.67</v>
+        <v>0.43</v>
       </c>
       <c r="F47" t="n">
-        <v>36</v>
+        <v>51</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1.748</v>
+        <v>3.381</v>
       </c>
     </row>
     <row r="48">
@@ -2059,13 +2059,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>61.5</v>
+        <v>61.9</v>
       </c>
       <c r="E48" t="n">
-        <v>-0.49</v>
+        <v>0.65</v>
       </c>
       <c r="F48" t="n">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2073,75 +2073,75 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>16.697</v>
+        <v>16.228</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>66.5</v>
+        <v>187.5</v>
       </c>
       <c r="E49" t="n">
-        <v>-5.14</v>
+        <v>0.27</v>
       </c>
       <c r="F49" t="n">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1.086</v>
+        <v>1.775</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>464</v>
+        <v>61</v>
       </c>
       <c r="E50" t="n">
-        <v>-3.23</v>
+        <v>-8.27</v>
       </c>
       <c r="F50" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>3.45</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="51">
@@ -2161,13 +2161,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>53.1</v>
+        <v>52</v>
       </c>
       <c r="E51" t="n">
-        <v>-5.68</v>
+        <v>-2.07</v>
       </c>
       <c r="F51" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>3.314</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="52">
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>63.2</v>
+        <v>60.8</v>
       </c>
       <c r="E52" t="n">
-        <v>-2.62</v>
+        <v>-3.8</v>
       </c>
       <c r="F52" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0.847</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2290,75 +2290,75 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>38.86</v>
+        <v>38.59</v>
       </c>
       <c r="F2" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="G2" t="n">
-        <v>17.695</v>
+        <v>14.241</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Foundry - Memory</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.63</v>
+        <v>33.68</v>
       </c>
       <c r="F3" t="n">
-        <v>1.5</v>
+        <v>1.18</v>
       </c>
       <c r="G3" t="n">
-        <v>1.086</v>
+        <v>14.479</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.49</v>
+        <v>21.38</v>
       </c>
       <c r="F4" t="n">
-        <v>1.4</v>
+        <v>1.62</v>
       </c>
       <c r="G4" t="n">
-        <v>13.569</v>
+        <v>19.283</v>
       </c>
     </row>
     <row r="5">
@@ -2383,75 +2383,75 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>22.49</v>
+        <v>20.42</v>
       </c>
       <c r="F5" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="G5" t="n">
-        <v>18.406</v>
+        <v>18.021</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.52</v>
+        <v>19.75</v>
       </c>
       <c r="F6" t="n">
-        <v>0.7</v>
+        <v>0.53</v>
       </c>
       <c r="G6" t="n">
-        <v>7.414</v>
+        <v>5.188</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>20.2</v>
+        <v>19.03</v>
       </c>
       <c r="F7" t="n">
-        <v>0.54</v>
+        <v>1.57</v>
       </c>
       <c r="G7" t="n">
-        <v>5.372</v>
+        <v>4.328</v>
       </c>
     </row>
     <row r="8">
@@ -2476,168 +2476,168 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.82</v>
+        <v>16.26</v>
       </c>
       <c r="F8" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="G8" t="n">
-        <v>12.924</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16.61</v>
+        <v>14.88</v>
       </c>
       <c r="F9" t="n">
-        <v>1.6</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>4.356</v>
+        <v>0.992</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>16.48</v>
+        <v>14.29</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.9</v>
       </c>
       <c r="G10" t="n">
-        <v>16.697</v>
+        <v>14.265</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.87</v>
+        <v>12.34</v>
       </c>
       <c r="F11" t="n">
-        <v>1.74</v>
+        <v>0.53</v>
       </c>
       <c r="G11" t="n">
-        <v>18.557</v>
+        <v>16.228</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>13.86</v>
+        <v>12.12</v>
       </c>
       <c r="F12" t="n">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="G12" t="n">
-        <v>13.978</v>
+        <v>2.578</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13.67</v>
+        <v>11.95</v>
       </c>
       <c r="F13" t="n">
-        <v>0.95</v>
+        <v>1.23</v>
       </c>
       <c r="G13" t="n">
-        <v>2.837</v>
+        <v>6.674</v>
       </c>
     </row>
     <row r="14">
@@ -2662,137 +2662,137 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>13.19</v>
+        <v>11.59</v>
       </c>
       <c r="F14" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.66</v>
       </c>
       <c r="G14" t="n">
-        <v>2.394</v>
+        <v>2.295</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.52</v>
+        <v>11.53</v>
       </c>
       <c r="F15" t="n">
-        <v>0.79</v>
+        <v>1.01</v>
       </c>
       <c r="G15" t="n">
-        <v>0.856</v>
+        <v>2.727</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>9.4</v>
+        <v>10.76</v>
       </c>
       <c r="F16" t="n">
-        <v>1.63</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>1.703</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.1</v>
+        <v>10.6</v>
       </c>
       <c r="F17" t="n">
-        <v>1.15</v>
+        <v>0.84</v>
       </c>
       <c r="G17" t="n">
-        <v>2.671</v>
+        <v>6.048</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7.81</v>
+        <v>8.5</v>
       </c>
       <c r="F18" t="n">
-        <v>0.98</v>
+        <v>0.57</v>
       </c>
       <c r="G18" t="n">
-        <v>2.351</v>
+        <v>3.381</v>
       </c>
     </row>
     <row r="19">
@@ -2817,540 +2817,540 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6.65</v>
+        <v>7.59</v>
       </c>
       <c r="F19" t="n">
-        <v>0.73</v>
+        <v>0.85</v>
       </c>
       <c r="G19" t="n">
-        <v>5.755</v>
+        <v>5.976</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.91</v>
+        <v>7.37</v>
       </c>
       <c r="F20" t="n">
-        <v>0.68</v>
+        <v>1.17</v>
       </c>
       <c r="G20" t="n">
-        <v>0.549</v>
+        <v>1.673</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.49</v>
+        <v>5.95</v>
       </c>
       <c r="F21" t="n">
-        <v>0.7</v>
+        <v>0.89</v>
       </c>
       <c r="G21" t="n">
-        <v>1.39</v>
+        <v>56.858</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5.09</v>
+        <v>5.61</v>
       </c>
       <c r="F22" t="n">
-        <v>0.88</v>
+        <v>0.7</v>
       </c>
       <c r="G22" t="n">
-        <v>0.194</v>
+        <v>1.388</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.76</v>
+        <v>4.47</v>
       </c>
       <c r="F23" t="n">
-        <v>0.97</v>
+        <v>1.06</v>
       </c>
       <c r="G23" t="n">
-        <v>1.412</v>
+        <v>2.296</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.75</v>
+        <v>3.82</v>
       </c>
       <c r="F24" t="n">
-        <v>0.93</v>
+        <v>0.85</v>
       </c>
       <c r="G24" t="n">
-        <v>56.743</v>
+        <v>1.424</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4.13</v>
+        <v>2.81</v>
       </c>
       <c r="F25" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="G25" t="n">
-        <v>5.756</v>
+        <v>3.88</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.84</v>
+        <v>2.1</v>
       </c>
       <c r="F26" t="n">
-        <v>1.09</v>
+        <v>0.49</v>
       </c>
       <c r="G26" t="n">
-        <v>5.767</v>
+        <v>1.789</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3.11</v>
+        <v>1.86</v>
       </c>
       <c r="F27" t="n">
-        <v>0.61</v>
+        <v>0.89</v>
       </c>
       <c r="G27" t="n">
-        <v>3.45</v>
+        <v>0.188</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2.68</v>
+        <v>1.75</v>
       </c>
       <c r="F28" t="n">
-        <v>0.45</v>
+        <v>0.57</v>
       </c>
       <c r="G28" t="n">
-        <v>1.748</v>
+        <v>1.161</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.48</v>
+        <v>1.39</v>
       </c>
       <c r="F29" t="n">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="G29" t="n">
-        <v>3.914</v>
+        <v>6.366</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.19</v>
+        <v>0.45</v>
       </c>
       <c r="F30" t="n">
-        <v>0.37</v>
+        <v>0.7</v>
       </c>
       <c r="G30" t="n">
-        <v>3.314</v>
+        <v>0.527</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.42</v>
       </c>
       <c r="F31" t="n">
-        <v>0.78</v>
+        <v>1.22</v>
       </c>
       <c r="G31" t="n">
-        <v>4.762</v>
+        <v>8.177</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-0.52</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.86</v>
+        <v>1.7</v>
       </c>
       <c r="G32" t="n">
-        <v>1.637</v>
+        <v>13.771</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-0.87</v>
+        <v>-0.26</v>
       </c>
       <c r="F33" t="n">
-        <v>0.57</v>
+        <v>0.83</v>
       </c>
       <c r="G33" t="n">
-        <v>1.124</v>
+        <v>1.642</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-1.04</v>
+        <v>-1.24</v>
       </c>
       <c r="F34" t="n">
-        <v>1.07</v>
+        <v>0.87</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4</v>
+        <v>4.441</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1.4</v>
+        <v>-1.87</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3</v>
+        <v>0.83</v>
       </c>
       <c r="G35" t="n">
-        <v>0.847</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-1.57</v>
+        <v>-2.07</v>
       </c>
       <c r="F36" t="n">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="G36" t="n">
-        <v>2.197</v>
+        <v>0.118</v>
       </c>
     </row>
     <row r="37">
@@ -3375,215 +3375,215 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-1.85</v>
+        <v>-2.09</v>
       </c>
       <c r="F37" t="n">
-        <v>1.11</v>
+        <v>0.76</v>
       </c>
       <c r="G37" t="n">
-        <v>0.789</v>
+        <v>0.793</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-2.97</v>
+        <v>-3.1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.91</v>
+        <v>0.64</v>
       </c>
       <c r="G38" t="n">
-        <v>0.122</v>
+        <v>1.775</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-3.36</v>
+        <v>-3.25</v>
       </c>
       <c r="F39" t="n">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="G39" t="n">
-        <v>1.829</v>
+        <v>1.591</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-3.61</v>
+        <v>-3.95</v>
       </c>
       <c r="F40" t="n">
-        <v>1.04</v>
+        <v>0.84</v>
       </c>
       <c r="G40" t="n">
-        <v>1.621</v>
+        <v>1.444</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-4.49</v>
+        <v>-4.48</v>
       </c>
       <c r="F41" t="n">
-        <v>1.29</v>
+        <v>0.6</v>
       </c>
       <c r="G41" t="n">
-        <v>7.927</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-4.99</v>
+        <v>-6.69</v>
       </c>
       <c r="F42" t="n">
-        <v>0.72</v>
+        <v>0.7</v>
       </c>
       <c r="G42" t="n">
-        <v>0.551</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-5.53</v>
+        <v>-6.72</v>
       </c>
       <c r="F43" t="n">
-        <v>1.82</v>
+        <v>0.91</v>
       </c>
       <c r="G43" t="n">
-        <v>13.662</v>
+        <v>10.713</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -3592,137 +3592,137 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-5.56</v>
+        <v>-7.12</v>
       </c>
       <c r="F44" t="n">
-        <v>0.85</v>
+        <v>0.66</v>
       </c>
       <c r="G44" t="n">
-        <v>0.473</v>
+        <v>0.647</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-6.1</v>
+        <v>-7.35</v>
       </c>
       <c r="F45" t="n">
-        <v>0.98</v>
+        <v>0.82</v>
       </c>
       <c r="G45" t="n">
-        <v>10.539</v>
+        <v>2.224</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-6.22</v>
+        <v>-7.74</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.25</v>
       </c>
       <c r="G46" t="n">
-        <v>0.663</v>
+        <v>0.8100000000000001</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-6.23</v>
+        <v>-8.49</v>
       </c>
       <c r="F47" t="n">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="G47" t="n">
-        <v>1.434</v>
+        <v>3.544</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-9.859999999999999</v>
+        <v>-10.81</v>
       </c>
       <c r="F48" t="n">
-        <v>1.06</v>
+        <v>0.34</v>
       </c>
       <c r="G48" t="n">
-        <v>6.504</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="49">
@@ -3747,75 +3747,75 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-10.02</v>
+        <v>-10.93</v>
       </c>
       <c r="F49" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G49" t="n">
-        <v>0.083</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-12.48</v>
+        <v>-11.79</v>
       </c>
       <c r="F50" t="n">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="G50" t="n">
-        <v>2.157</v>
+        <v>1.998</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-14.95</v>
+        <v>-12.75</v>
       </c>
       <c r="F51" t="n">
-        <v>0.82</v>
+        <v>1.04</v>
       </c>
       <c r="G51" t="n">
-        <v>3.618</v>
+        <v>6.414</v>
       </c>
     </row>
     <row r="52">
@@ -3840,13 +3840,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-15.56</v>
+        <v>-13.42</v>
       </c>
       <c r="F52" t="n">
-        <v>0.7</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G52" t="n">
-        <v>5.214</v>
+        <v>5.128</v>
       </c>
     </row>
   </sheetData>
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.86</v>
+        <v>38.59</v>
       </c>
       <c r="C2" t="n">
-        <v>1.51</v>
+        <v>1.54</v>
       </c>
       <c r="D2" t="n">
-        <v>17.695</v>
+        <v>14.241</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3921,13 +3921,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.49</v>
+        <v>33.68</v>
       </c>
       <c r="C3" t="n">
-        <v>1.4</v>
+        <v>1.18</v>
       </c>
       <c r="D3" t="n">
-        <v>13.569</v>
+        <v>14.479</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3936,17 +3936,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>22.49</v>
+        <v>21.38</v>
       </c>
       <c r="C4" t="n">
-        <v>1.11</v>
+        <v>1.62</v>
       </c>
       <c r="D4" t="n">
-        <v>18.406</v>
+        <v>19.283</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3955,17 +3955,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.82</v>
+        <v>20.42</v>
       </c>
       <c r="C5" t="n">
-        <v>1.55</v>
+        <v>1.09</v>
       </c>
       <c r="D5" t="n">
-        <v>12.924</v>
+        <v>18.021</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3974,17 +3974,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.87</v>
+        <v>16.26</v>
       </c>
       <c r="C6" t="n">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="D6" t="n">
-        <v>18.557</v>
+        <v>13.24</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -3993,36 +3993,36 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.7</v>
+        <v>12.12</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7766666666666667</v>
+        <v>1.08</v>
       </c>
       <c r="D7" t="n">
-        <v>10.8</v>
+        <v>2.578</v>
       </c>
       <c r="E7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>13.19</v>
+        <v>11.95</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6899999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="D8" t="n">
-        <v>2.394</v>
+        <v>6.674</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -4031,55 +4031,55 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.82</v>
+        <v>11.59</v>
       </c>
       <c r="C9" t="n">
-        <v>1.11</v>
+        <v>0.66</v>
       </c>
       <c r="D9" t="n">
-        <v>1.637</v>
+        <v>2.295</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.615</v>
+        <v>10.6</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="D10" t="n">
-        <v>73.44</v>
+        <v>6.048</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>10.195</v>
+        <v>9.145</v>
       </c>
       <c r="C11" t="n">
-        <v>0.455</v>
+        <v>0.71</v>
       </c>
       <c r="D11" t="n">
-        <v>8.686</v>
+        <v>73.086</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -4088,20 +4088,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.4</v>
+        <v>8.549999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>1.63</v>
+        <v>0.9</v>
       </c>
       <c r="D12" t="n">
-        <v>1.703</v>
+        <v>18.145</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -4111,13 +4111,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.504999999999999</v>
+        <v>8.185</v>
       </c>
       <c r="C13" t="n">
-        <v>0.745</v>
+        <v>0.695</v>
       </c>
       <c r="D13" t="n">
-        <v>2.246</v>
+        <v>2.247</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -4126,36 +4126,36 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.17</v>
+        <v>7.59</v>
       </c>
       <c r="C14" t="n">
-        <v>0.92</v>
+        <v>0.85</v>
       </c>
       <c r="D14" t="n">
-        <v>17.892</v>
+        <v>5.976</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.81</v>
+        <v>7.37</v>
       </c>
       <c r="C15" t="n">
-        <v>0.98</v>
+        <v>1.17</v>
       </c>
       <c r="D15" t="n">
-        <v>2.351</v>
+        <v>1.673</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -4164,93 +4164,93 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.65</v>
+        <v>5.2</v>
       </c>
       <c r="C16" t="n">
-        <v>0.73</v>
+        <v>0.77</v>
       </c>
       <c r="D16" t="n">
-        <v>5.755</v>
+        <v>1.517</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.09</v>
+        <v>5.125</v>
       </c>
       <c r="C17" t="n">
-        <v>0.88</v>
+        <v>0.57</v>
       </c>
       <c r="D17" t="n">
-        <v>0.194</v>
+        <v>4.542</v>
       </c>
       <c r="E17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.13</v>
+        <v>5.003333333333334</v>
       </c>
       <c r="C18" t="n">
-        <v>0.88</v>
+        <v>1.13</v>
       </c>
       <c r="D18" t="n">
-        <v>5.756</v>
+        <v>10.168</v>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.84</v>
+        <v>4.47</v>
       </c>
       <c r="C19" t="n">
-        <v>1.09</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>5.767</v>
+        <v>8.277999999999999</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3.253333333333333</v>
+        <v>4.456666666666666</v>
       </c>
       <c r="C20" t="n">
-        <v>1.19</v>
+        <v>0.8366666666666666</v>
       </c>
       <c r="D20" t="n">
-        <v>10.645</v>
+        <v>9.619999999999999</v>
       </c>
       <c r="E20" t="n">
         <v>3</v>
@@ -4259,74 +4259,74 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.12</v>
+        <v>1.86</v>
       </c>
       <c r="C21" t="n">
-        <v>0.59</v>
+        <v>0.89</v>
       </c>
       <c r="D21" t="n">
-        <v>4.574</v>
+        <v>0.188</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.4520000000000001</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.01</v>
+        <v>1.7</v>
       </c>
       <c r="D22" t="n">
-        <v>5.859</v>
+        <v>13.771</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.4</v>
+        <v>-0.7300000000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3</v>
+        <v>0.8400000000000001</v>
       </c>
       <c r="D23" t="n">
-        <v>0.847</v>
+        <v>5.85</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.57</v>
+        <v>-2.07</v>
       </c>
       <c r="C24" t="n">
-        <v>0.59</v>
+        <v>0.85</v>
       </c>
       <c r="D24" t="n">
-        <v>2.197</v>
+        <v>0.118</v>
       </c>
       <c r="E24" t="n">
         <v>1</v>
@@ -4335,17 +4335,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-2.97</v>
+        <v>-3.95</v>
       </c>
       <c r="C25" t="n">
-        <v>0.91</v>
+        <v>0.84</v>
       </c>
       <c r="D25" t="n">
-        <v>0.122</v>
+        <v>1.444</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -4358,13 +4358,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-4.745</v>
+        <v>-4.819999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7275</v>
+        <v>0.74</v>
       </c>
       <c r="D26" t="n">
-        <v>22.263</v>
+        <v>22.071</v>
       </c>
       <c r="E26" t="n">
         <v>4</v>
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-5.046666666666666</v>
+        <v>-5.636666666666667</v>
       </c>
       <c r="C27" t="n">
-        <v>0.77</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="D27" t="n">
-        <v>2.965</v>
+        <v>2.888</v>
       </c>
       <c r="E27" t="n">
         <v>3</v>
@@ -4392,36 +4392,36 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-5.53</v>
+        <v>-6.165</v>
       </c>
       <c r="C28" t="n">
-        <v>1.82</v>
+        <v>1.13</v>
       </c>
       <c r="D28" t="n">
-        <v>13.662</v>
+        <v>14.591</v>
       </c>
       <c r="E28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.23</v>
+        <v>-7.35</v>
       </c>
       <c r="C29" t="n">
-        <v>0.97</v>
+        <v>0.82</v>
       </c>
       <c r="D29" t="n">
-        <v>1.434</v>
+        <v>2.224</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -4430,20 +4430,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-7.175</v>
+        <v>-7.74</v>
       </c>
       <c r="C30" t="n">
-        <v>1.175</v>
+        <v>0.25</v>
       </c>
       <c r="D30" t="n">
-        <v>14.431</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="E30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -4453,13 +4453,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-10.02</v>
+        <v>-10.93</v>
       </c>
       <c r="C31" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="D31" t="n">
-        <v>0.083</v>
+        <v>0.08</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -4468,17 +4468,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-12.48</v>
+        <v>-11.79</v>
       </c>
       <c r="C32" t="n">
-        <v>0.93</v>
+        <v>0.67</v>
       </c>
       <c r="D32" t="n">
-        <v>2.157</v>
+        <v>1.998</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -4592,38 +4592,38 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>2020</v>
+        <v>1895</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.7</v>
+        <v>-6.19</v>
       </c>
       <c r="F2" t="n">
-        <v>18.82</v>
+        <v>16.26</v>
       </c>
       <c r="G2" t="n">
-        <v>55.04</v>
+        <v>46.79</v>
       </c>
       <c r="H2" t="n">
-        <v>167.6269</v>
+        <v>143.7976</v>
       </c>
       <c r="I2" t="n">
-        <v>52.9</v>
+        <v>33.6</v>
       </c>
       <c r="J2" t="n">
-        <v>24.2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.449999999999999</v>
+        <v>9.25</v>
       </c>
       <c r="L2" t="n">
-        <v>6.9</v>
+        <v>126</v>
       </c>
       <c r="M2" t="n">
-        <v>1.55</v>
+        <v>1.62</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>👀 WATCH</t>
+          <t>❌ EXIT</t>
         </is>
       </c>
     </row>
@@ -4644,34 +4644,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1770</v>
+        <v>1710</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.67</v>
+        <v>-3.39</v>
       </c>
       <c r="F3" t="n">
-        <v>22.49</v>
+        <v>20.42</v>
       </c>
       <c r="G3" t="n">
-        <v>73.87</v>
+        <v>68.91</v>
       </c>
       <c r="H3" t="n">
-        <v>93.086</v>
+        <v>88.1414</v>
       </c>
       <c r="I3" t="n">
-        <v>75.7</v>
+        <v>63.8</v>
       </c>
       <c r="J3" t="n">
-        <v>91</v>
+        <v>73.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>4.08</v>
+        <v>4.37</v>
       </c>
       <c r="L3" t="n">
-        <v>51</v>
+        <v>2.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -4696,38 +4696,38 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>66.5</v>
+        <v>61</v>
       </c>
       <c r="E4" t="n">
-        <v>-5.14</v>
+        <v>-8.27</v>
       </c>
       <c r="F4" t="n">
-        <v>28.63</v>
+        <v>14.88</v>
       </c>
       <c r="G4" t="n">
-        <v>67.45</v>
+        <v>59.16</v>
       </c>
       <c r="H4" t="n">
-        <v>5.069</v>
+        <v>4.5069</v>
       </c>
       <c r="I4" t="n">
-        <v>71.09999999999999</v>
+        <v>55.9</v>
       </c>
       <c r="J4" t="n">
-        <v>64.90000000000001</v>
+        <v>45.3</v>
       </c>
       <c r="K4" t="n">
-        <v>6.39</v>
+        <v>7.3</v>
       </c>
       <c r="L4" t="n">
-        <v>-67.09999999999999</v>
+        <v>-61.8</v>
       </c>
       <c r="M4" t="n">
-        <v>1.5</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>⚠️ TAKE PROFIT</t>
+          <t>👀 WATCH</t>
         </is>
       </c>
     </row>
@@ -4748,34 +4748,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>63.2</v>
+        <v>60.8</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.62</v>
+        <v>-3.8</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.4</v>
+        <v>-7.74</v>
       </c>
       <c r="G5" t="n">
-        <v>33.91</v>
+        <v>23.87</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.0211</v>
+        <v>-1.5708</v>
       </c>
       <c r="I5" t="n">
-        <v>9.4</v>
+        <v>2.9</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>6.67</v>
+        <v>6.56</v>
       </c>
       <c r="L5" t="n">
-        <v>-80.3</v>
+        <v>-81.59999999999999</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3</v>
+        <v>0.25</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -4800,34 +4800,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>170.5</v>
+        <v>164.5</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.06</v>
+        <v>-3.52</v>
       </c>
       <c r="F6" t="n">
-        <v>13.67</v>
+        <v>11.53</v>
       </c>
       <c r="G6" t="n">
-        <v>50</v>
+        <v>48.24</v>
       </c>
       <c r="H6" t="n">
-        <v>5.1708</v>
+        <v>4.3045</v>
       </c>
       <c r="I6" t="n">
-        <v>55.2</v>
+        <v>33</v>
       </c>
       <c r="J6" t="n">
-        <v>50</v>
+        <v>28.6</v>
       </c>
       <c r="K6" t="n">
-        <v>7.21</v>
+        <v>7.51</v>
       </c>
       <c r="L6" t="n">
-        <v>7.4</v>
+        <v>-35.5</v>
       </c>
       <c r="M6" t="n">
-        <v>0.95</v>
+        <v>1.01</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -4852,34 +4852,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>215.5</v>
+        <v>215</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.6</v>
+        <v>-0.23</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.1</v>
+        <v>-6.72</v>
       </c>
       <c r="G7" t="n">
-        <v>28.89</v>
+        <v>32.1</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.1331</v>
+        <v>-3.0809</v>
       </c>
       <c r="I7" t="n">
-        <v>12.9</v>
+        <v>15</v>
       </c>
       <c r="J7" t="n">
-        <v>6.7</v>
+        <v>4.5</v>
       </c>
       <c r="K7" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="L7" t="n">
-        <v>-14.2</v>
+        <v>10.3</v>
       </c>
       <c r="M7" t="n">
-        <v>0.98</v>
+        <v>0.91</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -495,13 +495,13 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>304.5</v>
+        <v>327</v>
       </c>
       <c r="E2" t="n">
-        <v>7.22</v>
+        <v>7.39</v>
       </c>
       <c r="F2" t="n">
-        <v>228</v>
+        <v>156</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,33 +509,33 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6.674</v>
+        <v>7.341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1895</v>
+        <v>118.5</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.19</v>
+        <v>1.72</v>
       </c>
       <c r="F3" t="n">
-        <v>226</v>
+        <v>130</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,33 +543,33 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>13.24</v>
+        <v>1.197</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>306.5</v>
+        <v>126</v>
       </c>
       <c r="E4" t="n">
-        <v>-8.1</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
-        <v>185</v>
+        <v>128</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -577,33 +577,33 @@
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4.328</v>
+        <v>6.322</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>1850</v>
+        <v>63.8</v>
       </c>
       <c r="E5" t="n">
-        <v>3.06</v>
+        <v>0.47</v>
       </c>
       <c r="F5" t="n">
-        <v>182</v>
+        <v>122</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,33 +611,33 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2.578</v>
+        <v>15.256</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>264</v>
+        <v>310.5</v>
       </c>
       <c r="E6" t="n">
-        <v>-4</v>
+        <v>1.31</v>
       </c>
       <c r="F6" t="n">
-        <v>180</v>
+        <v>117</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -645,67 +645,67 @@
         </is>
       </c>
       <c r="H6" t="n">
-        <v>19.283</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>97.8</v>
+        <v>1875</v>
       </c>
       <c r="E7" t="n">
-        <v>-4.59</v>
+        <v>1.35</v>
       </c>
       <c r="F7" t="n">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>13.771</v>
+        <v>2.723</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>63.5</v>
+        <v>274.5</v>
       </c>
       <c r="E8" t="n">
-        <v>1.11</v>
+        <v>3.98</v>
       </c>
       <c r="F8" t="n">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -713,67 +713,67 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>14.479</v>
+        <v>21.043</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>283.5</v>
+        <v>77.2</v>
       </c>
       <c r="E9" t="n">
-        <v>1.07</v>
+        <v>1.98</v>
       </c>
       <c r="F9" t="n">
-        <v>148</v>
+        <v>114</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5.976</v>
+        <v>1.701</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Macronix (MXIC)</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>80.8</v>
+        <v>1815</v>
       </c>
       <c r="E10" t="n">
-        <v>-8.08</v>
+        <v>1.97</v>
       </c>
       <c r="F10" t="n">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -781,67 +781,67 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>14.241</v>
+        <v>58.57</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>220</v>
+        <v>1830</v>
       </c>
       <c r="E11" t="n">
-        <v>-3.93</v>
+        <v>7.02</v>
       </c>
       <c r="F11" t="n">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.08</v>
+        <v>19.975</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>279.5</v>
+        <v>107.5</v>
       </c>
       <c r="E12" t="n">
-        <v>2.38</v>
+        <v>9.92</v>
       </c>
       <c r="F12" t="n">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -849,67 +849,67 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>4.441</v>
+        <v>15.665</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>120</v>
+        <v>173.5</v>
       </c>
       <c r="E13" t="n">
-        <v>5.73</v>
+        <v>5.47</v>
       </c>
       <c r="F13" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6.048</v>
+        <v>4.221</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>215</v>
+        <v>1925</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.23</v>
+        <v>1.58</v>
       </c>
       <c r="F14" t="n">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -917,67 +917,67 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>10.713</v>
+        <v>13.875</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>3115</v>
+        <v>291.5</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.01</v>
+        <v>2.82</v>
       </c>
       <c r="F15" t="n">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6.414</v>
+        <v>6.094</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>2375</v>
+        <v>157</v>
       </c>
       <c r="E16" t="n">
-        <v>1.5</v>
+        <v>-1.88</v>
       </c>
       <c r="F16" t="n">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -985,237 +985,237 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8.177</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1780</v>
+        <v>372</v>
       </c>
       <c r="E17" t="n">
-        <v>0.85</v>
+        <v>1.92</v>
       </c>
       <c r="F17" t="n">
-        <v>104</v>
+        <v>87</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>56.858</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>1710</v>
+        <v>3285</v>
       </c>
       <c r="E18" t="n">
-        <v>-3.39</v>
+        <v>5.46</v>
       </c>
       <c r="F18" t="n">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>18.021</v>
+        <v>6.786</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>221</v>
+        <v>52</v>
       </c>
       <c r="E19" t="n">
-        <v>0.91</v>
+        <v>0.78</v>
       </c>
       <c r="F19" t="n">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3.544</v>
+        <v>1.435</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>210.5</v>
+        <v>93.8</v>
       </c>
       <c r="E20" t="n">
-        <v>-7.27</v>
+        <v>1.52</v>
       </c>
       <c r="F20" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>2.296</v>
+        <v>1.617</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>30.8</v>
+        <v>284</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.65</v>
+        <v>1.61</v>
       </c>
       <c r="F21" t="n">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.118</v>
+        <v>4.396</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>365</v>
+        <v>39.8</v>
       </c>
       <c r="E22" t="n">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.444</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>75.7</v>
+        <v>23.75</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.39</v>
+        <v>0.42</v>
       </c>
       <c r="F23" t="n">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1223,135 +1223,135 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.642</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1160</v>
+        <v>173</v>
       </c>
       <c r="E24" t="n">
-        <v>0.87</v>
+        <v>5.17</v>
       </c>
       <c r="F24" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>14.265</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>116.5</v>
+        <v>38.8</v>
       </c>
       <c r="E25" t="n">
-        <v>2.19</v>
+        <v>0.52</v>
       </c>
       <c r="F25" t="n">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.161</v>
+        <v>1.379</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>472.5</v>
+        <v>1180</v>
       </c>
       <c r="E26" t="n">
-        <v>2.05</v>
+        <v>1.72</v>
       </c>
       <c r="F26" t="n">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>2.224</v>
+        <v>14.359</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>219.5</v>
+        <v>30.65</v>
       </c>
       <c r="E27" t="n">
-        <v>-8.539999999999999</v>
+        <v>-0.49</v>
       </c>
       <c r="F27" t="n">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1359,33 +1359,33 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>6.366</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>35.6</v>
+        <v>131</v>
       </c>
       <c r="E28" t="n">
-        <v>-4.17</v>
+        <v>1.55</v>
       </c>
       <c r="F28" t="n">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1393,67 +1393,67 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.188</v>
+        <v>5.099</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>51.6</v>
+        <v>209.5</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.19</v>
+        <v>-0.48</v>
       </c>
       <c r="F29" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1.424</v>
+        <v>2.158</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>43.8</v>
+        <v>2445</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.57</v>
+        <v>2.95</v>
       </c>
       <c r="F30" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1461,101 +1461,101 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1.789</v>
+        <v>8.411</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Macronix (MXIC)</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>52.2</v>
+        <v>88.8</v>
       </c>
       <c r="E31" t="n">
-        <v>-1.14</v>
+        <v>9.9</v>
       </c>
       <c r="F31" t="n">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.647</v>
+        <v>15.932</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>92.40000000000001</v>
+        <v>22.8</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.18</v>
+        <v>0.66</v>
       </c>
       <c r="F32" t="n">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1.591</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>45.75</v>
+        <v>236.5</v>
       </c>
       <c r="E33" t="n">
-        <v>-3.07</v>
+        <v>7.74</v>
       </c>
       <c r="F33" t="n">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1563,33 +1563,33 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2.295</v>
+        <v>6.439</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>129</v>
+        <v>218.5</v>
       </c>
       <c r="E34" t="n">
-        <v>1.18</v>
+        <v>1.63</v>
       </c>
       <c r="F34" t="n">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1597,67 +1597,67 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>5.128</v>
+        <v>10.873</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>39.8</v>
+        <v>470.5</v>
       </c>
       <c r="E35" t="n">
-        <v>0.25</v>
+        <v>-0.42</v>
       </c>
       <c r="F35" t="n">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.793</v>
+        <v>2.179</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>23.65</v>
+        <v>115.5</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.42</v>
+        <v>3.59</v>
       </c>
       <c r="F36" t="n">
-        <v>71</v>
+        <v>58</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1665,33 +1665,33 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.4</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>38.6</v>
+        <v>46.65</v>
       </c>
       <c r="E37" t="n">
-        <v>0.39</v>
+        <v>1.97</v>
       </c>
       <c r="F37" t="n">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1699,33 +1699,33 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.388</v>
+        <v>2.342</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>164.5</v>
+        <v>62.4</v>
       </c>
       <c r="E38" t="n">
-        <v>-3.52</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F38" t="n">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1733,33 +1733,33 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>2.727</v>
+        <v>16.212</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1235</v>
+        <v>223.5</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.59</v>
+        <v>1.13</v>
       </c>
       <c r="F39" t="n">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1767,33 +1767,33 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1.998</v>
+        <v>3.406</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>73.90000000000001</v>
+        <v>186.5</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.2</v>
+        <v>-0.53</v>
       </c>
       <c r="F40" t="n">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1801,109 +1801,109 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.466</v>
+        <v>1.741</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>20.4</v>
+        <v>52.2</v>
       </c>
       <c r="E41" t="n">
-        <v>-2.63</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>1.673</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>111.5</v>
+        <v>20.35</v>
       </c>
       <c r="E42" t="n">
-        <v>-4.29</v>
+        <v>-0.25</v>
       </c>
       <c r="F42" t="n">
-        <v>62</v>
+        <v>46</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>0.527</v>
+        <v>1.627</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>22.65</v>
+        <v>224.5</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.44</v>
+        <v>2.05</v>
       </c>
       <c r="F43" t="n">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.859</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="44">
@@ -1923,13 +1923,13 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>239.5</v>
+        <v>243</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.84</v>
+        <v>1.46</v>
       </c>
       <c r="F44" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1937,33 +1937,33 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>5.188</v>
+        <v>5.063</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>160</v>
+        <v>1230</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.23</v>
+        <v>-0.4</v>
       </c>
       <c r="F45" t="n">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1971,33 +1971,33 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>0.525</v>
+        <v>1.852</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>164.5</v>
+        <v>73.8</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.6</v>
+        <v>-0.14</v>
       </c>
       <c r="F46" t="n">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2005,33 +2005,33 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3.88</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>466</v>
+        <v>35.7</v>
       </c>
       <c r="E47" t="n">
-        <v>0.43</v>
+        <v>0.28</v>
       </c>
       <c r="F47" t="n">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2039,33 +2039,33 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>3.381</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>61.9</v>
+        <v>53.6</v>
       </c>
       <c r="E48" t="n">
-        <v>0.65</v>
+        <v>3.08</v>
       </c>
       <c r="F48" t="n">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2073,33 +2073,33 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>16.228</v>
+        <v>2.767</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>187.5</v>
+        <v>44.8</v>
       </c>
       <c r="E49" t="n">
-        <v>0.27</v>
+        <v>2.28</v>
       </c>
       <c r="F49" t="n">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2107,75 +2107,75 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1.775</v>
+        <v>1.841</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>61</v>
+        <v>478</v>
       </c>
       <c r="E50" t="n">
-        <v>-8.27</v>
+        <v>2.58</v>
       </c>
       <c r="F50" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0.992</v>
+        <v>3.317</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>52</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E51" t="n">
-        <v>-2.07</v>
+        <v>6.72</v>
       </c>
       <c r="F51" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>3.09</v>
+        <v>1.048</v>
       </c>
     </row>
     <row r="52">
@@ -2195,13 +2195,13 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>60.8</v>
+        <v>62.8</v>
       </c>
       <c r="E52" t="n">
-        <v>-3.8</v>
+        <v>3.29</v>
       </c>
       <c r="F52" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.821</v>
       </c>
     </row>
   </sheetData>
@@ -2290,13 +2290,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>38.59</v>
+        <v>45.1</v>
       </c>
       <c r="F2" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="G2" t="n">
-        <v>14.241</v>
+        <v>15.932</v>
       </c>
     </row>
     <row r="3">
@@ -2321,261 +2321,261 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>33.68</v>
+        <v>28.11</v>
       </c>
       <c r="F3" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="G3" t="n">
-        <v>14.479</v>
+        <v>15.256</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>21.38</v>
+        <v>26.64</v>
       </c>
       <c r="F4" t="n">
-        <v>1.62</v>
+        <v>1.11</v>
       </c>
       <c r="G4" t="n">
-        <v>19.283</v>
+        <v>19.975</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>20.42</v>
+        <v>22.6</v>
       </c>
       <c r="F5" t="n">
-        <v>1.09</v>
+        <v>0.33</v>
       </c>
       <c r="G5" t="n">
-        <v>18.021</v>
+        <v>1.048</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>19.75</v>
+        <v>15.55</v>
       </c>
       <c r="F6" t="n">
-        <v>0.53</v>
+        <v>1.39</v>
       </c>
       <c r="G6" t="n">
-        <v>5.188</v>
+        <v>7.341</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>19.03</v>
+        <v>14.85</v>
       </c>
       <c r="F7" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="G7" t="n">
-        <v>4.328</v>
+        <v>21.043</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>16.26</v>
+        <v>13.32</v>
       </c>
       <c r="F8" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="G8" t="n">
-        <v>13.24</v>
+        <v>4.61</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>14.88</v>
+        <v>12.84</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.49</v>
       </c>
       <c r="G9" t="n">
-        <v>0.992</v>
+        <v>16.212</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>14.29</v>
+        <v>12.41</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9</v>
+        <v>0.58</v>
       </c>
       <c r="G10" t="n">
-        <v>14.265</v>
+        <v>2.342</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>12.34</v>
+        <v>11.85</v>
       </c>
       <c r="F11" t="n">
-        <v>0.53</v>
+        <v>0.85</v>
       </c>
       <c r="G11" t="n">
-        <v>16.228</v>
+        <v>14.359</v>
       </c>
     </row>
     <row r="12">
@@ -2600,292 +2600,292 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>12.12</v>
+        <v>10.62</v>
       </c>
       <c r="F12" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="G12" t="n">
-        <v>2.578</v>
+        <v>2.723</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>11.95</v>
+        <v>10.45</v>
       </c>
       <c r="F13" t="n">
-        <v>1.23</v>
+        <v>0.53</v>
       </c>
       <c r="G13" t="n">
-        <v>6.674</v>
+        <v>5.063</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.59</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0.66</v>
+        <v>0.68</v>
       </c>
       <c r="G14" t="n">
-        <v>2.295</v>
+        <v>0.869</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.53</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="F15" t="n">
-        <v>1.01</v>
+        <v>1.57</v>
       </c>
       <c r="G15" t="n">
-        <v>2.727</v>
+        <v>13.875</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>10.76</v>
+        <v>7.96</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="G16" t="n">
-        <v>0.859</v>
+        <v>6.094</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>10.6</v>
+        <v>7.4</v>
       </c>
       <c r="F17" t="n">
-        <v>0.84</v>
+        <v>0.93</v>
       </c>
       <c r="G17" t="n">
-        <v>6.048</v>
+        <v>58.57</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>8.5</v>
+        <v>6.79</v>
       </c>
       <c r="F18" t="n">
-        <v>0.57</v>
+        <v>1.05</v>
       </c>
       <c r="G18" t="n">
-        <v>3.381</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>7.59</v>
+        <v>5.88</v>
       </c>
       <c r="F19" t="n">
-        <v>0.85</v>
+        <v>0.96</v>
       </c>
       <c r="G19" t="n">
-        <v>5.976</v>
+        <v>6.322</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>7.37</v>
+        <v>5.47</v>
       </c>
       <c r="F20" t="n">
-        <v>1.17</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>1.673</v>
+        <v>4.221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.95</v>
+        <v>5.39</v>
       </c>
       <c r="F21" t="n">
-        <v>0.89</v>
+        <v>1.63</v>
       </c>
       <c r="G21" t="n">
-        <v>56.858</v>
+        <v>15.665</v>
       </c>
     </row>
     <row r="22">
@@ -2910,44 +2910,44 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5.61</v>
+        <v>4.58</v>
       </c>
       <c r="F22" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G22" t="n">
-        <v>1.388</v>
+        <v>1.379</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.47</v>
+        <v>4.09</v>
       </c>
       <c r="F23" t="n">
-        <v>1.06</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G23" t="n">
-        <v>2.296</v>
+        <v>1.627</v>
       </c>
     </row>
     <row r="24">
@@ -2972,44 +2972,44 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.82</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
-        <v>0.85</v>
+        <v>0.83</v>
       </c>
       <c r="G24" t="n">
-        <v>1.424</v>
+        <v>1.435</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2.81</v>
+        <v>3.71</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9</v>
+        <v>1.01</v>
       </c>
       <c r="G25" t="n">
-        <v>3.88</v>
+        <v>2.158</v>
       </c>
     </row>
     <row r="26">
@@ -3034,261 +3034,261 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.1</v>
+        <v>2.63</v>
       </c>
       <c r="F26" t="n">
-        <v>0.49</v>
+        <v>0.47</v>
       </c>
       <c r="G26" t="n">
-        <v>1.789</v>
+        <v>1.841</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.86</v>
+        <v>1.5</v>
       </c>
       <c r="F27" t="n">
-        <v>0.89</v>
+        <v>0.83</v>
       </c>
       <c r="G27" t="n">
-        <v>0.188</v>
+        <v>6.439</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.75</v>
+        <v>1.45</v>
       </c>
       <c r="F28" t="n">
-        <v>0.57</v>
+        <v>0.78</v>
       </c>
       <c r="G28" t="n">
-        <v>1.161</v>
+        <v>1.701</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.39</v>
+        <v>1.27</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8</v>
+        <v>0.52</v>
       </c>
       <c r="G29" t="n">
-        <v>6.366</v>
+        <v>3.317</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.45</v>
+        <v>1.25</v>
       </c>
       <c r="F30" t="n">
-        <v>0.7</v>
+        <v>0.84</v>
       </c>
       <c r="G30" t="n">
-        <v>0.527</v>
+        <v>4.396</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0.42</v>
+        <v>1.13</v>
       </c>
       <c r="F31" t="n">
-        <v>1.22</v>
+        <v>0.83</v>
       </c>
       <c r="G31" t="n">
-        <v>8.177</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="F32" t="n">
-        <v>1.7</v>
+        <v>0.71</v>
       </c>
       <c r="G32" t="n">
-        <v>13.771</v>
+        <v>0.531</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-0.26</v>
+        <v>0.41</v>
       </c>
       <c r="F33" t="n">
-        <v>0.83</v>
+        <v>1.07</v>
       </c>
       <c r="G33" t="n">
-        <v>1.642</v>
+        <v>8.411</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-1.24</v>
+        <v>-0.84</v>
       </c>
       <c r="F34" t="n">
-        <v>0.87</v>
+        <v>0.67</v>
       </c>
       <c r="G34" t="n">
-        <v>4.441</v>
+        <v>1.197</v>
       </c>
     </row>
     <row r="35">
@@ -3313,60 +3313,60 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1.87</v>
+        <v>-0.84</v>
       </c>
       <c r="F35" t="n">
-        <v>0.83</v>
+        <v>0.75</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-2.07</v>
+        <v>-1.24</v>
       </c>
       <c r="F36" t="n">
-        <v>0.85</v>
+        <v>0.72</v>
       </c>
       <c r="G36" t="n">
-        <v>0.118</v>
+        <v>0.797</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3375,199 +3375,199 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-2.09</v>
+        <v>-1.26</v>
       </c>
       <c r="F37" t="n">
-        <v>0.76</v>
+        <v>0.84</v>
       </c>
       <c r="G37" t="n">
-        <v>0.793</v>
+        <v>1.617</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-3.1</v>
+        <v>-2.87</v>
       </c>
       <c r="F38" t="n">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="G38" t="n">
-        <v>1.775</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-3.25</v>
+        <v>-3.16</v>
       </c>
       <c r="F39" t="n">
-        <v>0.93</v>
+        <v>0.8</v>
       </c>
       <c r="G39" t="n">
-        <v>1.591</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-3.95</v>
+        <v>-4.38</v>
       </c>
       <c r="F40" t="n">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="G40" t="n">
-        <v>1.444</v>
+        <v>10.873</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-4.48</v>
+        <v>-4.6</v>
       </c>
       <c r="F41" t="n">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="G41" t="n">
-        <v>0.525</v>
+        <v>1.741</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-6.69</v>
+        <v>-5.7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.7</v>
+        <v>0.74</v>
       </c>
       <c r="G42" t="n">
-        <v>0.466</v>
+        <v>3.406</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-6.72</v>
+        <v>-6.55</v>
       </c>
       <c r="F43" t="n">
-        <v>0.91</v>
+        <v>0.2</v>
       </c>
       <c r="G43" t="n">
-        <v>10.713</v>
+        <v>0.821</v>
       </c>
     </row>
     <row r="44">
@@ -3592,106 +3592,106 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-7.12</v>
+        <v>-6.95</v>
       </c>
       <c r="F44" t="n">
-        <v>0.66</v>
+        <v>0.6</v>
       </c>
       <c r="G44" t="n">
-        <v>0.647</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-7.35</v>
+        <v>-7.29</v>
       </c>
       <c r="F45" t="n">
-        <v>0.82</v>
+        <v>0.58</v>
       </c>
       <c r="G45" t="n">
-        <v>2.224</v>
+        <v>0.461</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-7.74</v>
+        <v>-7.92</v>
       </c>
       <c r="F46" t="n">
-        <v>0.25</v>
+        <v>0.54</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.518</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-8.49</v>
+        <v>-8.92</v>
       </c>
       <c r="F47" t="n">
-        <v>0.76</v>
+        <v>0.87</v>
       </c>
       <c r="G47" t="n">
-        <v>3.544</v>
+        <v>0.081</v>
       </c>
     </row>
     <row r="48">
@@ -3716,137 +3716,137 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-10.81</v>
+        <v>-9.460000000000001</v>
       </c>
       <c r="F48" t="n">
-        <v>0.34</v>
+        <v>0.37</v>
       </c>
       <c r="G48" t="n">
-        <v>3.09</v>
+        <v>2.767</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-10.93</v>
+        <v>-9.5</v>
       </c>
       <c r="F49" t="n">
-        <v>0.96</v>
+        <v>1.03</v>
       </c>
       <c r="G49" t="n">
-        <v>0.08</v>
+        <v>6.786</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-11.79</v>
+        <v>-10.27</v>
       </c>
       <c r="F50" t="n">
-        <v>0.67</v>
+        <v>0.7</v>
       </c>
       <c r="G50" t="n">
-        <v>1.998</v>
+        <v>5.099</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-12.75</v>
+        <v>-10.87</v>
       </c>
       <c r="F51" t="n">
-        <v>1.04</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G51" t="n">
-        <v>6.414</v>
+        <v>1.852</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-13.42</v>
+        <v>-12.71</v>
       </c>
       <c r="F52" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="G52" t="n">
-        <v>5.128</v>
+        <v>2.179</v>
       </c>
     </row>
   </sheetData>
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38.59</v>
+        <v>45.1</v>
       </c>
       <c r="C2" t="n">
-        <v>1.54</v>
+        <v>1.38</v>
       </c>
       <c r="D2" t="n">
-        <v>14.241</v>
+        <v>15.932</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3921,13 +3921,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>33.68</v>
+        <v>28.11</v>
       </c>
       <c r="C3" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="D3" t="n">
-        <v>14.479</v>
+        <v>15.256</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3936,17 +3936,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>21.38</v>
+        <v>26.64</v>
       </c>
       <c r="C4" t="n">
-        <v>1.62</v>
+        <v>1.11</v>
       </c>
       <c r="D4" t="n">
-        <v>19.283</v>
+        <v>19.975</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3955,17 +3955,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.42</v>
+        <v>15.55</v>
       </c>
       <c r="C5" t="n">
-        <v>1.09</v>
+        <v>1.39</v>
       </c>
       <c r="D5" t="n">
-        <v>18.021</v>
+        <v>7.341</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3974,17 +3974,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16.26</v>
+        <v>14.85</v>
       </c>
       <c r="C6" t="n">
-        <v>1.62</v>
+        <v>1.52</v>
       </c>
       <c r="D6" t="n">
-        <v>13.24</v>
+        <v>21.043</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -3993,17 +3993,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.12</v>
+        <v>12.41</v>
       </c>
       <c r="C7" t="n">
-        <v>1.08</v>
+        <v>0.58</v>
       </c>
       <c r="D7" t="n">
-        <v>2.578</v>
+        <v>2.342</v>
       </c>
       <c r="E7" t="n">
         <v>1</v>
@@ -4012,17 +4012,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.95</v>
+        <v>10.62</v>
       </c>
       <c r="C8" t="n">
-        <v>1.23</v>
+        <v>1.07</v>
       </c>
       <c r="D8" t="n">
-        <v>6.674</v>
+        <v>2.723</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -4031,93 +4031,93 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>11.59</v>
+        <v>10.12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.66</v>
+        <v>0.71</v>
       </c>
       <c r="D9" t="n">
-        <v>2.295</v>
+        <v>74.782</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.6</v>
+        <v>8.66</v>
       </c>
       <c r="C10" t="n">
-        <v>0.84</v>
+        <v>0.895</v>
       </c>
       <c r="D10" t="n">
-        <v>6.048</v>
+        <v>18.58</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.145</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.71</v>
+        <v>1.57</v>
       </c>
       <c r="D11" t="n">
-        <v>73.086</v>
+        <v>13.875</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.549999999999999</v>
+        <v>7.96</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="D12" t="n">
-        <v>18.145</v>
+        <v>6.094</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.185</v>
+        <v>7.340000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>0.695</v>
+        <v>0.4350000000000001</v>
       </c>
       <c r="D13" t="n">
-        <v>2.247</v>
+        <v>1.566</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -4126,36 +4126,36 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.59</v>
+        <v>7.23</v>
       </c>
       <c r="C14" t="n">
-        <v>0.85</v>
+        <v>0.71</v>
       </c>
       <c r="D14" t="n">
-        <v>5.976</v>
+        <v>2.248</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.37</v>
+        <v>5.88</v>
       </c>
       <c r="C15" t="n">
-        <v>1.17</v>
+        <v>0.96</v>
       </c>
       <c r="D15" t="n">
-        <v>1.673</v>
+        <v>6.322</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -4164,39 +4164,39 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.2</v>
+        <v>5.39</v>
       </c>
       <c r="C16" t="n">
-        <v>0.77</v>
+        <v>1.63</v>
       </c>
       <c r="D16" t="n">
-        <v>1.517</v>
+        <v>15.665</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>5.125</v>
+        <v>4.09</v>
       </c>
       <c r="C17" t="n">
-        <v>0.57</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D17" t="n">
-        <v>4.542</v>
+        <v>1.627</v>
       </c>
       <c r="E17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -4206,13 +4206,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>5.003333333333334</v>
+        <v>3.776666666666667</v>
       </c>
       <c r="C18" t="n">
-        <v>1.13</v>
+        <v>1.09</v>
       </c>
       <c r="D18" t="n">
-        <v>10.168</v>
+        <v>10.174</v>
       </c>
       <c r="E18" t="n">
         <v>3</v>
@@ -4221,115 +4221,115 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.47</v>
+        <v>2.906666666666667</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4350000000000001</v>
+        <v>0.8633333333333333</v>
       </c>
       <c r="D19" t="n">
-        <v>8.277999999999999</v>
+        <v>9.790000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>4.456666666666666</v>
+        <v>1.13</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8366666666666666</v>
+        <v>0.83</v>
       </c>
       <c r="D20" t="n">
-        <v>9.619999999999999</v>
+        <v>0.186</v>
       </c>
       <c r="E20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.86</v>
+        <v>0.4949999999999992</v>
       </c>
       <c r="C21" t="n">
-        <v>0.89</v>
+        <v>0.45</v>
       </c>
       <c r="D21" t="n">
-        <v>0.188</v>
+        <v>7.83</v>
       </c>
       <c r="E21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.422</v>
       </c>
       <c r="C22" t="n">
-        <v>1.7</v>
+        <v>0.784</v>
       </c>
       <c r="D22" t="n">
-        <v>13.771</v>
+        <v>5.949</v>
       </c>
       <c r="E22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.7300000000000001</v>
+        <v>0.215</v>
       </c>
       <c r="C23" t="n">
-        <v>0.8400000000000001</v>
+        <v>0.595</v>
       </c>
       <c r="D23" t="n">
-        <v>5.85</v>
+        <v>4.514</v>
       </c>
       <c r="E23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-2.07</v>
+        <v>-2.6925</v>
       </c>
       <c r="C24" t="n">
-        <v>0.85</v>
+        <v>0.6975</v>
       </c>
       <c r="D24" t="n">
-        <v>0.118</v>
+        <v>22.209</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -4339,13 +4339,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-3.95</v>
+        <v>-2.87</v>
       </c>
       <c r="C25" t="n">
-        <v>0.84</v>
+        <v>0.83</v>
       </c>
       <c r="D25" t="n">
-        <v>1.444</v>
+        <v>1.48</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -4354,74 +4354,74 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-4.819999999999999</v>
+        <v>-3.16</v>
       </c>
       <c r="C26" t="n">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="D26" t="n">
-        <v>22.071</v>
+        <v>0.114</v>
       </c>
       <c r="E26" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-5.636666666666667</v>
+        <v>-4.545</v>
       </c>
       <c r="C27" t="n">
-        <v>0.6666666666666666</v>
+        <v>1.05</v>
       </c>
       <c r="D27" t="n">
-        <v>2.888</v>
+        <v>15.197</v>
       </c>
       <c r="E27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-6.165</v>
+        <v>-6.28</v>
       </c>
       <c r="C28" t="n">
-        <v>1.13</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="D28" t="n">
-        <v>14.591</v>
+        <v>2.836</v>
       </c>
       <c r="E28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-7.35</v>
+        <v>-6.55</v>
       </c>
       <c r="C29" t="n">
-        <v>0.82</v>
+        <v>0.2</v>
       </c>
       <c r="D29" t="n">
-        <v>2.224</v>
+        <v>0.821</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -4430,17 +4430,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-7.74</v>
+        <v>-8.92</v>
       </c>
       <c r="C30" t="n">
-        <v>0.25</v>
+        <v>0.87</v>
       </c>
       <c r="D30" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.081</v>
       </c>
       <c r="E30" t="n">
         <v>1</v>
@@ -4449,17 +4449,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-10.93</v>
+        <v>-10.87</v>
       </c>
       <c r="C31" t="n">
-        <v>0.96</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>0.08</v>
+        <v>1.852</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -4468,17 +4468,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-11.79</v>
+        <v>-12.71</v>
       </c>
       <c r="C32" t="n">
-        <v>0.67</v>
+        <v>0.82</v>
       </c>
       <c r="D32" t="n">
-        <v>1.998</v>
+        <v>2.179</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -4592,38 +4592,38 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1895</v>
+        <v>1925</v>
       </c>
       <c r="E2" t="n">
-        <v>-6.19</v>
+        <v>1.58</v>
       </c>
       <c r="F2" t="n">
-        <v>16.26</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="G2" t="n">
-        <v>46.79</v>
+        <v>46.99</v>
       </c>
       <c r="H2" t="n">
-        <v>143.7976</v>
+        <v>123.1934</v>
       </c>
       <c r="I2" t="n">
-        <v>33.6</v>
+        <v>36.2</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="K2" t="n">
-        <v>9.25</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>126</v>
+        <v>5.5</v>
       </c>
       <c r="M2" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>❌ EXIT</t>
+          <t>👀 WATCH</t>
         </is>
       </c>
     </row>
@@ -4644,38 +4644,38 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1710</v>
+        <v>1830</v>
       </c>
       <c r="E3" t="n">
-        <v>-3.39</v>
+        <v>7.02</v>
       </c>
       <c r="F3" t="n">
-        <v>20.42</v>
+        <v>26.64</v>
       </c>
       <c r="G3" t="n">
-        <v>68.91</v>
+        <v>74.13</v>
       </c>
       <c r="H3" t="n">
-        <v>88.1414</v>
+        <v>90.72450000000001</v>
       </c>
       <c r="I3" t="n">
-        <v>63.8</v>
+        <v>81.5</v>
       </c>
       <c r="J3" t="n">
-        <v>73.09999999999999</v>
+        <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>4.37</v>
+        <v>4.59</v>
       </c>
       <c r="L3" t="n">
-        <v>2.3</v>
+        <v>6.4</v>
       </c>
       <c r="M3" t="n">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>⚠️ TAKE PROFIT</t>
+          <t>👀 WATCH</t>
         </is>
       </c>
     </row>
@@ -4696,34 +4696,34 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>61</v>
+        <v>65.09999999999999</v>
       </c>
       <c r="E4" t="n">
-        <v>-8.27</v>
+        <v>6.72</v>
       </c>
       <c r="F4" t="n">
-        <v>14.88</v>
+        <v>22.6</v>
       </c>
       <c r="G4" t="n">
-        <v>59.16</v>
+        <v>63.26</v>
       </c>
       <c r="H4" t="n">
-        <v>4.5069</v>
+        <v>4.2539</v>
       </c>
       <c r="I4" t="n">
-        <v>55.9</v>
+        <v>65</v>
       </c>
       <c r="J4" t="n">
-        <v>45.3</v>
+        <v>59.9</v>
       </c>
       <c r="K4" t="n">
-        <v>7.3</v>
+        <v>7.29</v>
       </c>
       <c r="L4" t="n">
-        <v>-61.8</v>
+        <v>-76.7</v>
       </c>
       <c r="M4" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.33</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -4748,34 +4748,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>60.8</v>
+        <v>62.8</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.8</v>
+        <v>3.29</v>
       </c>
       <c r="F5" t="n">
-        <v>-7.74</v>
+        <v>-6.55</v>
       </c>
       <c r="G5" t="n">
-        <v>23.87</v>
+        <v>29.82</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.5708</v>
+        <v>-1.802</v>
       </c>
       <c r="I5" t="n">
-        <v>2.9</v>
+        <v>14.3</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.6</v>
       </c>
       <c r="K5" t="n">
-        <v>6.56</v>
+        <v>6.2</v>
       </c>
       <c r="L5" t="n">
-        <v>-81.59999999999999</v>
+        <v>-86.5</v>
       </c>
       <c r="M5" t="n">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -4800,34 +4800,34 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>164.5</v>
+        <v>173</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.52</v>
+        <v>5.17</v>
       </c>
       <c r="F6" t="n">
-        <v>11.53</v>
+        <v>6.79</v>
       </c>
       <c r="G6" t="n">
-        <v>48.24</v>
+        <v>43.72</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3045</v>
+        <v>4.3756</v>
       </c>
       <c r="I6" t="n">
-        <v>33</v>
+        <v>60.1</v>
       </c>
       <c r="J6" t="n">
-        <v>28.6</v>
+        <v>66</v>
       </c>
       <c r="K6" t="n">
-        <v>7.51</v>
+        <v>6.92</v>
       </c>
       <c r="L6" t="n">
-        <v>-35.5</v>
+        <v>-27.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
@@ -4852,34 +4852,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>215</v>
+        <v>218.5</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.23</v>
+        <v>1.63</v>
       </c>
       <c r="F7" t="n">
-        <v>-6.72</v>
+        <v>-4.38</v>
       </c>
       <c r="G7" t="n">
-        <v>32.1</v>
+        <v>43.42</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.0809</v>
+        <v>-3.0089</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>31.1</v>
       </c>
       <c r="J7" t="n">
-        <v>4.5</v>
+        <v>36.4</v>
       </c>
       <c r="K7" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="L7" t="n">
-        <v>10.3</v>
+        <v>-39.3</v>
       </c>
       <c r="M7" t="n">
-        <v>0.91</v>
+        <v>0.78</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -481,27 +481,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>327</v>
+        <v>177.5</v>
       </c>
       <c r="E2" t="n">
-        <v>7.39</v>
+        <v>2.31</v>
       </c>
       <c r="F2" t="n">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,101 +509,101 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7.341</v>
+        <v>4.649</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>118.5</v>
+        <v>190</v>
       </c>
       <c r="E3" t="n">
-        <v>1.72</v>
+        <v>9.83</v>
       </c>
       <c r="F3" t="n">
-        <v>130</v>
+        <v>173</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>1.197</v>
+        <v>3.164</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>126</v>
+        <v>169</v>
       </c>
       <c r="E4" t="n">
-        <v>5</v>
+        <v>7.64</v>
       </c>
       <c r="F4" t="n">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>6.322</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>63.8</v>
+        <v>255.5</v>
       </c>
       <c r="E5" t="n">
-        <v>0.47</v>
+        <v>8.029999999999999</v>
       </c>
       <c r="F5" t="n">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,67 +611,67 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>15.256</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Macronix (MXIC)</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>310.5</v>
+        <v>89.59999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>1.31</v>
+        <v>0.9</v>
       </c>
       <c r="F6" t="n">
-        <v>117</v>
+        <v>142</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4.61</v>
+        <v>17.118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1875</v>
+        <v>344</v>
       </c>
       <c r="E7" t="n">
-        <v>1.35</v>
+        <v>5.2</v>
       </c>
       <c r="F7" t="n">
-        <v>117</v>
+        <v>140</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -679,67 +679,67 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2.723</v>
+        <v>7.801</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>274.5</v>
+        <v>103.5</v>
       </c>
       <c r="E8" t="n">
-        <v>3.98</v>
+        <v>-3.72</v>
       </c>
       <c r="F8" t="n">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>21.043</v>
+        <v>15.889</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>77.2</v>
+        <v>1880</v>
       </c>
       <c r="E9" t="n">
-        <v>1.98</v>
+        <v>3.58</v>
       </c>
       <c r="F9" t="n">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -747,33 +747,33 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1.701</v>
+        <v>61.766</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1815</v>
+        <v>302</v>
       </c>
       <c r="E10" t="n">
-        <v>1.97</v>
+        <v>3.6</v>
       </c>
       <c r="F10" t="n">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -781,67 +781,67 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>58.57</v>
+        <v>6.282</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1830</v>
+        <v>271</v>
       </c>
       <c r="E11" t="n">
-        <v>7.02</v>
+        <v>-1.28</v>
       </c>
       <c r="F11" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>19.975</v>
+        <v>21.928</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>107.5</v>
+        <v>1825</v>
       </c>
       <c r="E12" t="n">
-        <v>9.92</v>
+        <v>-5.19</v>
       </c>
       <c r="F12" t="n">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -849,237 +849,237 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>15.665</v>
+        <v>13.715</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>173.5</v>
+        <v>116</v>
       </c>
       <c r="E13" t="n">
-        <v>5.47</v>
+        <v>0.43</v>
       </c>
       <c r="F13" t="n">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4.221</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1925</v>
+        <v>22.95</v>
       </c>
       <c r="E14" t="n">
-        <v>1.58</v>
+        <v>0.66</v>
       </c>
       <c r="F14" t="n">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>13.875</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>291.5</v>
+        <v>51.7</v>
       </c>
       <c r="E15" t="n">
-        <v>2.82</v>
+        <v>-0.58</v>
       </c>
       <c r="F15" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>6.094</v>
+        <v>1.436</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>157</v>
+        <v>1845</v>
       </c>
       <c r="E16" t="n">
-        <v>-1.88</v>
+        <v>0.82</v>
       </c>
       <c r="F16" t="n">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.518</v>
+        <v>20.223</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>372</v>
+        <v>23.9</v>
       </c>
       <c r="E17" t="n">
-        <v>1.92</v>
+        <v>0.63</v>
       </c>
       <c r="F17" t="n">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1.48</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>3285</v>
+        <v>285</v>
       </c>
       <c r="E18" t="n">
-        <v>5.46</v>
+        <v>0.35</v>
       </c>
       <c r="F18" t="n">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>6.786</v>
+        <v>4.386</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>52</v>
+        <v>1805</v>
       </c>
       <c r="E19" t="n">
-        <v>0.78</v>
+        <v>-3.73</v>
       </c>
       <c r="F19" t="n">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1087,33 +1087,33 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>1.435</v>
+        <v>2.691</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>93.8</v>
+        <v>121.5</v>
       </c>
       <c r="E20" t="n">
-        <v>1.52</v>
+        <v>2.53</v>
       </c>
       <c r="F20" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1121,67 +1121,67 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1.617</v>
+        <v>1.231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>284</v>
+        <v>221</v>
       </c>
       <c r="E21" t="n">
-        <v>1.61</v>
+        <v>1.14</v>
       </c>
       <c r="F21" t="n">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>4.396</v>
+        <v>11.035</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>39.8</v>
+        <v>39</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.52</v>
       </c>
       <c r="F22" t="n">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1189,33 +1189,33 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.797</v>
+        <v>1.388</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>23.75</v>
+        <v>30.75</v>
       </c>
       <c r="E23" t="n">
-        <v>0.42</v>
+        <v>0.33</v>
       </c>
       <c r="F23" t="n">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1223,67 +1223,67 @@
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.399</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>173</v>
+        <v>124.5</v>
       </c>
       <c r="E24" t="n">
-        <v>5.17</v>
+        <v>-1.19</v>
       </c>
       <c r="F24" t="n">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>2.82</v>
+        <v>6.107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>38.8</v>
+        <v>39.8</v>
       </c>
       <c r="E25" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1291,33 +1291,33 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.379</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1180</v>
+        <v>77.90000000000001</v>
       </c>
       <c r="E26" t="n">
-        <v>1.72</v>
+        <v>0.91</v>
       </c>
       <c r="F26" t="n">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1325,33 +1325,33 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>14.359</v>
+        <v>1.667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>30.65</v>
+        <v>1300</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.49</v>
+        <v>5.69</v>
       </c>
       <c r="F27" t="n">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1359,67 +1359,67 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.114</v>
+        <v>1.785</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>131</v>
+        <v>94.5</v>
       </c>
       <c r="E28" t="n">
-        <v>1.55</v>
+        <v>0.75</v>
       </c>
       <c r="F28" t="n">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5.099</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>209.5</v>
+        <v>297</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.48</v>
+        <v>-4.35</v>
       </c>
       <c r="F29" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1427,203 +1427,203 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2.158</v>
+        <v>4.559</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>2445</v>
+        <v>64.3</v>
       </c>
       <c r="E30" t="n">
-        <v>2.95</v>
+        <v>0.78</v>
       </c>
       <c r="F30" t="n">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>8.411</v>
+        <v>15.757</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Macronix (MXIC)</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>88.8</v>
+        <v>377</v>
       </c>
       <c r="E31" t="n">
-        <v>9.9</v>
+        <v>1.34</v>
       </c>
       <c r="F31" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>15.932</v>
+        <v>1.494</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>22.8</v>
+        <v>228.5</v>
       </c>
       <c r="E32" t="n">
-        <v>0.66</v>
+        <v>1.78</v>
       </c>
       <c r="F32" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.869</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>236.5</v>
+        <v>52.8</v>
       </c>
       <c r="E33" t="n">
-        <v>7.74</v>
+        <v>1.15</v>
       </c>
       <c r="F33" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>6.439</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>218.5</v>
+        <v>1185</v>
       </c>
       <c r="E34" t="n">
-        <v>1.63</v>
+        <v>0.42</v>
       </c>
       <c r="F34" t="n">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>10.873</v>
+        <v>14.209</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>470.5</v>
+        <v>491.5</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.42</v>
+        <v>2.82</v>
       </c>
       <c r="F35" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1631,33 +1631,33 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>2.179</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>115.5</v>
+        <v>186</v>
       </c>
       <c r="E36" t="n">
-        <v>3.59</v>
+        <v>-0.27</v>
       </c>
       <c r="F36" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1665,67 +1665,67 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.531</v>
+        <v>1.687</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>46.65</v>
+        <v>129.5</v>
       </c>
       <c r="E37" t="n">
-        <v>1.97</v>
+        <v>-1.15</v>
       </c>
       <c r="F37" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>2.342</v>
+        <v>4.972</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>62.4</v>
+        <v>201</v>
       </c>
       <c r="E38" t="n">
-        <v>0.8100000000000001</v>
+        <v>-4.06</v>
       </c>
       <c r="F38" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1733,33 +1733,33 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>16.212</v>
+        <v>2.093</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>223.5</v>
+        <v>2505</v>
       </c>
       <c r="E39" t="n">
-        <v>1.13</v>
+        <v>2.45</v>
       </c>
       <c r="F39" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1767,33 +1767,33 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>3.406</v>
+        <v>8.565</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>186.5</v>
+        <v>3300</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.53</v>
+        <v>0.46</v>
       </c>
       <c r="F40" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1801,33 +1801,33 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>1.741</v>
+        <v>6.728</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>52.2</v>
+        <v>74.5</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="F41" t="n">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -1835,64 +1835,64 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.634</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>20.35</v>
+        <v>213</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.25</v>
+        <v>-4.7</v>
       </c>
       <c r="F42" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1.627</v>
+        <v>3.155</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>224.5</v>
+        <v>45.4</v>
       </c>
       <c r="E43" t="n">
-        <v>2.05</v>
+        <v>-2.68</v>
       </c>
       <c r="F43" t="n">
         <v>46</v>
@@ -1903,33 +1903,33 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>0.081</v>
+        <v>2.237</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>243</v>
+        <v>478.5</v>
       </c>
       <c r="E44" t="n">
-        <v>1.46</v>
+        <v>1.7</v>
       </c>
       <c r="F44" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1937,33 +1937,33 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>5.063</v>
+        <v>1.871</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1230</v>
+        <v>240</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.4</v>
+        <v>-1.23</v>
       </c>
       <c r="F45" t="n">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1971,33 +1971,33 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>1.852</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>73.8</v>
+        <v>62.4</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.14</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2005,33 +2005,33 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>0.461</v>
+        <v>16.094</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>35.7</v>
+        <v>45.05</v>
       </c>
       <c r="E47" t="n">
-        <v>0.28</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F47" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>0.186</v>
+        <v>1.856</v>
       </c>
     </row>
     <row r="48">
@@ -2059,13 +2059,13 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>53.6</v>
+        <v>53</v>
       </c>
       <c r="E48" t="n">
-        <v>3.08</v>
+        <v>-1.12</v>
       </c>
       <c r="F48" t="n">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2073,75 +2073,75 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2.767</v>
+        <v>2.471</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>44.8</v>
+        <v>36.2</v>
       </c>
       <c r="E49" t="n">
-        <v>2.28</v>
+        <v>1.4</v>
       </c>
       <c r="F49" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>1.841</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>478</v>
+        <v>20.5</v>
       </c>
       <c r="E50" t="n">
-        <v>2.58</v>
+        <v>0.74</v>
       </c>
       <c r="F50" t="n">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>3.317</v>
+        <v>1.612</v>
       </c>
     </row>
     <row r="51">
@@ -2161,13 +2161,13 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>65.09999999999999</v>
+        <v>64</v>
       </c>
       <c r="E51" t="n">
-        <v>6.72</v>
+        <v>-1.69</v>
       </c>
       <c r="F51" t="n">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
@@ -2175,7 +2175,7 @@
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1.048</v>
+        <v>1.022</v>
       </c>
     </row>
     <row r="52">
@@ -2195,10 +2195,10 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>62.8</v>
+        <v>61.8</v>
       </c>
       <c r="E52" t="n">
-        <v>3.29</v>
+        <v>-1.59</v>
       </c>
       <c r="F52" t="n">
         <v>13</v>
@@ -2209,7 +2209,7 @@
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0.821</v>
+        <v>0.787</v>
       </c>
     </row>
   </sheetData>
@@ -2290,13 +2290,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>45.1</v>
+        <v>47.13</v>
       </c>
       <c r="F2" t="n">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="G2" t="n">
-        <v>15.932</v>
+        <v>17.118</v>
       </c>
     </row>
     <row r="3">
@@ -2321,13 +2321,13 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>28.11</v>
+        <v>26.82</v>
       </c>
       <c r="F3" t="n">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
       <c r="G3" t="n">
-        <v>15.256</v>
+        <v>15.757</v>
       </c>
     </row>
     <row r="4">
@@ -2352,13 +2352,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.64</v>
+        <v>24.24</v>
       </c>
       <c r="F4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="G4" t="n">
-        <v>19.975</v>
+        <v>20.223</v>
       </c>
     </row>
     <row r="5">
@@ -2383,928 +2383,928 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>22.6</v>
+        <v>24.03</v>
       </c>
       <c r="F5" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="G5" t="n">
-        <v>1.048</v>
+        <v>1.022</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>15.55</v>
+        <v>21.79</v>
       </c>
       <c r="F6" t="n">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="G6" t="n">
-        <v>7.341</v>
+        <v>3.164</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>14.85</v>
+        <v>21.67</v>
       </c>
       <c r="F7" t="n">
-        <v>1.52</v>
+        <v>0.99</v>
       </c>
       <c r="G7" t="n">
-        <v>21.043</v>
+        <v>6.95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>13.32</v>
+        <v>18.83</v>
       </c>
       <c r="F8" t="n">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="G8" t="n">
-        <v>4.61</v>
+        <v>7.801</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>12.84</v>
+        <v>17.83</v>
       </c>
       <c r="F9" t="n">
-        <v>0.49</v>
+        <v>1.24</v>
       </c>
       <c r="G9" t="n">
-        <v>16.212</v>
+        <v>21.928</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>12.41</v>
+        <v>15.05</v>
       </c>
       <c r="F10" t="n">
-        <v>0.58</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G10" t="n">
-        <v>2.342</v>
+        <v>14.209</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>11.85</v>
+        <v>13.66</v>
       </c>
       <c r="F11" t="n">
-        <v>0.85</v>
+        <v>0.42</v>
       </c>
       <c r="G11" t="n">
-        <v>14.359</v>
+        <v>16.094</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>10.62</v>
+        <v>12.94</v>
       </c>
       <c r="F12" t="n">
-        <v>1.07</v>
+        <v>0.57</v>
       </c>
       <c r="G12" t="n">
-        <v>2.723</v>
+        <v>2.237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>10.45</v>
+        <v>12.78</v>
       </c>
       <c r="F13" t="n">
-        <v>0.53</v>
+        <v>0.71</v>
       </c>
       <c r="G13" t="n">
-        <v>5.063</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>9.880000000000001</v>
+        <v>11.65</v>
       </c>
       <c r="F14" t="n">
-        <v>0.68</v>
+        <v>1.02</v>
       </c>
       <c r="G14" t="n">
-        <v>0.869</v>
+        <v>6.282</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>8.449999999999999</v>
+        <v>11.24</v>
       </c>
       <c r="F15" t="n">
-        <v>1.57</v>
+        <v>1.32</v>
       </c>
       <c r="G15" t="n">
-        <v>13.875</v>
+        <v>4.559</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.96</v>
+        <v>9.94</v>
       </c>
       <c r="F16" t="n">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>6.094</v>
+        <v>61.766</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.4</v>
+        <v>8.56</v>
       </c>
       <c r="F17" t="n">
-        <v>0.93</v>
+        <v>1.09</v>
       </c>
       <c r="G17" t="n">
-        <v>58.57</v>
+        <v>4.649</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6.79</v>
+        <v>7.44</v>
       </c>
       <c r="F18" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="G18" t="n">
-        <v>2.82</v>
+        <v>2.691</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5.88</v>
+        <v>6.7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="G19" t="n">
-        <v>6.322</v>
+        <v>1.388</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.47</v>
+        <v>5.96</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.01</v>
       </c>
       <c r="G20" t="n">
-        <v>4.221</v>
+        <v>6.107</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.39</v>
+        <v>5.4</v>
       </c>
       <c r="F21" t="n">
-        <v>1.63</v>
+        <v>0.62</v>
       </c>
       <c r="G21" t="n">
-        <v>15.665</v>
+        <v>1.612</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4.58</v>
+        <v>4.13</v>
       </c>
       <c r="F22" t="n">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="G22" t="n">
-        <v>1.379</v>
+        <v>1.436</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.09</v>
+        <v>3.92</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="G23" t="n">
-        <v>1.627</v>
+        <v>1.856</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>3.71</v>
       </c>
       <c r="F24" t="n">
-        <v>0.83</v>
+        <v>1.22</v>
       </c>
       <c r="G24" t="n">
-        <v>1.435</v>
+        <v>15.889</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.71</v>
+        <v>3.51</v>
       </c>
       <c r="F25" t="n">
-        <v>1.01</v>
+        <v>0.93</v>
       </c>
       <c r="G25" t="n">
-        <v>2.158</v>
+        <v>8.565</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.63</v>
+        <v>3.4</v>
       </c>
       <c r="F26" t="n">
-        <v>0.47</v>
+        <v>0.78</v>
       </c>
       <c r="G26" t="n">
-        <v>1.841</v>
+        <v>1.231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.5</v>
+        <v>3.26</v>
       </c>
       <c r="F27" t="n">
-        <v>0.83</v>
+        <v>0.51</v>
       </c>
       <c r="G27" t="n">
-        <v>6.439</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.45</v>
+        <v>3.11</v>
       </c>
       <c r="F28" t="n">
-        <v>0.78</v>
+        <v>1.25</v>
       </c>
       <c r="G28" t="n">
-        <v>1.701</v>
+        <v>13.715</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.27</v>
+        <v>2.55</v>
       </c>
       <c r="F29" t="n">
-        <v>0.52</v>
+        <v>0.78</v>
       </c>
       <c r="G29" t="n">
-        <v>3.317</v>
+        <v>2.093</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1.25</v>
+        <v>2.55</v>
       </c>
       <c r="F30" t="n">
-        <v>0.84</v>
+        <v>0.78</v>
       </c>
       <c r="G30" t="n">
-        <v>4.396</v>
+        <v>0.184</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1.13</v>
+        <v>2.2</v>
       </c>
       <c r="F31" t="n">
-        <v>0.83</v>
+        <v>0.82</v>
       </c>
       <c r="G31" t="n">
-        <v>0.186</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.43</v>
+        <v>2.15</v>
       </c>
       <c r="F32" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="G32" t="n">
-        <v>0.531</v>
+        <v>4.386</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.41</v>
+        <v>0.9</v>
       </c>
       <c r="F33" t="n">
-        <v>1.07</v>
+        <v>0.75</v>
       </c>
       <c r="G33" t="n">
-        <v>8.411</v>
+        <v>0.586</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-0.84</v>
+        <v>0.65</v>
       </c>
       <c r="F34" t="n">
-        <v>0.67</v>
+        <v>0.84</v>
       </c>
       <c r="G34" t="n">
-        <v>1.197</v>
+        <v>1.667</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -3313,60 +3313,60 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-0.84</v>
+        <v>0.32</v>
       </c>
       <c r="F35" t="n">
-        <v>0.75</v>
+        <v>0.85</v>
       </c>
       <c r="G35" t="n">
-        <v>0.399</v>
+        <v>1.605</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-1.24</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.72</v>
+        <v>0.79</v>
       </c>
       <c r="G36" t="n">
-        <v>0.797</v>
+        <v>1.785</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -3375,199 +3375,199 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-1.26</v>
+        <v>-0.42</v>
       </c>
       <c r="F37" t="n">
-        <v>0.84</v>
+        <v>0.79</v>
       </c>
       <c r="G37" t="n">
-        <v>1.617</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-2.87</v>
+        <v>-0.83</v>
       </c>
       <c r="F38" t="n">
-        <v>0.83</v>
+        <v>0.48</v>
       </c>
       <c r="G38" t="n">
-        <v>1.48</v>
+        <v>4.63</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-3.16</v>
+        <v>-1.49</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8</v>
+        <v>0.77</v>
       </c>
       <c r="G39" t="n">
-        <v>0.114</v>
+        <v>0.805</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-4.38</v>
+        <v>-1.76</v>
       </c>
       <c r="F40" t="n">
-        <v>0.78</v>
+        <v>0.76</v>
       </c>
       <c r="G40" t="n">
-        <v>10.873</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-4.6</v>
+        <v>-2.2</v>
       </c>
       <c r="F41" t="n">
-        <v>0.57</v>
+        <v>0.87</v>
       </c>
       <c r="G41" t="n">
-        <v>1.741</v>
+        <v>1.494</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-5.7</v>
+        <v>-2.43</v>
       </c>
       <c r="F42" t="n">
-        <v>0.74</v>
+        <v>0.8</v>
       </c>
       <c r="G42" t="n">
-        <v>3.406</v>
+        <v>11.035</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-6.55</v>
+        <v>-4.62</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2</v>
+        <v>0.55</v>
       </c>
       <c r="G43" t="n">
-        <v>0.821</v>
+        <v>1.687</v>
       </c>
     </row>
     <row r="44">
@@ -3592,106 +3592,106 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-6.95</v>
+        <v>-4.69</v>
       </c>
       <c r="F44" t="n">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="G44" t="n">
-        <v>0.634</v>
+        <v>0.626</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-7.29</v>
+        <v>-5.19</v>
       </c>
       <c r="F45" t="n">
-        <v>0.58</v>
+        <v>0.82</v>
       </c>
       <c r="G45" t="n">
-        <v>0.461</v>
+        <v>0.083</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-7.92</v>
+        <v>-5.58</v>
       </c>
       <c r="F46" t="n">
-        <v>0.54</v>
+        <v>0.59</v>
       </c>
       <c r="G46" t="n">
-        <v>0.518</v>
+        <v>0.449</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-8.92</v>
+        <v>-9.76</v>
       </c>
       <c r="F47" t="n">
-        <v>0.87</v>
+        <v>0.7</v>
       </c>
       <c r="G47" t="n">
-        <v>0.081</v>
+        <v>4.972</v>
       </c>
     </row>
     <row r="48">
@@ -3716,13 +3716,13 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-9.460000000000001</v>
+        <v>-10.17</v>
       </c>
       <c r="F48" t="n">
-        <v>0.37</v>
+        <v>0.34</v>
       </c>
       <c r="G48" t="n">
-        <v>2.767</v>
+        <v>2.471</v>
       </c>
     </row>
     <row r="49">
@@ -3747,75 +3747,75 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-9.5</v>
+        <v>-10.2</v>
       </c>
       <c r="F49" t="n">
-        <v>1.03</v>
+        <v>0.93</v>
       </c>
       <c r="G49" t="n">
-        <v>6.786</v>
+        <v>6.728</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-10.27</v>
+        <v>-11.06</v>
       </c>
       <c r="F50" t="n">
-        <v>0.7</v>
+        <v>0.66</v>
       </c>
       <c r="G50" t="n">
-        <v>5.099</v>
+        <v>3.155</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-10.87</v>
+        <v>-11.33</v>
       </c>
       <c r="F51" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="G51" t="n">
-        <v>1.852</v>
+        <v>0.787</v>
       </c>
     </row>
     <row r="52">
@@ -3840,13 +3840,13 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-12.71</v>
+        <v>-16.93</v>
       </c>
       <c r="F52" t="n">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="G52" t="n">
-        <v>2.179</v>
+        <v>1.871</v>
       </c>
     </row>
   </sheetData>
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>45.1</v>
+        <v>47.13</v>
       </c>
       <c r="C2" t="n">
-        <v>1.38</v>
+        <v>1.16</v>
       </c>
       <c r="D2" t="n">
-        <v>15.932</v>
+        <v>17.118</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3921,13 +3921,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.11</v>
+        <v>26.82</v>
       </c>
       <c r="C3" t="n">
-        <v>1.14</v>
+        <v>1.02</v>
       </c>
       <c r="D3" t="n">
-        <v>15.256</v>
+        <v>15.757</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3940,13 +3940,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>26.64</v>
+        <v>24.24</v>
       </c>
       <c r="C4" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="D4" t="n">
-        <v>19.975</v>
+        <v>20.223</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3959,13 +3959,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>15.55</v>
+        <v>18.83</v>
       </c>
       <c r="C5" t="n">
-        <v>1.39</v>
+        <v>1.48</v>
       </c>
       <c r="D5" t="n">
-        <v>7.341</v>
+        <v>7.801</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3978,13 +3978,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14.85</v>
+        <v>17.83</v>
       </c>
       <c r="C6" t="n">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="D6" t="n">
-        <v>21.043</v>
+        <v>21.928</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -3993,36 +3993,36 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12.41</v>
+        <v>15.22</v>
       </c>
       <c r="C7" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>2.342</v>
+        <v>10.653</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10.62</v>
+        <v>12.94</v>
       </c>
       <c r="C8" t="n">
-        <v>1.07</v>
+        <v>0.57</v>
       </c>
       <c r="D8" t="n">
-        <v>2.723</v>
+        <v>2.237</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -4031,17 +4031,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.12</v>
+        <v>12.465</v>
       </c>
       <c r="C9" t="n">
-        <v>0.71</v>
+        <v>0.515</v>
       </c>
       <c r="D9" t="n">
-        <v>74.782</v>
+        <v>1.608</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -4054,13 +4054,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8.66</v>
+        <v>11.805</v>
       </c>
       <c r="C10" t="n">
-        <v>0.895</v>
+        <v>0.9500000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>18.58</v>
+        <v>18.858</v>
       </c>
       <c r="E10" t="n">
         <v>2</v>
@@ -4069,20 +4069,20 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>8.449999999999999</v>
+        <v>11.8</v>
       </c>
       <c r="C11" t="n">
-        <v>1.57</v>
+        <v>0.71</v>
       </c>
       <c r="D11" t="n">
-        <v>13.875</v>
+        <v>77.86</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -4092,13 +4092,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>7.96</v>
+        <v>11.65</v>
       </c>
       <c r="C12" t="n">
-        <v>0.89</v>
+        <v>1.02</v>
       </c>
       <c r="D12" t="n">
-        <v>6.094</v>
+        <v>6.282</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
@@ -4107,17 +4107,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.340000000000001</v>
+        <v>9.74</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4350000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="D13" t="n">
-        <v>1.566</v>
+        <v>2.278</v>
       </c>
       <c r="E13" t="n">
         <v>2</v>
@@ -4126,20 +4126,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.23</v>
+        <v>7.44</v>
       </c>
       <c r="C14" t="n">
-        <v>0.71</v>
+        <v>1.08</v>
       </c>
       <c r="D14" t="n">
-        <v>2.248</v>
+        <v>2.691</v>
       </c>
       <c r="E14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -4149,13 +4149,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.88</v>
+        <v>5.96</v>
       </c>
       <c r="C15" t="n">
-        <v>0.96</v>
+        <v>1.01</v>
       </c>
       <c r="D15" t="n">
-        <v>6.322</v>
+        <v>6.107</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -4164,17 +4164,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.39</v>
+        <v>5.4</v>
       </c>
       <c r="C16" t="n">
-        <v>1.63</v>
+        <v>0.62</v>
       </c>
       <c r="D16" t="n">
-        <v>15.665</v>
+        <v>1.612</v>
       </c>
       <c r="E16" t="n">
         <v>1</v>
@@ -4183,17 +4183,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.09</v>
+        <v>3.71</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8100000000000001</v>
+        <v>1.22</v>
       </c>
       <c r="D17" t="n">
-        <v>1.627</v>
+        <v>15.889</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -4202,39 +4202,39 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.776666666666667</v>
+        <v>3.33</v>
       </c>
       <c r="C18" t="n">
-        <v>1.09</v>
+        <v>0.645</v>
       </c>
       <c r="D18" t="n">
-        <v>10.174</v>
+        <v>4.491</v>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.906666666666667</v>
+        <v>3.11</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8633333333333333</v>
+        <v>1.25</v>
       </c>
       <c r="D19" t="n">
-        <v>9.790000000000001</v>
+        <v>13.715</v>
       </c>
       <c r="E19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -4244,13 +4244,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.13</v>
+        <v>2.55</v>
       </c>
       <c r="C20" t="n">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="D20" t="n">
-        <v>0.186</v>
+        <v>0.184</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -4259,20 +4259,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4949999999999992</v>
+        <v>0.9099999999999998</v>
       </c>
       <c r="C21" t="n">
-        <v>0.45</v>
+        <v>0.92</v>
       </c>
       <c r="D21" t="n">
-        <v>7.83</v>
+        <v>9.807</v>
       </c>
       <c r="E21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
@@ -4282,13 +4282,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.422</v>
+        <v>0.6379999999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>0.784</v>
+        <v>0.828</v>
       </c>
       <c r="D22" t="n">
-        <v>5.949</v>
+        <v>5.919</v>
       </c>
       <c r="E22" t="n">
         <v>5</v>
@@ -4297,20 +4297,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.215</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.595</v>
+        <v>0.79</v>
       </c>
       <c r="D23" t="n">
-        <v>4.514</v>
+        <v>1.785</v>
       </c>
       <c r="E23" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24">
@@ -4320,13 +4320,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-2.6925</v>
+        <v>-1.53</v>
       </c>
       <c r="C24" t="n">
         <v>0.6975</v>
       </c>
       <c r="D24" t="n">
-        <v>22.209</v>
+        <v>22.249</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -4335,17 +4335,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-2.87</v>
+        <v>-1.76</v>
       </c>
       <c r="C25" t="n">
-        <v>0.83</v>
+        <v>0.76</v>
       </c>
       <c r="D25" t="n">
-        <v>1.48</v>
+        <v>0.114</v>
       </c>
       <c r="E25" t="n">
         <v>1</v>
@@ -4354,17 +4354,17 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-3.16</v>
+        <v>-2.2</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8</v>
+        <v>0.87</v>
       </c>
       <c r="D26" t="n">
-        <v>0.114</v>
+        <v>1.494</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4377,13 +4377,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-4.545</v>
+        <v>-3.345</v>
       </c>
       <c r="C27" t="n">
-        <v>1.05</v>
+        <v>0.93</v>
       </c>
       <c r="D27" t="n">
-        <v>15.197</v>
+        <v>15.293</v>
       </c>
       <c r="E27" t="n">
         <v>2</v>
@@ -4396,13 +4396,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-6.28</v>
+        <v>-4.963333333333334</v>
       </c>
       <c r="C28" t="n">
-        <v>0.5833333333333334</v>
+        <v>0.59</v>
       </c>
       <c r="D28" t="n">
-        <v>2.836</v>
+        <v>2.762</v>
       </c>
       <c r="E28" t="n">
         <v>3</v>
@@ -4411,17 +4411,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.55</v>
+        <v>-5.19</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2</v>
+        <v>0.82</v>
       </c>
       <c r="D29" t="n">
-        <v>0.821</v>
+        <v>0.083</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -4430,36 +4430,36 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-8.92</v>
+        <v>-5.5</v>
       </c>
       <c r="C30" t="n">
-        <v>0.87</v>
+        <v>0.41</v>
       </c>
       <c r="D30" t="n">
-        <v>0.081</v>
+        <v>7.101</v>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-10.87</v>
+        <v>-11.33</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.17</v>
       </c>
       <c r="D31" t="n">
-        <v>1.852</v>
+        <v>0.787</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -4472,13 +4472,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-12.71</v>
+        <v>-16.93</v>
       </c>
       <c r="C32" t="n">
-        <v>0.82</v>
+        <v>0.88</v>
       </c>
       <c r="D32" t="n">
-        <v>2.179</v>
+        <v>1.871</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -4592,34 +4592,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1925</v>
+        <v>1825</v>
       </c>
       <c r="E2" t="n">
-        <v>1.58</v>
+        <v>-5.19</v>
       </c>
       <c r="F2" t="n">
-        <v>8.449999999999999</v>
+        <v>3.11</v>
       </c>
       <c r="G2" t="n">
         <v>46.99</v>
       </c>
       <c r="H2" t="n">
-        <v>123.1934</v>
+        <v>98.4211</v>
       </c>
       <c r="I2" t="n">
-        <v>36.2</v>
+        <v>20.3</v>
       </c>
       <c r="J2" t="n">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>9.039999999999999</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>15</v>
       </c>
       <c r="M2" t="n">
-        <v>1.57</v>
+        <v>1.25</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -4644,34 +4644,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1830</v>
+        <v>1845</v>
       </c>
       <c r="E3" t="n">
-        <v>7.02</v>
+        <v>0.82</v>
       </c>
       <c r="F3" t="n">
-        <v>26.64</v>
+        <v>24.24</v>
       </c>
       <c r="G3" t="n">
-        <v>74.13</v>
+        <v>76.76000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>90.72450000000001</v>
+        <v>92.6228</v>
       </c>
       <c r="I3" t="n">
-        <v>81.5</v>
+        <v>80.90000000000001</v>
       </c>
       <c r="J3" t="n">
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>4.59</v>
+        <v>4.55</v>
       </c>
       <c r="L3" t="n">
-        <v>6.4</v>
+        <v>-1.3</v>
       </c>
       <c r="M3" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -4696,38 +4696,38 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>65.09999999999999</v>
+        <v>64</v>
       </c>
       <c r="E4" t="n">
-        <v>6.72</v>
+        <v>-1.69</v>
       </c>
       <c r="F4" t="n">
-        <v>22.6</v>
+        <v>24.03</v>
       </c>
       <c r="G4" t="n">
-        <v>63.26</v>
+        <v>64.62</v>
       </c>
       <c r="H4" t="n">
-        <v>4.2539</v>
+        <v>3.9701</v>
       </c>
       <c r="I4" t="n">
-        <v>65</v>
+        <v>60.6</v>
       </c>
       <c r="J4" t="n">
-        <v>59.9</v>
+        <v>56</v>
       </c>
       <c r="K4" t="n">
-        <v>7.29</v>
+        <v>7.41</v>
       </c>
       <c r="L4" t="n">
-        <v>-76.7</v>
+        <v>-87</v>
       </c>
       <c r="M4" t="n">
-        <v>0.33</v>
+        <v>0.28</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>👀 WATCH</t>
+          <t>⚠️ TAKE PROFIT</t>
         </is>
       </c>
     </row>
@@ -4748,34 +4748,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>62.8</v>
+        <v>61.8</v>
       </c>
       <c r="E5" t="n">
-        <v>3.29</v>
+        <v>-1.59</v>
       </c>
       <c r="F5" t="n">
-        <v>-6.55</v>
+        <v>-11.33</v>
       </c>
       <c r="G5" t="n">
-        <v>29.82</v>
+        <v>31.94</v>
       </c>
       <c r="H5" t="n">
-        <v>-1.802</v>
+        <v>-2.0637</v>
       </c>
       <c r="I5" t="n">
-        <v>14.3</v>
+        <v>13.9</v>
       </c>
       <c r="J5" t="n">
-        <v>11.6</v>
+        <v>5.8</v>
       </c>
       <c r="K5" t="n">
-        <v>6.2</v>
+        <v>6.07</v>
       </c>
       <c r="L5" t="n">
         <v>-86.5</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -4800,38 +4800,38 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="E6" t="n">
-        <v>5.17</v>
+        <v>9.83</v>
       </c>
       <c r="F6" t="n">
-        <v>6.79</v>
+        <v>21.79</v>
       </c>
       <c r="G6" t="n">
-        <v>43.72</v>
+        <v>56.72</v>
       </c>
       <c r="H6" t="n">
-        <v>4.3756</v>
+        <v>5.8186</v>
       </c>
       <c r="I6" t="n">
-        <v>60.1</v>
+        <v>109</v>
       </c>
       <c r="J6" t="n">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="K6" t="n">
-        <v>6.92</v>
+        <v>6.13</v>
       </c>
       <c r="L6" t="n">
-        <v>-27.5</v>
+        <v>72.7</v>
       </c>
       <c r="M6" t="n">
-        <v>1.05</v>
+        <v>1.19</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>👀 WATCH</t>
+          <t>🚀 BUY STRONG</t>
         </is>
       </c>
     </row>
@@ -4852,34 +4852,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>218.5</v>
+        <v>221</v>
       </c>
       <c r="E7" t="n">
-        <v>1.63</v>
+        <v>1.14</v>
       </c>
       <c r="F7" t="n">
-        <v>-4.38</v>
+        <v>-2.43</v>
       </c>
       <c r="G7" t="n">
-        <v>43.42</v>
+        <v>52.78</v>
       </c>
       <c r="H7" t="n">
-        <v>-3.0089</v>
+        <v>-2.4347</v>
       </c>
       <c r="I7" t="n">
-        <v>31.1</v>
+        <v>42.1</v>
       </c>
       <c r="J7" t="n">
-        <v>36.4</v>
+        <v>59.1</v>
       </c>
       <c r="K7" t="n">
-        <v>2.57</v>
+        <v>2.47</v>
       </c>
       <c r="L7" t="n">
-        <v>-39.3</v>
+        <v>-7.5</v>
       </c>
       <c r="M7" t="n">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -481,27 +481,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>177.5</v>
+        <v>180</v>
       </c>
       <c r="E2" t="n">
-        <v>2.31</v>
+        <v>-5.26</v>
       </c>
       <c r="F2" t="n">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,33 +509,33 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4.649</v>
+        <v>3.244</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>Macronix (MXIC)</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>190</v>
+        <v>98.5</v>
       </c>
       <c r="E3" t="n">
-        <v>9.83</v>
+        <v>9.93</v>
       </c>
       <c r="F3" t="n">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3.164</v>
+        <v>20.383</v>
       </c>
     </row>
     <row r="4">
@@ -563,47 +563,47 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="E4" t="n">
-        <v>7.64</v>
+        <v>-4.14</v>
       </c>
       <c r="F4" t="n">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.586</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>255.5</v>
+        <v>78.8</v>
       </c>
       <c r="E5" t="n">
-        <v>8.029999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="F5" t="n">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,67 +611,67 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6.95</v>
+        <v>1.655</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Macronix (MXIC)</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>89.59999999999999</v>
+        <v>113.5</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9</v>
+        <v>-6.58</v>
       </c>
       <c r="F6" t="n">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>17.118</v>
+        <v>1.083</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>344</v>
+        <v>23.9</v>
       </c>
       <c r="E7" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -679,67 +679,67 @@
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7.801</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>103.5</v>
+        <v>227</v>
       </c>
       <c r="E8" t="n">
-        <v>-3.72</v>
+        <v>2.71</v>
       </c>
       <c r="F8" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>15.889</v>
+        <v>11.359</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1880</v>
+        <v>1985</v>
       </c>
       <c r="E9" t="n">
-        <v>3.58</v>
+        <v>9.970000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -747,67 +747,67 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>61.766</v>
+        <v>3.114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>302</v>
+        <v>105.5</v>
       </c>
       <c r="E10" t="n">
-        <v>3.6</v>
+        <v>1.93</v>
       </c>
       <c r="F10" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>6.282</v>
+        <v>17.139</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>271</v>
+        <v>445.5</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.28</v>
+        <v>-9.359999999999999</v>
       </c>
       <c r="F11" t="n">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -815,101 +815,101 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>21.928</v>
+        <v>2.799</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1825</v>
+        <v>1915</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.19</v>
+        <v>1.86</v>
       </c>
       <c r="F12" t="n">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>13.715</v>
+        <v>64.006</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>116</v>
+        <v>179.5</v>
       </c>
       <c r="E13" t="n">
-        <v>0.43</v>
+        <v>1.13</v>
       </c>
       <c r="F13" t="n">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.539</v>
+        <v>4.867</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>22.95</v>
+        <v>52.2</v>
       </c>
       <c r="E14" t="n">
-        <v>0.66</v>
+        <v>0.97</v>
       </c>
       <c r="F14" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -917,33 +917,33 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.89</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>51.7</v>
+        <v>40.05</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.58</v>
+        <v>0.63</v>
       </c>
       <c r="F15" t="n">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -951,75 +951,75 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1.436</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1845</v>
+        <v>246</v>
       </c>
       <c r="E16" t="n">
-        <v>0.82</v>
+        <v>-3.72</v>
       </c>
       <c r="F16" t="n">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>20.223</v>
+        <v>6.531</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>23.9</v>
+        <v>1260</v>
       </c>
       <c r="E17" t="n">
-        <v>0.63</v>
+        <v>6.33</v>
       </c>
       <c r="F17" t="n">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.406</v>
+        <v>15.476</v>
       </c>
     </row>
     <row r="18">
@@ -1039,115 +1039,115 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E18" t="n">
         <v>0.35</v>
       </c>
       <c r="F18" t="n">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4.386</v>
+        <v>4.237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>1805</v>
+        <v>278</v>
       </c>
       <c r="E19" t="n">
-        <v>-3.73</v>
+        <v>2.58</v>
       </c>
       <c r="F19" t="n">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2.691</v>
+        <v>23.622</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>121.5</v>
+        <v>313.5</v>
       </c>
       <c r="E20" t="n">
-        <v>2.53</v>
+        <v>3.81</v>
       </c>
       <c r="F20" t="n">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>1.231</v>
+        <v>6.631</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E21" t="n">
-        <v>1.14</v>
+        <v>-2.41</v>
       </c>
       <c r="F21" t="n">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1155,135 +1155,135 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>11.035</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>39</v>
+        <v>22.7</v>
       </c>
       <c r="E22" t="n">
-        <v>0.52</v>
+        <v>-1.09</v>
       </c>
       <c r="F22" t="n">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.388</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>30.75</v>
+        <v>95.2</v>
       </c>
       <c r="E23" t="n">
-        <v>0.33</v>
+        <v>0.74</v>
       </c>
       <c r="F23" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>0.114</v>
+        <v>1.603</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>124.5</v>
+        <v>354.5</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.19</v>
+        <v>3.05</v>
       </c>
       <c r="F24" t="n">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>6.107</v>
+        <v>8.085000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>39.8</v>
+        <v>38.85</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>-0.38</v>
       </c>
       <c r="F25" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1291,33 +1291,33 @@
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.805</v>
+        <v>1.362</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>77.90000000000001</v>
+        <v>3380</v>
       </c>
       <c r="E26" t="n">
-        <v>0.91</v>
+        <v>2.42</v>
       </c>
       <c r="F26" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1325,33 +1325,33 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1.667</v>
+        <v>6.726</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>1300</v>
+        <v>30.65</v>
       </c>
       <c r="E27" t="n">
-        <v>5.69</v>
+        <v>-0.33</v>
       </c>
       <c r="F27" t="n">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1359,33 +1359,33 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1.785</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>94.5</v>
+        <v>63.1</v>
       </c>
       <c r="E28" t="n">
-        <v>0.75</v>
+        <v>-1.87</v>
       </c>
       <c r="F28" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1393,33 +1393,33 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1.605</v>
+        <v>15.994</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>297</v>
+        <v>131.5</v>
       </c>
       <c r="E29" t="n">
-        <v>-4.35</v>
+        <v>1.54</v>
       </c>
       <c r="F29" t="n">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1427,33 +1427,33 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>4.559</v>
+        <v>5.036</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>64.3</v>
+        <v>20.9</v>
       </c>
       <c r="E30" t="n">
-        <v>0.78</v>
+        <v>1.95</v>
       </c>
       <c r="F30" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1461,67 +1461,67 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>15.757</v>
+        <v>1.671</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>377</v>
+        <v>1855</v>
       </c>
       <c r="E31" t="n">
-        <v>1.34</v>
+        <v>0.54</v>
       </c>
       <c r="F31" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.494</v>
+        <v>20.534</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>228.5</v>
+        <v>1855</v>
       </c>
       <c r="E32" t="n">
-        <v>1.78</v>
+        <v>1.64</v>
       </c>
       <c r="F32" t="n">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1529,33 +1529,33 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.083</v>
+        <v>14.324</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>52.8</v>
+        <v>111</v>
       </c>
       <c r="E33" t="n">
-        <v>1.15</v>
+        <v>-4.31</v>
       </c>
       <c r="F33" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1563,67 +1563,67 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.626</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>1185</v>
+        <v>53.3</v>
       </c>
       <c r="E34" t="n">
-        <v>0.42</v>
+        <v>0.95</v>
       </c>
       <c r="F34" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>14.209</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>491.5</v>
+        <v>476</v>
       </c>
       <c r="E35" t="n">
-        <v>2.82</v>
+        <v>-0.52</v>
       </c>
       <c r="F35" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1631,33 +1631,33 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>3.26</v>
+        <v>1.708</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.27</v>
+        <v>-1.01</v>
       </c>
       <c r="F36" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1665,33 +1665,33 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>1.687</v>
+        <v>4.638</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>129.5</v>
+        <v>75</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.15</v>
+        <v>0.67</v>
       </c>
       <c r="F37" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1699,33 +1699,33 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4.972</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="E38" t="n">
-        <v>-4.06</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1733,33 +1733,33 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>2.093</v>
+        <v>1.672</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>2505</v>
+        <v>375</v>
       </c>
       <c r="E39" t="n">
-        <v>2.45</v>
+        <v>-0.53</v>
       </c>
       <c r="F39" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1767,33 +1767,33 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>8.565</v>
+        <v>1.469</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>3300</v>
+        <v>35.7</v>
       </c>
       <c r="E40" t="n">
-        <v>0.46</v>
+        <v>-1.38</v>
       </c>
       <c r="F40" t="n">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1801,67 +1801,67 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>6.728</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>74.5</v>
+        <v>46.5</v>
       </c>
       <c r="E41" t="n">
-        <v>0.95</v>
+        <v>2.42</v>
       </c>
       <c r="F41" t="n">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.449</v>
+        <v>2.287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>213</v>
+        <v>199.5</v>
       </c>
       <c r="E42" t="n">
-        <v>-4.7</v>
+        <v>-0.75</v>
       </c>
       <c r="F42" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1869,33 +1869,33 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>3.155</v>
+        <v>2.106</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>45.4</v>
+        <v>45.35</v>
       </c>
       <c r="E43" t="n">
-        <v>-2.68</v>
+        <v>0.67</v>
       </c>
       <c r="F43" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1903,33 +1903,33 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>2.237</v>
+        <v>1.855</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>478.5</v>
+        <v>1270</v>
       </c>
       <c r="E44" t="n">
-        <v>1.7</v>
+        <v>-2.31</v>
       </c>
       <c r="F44" t="n">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1937,33 +1937,33 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1.871</v>
+        <v>1.604</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>240</v>
+        <v>2475</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.23</v>
+        <v>-1.2</v>
       </c>
       <c r="F45" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1971,33 +1971,33 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>4.63</v>
+        <v>8.196999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>62.4</v>
+        <v>219</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>2.82</v>
       </c>
       <c r="F46" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2005,33 +2005,33 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>16.094</v>
+        <v>3.189</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>45.05</v>
+        <v>62.8</v>
       </c>
       <c r="E47" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="F47" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2039,33 +2039,33 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>1.856</v>
+        <v>15.985</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>53</v>
+        <v>243</v>
       </c>
       <c r="E48" t="n">
-        <v>-1.12</v>
+        <v>1.25</v>
       </c>
       <c r="F48" t="n">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2073,143 +2073,143 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>2.471</v>
+        <v>4.179</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>36.2</v>
+        <v>53.4</v>
       </c>
       <c r="E49" t="n">
-        <v>1.4</v>
+        <v>0.75</v>
       </c>
       <c r="F49" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>0.184</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>20.5</v>
+        <v>126</v>
       </c>
       <c r="E50" t="n">
-        <v>0.74</v>
+        <v>1.2</v>
       </c>
       <c r="F50" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H50" t="n">
-        <v>1.612</v>
+        <v>5.811</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E51" t="n">
-        <v>-1.69</v>
+        <v>0.32</v>
       </c>
       <c r="F51" t="n">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>1.022</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>61.8</v>
+        <v>64.7</v>
       </c>
       <c r="E52" t="n">
-        <v>-1.59</v>
+        <v>1.09</v>
       </c>
       <c r="F52" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H52" t="n">
-        <v>0.787</v>
+        <v>1.028</v>
       </c>
     </row>
   </sheetData>
@@ -2290,13 +2290,13 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>47.13</v>
+        <v>63.89</v>
       </c>
       <c r="F2" t="n">
         <v>1.16</v>
       </c>
       <c r="G2" t="n">
-        <v>17.118</v>
+        <v>20.383</v>
       </c>
     </row>
     <row r="3">
@@ -2321,494 +2321,494 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.82</v>
+        <v>24.7</v>
       </c>
       <c r="F3" t="n">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="G3" t="n">
-        <v>15.757</v>
+        <v>15.994</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.24</v>
+        <v>24.42</v>
       </c>
       <c r="F4" t="n">
-        <v>1.1</v>
+        <v>0.24</v>
       </c>
       <c r="G4" t="n">
-        <v>20.223</v>
+        <v>1.028</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>24.03</v>
+        <v>23.67</v>
       </c>
       <c r="F5" t="n">
-        <v>0.28</v>
+        <v>1.03</v>
       </c>
       <c r="G5" t="n">
-        <v>1.022</v>
+        <v>20.534</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>21.79</v>
+        <v>20.37</v>
       </c>
       <c r="F6" t="n">
-        <v>1.19</v>
+        <v>1.54</v>
       </c>
       <c r="G6" t="n">
-        <v>3.164</v>
+        <v>8.085000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>21.67</v>
+        <v>18.87</v>
       </c>
       <c r="F7" t="n">
-        <v>0.99</v>
+        <v>0.91</v>
       </c>
       <c r="G7" t="n">
-        <v>6.95</v>
+        <v>15.476</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>18.83</v>
+        <v>17.55</v>
       </c>
       <c r="F8" t="n">
-        <v>1.48</v>
+        <v>1.16</v>
       </c>
       <c r="G8" t="n">
-        <v>7.801</v>
+        <v>23.622</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17.83</v>
+        <v>17.46</v>
       </c>
       <c r="F9" t="n">
-        <v>1.24</v>
+        <v>1.17</v>
       </c>
       <c r="G9" t="n">
-        <v>21.928</v>
+        <v>3.114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15.05</v>
+        <v>16.3</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.42</v>
       </c>
       <c r="G10" t="n">
-        <v>14.209</v>
+        <v>15.985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>13.66</v>
+        <v>15.9</v>
       </c>
       <c r="F11" t="n">
-        <v>0.42</v>
+        <v>1.1</v>
       </c>
       <c r="G11" t="n">
-        <v>16.094</v>
+        <v>6.631</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>12.94</v>
+        <v>14.15</v>
       </c>
       <c r="F12" t="n">
-        <v>0.57</v>
+        <v>1.07</v>
       </c>
       <c r="G12" t="n">
-        <v>2.237</v>
+        <v>6.531</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>12.78</v>
+        <v>13.28</v>
       </c>
       <c r="F13" t="n">
-        <v>0.71</v>
+        <v>0.55</v>
       </c>
       <c r="G13" t="n">
-        <v>0.89</v>
+        <v>2.287</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.65</v>
+        <v>12.5</v>
       </c>
       <c r="F14" t="n">
-        <v>1.02</v>
+        <v>1.18</v>
       </c>
       <c r="G14" t="n">
-        <v>6.282</v>
+        <v>3.244</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.24</v>
+        <v>11.99</v>
       </c>
       <c r="F15" t="n">
-        <v>1.32</v>
+        <v>1.07</v>
       </c>
       <c r="G15" t="n">
-        <v>4.559</v>
+        <v>64.006</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>9.94</v>
+        <v>7.73</v>
       </c>
       <c r="F16" t="n">
-        <v>1</v>
+        <v>0.54</v>
       </c>
       <c r="G16" t="n">
-        <v>61.766</v>
+        <v>1.671</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>8.56</v>
+        <v>7.5</v>
       </c>
       <c r="F17" t="n">
-        <v>1.09</v>
+        <v>1.17</v>
       </c>
       <c r="G17" t="n">
-        <v>4.649</v>
+        <v>4.638</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7.44</v>
+        <v>7.49</v>
       </c>
       <c r="F18" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="G18" t="n">
-        <v>2.691</v>
+        <v>4.867</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -2817,91 +2817,91 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6.7</v>
+        <v>7.08</v>
       </c>
       <c r="F19" t="n">
-        <v>0.73</v>
+        <v>0.82</v>
       </c>
       <c r="G19" t="n">
-        <v>1.388</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.96</v>
+        <v>5.88</v>
       </c>
       <c r="F20" t="n">
-        <v>1.01</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>6.107</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.4</v>
+        <v>5.71</v>
       </c>
       <c r="F21" t="n">
-        <v>0.62</v>
+        <v>1.15</v>
       </c>
       <c r="G21" t="n">
-        <v>1.612</v>
+        <v>17.139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2910,230 +2910,230 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4.13</v>
+        <v>5.49</v>
       </c>
       <c r="F22" t="n">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="G22" t="n">
-        <v>1.436</v>
+        <v>1.655</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.92</v>
+        <v>4.51</v>
       </c>
       <c r="F23" t="n">
-        <v>0.42</v>
+        <v>1.15</v>
       </c>
       <c r="G23" t="n">
-        <v>1.856</v>
+        <v>14.324</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3.71</v>
+        <v>4.3</v>
       </c>
       <c r="F24" t="n">
-        <v>1.22</v>
+        <v>0.79</v>
       </c>
       <c r="G24" t="n">
-        <v>15.889</v>
+        <v>1.362</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.51</v>
+        <v>2.72</v>
       </c>
       <c r="F25" t="n">
-        <v>0.93</v>
+        <v>0.45</v>
       </c>
       <c r="G25" t="n">
-        <v>8.565</v>
+        <v>1.855</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3.4</v>
+        <v>2.57</v>
       </c>
       <c r="F26" t="n">
-        <v>0.78</v>
+        <v>0.67</v>
       </c>
       <c r="G26" t="n">
-        <v>1.231</v>
+        <v>2.106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>3.26</v>
+        <v>2.27</v>
       </c>
       <c r="F27" t="n">
-        <v>0.51</v>
+        <v>0.77</v>
       </c>
       <c r="G27" t="n">
-        <v>3.26</v>
+        <v>8.196999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>3.11</v>
+        <v>1.61</v>
       </c>
       <c r="F28" t="n">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="G28" t="n">
-        <v>13.715</v>
+        <v>5.811</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2.55</v>
+        <v>1.49</v>
       </c>
       <c r="F29" t="n">
-        <v>0.78</v>
+        <v>0.85</v>
       </c>
       <c r="G29" t="n">
-        <v>2.093</v>
+        <v>1.603</v>
       </c>
     </row>
     <row r="30">
@@ -3158,230 +3158,230 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2.55</v>
+        <v>0.99</v>
       </c>
       <c r="F30" t="n">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="G30" t="n">
-        <v>0.184</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.82</v>
+        <v>0.99</v>
       </c>
       <c r="G31" t="n">
-        <v>0.539</v>
+        <v>4.237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.15</v>
+        <v>-0.21</v>
       </c>
       <c r="F32" t="n">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="G32" t="n">
-        <v>4.386</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>0.9</v>
+        <v>-1.11</v>
       </c>
       <c r="F33" t="n">
-        <v>0.75</v>
+        <v>0.88</v>
       </c>
       <c r="G33" t="n">
-        <v>0.586</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>0.65</v>
+        <v>-1.77</v>
       </c>
       <c r="F34" t="n">
-        <v>0.84</v>
+        <v>0.74</v>
       </c>
       <c r="G34" t="n">
-        <v>1.667</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>0.32</v>
+        <v>-2.09</v>
       </c>
       <c r="F35" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="G35" t="n">
-        <v>1.605</v>
+        <v>1.469</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>-2.31</v>
       </c>
       <c r="F36" t="n">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="G36" t="n">
-        <v>1.785</v>
+        <v>6.726</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-0.42</v>
+        <v>-3.2</v>
       </c>
       <c r="F37" t="n">
-        <v>0.79</v>
+        <v>0.96</v>
       </c>
       <c r="G37" t="n">
-        <v>0.406</v>
+        <v>11.359</v>
       </c>
     </row>
     <row r="38">
@@ -3406,153 +3406,153 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-0.83</v>
+        <v>-3.38</v>
       </c>
       <c r="F38" t="n">
-        <v>0.48</v>
+        <v>0.51</v>
       </c>
       <c r="G38" t="n">
-        <v>4.63</v>
+        <v>4.179</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-1.49</v>
+        <v>-3.79</v>
       </c>
       <c r="F39" t="n">
-        <v>0.77</v>
+        <v>0.65</v>
       </c>
       <c r="G39" t="n">
-        <v>0.805</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-1.76</v>
+        <v>-4.12</v>
       </c>
       <c r="F40" t="n">
-        <v>0.76</v>
+        <v>0.55</v>
       </c>
       <c r="G40" t="n">
-        <v>0.114</v>
+        <v>1.672</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-2.2</v>
+        <v>-4.52</v>
       </c>
       <c r="F41" t="n">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="G41" t="n">
-        <v>1.494</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-2.43</v>
+        <v>-4.71</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8</v>
+        <v>0.98</v>
       </c>
       <c r="G42" t="n">
-        <v>11.035</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -3561,292 +3561,292 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-4.62</v>
+        <v>-4.82</v>
       </c>
       <c r="F43" t="n">
-        <v>0.55</v>
+        <v>0.57</v>
       </c>
       <c r="G43" t="n">
-        <v>1.687</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-4.69</v>
+        <v>-5.02</v>
       </c>
       <c r="F44" t="n">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>0.626</v>
+        <v>1.083</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-5.19</v>
+        <v>-5.58</v>
       </c>
       <c r="F45" t="n">
-        <v>0.82</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>0.083</v>
+        <v>1.604</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-5.58</v>
+        <v>-8.23</v>
       </c>
       <c r="F46" t="n">
-        <v>0.59</v>
+        <v>0.89</v>
       </c>
       <c r="G46" t="n">
-        <v>0.449</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-9.76</v>
+        <v>-8.94</v>
       </c>
       <c r="F47" t="n">
-        <v>0.7</v>
+        <v>0.59</v>
       </c>
       <c r="G47" t="n">
-        <v>4.972</v>
+        <v>3.189</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-10.17</v>
+        <v>-9.93</v>
       </c>
       <c r="F48" t="n">
-        <v>0.34</v>
+        <v>0.74</v>
       </c>
       <c r="G48" t="n">
-        <v>2.471</v>
+        <v>5.036</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-10.2</v>
+        <v>-10.1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.93</v>
+        <v>0.35</v>
       </c>
       <c r="G49" t="n">
-        <v>6.728</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-11.06</v>
+        <v>-10.53</v>
       </c>
       <c r="F50" t="n">
-        <v>0.66</v>
+        <v>0.86</v>
       </c>
       <c r="G50" t="n">
-        <v>3.155</v>
+        <v>1.708</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-11.33</v>
+        <v>-13.66</v>
       </c>
       <c r="F51" t="n">
-        <v>0.17</v>
+        <v>0.65</v>
       </c>
       <c r="G51" t="n">
-        <v>0.787</v>
+        <v>2.799</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>-16.93</v>
+        <v>-19.06</v>
       </c>
       <c r="F52" t="n">
-        <v>0.88</v>
+        <v>0.19</v>
       </c>
       <c r="G52" t="n">
-        <v>1.871</v>
+        <v>0.707</v>
       </c>
     </row>
   </sheetData>
@@ -3902,13 +3902,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>47.13</v>
+        <v>63.89</v>
       </c>
       <c r="C2" t="n">
         <v>1.16</v>
       </c>
       <c r="D2" t="n">
-        <v>17.118</v>
+        <v>20.383</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3921,13 +3921,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.82</v>
+        <v>24.7</v>
       </c>
       <c r="C3" t="n">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="D3" t="n">
-        <v>15.757</v>
+        <v>15.994</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3940,13 +3940,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.24</v>
+        <v>23.67</v>
       </c>
       <c r="C4" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="D4" t="n">
-        <v>20.223</v>
+        <v>20.534</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3959,13 +3959,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.83</v>
+        <v>20.37</v>
       </c>
       <c r="C5" t="n">
-        <v>1.48</v>
+        <v>1.54</v>
       </c>
       <c r="D5" t="n">
-        <v>7.801</v>
+        <v>8.085000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3978,13 +3978,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.83</v>
+        <v>17.55</v>
       </c>
       <c r="C6" t="n">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="D6" t="n">
-        <v>21.928</v>
+        <v>23.622</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -3993,36 +3993,36 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15.22</v>
+        <v>17.46</v>
       </c>
       <c r="C7" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.114</v>
+      </c>
+      <c r="E7" t="n">
         <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.653</v>
-      </c>
-      <c r="E7" t="n">
-        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.94</v>
+        <v>15.9</v>
       </c>
       <c r="C8" t="n">
-        <v>0.57</v>
+        <v>1.1</v>
       </c>
       <c r="D8" t="n">
-        <v>2.237</v>
+        <v>6.631</v>
       </c>
       <c r="E8" t="n">
         <v>1</v>
@@ -4031,17 +4031,17 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>12.465</v>
+        <v>14.145</v>
       </c>
       <c r="C9" t="n">
-        <v>0.515</v>
+        <v>0.745</v>
       </c>
       <c r="D9" t="n">
-        <v>1.608</v>
+        <v>79.991</v>
       </c>
       <c r="E9" t="n">
         <v>2</v>
@@ -4050,36 +4050,36 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11.805</v>
+        <v>13.28</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9500000000000001</v>
+        <v>0.55</v>
       </c>
       <c r="D10" t="n">
-        <v>18.858</v>
+        <v>2.287</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.8</v>
+        <v>13.18</v>
       </c>
       <c r="C11" t="n">
-        <v>0.71</v>
+        <v>0.98</v>
       </c>
       <c r="D11" t="n">
-        <v>77.86</v>
+        <v>20.343</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -4088,55 +4088,55 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.65</v>
+        <v>9.855</v>
       </c>
       <c r="C12" t="n">
-        <v>1.02</v>
+        <v>0.61</v>
       </c>
       <c r="D12" t="n">
-        <v>6.282</v>
+        <v>1.624</v>
       </c>
       <c r="E12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.74</v>
+        <v>8.293333333333333</v>
       </c>
       <c r="C13" t="n">
-        <v>0.72</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>2.278</v>
+        <v>10.299</v>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.44</v>
+        <v>7.73</v>
       </c>
       <c r="C14" t="n">
-        <v>1.08</v>
+        <v>0.54</v>
       </c>
       <c r="D14" t="n">
-        <v>2.691</v>
+        <v>1.671</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -4145,17 +4145,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.96</v>
+        <v>5.71</v>
       </c>
       <c r="C15" t="n">
-        <v>1.01</v>
+        <v>1.15</v>
       </c>
       <c r="D15" t="n">
-        <v>6.107</v>
+        <v>17.139</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -4164,36 +4164,36 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.4</v>
+        <v>5.69</v>
       </c>
       <c r="C16" t="n">
-        <v>0.62</v>
+        <v>0.8049999999999999</v>
       </c>
       <c r="D16" t="n">
-        <v>1.612</v>
+        <v>2.202</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.71</v>
+        <v>4.51</v>
       </c>
       <c r="C17" t="n">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="D17" t="n">
-        <v>15.889</v>
+        <v>14.324</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -4202,36 +4202,36 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.33</v>
+        <v>2.308</v>
       </c>
       <c r="C18" t="n">
-        <v>0.645</v>
+        <v>0.906</v>
       </c>
       <c r="D18" t="n">
-        <v>4.491</v>
+        <v>5.973</v>
       </c>
       <c r="E18" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.11</v>
+        <v>1.61</v>
       </c>
       <c r="C19" t="n">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="D19" t="n">
-        <v>13.715</v>
+        <v>5.811</v>
       </c>
       <c r="E19" t="n">
         <v>1</v>
@@ -4244,13 +4244,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2.55</v>
+        <v>0.99</v>
       </c>
       <c r="C20" t="n">
-        <v>0.78</v>
+        <v>0.68</v>
       </c>
       <c r="D20" t="n">
-        <v>0.184</v>
+        <v>0.18</v>
       </c>
       <c r="E20" t="n">
         <v>1</v>
@@ -4263,13 +4263,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9099999999999998</v>
+        <v>0.3766666666666668</v>
       </c>
       <c r="C21" t="n">
-        <v>0.92</v>
+        <v>0.8099999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>9.807</v>
+        <v>9.933</v>
       </c>
       <c r="E21" t="n">
         <v>3</v>
@@ -4278,36 +4278,36 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.6379999999999999</v>
+        <v>-0.02000000000000002</v>
       </c>
       <c r="C22" t="n">
-        <v>0.828</v>
+        <v>0.845</v>
       </c>
       <c r="D22" t="n">
-        <v>5.919</v>
+        <v>14.923</v>
       </c>
       <c r="E22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-2.09</v>
       </c>
       <c r="C23" t="n">
         <v>0.79</v>
       </c>
       <c r="D23" t="n">
-        <v>1.785</v>
+        <v>1.469</v>
       </c>
       <c r="E23" t="n">
         <v>1</v>
@@ -4320,13 +4320,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.53</v>
+        <v>-2.6025</v>
       </c>
       <c r="C24" t="n">
-        <v>0.6975</v>
+        <v>0.785</v>
       </c>
       <c r="D24" t="n">
-        <v>22.249</v>
+        <v>22.487</v>
       </c>
       <c r="E24" t="n">
         <v>4</v>
@@ -4335,36 +4335,36 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-1.76</v>
+        <v>-4.243333333333333</v>
       </c>
       <c r="C25" t="n">
-        <v>0.76</v>
+        <v>0.59</v>
       </c>
       <c r="D25" t="n">
-        <v>0.114</v>
+        <v>2.758</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-2.2</v>
+        <v>-4.52</v>
       </c>
       <c r="C26" t="n">
-        <v>0.87</v>
+        <v>0.79</v>
       </c>
       <c r="D26" t="n">
-        <v>1.494</v>
+        <v>0.113</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4373,39 +4373,39 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-3.345</v>
+        <v>-5.58</v>
       </c>
       <c r="C27" t="n">
-        <v>0.93</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D27" t="n">
-        <v>15.293</v>
+        <v>1.604</v>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-4.963333333333334</v>
+        <v>-6.74</v>
       </c>
       <c r="C28" t="n">
-        <v>0.59</v>
+        <v>0.43</v>
       </c>
       <c r="D28" t="n">
-        <v>2.762</v>
+        <v>6.589</v>
       </c>
       <c r="E28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29">
@@ -4415,13 +4415,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-5.19</v>
+        <v>-8.23</v>
       </c>
       <c r="C29" t="n">
-        <v>0.82</v>
+        <v>0.89</v>
       </c>
       <c r="D29" t="n">
-        <v>0.083</v>
+        <v>0.082</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -4430,17 +4430,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-5.5</v>
+        <v>-9.34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.41</v>
+        <v>0.825</v>
       </c>
       <c r="D30" t="n">
-        <v>7.101</v>
+        <v>3.882</v>
       </c>
       <c r="E30" t="n">
         <v>2</v>
@@ -4449,17 +4449,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-11.33</v>
+        <v>-10.53</v>
       </c>
       <c r="C31" t="n">
-        <v>0.17</v>
+        <v>0.86</v>
       </c>
       <c r="D31" t="n">
-        <v>0.787</v>
+        <v>1.708</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -4468,17 +4468,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-16.93</v>
+        <v>-19.06</v>
       </c>
       <c r="C32" t="n">
-        <v>0.88</v>
+        <v>0.19</v>
       </c>
       <c r="D32" t="n">
-        <v>1.871</v>
+        <v>0.707</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -4592,34 +4592,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1825</v>
+        <v>1855</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.19</v>
+        <v>1.64</v>
       </c>
       <c r="F2" t="n">
-        <v>3.11</v>
+        <v>4.51</v>
       </c>
       <c r="G2" t="n">
-        <v>46.99</v>
+        <v>41.74</v>
       </c>
       <c r="H2" t="n">
-        <v>98.4211</v>
+        <v>80.2841</v>
       </c>
       <c r="I2" t="n">
-        <v>20.3</v>
+        <v>23.4</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="K2" t="n">
-        <v>9.039999999999999</v>
+        <v>8.550000000000001</v>
       </c>
       <c r="L2" t="n">
-        <v>15</v>
+        <v>-26.9</v>
       </c>
       <c r="M2" t="n">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -4644,34 +4644,34 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1845</v>
+        <v>1855</v>
       </c>
       <c r="E3" t="n">
-        <v>0.82</v>
+        <v>0.54</v>
       </c>
       <c r="F3" t="n">
-        <v>24.24</v>
+        <v>23.67</v>
       </c>
       <c r="G3" t="n">
-        <v>76.76000000000001</v>
+        <v>76.43000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>92.6228</v>
+        <v>94.4084</v>
       </c>
       <c r="I3" t="n">
-        <v>80.90000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="J3" t="n">
         <v>100</v>
       </c>
       <c r="K3" t="n">
-        <v>4.55</v>
+        <v>4.56</v>
       </c>
       <c r="L3" t="n">
-        <v>-1.3</v>
+        <v>-25.6</v>
       </c>
       <c r="M3" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
@@ -4696,38 +4696,38 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64</v>
+        <v>64.7</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.69</v>
+        <v>1.09</v>
       </c>
       <c r="F4" t="n">
-        <v>24.03</v>
+        <v>24.42</v>
       </c>
       <c r="G4" t="n">
-        <v>64.62</v>
+        <v>64.83</v>
       </c>
       <c r="H4" t="n">
-        <v>3.9701</v>
+        <v>3.7093</v>
       </c>
       <c r="I4" t="n">
-        <v>60.6</v>
+        <v>61</v>
       </c>
       <c r="J4" t="n">
-        <v>56</v>
+        <v>58.5</v>
       </c>
       <c r="K4" t="n">
-        <v>7.41</v>
+        <v>7.58</v>
       </c>
       <c r="L4" t="n">
-        <v>-87</v>
+        <v>-88.40000000000001</v>
       </c>
       <c r="M4" t="n">
-        <v>0.28</v>
+        <v>0.24</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>⚠️ TAKE PROFIT</t>
+          <t>👀 WATCH</t>
         </is>
       </c>
     </row>
@@ -4748,34 +4748,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>61.8</v>
+        <v>62</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.59</v>
+        <v>0.32</v>
       </c>
       <c r="F5" t="n">
-        <v>-11.33</v>
+        <v>-19.06</v>
       </c>
       <c r="G5" t="n">
-        <v>31.94</v>
+        <v>22.43</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.0637</v>
+        <v>-2.2368</v>
       </c>
       <c r="I5" t="n">
-        <v>13.9</v>
+        <v>18.4</v>
       </c>
       <c r="J5" t="n">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="K5" t="n">
-        <v>6.07</v>
+        <v>5.45</v>
       </c>
       <c r="L5" t="n">
-        <v>-86.5</v>
+        <v>-77.8</v>
       </c>
       <c r="M5" t="n">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -4800,38 +4800,38 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>190</v>
+        <v>180</v>
       </c>
       <c r="E6" t="n">
-        <v>9.83</v>
+        <v>-5.26</v>
       </c>
       <c r="F6" t="n">
-        <v>21.79</v>
+        <v>12.5</v>
       </c>
       <c r="G6" t="n">
-        <v>56.72</v>
+        <v>51.14</v>
       </c>
       <c r="H6" t="n">
-        <v>5.8186</v>
+        <v>5.953</v>
       </c>
       <c r="I6" t="n">
-        <v>109</v>
+        <v>74.40000000000001</v>
       </c>
       <c r="J6" t="n">
-        <v>100</v>
+        <v>70.09999999999999</v>
       </c>
       <c r="K6" t="n">
-        <v>6.13</v>
+        <v>6.73</v>
       </c>
       <c r="L6" t="n">
-        <v>72.7</v>
+        <v>104</v>
       </c>
       <c r="M6" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>🚀 BUY STRONG</t>
+          <t>❌ EXIT</t>
         </is>
       </c>
     </row>
@@ -4852,34 +4852,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="E7" t="n">
-        <v>1.14</v>
+        <v>2.71</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.43</v>
+        <v>-3.2</v>
       </c>
       <c r="G7" t="n">
-        <v>52.78</v>
+        <v>54.67</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.4347</v>
+        <v>-1.6863</v>
       </c>
       <c r="I7" t="n">
-        <v>42.1</v>
+        <v>69.5</v>
       </c>
       <c r="J7" t="n">
-        <v>59.1</v>
+        <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>2.47</v>
+        <v>2.39</v>
       </c>
       <c r="L7" t="n">
-        <v>-7.5</v>
+        <v>31.6</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8</v>
+        <v>0.96</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -4604,7 +4604,7 @@
         <v>41.74</v>
       </c>
       <c r="H2" t="n">
-        <v>80.2841</v>
+        <v>81.95489999999999</v>
       </c>
       <c r="I2" t="n">
         <v>23.4</v>
@@ -4656,7 +4656,7 @@
         <v>76.43000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>94.4084</v>
+        <v>94.4265</v>
       </c>
       <c r="I3" t="n">
         <v>79.5</v>
@@ -4708,7 +4708,7 @@
         <v>64.83</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7093</v>
+        <v>3.7418</v>
       </c>
       <c r="I4" t="n">
         <v>61</v>
@@ -4760,7 +4760,7 @@
         <v>22.43</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.2368</v>
+        <v>-2.2141</v>
       </c>
       <c r="I5" t="n">
         <v>18.4</v>
@@ -4812,7 +4812,7 @@
         <v>51.14</v>
       </c>
       <c r="H6" t="n">
-        <v>5.953</v>
+        <v>6.1636</v>
       </c>
       <c r="I6" t="n">
         <v>74.40000000000001</v>
@@ -4864,7 +4864,7 @@
         <v>54.67</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.6863</v>
+        <v>-1.4312</v>
       </c>
       <c r="I7" t="n">
         <v>69.5</v>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -991,27 +991,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1260</v>
+        <v>286</v>
       </c>
       <c r="E17" t="n">
-        <v>6.33</v>
+        <v>0.35</v>
       </c>
       <c r="F17" t="n">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1019,33 +1019,33 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>15.476</v>
+        <v>4.237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E18" t="n">
-        <v>0.35</v>
+        <v>2.58</v>
       </c>
       <c r="F18" t="n">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,33 +1053,33 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4.237</v>
+        <v>23.622</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>278</v>
+        <v>313.5</v>
       </c>
       <c r="E19" t="n">
-        <v>2.58</v>
+        <v>3.81</v>
       </c>
       <c r="F19" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1087,101 +1087,101 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>23.622</v>
+        <v>6.631</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>313.5</v>
+        <v>223</v>
       </c>
       <c r="E20" t="n">
-        <v>3.81</v>
+        <v>-2.41</v>
       </c>
       <c r="F20" t="n">
         <v>106</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6.631</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>223</v>
+        <v>22.7</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.41</v>
+        <v>-1.09</v>
       </c>
       <c r="F21" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.082</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>22.7</v>
+        <v>95.2</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.09</v>
+        <v>0.74</v>
       </c>
       <c r="F22" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1189,67 +1189,67 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.84</v>
+        <v>1.603</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>95.2</v>
+        <v>354.5</v>
       </c>
       <c r="E23" t="n">
-        <v>0.74</v>
+        <v>3.05</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.603</v>
+        <v>8.085000000000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>354.5</v>
+        <v>38.85</v>
       </c>
       <c r="E24" t="n">
-        <v>3.05</v>
+        <v>-0.38</v>
       </c>
       <c r="F24" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1257,41 +1257,41 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8.085000000000001</v>
+        <v>1.362</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>38.85</v>
+        <v>30.65</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.38</v>
+        <v>-0.33</v>
       </c>
       <c r="F25" t="n">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.362</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="26">
@@ -1331,126 +1331,126 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>30.65</v>
+        <v>63.1</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.33</v>
+        <v>-1.87</v>
       </c>
       <c r="F27" t="n">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.113</v>
+        <v>15.994</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>63.1</v>
+        <v>131.5</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.87</v>
+        <v>1.54</v>
       </c>
       <c r="F28" t="n">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>15.994</v>
+        <v>5.036</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>131.5</v>
+        <v>20.9</v>
       </c>
       <c r="E29" t="n">
-        <v>1.54</v>
+        <v>1.95</v>
       </c>
       <c r="F29" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5.036</v>
+        <v>1.671</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>20.9</v>
+        <v>1855</v>
       </c>
       <c r="E30" t="n">
-        <v>1.95</v>
+        <v>0.54</v>
       </c>
       <c r="F30" t="n">
         <v>74</v>
@@ -1461,67 +1461,67 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1.671</v>
+        <v>20.534</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>1855</v>
       </c>
       <c r="E31" t="n">
-        <v>0.54</v>
+        <v>1.64</v>
       </c>
       <c r="F31" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>20.534</v>
+        <v>14.324</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1855</v>
+        <v>53.3</v>
       </c>
       <c r="E32" t="n">
-        <v>1.64</v>
+        <v>0.95</v>
       </c>
       <c r="F32" t="n">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>14.324</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="33">
@@ -1569,27 +1569,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>53.3</v>
+        <v>476</v>
       </c>
       <c r="E34" t="n">
-        <v>0.95</v>
+        <v>-0.52</v>
       </c>
       <c r="F34" t="n">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1597,33 +1597,33 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.632</v>
+        <v>1.708</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>476</v>
+        <v>294</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.52</v>
+        <v>-1.01</v>
       </c>
       <c r="F35" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1631,30 +1631,30 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1.708</v>
+        <v>4.638</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.01</v>
+        <v>0.67</v>
       </c>
       <c r="F36" t="n">
         <v>65</v>
@@ -1665,33 +1665,33 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>4.638</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>75</v>
+        <v>186</v>
       </c>
       <c r="E37" t="n">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1699,33 +1699,33 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.454</v>
+        <v>1.672</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>186</v>
+        <v>375</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>-0.53</v>
       </c>
       <c r="F38" t="n">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1733,33 +1733,33 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1.672</v>
+        <v>1.469</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>375</v>
+        <v>35.7</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.53</v>
+        <v>-1.38</v>
       </c>
       <c r="F39" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1767,101 +1767,101 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1.469</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>35.7</v>
+        <v>46.5</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.38</v>
+        <v>2.42</v>
       </c>
       <c r="F40" t="n">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.18</v>
+        <v>2.287</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>46.5</v>
+        <v>199.5</v>
       </c>
       <c r="E41" t="n">
-        <v>2.42</v>
+        <v>-0.75</v>
       </c>
       <c r="F41" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2.287</v>
+        <v>2.106</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>199.5</v>
+        <v>45.35</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F42" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1869,33 +1869,33 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2.106</v>
+        <v>1.855</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>45.35</v>
+        <v>1270</v>
       </c>
       <c r="E43" t="n">
-        <v>0.67</v>
+        <v>-2.31</v>
       </c>
       <c r="F43" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1903,33 +1903,33 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1.855</v>
+        <v>1.604</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1270</v>
+        <v>2475</v>
       </c>
       <c r="E44" t="n">
-        <v>-2.31</v>
+        <v>-1.2</v>
       </c>
       <c r="F44" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1937,33 +1937,33 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1.604</v>
+        <v>8.196999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2475</v>
+        <v>219</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.2</v>
+        <v>2.82</v>
       </c>
       <c r="F45" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1971,33 +1971,33 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>8.196999999999999</v>
+        <v>3.189</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>219</v>
+        <v>62.8</v>
       </c>
       <c r="E46" t="n">
-        <v>2.82</v>
+        <v>0.64</v>
       </c>
       <c r="F46" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2005,33 +2005,33 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3.189</v>
+        <v>15.985</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>62.8</v>
+        <v>53.4</v>
       </c>
       <c r="E47" t="n">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="F47" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>15.985</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="48">
@@ -2079,27 +2079,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>53.4</v>
+        <v>126</v>
       </c>
       <c r="E49" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="F49" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2107,33 +2107,33 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>2.41</v>
+        <v>5.811</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="E50" t="n">
-        <v>1.2</v>
+        <v>0.32</v>
       </c>
       <c r="F50" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2141,74 +2141,40 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>5.811</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>62</v>
+        <v>64.7</v>
       </c>
       <c r="E51" t="n">
-        <v>0.32</v>
+        <v>1.09</v>
       </c>
       <c r="F51" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0.707</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>8096</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>擎亞</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>CoAsia</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="F52" t="n">
-        <v>12</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Accumulation (Up)</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
         <v>1.028</v>
       </c>
     </row>
@@ -2223,7 +2189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2426,792 +2392,792 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18.87</v>
+        <v>17.55</v>
       </c>
       <c r="F7" t="n">
-        <v>0.91</v>
+        <v>1.16</v>
       </c>
       <c r="G7" t="n">
-        <v>15.476</v>
+        <v>23.622</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17.55</v>
+        <v>17.46</v>
       </c>
       <c r="F8" t="n">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="G8" t="n">
-        <v>23.622</v>
+        <v>3.114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17.46</v>
+        <v>16.3</v>
       </c>
       <c r="F9" t="n">
-        <v>1.17</v>
+        <v>0.42</v>
       </c>
       <c r="G9" t="n">
-        <v>3.114</v>
+        <v>15.985</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="F10" t="n">
-        <v>0.42</v>
+        <v>1.1</v>
       </c>
       <c r="G10" t="n">
-        <v>15.985</v>
+        <v>6.631</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15.9</v>
+        <v>14.15</v>
       </c>
       <c r="F11" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="G11" t="n">
-        <v>6.631</v>
+        <v>6.531</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>14.15</v>
+        <v>13.28</v>
       </c>
       <c r="F12" t="n">
-        <v>1.07</v>
+        <v>0.55</v>
       </c>
       <c r="G12" t="n">
-        <v>6.531</v>
+        <v>2.287</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13.28</v>
+        <v>12.5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.55</v>
+        <v>1.18</v>
       </c>
       <c r="G13" t="n">
-        <v>2.287</v>
+        <v>3.244</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.5</v>
+        <v>11.99</v>
       </c>
       <c r="F14" t="n">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="G14" t="n">
-        <v>3.244</v>
+        <v>64.006</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.99</v>
+        <v>7.73</v>
       </c>
       <c r="F15" t="n">
-        <v>1.07</v>
+        <v>0.54</v>
       </c>
       <c r="G15" t="n">
-        <v>64.006</v>
+        <v>1.671</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.73</v>
+        <v>7.5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.54</v>
+        <v>1.17</v>
       </c>
       <c r="G16" t="n">
-        <v>1.671</v>
+        <v>4.638</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.5</v>
+        <v>7.49</v>
       </c>
       <c r="F17" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="G17" t="n">
-        <v>4.638</v>
+        <v>4.867</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7.49</v>
+        <v>7.08</v>
       </c>
       <c r="F18" t="n">
-        <v>1.05</v>
+        <v>0.82</v>
       </c>
       <c r="G18" t="n">
-        <v>4.867</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>7.08</v>
+        <v>5.88</v>
       </c>
       <c r="F19" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>0.84</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.88</v>
+        <v>5.71</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="G20" t="n">
-        <v>1.47</v>
+        <v>17.139</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.71</v>
+        <v>5.49</v>
       </c>
       <c r="F21" t="n">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="G21" t="n">
-        <v>17.139</v>
+        <v>1.655</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5.49</v>
+        <v>4.51</v>
       </c>
       <c r="F22" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="G22" t="n">
-        <v>1.655</v>
+        <v>14.324</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.51</v>
+        <v>4.3</v>
       </c>
       <c r="F23" t="n">
-        <v>1.15</v>
+        <v>0.79</v>
       </c>
       <c r="G23" t="n">
-        <v>14.324</v>
+        <v>1.362</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.3</v>
+        <v>2.72</v>
       </c>
       <c r="F24" t="n">
-        <v>0.79</v>
+        <v>0.45</v>
       </c>
       <c r="G24" t="n">
-        <v>1.362</v>
+        <v>1.855</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2.72</v>
+        <v>2.57</v>
       </c>
       <c r="F25" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="G25" t="n">
-        <v>1.855</v>
+        <v>2.106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.57</v>
+        <v>2.27</v>
       </c>
       <c r="F26" t="n">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="G26" t="n">
-        <v>2.106</v>
+        <v>8.196999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.27</v>
+        <v>1.61</v>
       </c>
       <c r="F27" t="n">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="G27" t="n">
-        <v>8.196999999999999</v>
+        <v>5.811</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="F28" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="G28" t="n">
-        <v>5.811</v>
+        <v>1.603</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.49</v>
+        <v>0.99</v>
       </c>
       <c r="F29" t="n">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="G29" t="n">
-        <v>1.603</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.99</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.68</v>
-      </c>
       <c r="G30" t="n">
-        <v>0.18</v>
+        <v>4.237</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-0.21</v>
       </c>
       <c r="F31" t="n">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="G31" t="n">
-        <v>4.237</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3220,215 +3186,215 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-0.21</v>
+        <v>-1.11</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="G32" t="n">
-        <v>0.416</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-1.11</v>
+        <v>-1.77</v>
       </c>
       <c r="F33" t="n">
-        <v>0.88</v>
+        <v>0.74</v>
       </c>
       <c r="G33" t="n">
-        <v>0.829</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-1.77</v>
+        <v>-2.09</v>
       </c>
       <c r="F34" t="n">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="G34" t="n">
-        <v>0.524</v>
+        <v>1.469</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-2.09</v>
+        <v>-2.31</v>
       </c>
       <c r="F35" t="n">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="G35" t="n">
-        <v>1.469</v>
+        <v>6.726</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-2.31</v>
+        <v>-3.2</v>
       </c>
       <c r="F36" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G36" t="n">
-        <v>6.726</v>
+        <v>11.359</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-3.2</v>
+        <v>-3.38</v>
       </c>
       <c r="F37" t="n">
-        <v>0.96</v>
+        <v>0.51</v>
       </c>
       <c r="G37" t="n">
-        <v>11.359</v>
+        <v>4.179</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-3.38</v>
+        <v>-3.79</v>
       </c>
       <c r="F38" t="n">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="G38" t="n">
-        <v>4.179</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3437,415 +3403,384 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-3.79</v>
+        <v>-4.12</v>
       </c>
       <c r="F39" t="n">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
       <c r="G39" t="n">
-        <v>0.632</v>
+        <v>1.672</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-4.12</v>
+        <v>-4.52</v>
       </c>
       <c r="F40" t="n">
-        <v>0.55</v>
+        <v>0.79</v>
       </c>
       <c r="G40" t="n">
-        <v>1.672</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-4.52</v>
+        <v>-4.71</v>
       </c>
       <c r="F41" t="n">
-        <v>0.79</v>
+        <v>0.98</v>
       </c>
       <c r="G41" t="n">
-        <v>0.113</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-4.71</v>
+        <v>-4.82</v>
       </c>
       <c r="F42" t="n">
-        <v>0.98</v>
+        <v>0.57</v>
       </c>
       <c r="G42" t="n">
-        <v>0.596</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-4.82</v>
+        <v>-5.02</v>
       </c>
       <c r="F43" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0.454</v>
+        <v>1.083</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-5.02</v>
+        <v>-5.58</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>1.083</v>
+        <v>1.604</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-5.58</v>
+        <v>-8.23</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G45" t="n">
-        <v>1.604</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-8.23</v>
+        <v>-8.94</v>
       </c>
       <c r="F46" t="n">
-        <v>0.89</v>
+        <v>0.59</v>
       </c>
       <c r="G46" t="n">
-        <v>0.082</v>
+        <v>3.189</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-8.94</v>
+        <v>-9.93</v>
       </c>
       <c r="F47" t="n">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="G47" t="n">
-        <v>3.189</v>
+        <v>5.036</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-9.93</v>
+        <v>-10.1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.74</v>
+        <v>0.35</v>
       </c>
       <c r="G48" t="n">
-        <v>5.036</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-10.1</v>
+        <v>-10.53</v>
       </c>
       <c r="F49" t="n">
-        <v>0.35</v>
+        <v>0.86</v>
       </c>
       <c r="G49" t="n">
-        <v>2.41</v>
+        <v>1.708</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-10.53</v>
+        <v>-13.66</v>
       </c>
       <c r="F50" t="n">
-        <v>0.86</v>
+        <v>0.65</v>
       </c>
       <c r="G50" t="n">
-        <v>1.708</v>
+        <v>2.799</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-13.66</v>
+        <v>-19.06</v>
       </c>
       <c r="F51" t="n">
-        <v>0.65</v>
+        <v>0.19</v>
       </c>
       <c r="G51" t="n">
-        <v>2.799</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>6173</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>信昌電</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Shinmore</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Electronic Components</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>-19.06</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="G52" t="n">
         <v>0.707</v>
       </c>
     </row>
@@ -4069,17 +4004,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.18</v>
+        <v>9.855</v>
       </c>
       <c r="C11" t="n">
-        <v>0.98</v>
+        <v>0.61</v>
       </c>
       <c r="D11" t="n">
-        <v>20.343</v>
+        <v>1.624</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -4088,55 +4023,55 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.855</v>
+        <v>8.293333333333333</v>
       </c>
       <c r="C12" t="n">
-        <v>0.61</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="D12" t="n">
-        <v>1.624</v>
+        <v>10.299</v>
       </c>
       <c r="E12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.293333333333333</v>
+        <v>7.73</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9966666666666667</v>
+        <v>0.54</v>
       </c>
       <c r="D13" t="n">
-        <v>10.299</v>
+        <v>1.671</v>
       </c>
       <c r="E13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.73</v>
+        <v>7.49</v>
       </c>
       <c r="C14" t="n">
-        <v>0.54</v>
+        <v>1.05</v>
       </c>
       <c r="D14" t="n">
-        <v>1.671</v>
+        <v>4.867</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -4604,7 +4539,7 @@
         <v>41.74</v>
       </c>
       <c r="H2" t="n">
-        <v>81.95489999999999</v>
+        <v>80.2774</v>
       </c>
       <c r="I2" t="n">
         <v>23.4</v>
@@ -4656,7 +4591,7 @@
         <v>76.43000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>94.4265</v>
+        <v>94.9751</v>
       </c>
       <c r="I3" t="n">
         <v>79.5</v>
@@ -4708,7 +4643,7 @@
         <v>64.83</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7418</v>
+        <v>3.7306</v>
       </c>
       <c r="I4" t="n">
         <v>61</v>
@@ -4760,7 +4695,7 @@
         <v>22.43</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.2141</v>
+        <v>-2.1749</v>
       </c>
       <c r="I5" t="n">
         <v>18.4</v>
@@ -4812,7 +4747,7 @@
         <v>51.14</v>
       </c>
       <c r="H6" t="n">
-        <v>6.1636</v>
+        <v>5.9959</v>
       </c>
       <c r="I6" t="n">
         <v>74.40000000000001</v>
@@ -4864,7 +4799,7 @@
         <v>54.67</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.4312</v>
+        <v>-1.7388</v>
       </c>
       <c r="I7" t="n">
         <v>69.5</v>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -991,27 +991,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>286</v>
+        <v>1260</v>
       </c>
       <c r="E17" t="n">
-        <v>0.35</v>
+        <v>6.33</v>
       </c>
       <c r="F17" t="n">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1019,33 +1019,33 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>4.237</v>
+        <v>15.476</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="E18" t="n">
-        <v>2.58</v>
+        <v>0.35</v>
       </c>
       <c r="F18" t="n">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,33 +1053,33 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>23.622</v>
+        <v>4.237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>313.5</v>
+        <v>278</v>
       </c>
       <c r="E19" t="n">
-        <v>3.81</v>
+        <v>2.58</v>
       </c>
       <c r="F19" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1087,101 +1087,101 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>6.631</v>
+        <v>23.622</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>223</v>
+        <v>313.5</v>
       </c>
       <c r="E20" t="n">
-        <v>-2.41</v>
+        <v>3.81</v>
       </c>
       <c r="F20" t="n">
         <v>106</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.082</v>
+        <v>6.631</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>22.7</v>
+        <v>223</v>
       </c>
       <c r="E21" t="n">
-        <v>-1.09</v>
+        <v>-2.41</v>
       </c>
       <c r="F21" t="n">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.84</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>95.2</v>
+        <v>22.7</v>
       </c>
       <c r="E22" t="n">
-        <v>0.74</v>
+        <v>-1.09</v>
       </c>
       <c r="F22" t="n">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1189,67 +1189,67 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>1.603</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>354.5</v>
+        <v>95.2</v>
       </c>
       <c r="E23" t="n">
-        <v>3.05</v>
+        <v>0.74</v>
       </c>
       <c r="F23" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>8.085000000000001</v>
+        <v>1.603</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>38.85</v>
+        <v>354.5</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.38</v>
+        <v>3.05</v>
       </c>
       <c r="F24" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1257,41 +1257,41 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>1.362</v>
+        <v>8.085000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>30.65</v>
+        <v>38.85</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.33</v>
+        <v>-0.38</v>
       </c>
       <c r="F25" t="n">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>0.113</v>
+        <v>1.362</v>
       </c>
     </row>
     <row r="26">
@@ -1331,126 +1331,126 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>63.1</v>
+        <v>30.65</v>
       </c>
       <c r="E27" t="n">
-        <v>-1.87</v>
+        <v>-0.33</v>
       </c>
       <c r="F27" t="n">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>15.994</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>131.5</v>
+        <v>63.1</v>
       </c>
       <c r="E28" t="n">
-        <v>1.54</v>
+        <v>-1.87</v>
       </c>
       <c r="F28" t="n">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>5.036</v>
+        <v>15.994</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>20.9</v>
+        <v>131.5</v>
       </c>
       <c r="E29" t="n">
-        <v>1.95</v>
+        <v>1.54</v>
       </c>
       <c r="F29" t="n">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>1.671</v>
+        <v>5.036</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1855</v>
+        <v>20.9</v>
       </c>
       <c r="E30" t="n">
-        <v>0.54</v>
+        <v>1.95</v>
       </c>
       <c r="F30" t="n">
         <v>74</v>
@@ -1461,67 +1461,67 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>20.534</v>
+        <v>1.671</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>1855</v>
       </c>
       <c r="E31" t="n">
-        <v>1.64</v>
+        <v>0.54</v>
       </c>
       <c r="F31" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>14.324</v>
+        <v>20.534</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>53.3</v>
+        <v>1855</v>
       </c>
       <c r="E32" t="n">
-        <v>0.95</v>
+        <v>1.64</v>
       </c>
       <c r="F32" t="n">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1529,7 +1529,7 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.632</v>
+        <v>14.324</v>
       </c>
     </row>
     <row r="33">
@@ -1569,27 +1569,27 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>476</v>
+        <v>53.3</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.52</v>
+        <v>0.95</v>
       </c>
       <c r="F34" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1597,33 +1597,33 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>1.708</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>294</v>
+        <v>476</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.01</v>
+        <v>-0.52</v>
       </c>
       <c r="F35" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1631,30 +1631,30 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>4.638</v>
+        <v>1.708</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="E36" t="n">
-        <v>0.67</v>
+        <v>-1.01</v>
       </c>
       <c r="F36" t="n">
         <v>65</v>
@@ -1665,33 +1665,33 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.454</v>
+        <v>4.638</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>186</v>
+        <v>75</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="F37" t="n">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1699,33 +1699,33 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>1.672</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>375</v>
+        <v>186</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.53</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1733,33 +1733,33 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1.469</v>
+        <v>1.672</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>35.7</v>
+        <v>375</v>
       </c>
       <c r="E39" t="n">
-        <v>-1.38</v>
+        <v>-0.53</v>
       </c>
       <c r="F39" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1767,101 +1767,101 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.18</v>
+        <v>1.469</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>46.5</v>
+        <v>35.7</v>
       </c>
       <c r="E40" t="n">
-        <v>2.42</v>
+        <v>-1.38</v>
       </c>
       <c r="F40" t="n">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H40" t="n">
-        <v>2.287</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>199.5</v>
+        <v>46.5</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.75</v>
+        <v>2.42</v>
       </c>
       <c r="F41" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2.106</v>
+        <v>2.287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>45.35</v>
+        <v>199.5</v>
       </c>
       <c r="E42" t="n">
-        <v>0.67</v>
+        <v>-0.75</v>
       </c>
       <c r="F42" t="n">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1869,33 +1869,33 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>1.855</v>
+        <v>2.106</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>1270</v>
+        <v>45.35</v>
       </c>
       <c r="E43" t="n">
-        <v>-2.31</v>
+        <v>0.67</v>
       </c>
       <c r="F43" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1903,33 +1903,33 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1.604</v>
+        <v>1.855</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>2475</v>
+        <v>1270</v>
       </c>
       <c r="E44" t="n">
-        <v>-1.2</v>
+        <v>-2.31</v>
       </c>
       <c r="F44" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1937,33 +1937,33 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>8.196999999999999</v>
+        <v>1.604</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>219</v>
+        <v>2475</v>
       </c>
       <c r="E45" t="n">
-        <v>2.82</v>
+        <v>-1.2</v>
       </c>
       <c r="F45" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1971,33 +1971,33 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>3.189</v>
+        <v>8.196999999999999</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>62.8</v>
+        <v>219</v>
       </c>
       <c r="E46" t="n">
-        <v>0.64</v>
+        <v>2.82</v>
       </c>
       <c r="F46" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
@@ -2005,33 +2005,33 @@
         </is>
       </c>
       <c r="H46" t="n">
-        <v>15.985</v>
+        <v>3.189</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>53.4</v>
+        <v>62.8</v>
       </c>
       <c r="E47" t="n">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="F47" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2.41</v>
+        <v>15.985</v>
       </c>
     </row>
     <row r="48">
@@ -2079,27 +2079,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>126</v>
+        <v>53.4</v>
       </c>
       <c r="E49" t="n">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="F49" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2107,33 +2107,33 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>5.811</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="E50" t="n">
-        <v>0.32</v>
+        <v>1.2</v>
       </c>
       <c r="F50" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2141,40 +2141,74 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0.707</v>
+        <v>5.811</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>信昌電</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Shinmore</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>62</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F51" t="n">
+        <v>22</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0.707</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>8096</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>擎亞</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>CoAsia</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D52" t="n">
         <v>64.7</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E52" t="n">
         <v>1.09</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F52" t="n">
         <v>12</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Accumulation (Up)</t>
         </is>
       </c>
-      <c r="H51" t="n">
+      <c r="H52" t="n">
         <v>1.028</v>
       </c>
     </row>
@@ -2189,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2392,792 +2426,792 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>17.55</v>
+        <v>18.87</v>
       </c>
       <c r="F7" t="n">
-        <v>1.16</v>
+        <v>0.91</v>
       </c>
       <c r="G7" t="n">
-        <v>23.622</v>
+        <v>15.476</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17.46</v>
+        <v>17.55</v>
       </c>
       <c r="F8" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="G8" t="n">
-        <v>3.114</v>
+        <v>23.622</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>16.3</v>
+        <v>17.46</v>
       </c>
       <c r="F9" t="n">
-        <v>0.42</v>
+        <v>1.17</v>
       </c>
       <c r="G9" t="n">
-        <v>15.985</v>
+        <v>3.114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15.9</v>
+        <v>16.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.1</v>
+        <v>0.42</v>
       </c>
       <c r="G10" t="n">
-        <v>6.631</v>
+        <v>15.985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14.15</v>
+        <v>15.9</v>
       </c>
       <c r="F11" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="G11" t="n">
-        <v>6.531</v>
+        <v>6.631</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>13.28</v>
+        <v>14.15</v>
       </c>
       <c r="F12" t="n">
-        <v>0.55</v>
+        <v>1.07</v>
       </c>
       <c r="G12" t="n">
-        <v>2.287</v>
+        <v>6.531</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>12.5</v>
+        <v>13.28</v>
       </c>
       <c r="F13" t="n">
-        <v>1.18</v>
+        <v>0.55</v>
       </c>
       <c r="G13" t="n">
-        <v>3.244</v>
+        <v>2.287</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.99</v>
+        <v>12.5</v>
       </c>
       <c r="F14" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="G14" t="n">
-        <v>64.006</v>
+        <v>3.244</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7.73</v>
+        <v>11.99</v>
       </c>
       <c r="F15" t="n">
-        <v>0.54</v>
+        <v>1.07</v>
       </c>
       <c r="G15" t="n">
-        <v>1.671</v>
+        <v>64.006</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.5</v>
+        <v>7.73</v>
       </c>
       <c r="F16" t="n">
-        <v>1.17</v>
+        <v>0.54</v>
       </c>
       <c r="G16" t="n">
-        <v>4.638</v>
+        <v>1.671</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.49</v>
+        <v>7.5</v>
       </c>
       <c r="F17" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="G17" t="n">
-        <v>4.867</v>
+        <v>4.638</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7.08</v>
+        <v>7.49</v>
       </c>
       <c r="F18" t="n">
-        <v>0.82</v>
+        <v>1.05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.84</v>
+        <v>4.867</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5.88</v>
+        <v>7.08</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="G19" t="n">
-        <v>1.47</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.71</v>
+        <v>5.88</v>
       </c>
       <c r="F20" t="n">
-        <v>1.15</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>17.139</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.49</v>
+        <v>5.71</v>
       </c>
       <c r="F21" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="G21" t="n">
-        <v>1.655</v>
+        <v>17.139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4.51</v>
+        <v>5.49</v>
       </c>
       <c r="F22" t="n">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="G22" t="n">
-        <v>14.324</v>
+        <v>1.655</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.3</v>
+        <v>4.51</v>
       </c>
       <c r="F23" t="n">
-        <v>0.79</v>
+        <v>1.15</v>
       </c>
       <c r="G23" t="n">
-        <v>1.362</v>
+        <v>14.324</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.72</v>
+        <v>4.3</v>
       </c>
       <c r="F24" t="n">
-        <v>0.45</v>
+        <v>0.79</v>
       </c>
       <c r="G24" t="n">
-        <v>1.855</v>
+        <v>1.362</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="F25" t="n">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="G25" t="n">
-        <v>2.106</v>
+        <v>1.855</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.27</v>
+        <v>2.57</v>
       </c>
       <c r="F26" t="n">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="G26" t="n">
-        <v>8.196999999999999</v>
+        <v>2.106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.61</v>
+        <v>2.27</v>
       </c>
       <c r="F27" t="n">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
       <c r="G27" t="n">
-        <v>5.811</v>
+        <v>8.196999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="F28" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G28" t="n">
-        <v>1.603</v>
+        <v>5.811</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.99</v>
+        <v>1.49</v>
       </c>
       <c r="F29" t="n">
-        <v>0.68</v>
+        <v>0.85</v>
       </c>
       <c r="G29" t="n">
-        <v>0.18</v>
+        <v>1.603</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F30" t="n">
-        <v>0.99</v>
+        <v>0.68</v>
       </c>
       <c r="G30" t="n">
-        <v>4.237</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.21</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="G31" t="n">
-        <v>0.416</v>
+        <v>4.237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3186,215 +3220,215 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-1.11</v>
+        <v>-0.21</v>
       </c>
       <c r="F32" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="G32" t="n">
-        <v>0.829</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-1.77</v>
+        <v>-1.11</v>
       </c>
       <c r="F33" t="n">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="G33" t="n">
-        <v>0.524</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-2.09</v>
+        <v>-1.77</v>
       </c>
       <c r="F34" t="n">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="G34" t="n">
-        <v>1.469</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-2.31</v>
+        <v>-2.09</v>
       </c>
       <c r="F35" t="n">
-        <v>0.92</v>
+        <v>0.79</v>
       </c>
       <c r="G35" t="n">
-        <v>6.726</v>
+        <v>1.469</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-3.2</v>
+        <v>-2.31</v>
       </c>
       <c r="F36" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G36" t="n">
-        <v>11.359</v>
+        <v>6.726</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-3.38</v>
+        <v>-3.2</v>
       </c>
       <c r="F37" t="n">
-        <v>0.51</v>
+        <v>0.96</v>
       </c>
       <c r="G37" t="n">
-        <v>4.179</v>
+        <v>11.359</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-3.79</v>
+        <v>-3.38</v>
       </c>
       <c r="F38" t="n">
-        <v>0.65</v>
+        <v>0.51</v>
       </c>
       <c r="G38" t="n">
-        <v>0.632</v>
+        <v>4.179</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3403,384 +3437,415 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-4.12</v>
+        <v>-3.79</v>
       </c>
       <c r="F39" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="G39" t="n">
-        <v>1.672</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-4.52</v>
+        <v>-4.12</v>
       </c>
       <c r="F40" t="n">
-        <v>0.79</v>
+        <v>0.55</v>
       </c>
       <c r="G40" t="n">
-        <v>0.113</v>
+        <v>1.672</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-4.71</v>
+        <v>-4.52</v>
       </c>
       <c r="F41" t="n">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="G41" t="n">
-        <v>0.596</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-4.82</v>
+        <v>-4.71</v>
       </c>
       <c r="F42" t="n">
-        <v>0.57</v>
+        <v>0.98</v>
       </c>
       <c r="G42" t="n">
-        <v>0.454</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-5.02</v>
+        <v>-4.82</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="G43" t="n">
-        <v>1.083</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-5.58</v>
+        <v>-5.02</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>1.604</v>
+        <v>1.083</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-8.23</v>
+        <v>-5.58</v>
       </c>
       <c r="F45" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>0.082</v>
+        <v>1.604</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-8.94</v>
+        <v>-8.23</v>
       </c>
       <c r="F46" t="n">
-        <v>0.59</v>
+        <v>0.89</v>
       </c>
       <c r="G46" t="n">
-        <v>3.189</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-9.93</v>
+        <v>-8.94</v>
       </c>
       <c r="F47" t="n">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="G47" t="n">
-        <v>5.036</v>
+        <v>3.189</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-10.1</v>
+        <v>-9.93</v>
       </c>
       <c r="F48" t="n">
-        <v>0.35</v>
+        <v>0.74</v>
       </c>
       <c r="G48" t="n">
-        <v>2.41</v>
+        <v>5.036</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-10.53</v>
+        <v>-10.1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.86</v>
+        <v>0.35</v>
       </c>
       <c r="G49" t="n">
-        <v>1.708</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-13.66</v>
+        <v>-10.53</v>
       </c>
       <c r="F50" t="n">
-        <v>0.65</v>
+        <v>0.86</v>
       </c>
       <c r="G50" t="n">
-        <v>2.799</v>
+        <v>1.708</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>6488</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>環球晶</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>GlobalWafers</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Wafer - Material</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>-13.66</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.799</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>6173</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>信昌電</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Shinmore</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Electronic Components</t>
         </is>
       </c>
-      <c r="E51" t="n">
+      <c r="E52" t="n">
         <v>-19.06</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F52" t="n">
         <v>0.19</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G52" t="n">
         <v>0.707</v>
       </c>
     </row>
@@ -4004,17 +4069,17 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.855</v>
+        <v>13.18</v>
       </c>
       <c r="C11" t="n">
-        <v>0.61</v>
+        <v>0.98</v>
       </c>
       <c r="D11" t="n">
-        <v>1.624</v>
+        <v>20.343</v>
       </c>
       <c r="E11" t="n">
         <v>2</v>
@@ -4023,55 +4088,55 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.293333333333333</v>
+        <v>9.855</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9966666666666667</v>
+        <v>0.61</v>
       </c>
       <c r="D12" t="n">
-        <v>10.299</v>
+        <v>1.624</v>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7.73</v>
+        <v>8.293333333333333</v>
       </c>
       <c r="C13" t="n">
-        <v>0.54</v>
+        <v>0.9966666666666667</v>
       </c>
       <c r="D13" t="n">
-        <v>1.671</v>
+        <v>10.299</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.49</v>
+        <v>7.73</v>
       </c>
       <c r="C14" t="n">
-        <v>1.05</v>
+        <v>0.54</v>
       </c>
       <c r="D14" t="n">
-        <v>4.867</v>
+        <v>1.671</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -4539,7 +4604,7 @@
         <v>41.74</v>
       </c>
       <c r="H2" t="n">
-        <v>80.2774</v>
+        <v>76.3657</v>
       </c>
       <c r="I2" t="n">
         <v>23.4</v>
@@ -4591,7 +4656,7 @@
         <v>76.43000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>94.9751</v>
+        <v>95.5654</v>
       </c>
       <c r="I3" t="n">
         <v>79.5</v>
@@ -4643,7 +4708,7 @@
         <v>64.83</v>
       </c>
       <c r="H4" t="n">
-        <v>3.7306</v>
+        <v>3.6524</v>
       </c>
       <c r="I4" t="n">
         <v>61</v>
@@ -4695,7 +4760,7 @@
         <v>22.43</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.1749</v>
+        <v>-2.3073</v>
       </c>
       <c r="I5" t="n">
         <v>18.4</v>
@@ -4747,7 +4812,7 @@
         <v>51.14</v>
       </c>
       <c r="H6" t="n">
-        <v>5.9959</v>
+        <v>5.2135</v>
       </c>
       <c r="I6" t="n">
         <v>74.40000000000001</v>
@@ -4799,7 +4864,7 @@
         <v>54.67</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.7388</v>
+        <v>-1.8892</v>
       </c>
       <c r="I7" t="n">
         <v>69.5</v>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1433,24 +1433,24 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>20.9</v>
+        <v>1855</v>
       </c>
       <c r="E30" t="n">
-        <v>1.95</v>
+        <v>0.54</v>
       </c>
       <c r="F30" t="n">
         <v>74</v>
@@ -1461,30 +1461,30 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1.671</v>
+        <v>20.534</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1855</v>
+        <v>20.9</v>
       </c>
       <c r="E31" t="n">
-        <v>0.54</v>
+        <v>1.95</v>
       </c>
       <c r="F31" t="n">
         <v>74</v>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>20.534</v>
+        <v>1.671</v>
       </c>
     </row>
     <row r="32">
@@ -1637,24 +1637,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.01</v>
+        <v>0.67</v>
       </c>
       <c r="F36" t="n">
         <v>65</v>
@@ -1665,30 +1665,30 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>4.638</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="E37" t="n">
-        <v>0.67</v>
+        <v>-1.01</v>
       </c>
       <c r="F37" t="n">
         <v>65</v>
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.454</v>
+        <v>4.638</v>
       </c>
     </row>
     <row r="38">
@@ -2011,27 +2011,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>62.8</v>
+        <v>53.4</v>
       </c>
       <c r="E47" t="n">
-        <v>0.64</v>
+        <v>0.75</v>
       </c>
       <c r="F47" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>15.985</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="48">
@@ -2079,27 +2079,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>53.4</v>
+        <v>126</v>
       </c>
       <c r="E49" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="F49" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2107,33 +2107,33 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>2.41</v>
+        <v>5.811</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>126</v>
+        <v>62</v>
       </c>
       <c r="E50" t="n">
-        <v>1.2</v>
+        <v>0.32</v>
       </c>
       <c r="F50" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2141,74 +2141,40 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>5.811</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>62</v>
+        <v>64.7</v>
       </c>
       <c r="E51" t="n">
-        <v>0.32</v>
+        <v>1.09</v>
       </c>
       <c r="F51" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0.707</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>8096</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>擎亞</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>CoAsia</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="F52" t="n">
-        <v>12</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Accumulation (Up)</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
         <v>1.028</v>
       </c>
     </row>
@@ -2223,7 +2189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2519,699 +2485,699 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>16.3</v>
+        <v>15.9</v>
       </c>
       <c r="F10" t="n">
-        <v>0.42</v>
+        <v>1.1</v>
       </c>
       <c r="G10" t="n">
-        <v>15.985</v>
+        <v>6.631</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15.9</v>
+        <v>14.15</v>
       </c>
       <c r="F11" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="G11" t="n">
-        <v>6.631</v>
+        <v>6.531</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>14.15</v>
+        <v>13.28</v>
       </c>
       <c r="F12" t="n">
-        <v>1.07</v>
+        <v>0.55</v>
       </c>
       <c r="G12" t="n">
-        <v>6.531</v>
+        <v>2.287</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13.28</v>
+        <v>12.5</v>
       </c>
       <c r="F13" t="n">
-        <v>0.55</v>
+        <v>1.18</v>
       </c>
       <c r="G13" t="n">
-        <v>2.287</v>
+        <v>3.244</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.5</v>
+        <v>11.99</v>
       </c>
       <c r="F14" t="n">
-        <v>1.18</v>
+        <v>1.07</v>
       </c>
       <c r="G14" t="n">
-        <v>3.244</v>
+        <v>64.006</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.99</v>
+        <v>7.73</v>
       </c>
       <c r="F15" t="n">
-        <v>1.07</v>
+        <v>0.54</v>
       </c>
       <c r="G15" t="n">
-        <v>64.006</v>
+        <v>1.671</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.73</v>
+        <v>7.5</v>
       </c>
       <c r="F16" t="n">
-        <v>0.54</v>
+        <v>1.17</v>
       </c>
       <c r="G16" t="n">
-        <v>1.671</v>
+        <v>4.638</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.5</v>
+        <v>7.49</v>
       </c>
       <c r="F17" t="n">
-        <v>1.17</v>
+        <v>1.05</v>
       </c>
       <c r="G17" t="n">
-        <v>4.638</v>
+        <v>4.867</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7.49</v>
+        <v>7.08</v>
       </c>
       <c r="F18" t="n">
-        <v>1.05</v>
+        <v>0.82</v>
       </c>
       <c r="G18" t="n">
-        <v>4.867</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>7.08</v>
+        <v>5.88</v>
       </c>
       <c r="F19" t="n">
-        <v>0.82</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G19" t="n">
-        <v>0.84</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.88</v>
+        <v>5.71</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="G20" t="n">
-        <v>1.47</v>
+        <v>17.139</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.71</v>
+        <v>5.49</v>
       </c>
       <c r="F21" t="n">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="G21" t="n">
-        <v>17.139</v>
+        <v>1.655</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5.49</v>
+        <v>4.51</v>
       </c>
       <c r="F22" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="G22" t="n">
-        <v>1.655</v>
+        <v>14.324</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.51</v>
+        <v>4.3</v>
       </c>
       <c r="F23" t="n">
-        <v>1.15</v>
+        <v>0.79</v>
       </c>
       <c r="G23" t="n">
-        <v>14.324</v>
+        <v>1.362</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.3</v>
+        <v>2.72</v>
       </c>
       <c r="F24" t="n">
-        <v>0.79</v>
+        <v>0.45</v>
       </c>
       <c r="G24" t="n">
-        <v>1.362</v>
+        <v>1.855</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2.72</v>
+        <v>2.57</v>
       </c>
       <c r="F25" t="n">
-        <v>0.45</v>
+        <v>0.67</v>
       </c>
       <c r="G25" t="n">
-        <v>1.855</v>
+        <v>2.106</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.57</v>
+        <v>2.27</v>
       </c>
       <c r="F26" t="n">
-        <v>0.67</v>
+        <v>0.77</v>
       </c>
       <c r="G26" t="n">
-        <v>2.106</v>
+        <v>8.196999999999999</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.27</v>
+        <v>1.61</v>
       </c>
       <c r="F27" t="n">
-        <v>0.77</v>
+        <v>0.95</v>
       </c>
       <c r="G27" t="n">
-        <v>8.196999999999999</v>
+        <v>5.811</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.61</v>
+        <v>1.49</v>
       </c>
       <c r="F28" t="n">
-        <v>0.95</v>
+        <v>0.85</v>
       </c>
       <c r="G28" t="n">
-        <v>5.811</v>
+        <v>1.603</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.49</v>
+        <v>0.99</v>
       </c>
       <c r="F29" t="n">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="G29" t="n">
-        <v>1.603</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>0.99</v>
       </c>
-      <c r="F30" t="n">
-        <v>0.68</v>
-      </c>
       <c r="G30" t="n">
-        <v>0.18</v>
+        <v>4.237</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-0.21</v>
       </c>
       <c r="F31" t="n">
-        <v>0.99</v>
+        <v>0.9</v>
       </c>
       <c r="G31" t="n">
-        <v>4.237</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3220,215 +3186,215 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-0.21</v>
+        <v>-1.11</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9</v>
+        <v>0.88</v>
       </c>
       <c r="G32" t="n">
-        <v>0.416</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-1.11</v>
+        <v>-1.77</v>
       </c>
       <c r="F33" t="n">
-        <v>0.88</v>
+        <v>0.74</v>
       </c>
       <c r="G33" t="n">
-        <v>0.829</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-1.77</v>
+        <v>-2.09</v>
       </c>
       <c r="F34" t="n">
-        <v>0.74</v>
+        <v>0.79</v>
       </c>
       <c r="G34" t="n">
-        <v>0.524</v>
+        <v>1.469</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-2.09</v>
+        <v>-2.31</v>
       </c>
       <c r="F35" t="n">
-        <v>0.79</v>
+        <v>0.92</v>
       </c>
       <c r="G35" t="n">
-        <v>1.469</v>
+        <v>6.726</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-2.31</v>
+        <v>-3.2</v>
       </c>
       <c r="F36" t="n">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="G36" t="n">
-        <v>6.726</v>
+        <v>11.359</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-3.2</v>
+        <v>-3.38</v>
       </c>
       <c r="F37" t="n">
-        <v>0.96</v>
+        <v>0.51</v>
       </c>
       <c r="G37" t="n">
-        <v>11.359</v>
+        <v>4.179</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-3.38</v>
+        <v>-3.79</v>
       </c>
       <c r="F38" t="n">
-        <v>0.51</v>
+        <v>0.65</v>
       </c>
       <c r="G38" t="n">
-        <v>4.179</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3437,415 +3403,384 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-3.79</v>
+        <v>-4.12</v>
       </c>
       <c r="F39" t="n">
-        <v>0.65</v>
+        <v>0.55</v>
       </c>
       <c r="G39" t="n">
-        <v>0.632</v>
+        <v>1.672</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-4.12</v>
+        <v>-4.52</v>
       </c>
       <c r="F40" t="n">
-        <v>0.55</v>
+        <v>0.79</v>
       </c>
       <c r="G40" t="n">
-        <v>1.672</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-4.52</v>
+        <v>-4.71</v>
       </c>
       <c r="F41" t="n">
-        <v>0.79</v>
+        <v>0.98</v>
       </c>
       <c r="G41" t="n">
-        <v>0.113</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-4.71</v>
+        <v>-4.82</v>
       </c>
       <c r="F42" t="n">
-        <v>0.98</v>
+        <v>0.57</v>
       </c>
       <c r="G42" t="n">
-        <v>0.596</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-4.82</v>
+        <v>-5.02</v>
       </c>
       <c r="F43" t="n">
-        <v>0.57</v>
+        <v>1</v>
       </c>
       <c r="G43" t="n">
-        <v>0.454</v>
+        <v>1.083</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-5.02</v>
+        <v>-5.58</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G44" t="n">
-        <v>1.083</v>
+        <v>1.604</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-5.58</v>
+        <v>-8.23</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.89</v>
       </c>
       <c r="G45" t="n">
-        <v>1.604</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-8.23</v>
+        <v>-8.94</v>
       </c>
       <c r="F46" t="n">
-        <v>0.89</v>
+        <v>0.59</v>
       </c>
       <c r="G46" t="n">
-        <v>0.082</v>
+        <v>3.189</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-8.94</v>
+        <v>-9.93</v>
       </c>
       <c r="F47" t="n">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="G47" t="n">
-        <v>3.189</v>
+        <v>5.036</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-9.93</v>
+        <v>-10.1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.74</v>
+        <v>0.35</v>
       </c>
       <c r="G48" t="n">
-        <v>5.036</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-10.1</v>
+        <v>-10.53</v>
       </c>
       <c r="F49" t="n">
-        <v>0.35</v>
+        <v>0.86</v>
       </c>
       <c r="G49" t="n">
-        <v>2.41</v>
+        <v>1.708</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-10.53</v>
+        <v>-13.66</v>
       </c>
       <c r="F50" t="n">
-        <v>0.86</v>
+        <v>0.65</v>
       </c>
       <c r="G50" t="n">
-        <v>1.708</v>
+        <v>2.799</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-13.66</v>
+        <v>-19.06</v>
       </c>
       <c r="F51" t="n">
-        <v>0.65</v>
+        <v>0.19</v>
       </c>
       <c r="G51" t="n">
-        <v>2.799</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>6173</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>信昌電</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Shinmore</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Electronic Components</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>-19.06</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="G52" t="n">
         <v>0.707</v>
       </c>
     </row>
@@ -4031,58 +3966,58 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.145</v>
+        <v>13.28</v>
       </c>
       <c r="C9" t="n">
-        <v>0.745</v>
+        <v>0.55</v>
       </c>
       <c r="D9" t="n">
-        <v>79.991</v>
+        <v>2.287</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.28</v>
+        <v>13.18</v>
       </c>
       <c r="C10" t="n">
-        <v>0.55</v>
+        <v>0.98</v>
       </c>
       <c r="D10" t="n">
-        <v>2.287</v>
+        <v>20.343</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.18</v>
+        <v>11.99</v>
       </c>
       <c r="C11" t="n">
-        <v>0.98</v>
+        <v>1.07</v>
       </c>
       <c r="D11" t="n">
-        <v>20.343</v>
+        <v>64.006</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1433,24 +1433,24 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>1855</v>
+        <v>20.9</v>
       </c>
       <c r="E30" t="n">
-        <v>0.54</v>
+        <v>1.95</v>
       </c>
       <c r="F30" t="n">
         <v>74</v>
@@ -1461,30 +1461,30 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>20.534</v>
+        <v>1.671</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>20.9</v>
+        <v>1855</v>
       </c>
       <c r="E31" t="n">
-        <v>1.95</v>
+        <v>0.54</v>
       </c>
       <c r="F31" t="n">
         <v>74</v>
@@ -1495,7 +1495,7 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>1.671</v>
+        <v>20.534</v>
       </c>
     </row>
     <row r="32">
@@ -1637,24 +1637,24 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="E36" t="n">
-        <v>0.67</v>
+        <v>-1.01</v>
       </c>
       <c r="F36" t="n">
         <v>65</v>
@@ -1665,30 +1665,30 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.454</v>
+        <v>4.638</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>294</v>
+        <v>75</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.01</v>
+        <v>0.67</v>
       </c>
       <c r="F37" t="n">
         <v>65</v>
@@ -1699,7 +1699,7 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>4.638</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="38">
@@ -2011,27 +2011,27 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>53.4</v>
+        <v>62.8</v>
       </c>
       <c r="E47" t="n">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="F47" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2039,7 +2039,7 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>2.41</v>
+        <v>15.985</v>
       </c>
     </row>
     <row r="48">
@@ -2079,27 +2079,27 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>126</v>
+        <v>53.4</v>
       </c>
       <c r="E49" t="n">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="F49" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
@@ -2107,33 +2107,33 @@
         </is>
       </c>
       <c r="H49" t="n">
-        <v>5.811</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="E50" t="n">
-        <v>0.32</v>
+        <v>1.2</v>
       </c>
       <c r="F50" t="n">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2141,40 +2141,74 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>0.707</v>
+        <v>5.811</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>信昌電</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Shinmore</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>62</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F51" t="n">
+        <v>22</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Weak</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>0.707</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>8096</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>擎亞</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>CoAsia</t>
         </is>
       </c>
-      <c r="D51" t="n">
+      <c r="D52" t="n">
         <v>64.7</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E52" t="n">
         <v>1.09</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F52" t="n">
         <v>12</v>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Accumulation (Up)</t>
         </is>
       </c>
-      <c r="H51" t="n">
+      <c r="H52" t="n">
         <v>1.028</v>
       </c>
     </row>
@@ -2189,7 +2223,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2485,699 +2519,699 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>15.9</v>
+        <v>16.3</v>
       </c>
       <c r="F10" t="n">
-        <v>1.1</v>
+        <v>0.42</v>
       </c>
       <c r="G10" t="n">
-        <v>6.631</v>
+        <v>15.985</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>14.15</v>
+        <v>15.9</v>
       </c>
       <c r="F11" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="G11" t="n">
-        <v>6.531</v>
+        <v>6.631</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>13.28</v>
+        <v>14.15</v>
       </c>
       <c r="F12" t="n">
-        <v>0.55</v>
+        <v>1.07</v>
       </c>
       <c r="G12" t="n">
-        <v>2.287</v>
+        <v>6.531</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>12.5</v>
+        <v>13.28</v>
       </c>
       <c r="F13" t="n">
-        <v>1.18</v>
+        <v>0.55</v>
       </c>
       <c r="G13" t="n">
-        <v>3.244</v>
+        <v>2.287</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>11.99</v>
+        <v>12.5</v>
       </c>
       <c r="F14" t="n">
-        <v>1.07</v>
+        <v>1.18</v>
       </c>
       <c r="G14" t="n">
-        <v>64.006</v>
+        <v>3.244</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>7.73</v>
+        <v>11.99</v>
       </c>
       <c r="F15" t="n">
-        <v>0.54</v>
+        <v>1.07</v>
       </c>
       <c r="G15" t="n">
-        <v>1.671</v>
+        <v>64.006</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.5</v>
+        <v>7.73</v>
       </c>
       <c r="F16" t="n">
-        <v>1.17</v>
+        <v>0.54</v>
       </c>
       <c r="G16" t="n">
-        <v>4.638</v>
+        <v>1.671</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.49</v>
+        <v>7.5</v>
       </c>
       <c r="F17" t="n">
-        <v>1.05</v>
+        <v>1.17</v>
       </c>
       <c r="G17" t="n">
-        <v>4.867</v>
+        <v>4.638</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7.08</v>
+        <v>7.49</v>
       </c>
       <c r="F18" t="n">
-        <v>0.82</v>
+        <v>1.05</v>
       </c>
       <c r="G18" t="n">
-        <v>0.84</v>
+        <v>4.867</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>5.88</v>
+        <v>7.08</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9399999999999999</v>
+        <v>0.82</v>
       </c>
       <c r="G19" t="n">
-        <v>1.47</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.71</v>
+        <v>5.88</v>
       </c>
       <c r="F20" t="n">
-        <v>1.15</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G20" t="n">
-        <v>17.139</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.49</v>
+        <v>5.71</v>
       </c>
       <c r="F21" t="n">
-        <v>0.96</v>
+        <v>1.15</v>
       </c>
       <c r="G21" t="n">
-        <v>1.655</v>
+        <v>17.139</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>4.51</v>
+        <v>5.49</v>
       </c>
       <c r="F22" t="n">
-        <v>1.15</v>
+        <v>0.96</v>
       </c>
       <c r="G22" t="n">
-        <v>14.324</v>
+        <v>1.655</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.3</v>
+        <v>4.51</v>
       </c>
       <c r="F23" t="n">
-        <v>0.79</v>
+        <v>1.15</v>
       </c>
       <c r="G23" t="n">
-        <v>1.362</v>
+        <v>14.324</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.72</v>
+        <v>4.3</v>
       </c>
       <c r="F24" t="n">
-        <v>0.45</v>
+        <v>0.79</v>
       </c>
       <c r="G24" t="n">
-        <v>1.855</v>
+        <v>1.362</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2.57</v>
+        <v>2.72</v>
       </c>
       <c r="F25" t="n">
-        <v>0.67</v>
+        <v>0.45</v>
       </c>
       <c r="G25" t="n">
-        <v>2.106</v>
+        <v>1.855</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.27</v>
+        <v>2.57</v>
       </c>
       <c r="F26" t="n">
-        <v>0.77</v>
+        <v>0.67</v>
       </c>
       <c r="G26" t="n">
-        <v>8.196999999999999</v>
+        <v>2.106</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>1.61</v>
+        <v>2.27</v>
       </c>
       <c r="F27" t="n">
-        <v>0.95</v>
+        <v>0.77</v>
       </c>
       <c r="G27" t="n">
-        <v>5.811</v>
+        <v>8.196999999999999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.49</v>
+        <v>1.61</v>
       </c>
       <c r="F28" t="n">
-        <v>0.85</v>
+        <v>0.95</v>
       </c>
       <c r="G28" t="n">
-        <v>1.603</v>
+        <v>5.811</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>0.99</v>
+        <v>1.49</v>
       </c>
       <c r="F29" t="n">
-        <v>0.68</v>
+        <v>0.85</v>
       </c>
       <c r="G29" t="n">
-        <v>0.18</v>
+        <v>1.603</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="F30" t="n">
-        <v>0.99</v>
+        <v>0.68</v>
       </c>
       <c r="G30" t="n">
-        <v>4.237</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-0.21</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9</v>
+        <v>0.99</v>
       </c>
       <c r="G31" t="n">
-        <v>0.416</v>
+        <v>4.237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -3186,215 +3220,215 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-1.11</v>
+        <v>-0.21</v>
       </c>
       <c r="F32" t="n">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="G32" t="n">
-        <v>0.829</v>
+        <v>0.416</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-1.77</v>
+        <v>-1.11</v>
       </c>
       <c r="F33" t="n">
-        <v>0.74</v>
+        <v>0.88</v>
       </c>
       <c r="G33" t="n">
-        <v>0.524</v>
+        <v>0.829</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-2.09</v>
+        <v>-1.77</v>
       </c>
       <c r="F34" t="n">
-        <v>0.79</v>
+        <v>0.74</v>
       </c>
       <c r="G34" t="n">
-        <v>1.469</v>
+        <v>0.524</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-2.31</v>
+        <v>-2.09</v>
       </c>
       <c r="F35" t="n">
-        <v>0.92</v>
+        <v>0.79</v>
       </c>
       <c r="G35" t="n">
-        <v>6.726</v>
+        <v>1.469</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-3.2</v>
+        <v>-2.31</v>
       </c>
       <c r="F36" t="n">
-        <v>0.96</v>
+        <v>0.92</v>
       </c>
       <c r="G36" t="n">
-        <v>11.359</v>
+        <v>6.726</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-3.38</v>
+        <v>-3.2</v>
       </c>
       <c r="F37" t="n">
-        <v>0.51</v>
+        <v>0.96</v>
       </c>
       <c r="G37" t="n">
-        <v>4.179</v>
+        <v>11.359</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-3.79</v>
+        <v>-3.38</v>
       </c>
       <c r="F38" t="n">
-        <v>0.65</v>
+        <v>0.51</v>
       </c>
       <c r="G38" t="n">
-        <v>0.632</v>
+        <v>4.179</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -3403,384 +3437,415 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-4.12</v>
+        <v>-3.79</v>
       </c>
       <c r="F39" t="n">
-        <v>0.55</v>
+        <v>0.65</v>
       </c>
       <c r="G39" t="n">
-        <v>1.672</v>
+        <v>0.632</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-4.52</v>
+        <v>-4.12</v>
       </c>
       <c r="F40" t="n">
-        <v>0.79</v>
+        <v>0.55</v>
       </c>
       <c r="G40" t="n">
-        <v>0.113</v>
+        <v>1.672</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-4.71</v>
+        <v>-4.52</v>
       </c>
       <c r="F41" t="n">
-        <v>0.98</v>
+        <v>0.79</v>
       </c>
       <c r="G41" t="n">
-        <v>0.596</v>
+        <v>0.113</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-4.82</v>
+        <v>-4.71</v>
       </c>
       <c r="F42" t="n">
-        <v>0.57</v>
+        <v>0.98</v>
       </c>
       <c r="G42" t="n">
-        <v>0.454</v>
+        <v>0.596</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-5.02</v>
+        <v>-4.82</v>
       </c>
       <c r="F43" t="n">
-        <v>1</v>
+        <v>0.57</v>
       </c>
       <c r="G43" t="n">
-        <v>1.083</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-5.58</v>
+        <v>-5.02</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8100000000000001</v>
+        <v>1</v>
       </c>
       <c r="G44" t="n">
-        <v>1.604</v>
+        <v>1.083</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-8.23</v>
+        <v>-5.58</v>
       </c>
       <c r="F45" t="n">
-        <v>0.89</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G45" t="n">
-        <v>0.082</v>
+        <v>1.604</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-8.94</v>
+        <v>-8.23</v>
       </c>
       <c r="F46" t="n">
-        <v>0.59</v>
+        <v>0.89</v>
       </c>
       <c r="G46" t="n">
-        <v>3.189</v>
+        <v>0.082</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-9.93</v>
+        <v>-8.94</v>
       </c>
       <c r="F47" t="n">
-        <v>0.74</v>
+        <v>0.59</v>
       </c>
       <c r="G47" t="n">
-        <v>5.036</v>
+        <v>3.189</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-10.1</v>
+        <v>-9.93</v>
       </c>
       <c r="F48" t="n">
-        <v>0.35</v>
+        <v>0.74</v>
       </c>
       <c r="G48" t="n">
-        <v>2.41</v>
+        <v>5.036</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-10.53</v>
+        <v>-10.1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.86</v>
+        <v>0.35</v>
       </c>
       <c r="G49" t="n">
-        <v>1.708</v>
+        <v>2.41</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-13.66</v>
+        <v>-10.53</v>
       </c>
       <c r="F50" t="n">
-        <v>0.65</v>
+        <v>0.86</v>
       </c>
       <c r="G50" t="n">
-        <v>2.799</v>
+        <v>1.708</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
+          <t>6488</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>環球晶</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>GlobalWafers</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Wafer - Material</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>-13.66</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.799</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
           <t>6173</t>
         </is>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B52" t="inlineStr">
         <is>
           <t>信昌電</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="C52" t="inlineStr">
         <is>
           <t>Shinmore</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Electronic Components</t>
         </is>
       </c>
-      <c r="E51" t="n">
+      <c r="E52" t="n">
         <v>-19.06</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F52" t="n">
         <v>0.19</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G52" t="n">
         <v>0.707</v>
       </c>
     </row>
@@ -3966,58 +4031,58 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>13.28</v>
+        <v>14.145</v>
       </c>
       <c r="C9" t="n">
-        <v>0.55</v>
+        <v>0.745</v>
       </c>
       <c r="D9" t="n">
-        <v>2.287</v>
+        <v>79.991</v>
       </c>
       <c r="E9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.18</v>
+        <v>13.28</v>
       </c>
       <c r="C10" t="n">
-        <v>0.98</v>
+        <v>0.55</v>
       </c>
       <c r="D10" t="n">
-        <v>20.343</v>
+        <v>2.287</v>
       </c>
       <c r="E10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>11.99</v>
+        <v>13.18</v>
       </c>
       <c r="C11" t="n">
-        <v>1.07</v>
+        <v>0.98</v>
       </c>
       <c r="D11" t="n">
-        <v>64.006</v>
+        <v>20.343</v>
       </c>
       <c r="E11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -4604,7 +4604,7 @@
         <v>41.74</v>
       </c>
       <c r="H2" t="n">
-        <v>76.3657</v>
+        <v>66.861</v>
       </c>
       <c r="I2" t="n">
         <v>23.4</v>
@@ -4656,7 +4656,7 @@
         <v>76.43000000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>95.5654</v>
+        <v>96.51649999999999</v>
       </c>
       <c r="I3" t="n">
         <v>79.5</v>
@@ -4708,7 +4708,7 @@
         <v>64.83</v>
       </c>
       <c r="H4" t="n">
-        <v>3.6524</v>
+        <v>3.5744</v>
       </c>
       <c r="I4" t="n">
         <v>61</v>
@@ -4760,7 +4760,7 @@
         <v>22.43</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.3073</v>
+        <v>-2.3074</v>
       </c>
       <c r="I5" t="n">
         <v>18.4</v>
@@ -4812,7 +4812,7 @@
         <v>51.14</v>
       </c>
       <c r="H6" t="n">
-        <v>5.2135</v>
+        <v>4.5709</v>
       </c>
       <c r="I6" t="n">
         <v>74.40000000000001</v>
@@ -4864,7 +4864,7 @@
         <v>54.67</v>
       </c>
       <c r="H7" t="n">
-        <v>-1.8892</v>
+        <v>-2.0015</v>
       </c>
       <c r="I7" t="n">
         <v>69.5</v>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H52"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,27 +481,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>180</v>
+        <v>53.9</v>
       </c>
       <c r="E2" t="n">
-        <v>-5.26</v>
+        <v>3.26</v>
       </c>
       <c r="F2" t="n">
-        <v>204</v>
+        <v>250</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,33 +509,33 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3.244</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2337</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>旺宏</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Macronix (MXIC)</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>98.5</v>
+        <v>24.25</v>
       </c>
       <c r="E3" t="n">
-        <v>9.93</v>
+        <v>1.46</v>
       </c>
       <c r="F3" t="n">
-        <v>167</v>
+        <v>215</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,41 +543,41 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>20.383</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>162</v>
+        <v>95.7</v>
       </c>
       <c r="E4" t="n">
-        <v>-4.14</v>
+        <v>0.53</v>
       </c>
       <c r="F4" t="n">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.596</v>
+        <v>1.704</v>
       </c>
     </row>
     <row r="5">
@@ -597,13 +597,13 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>78.8</v>
+        <v>79.59999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1.16</v>
+        <v>1.02</v>
       </c>
       <c r="F5" t="n">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,101 +611,101 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.655</v>
+        <v>1.775</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>113.5</v>
+        <v>1900</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.58</v>
+        <v>-0.78</v>
       </c>
       <c r="F6" t="n">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>1.083</v>
+        <v>66.68000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>23.9</v>
+        <v>21.95</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>-3.3</v>
       </c>
       <c r="F7" t="n">
-        <v>134</v>
+        <v>192</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.416</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>227</v>
+        <v>188.5</v>
       </c>
       <c r="E8" t="n">
-        <v>2.71</v>
+        <v>1.34</v>
       </c>
       <c r="F8" t="n">
-        <v>132</v>
+        <v>183</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -713,33 +713,33 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>11.359</v>
+        <v>1.811</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>1985</v>
+        <v>40.95</v>
       </c>
       <c r="E9" t="n">
-        <v>9.970000000000001</v>
+        <v>2.25</v>
       </c>
       <c r="F9" t="n">
-        <v>130</v>
+        <v>169</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -747,67 +747,67 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3.114</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>105.5</v>
+        <v>1305</v>
       </c>
       <c r="E10" t="n">
-        <v>1.93</v>
+        <v>3.57</v>
       </c>
       <c r="F10" t="n">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>17.139</v>
+        <v>16.869</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>445.5</v>
+        <v>300.5</v>
       </c>
       <c r="E11" t="n">
-        <v>-9.359999999999999</v>
+        <v>2.21</v>
       </c>
       <c r="F11" t="n">
-        <v>122</v>
+        <v>163</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -815,33 +815,33 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>2.799</v>
+        <v>5.135</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>1915</v>
+        <v>349</v>
       </c>
       <c r="E12" t="n">
-        <v>1.86</v>
+        <v>-1.55</v>
       </c>
       <c r="F12" t="n">
-        <v>121</v>
+        <v>162</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -849,33 +849,33 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>64.006</v>
+        <v>8.361000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>179.5</v>
+        <v>228.5</v>
       </c>
       <c r="E13" t="n">
-        <v>1.13</v>
+        <v>0.66</v>
       </c>
       <c r="F13" t="n">
-        <v>121</v>
+        <v>155</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -883,67 +883,67 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4.867</v>
+        <v>11.969</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>52.2</v>
+        <v>476</v>
       </c>
       <c r="E14" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>120</v>
+        <v>154</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.47</v>
+        <v>1.689</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>40.05</v>
+        <v>187</v>
       </c>
       <c r="E15" t="n">
-        <v>0.63</v>
+        <v>3.89</v>
       </c>
       <c r="F15" t="n">
-        <v>120</v>
+        <v>141</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -951,33 +951,33 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.829</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>246</v>
+        <v>1795</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.72</v>
+        <v>-3.23</v>
       </c>
       <c r="F16" t="n">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -985,33 +985,33 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>6.531</v>
+        <v>20.602</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1260</v>
+        <v>270.5</v>
       </c>
       <c r="E17" t="n">
-        <v>6.33</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="F17" t="n">
-        <v>117</v>
+        <v>138</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1019,7 +1019,7 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>15.476</v>
+        <v>7.311</v>
       </c>
     </row>
     <row r="18">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>286</v>
+        <v>283.5</v>
       </c>
       <c r="E18" t="n">
-        <v>0.35</v>
+        <v>-0.87</v>
       </c>
       <c r="F18" t="n">
-        <v>110</v>
+        <v>138</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,33 +1053,33 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4.237</v>
+        <v>4.275</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>278</v>
+        <v>184.5</v>
       </c>
       <c r="E19" t="n">
-        <v>2.58</v>
+        <v>2.79</v>
       </c>
       <c r="F19" t="n">
-        <v>107</v>
+        <v>135</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1087,7 +1087,7 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>23.622</v>
+        <v>5.268</v>
       </c>
     </row>
     <row r="20">
@@ -1107,13 +1107,13 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>313.5</v>
+        <v>316.5</v>
       </c>
       <c r="E20" t="n">
-        <v>3.81</v>
+        <v>0.96</v>
       </c>
       <c r="F20" t="n">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1121,373 +1121,373 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6.631</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>223</v>
+        <v>76.3</v>
       </c>
       <c r="E21" t="n">
-        <v>-2.41</v>
+        <v>1.73</v>
       </c>
       <c r="F21" t="n">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.082</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>22.7</v>
+        <v>226.5</v>
       </c>
       <c r="E22" t="n">
-        <v>-1.09</v>
+        <v>1.57</v>
       </c>
       <c r="F22" t="n">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.84</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>95.2</v>
+        <v>38</v>
       </c>
       <c r="E23" t="n">
-        <v>0.74</v>
+        <v>-2.19</v>
       </c>
       <c r="F23" t="n">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.603</v>
+        <v>1.343</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>354.5</v>
+        <v>129.5</v>
       </c>
       <c r="E24" t="n">
-        <v>3.05</v>
+        <v>-1.52</v>
       </c>
       <c r="F24" t="n">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>8.085000000000001</v>
+        <v>5.051</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>6488</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>環球晶</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>GlobalWafers</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>38.85</v>
+        <v>425</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.38</v>
+        <v>-4.6</v>
       </c>
       <c r="F25" t="n">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>1.362</v>
+        <v>2.638</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3380</v>
+        <v>1205</v>
       </c>
       <c r="E26" t="n">
-        <v>2.42</v>
+        <v>-5.12</v>
       </c>
       <c r="F26" t="n">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6.726</v>
+        <v>1.448</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>30.65</v>
+        <v>37</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.33</v>
+        <v>3.64</v>
       </c>
       <c r="F27" t="n">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.113</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>63.1</v>
+        <v>289</v>
       </c>
       <c r="E28" t="n">
-        <v>-1.87</v>
+        <v>3.96</v>
       </c>
       <c r="F28" t="n">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>15.994</v>
+        <v>25.769</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>131.5</v>
+        <v>115</v>
       </c>
       <c r="E29" t="n">
-        <v>1.54</v>
+        <v>9</v>
       </c>
       <c r="F29" t="n">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>5.036</v>
+        <v>19.534</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>20.9</v>
+        <v>166.5</v>
       </c>
       <c r="E30" t="n">
-        <v>1.95</v>
+        <v>2.78</v>
       </c>
       <c r="F30" t="n">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>1.671</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1855</v>
+        <v>67</v>
       </c>
       <c r="E31" t="n">
-        <v>0.54</v>
+        <v>6.18</v>
       </c>
       <c r="F31" t="n">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1495,67 +1495,67 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>20.534</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>1855</v>
+        <v>3330</v>
       </c>
       <c r="E32" t="n">
-        <v>1.64</v>
+        <v>-1.48</v>
       </c>
       <c r="F32" t="n">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>14.324</v>
+        <v>6.597</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>111</v>
+        <v>2370</v>
       </c>
       <c r="E33" t="n">
-        <v>-4.31</v>
+        <v>-4.24</v>
       </c>
       <c r="F33" t="n">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1563,67 +1563,67 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.524</v>
+        <v>7.866</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>2337</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>旺宏</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>Macronix (MXIC)</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>53.3</v>
+        <v>103.5</v>
       </c>
       <c r="E34" t="n">
-        <v>0.95</v>
+        <v>5.08</v>
       </c>
       <c r="F34" t="n">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.632</v>
+        <v>22.229</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>476</v>
+        <v>30.6</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.52</v>
+        <v>-0.16</v>
       </c>
       <c r="F35" t="n">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1631,33 +1631,33 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>1.708</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>294</v>
+        <v>378</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.01</v>
+        <v>0.8</v>
       </c>
       <c r="F36" t="n">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1665,33 +1665,33 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>4.638</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>75</v>
+        <v>1925</v>
       </c>
       <c r="E37" t="n">
-        <v>0.67</v>
+        <v>3.77</v>
       </c>
       <c r="F37" t="n">
-        <v>65</v>
+        <v>84</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1699,33 +1699,33 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.454</v>
+        <v>15.358</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>186</v>
+        <v>249</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="F38" t="n">
-        <v>63</v>
+        <v>81</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1733,67 +1733,67 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>1.672</v>
+        <v>4.228</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>375</v>
+        <v>20.45</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.53</v>
+        <v>-2.15</v>
       </c>
       <c r="F39" t="n">
-        <v>59</v>
+        <v>77</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H39" t="n">
-        <v>1.469</v>
+        <v>1.645</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>35.7</v>
+        <v>67.2</v>
       </c>
       <c r="E40" t="n">
-        <v>-1.38</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F40" t="n">
-        <v>56</v>
+        <v>72</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1801,67 +1801,67 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.18</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>46.5</v>
+        <v>125</v>
       </c>
       <c r="E41" t="n">
-        <v>2.42</v>
+        <v>-0.79</v>
       </c>
       <c r="F41" t="n">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H41" t="n">
-        <v>2.287</v>
+        <v>5.753</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>199.5</v>
+        <v>113.5</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.75</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>
@@ -1869,33 +1869,33 @@
         </is>
       </c>
       <c r="H42" t="n">
-        <v>2.106</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>45.35</v>
+        <v>208</v>
       </c>
       <c r="E43" t="n">
-        <v>0.67</v>
+        <v>4.26</v>
       </c>
       <c r="F43" t="n">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="G43" t="inlineStr">
         <is>
@@ -1903,33 +1903,33 @@
         </is>
       </c>
       <c r="H43" t="n">
-        <v>1.855</v>
+        <v>2.245</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>1270</v>
+        <v>44.85</v>
       </c>
       <c r="E44" t="n">
-        <v>-2.31</v>
+        <v>-1.1</v>
       </c>
       <c r="F44" t="n">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G44" t="inlineStr">
         <is>
@@ -1937,33 +1937,33 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>1.604</v>
+        <v>1.865</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>2475</v>
+        <v>63.9</v>
       </c>
       <c r="E45" t="n">
-        <v>-1.2</v>
+        <v>1.75</v>
       </c>
       <c r="F45" t="n">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="G45" t="inlineStr">
         <is>
@@ -1971,67 +1971,67 @@
         </is>
       </c>
       <c r="H45" t="n">
-        <v>8.196999999999999</v>
+        <v>16.401</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>219</v>
+        <v>47.05</v>
       </c>
       <c r="E46" t="n">
-        <v>2.82</v>
+        <v>1.18</v>
       </c>
       <c r="F46" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H46" t="n">
-        <v>3.189</v>
+        <v>2.239</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>62.8</v>
+        <v>114.5</v>
       </c>
       <c r="E47" t="n">
-        <v>0.64</v>
+        <v>3.15</v>
       </c>
       <c r="F47" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="G47" t="inlineStr">
         <is>
@@ -2039,33 +2039,33 @@
         </is>
       </c>
       <c r="H47" t="n">
-        <v>15.985</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>243</v>
+        <v>55.4</v>
       </c>
       <c r="E48" t="n">
-        <v>1.25</v>
+        <v>3.75</v>
       </c>
       <c r="F48" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="G48" t="inlineStr">
         <is>
@@ -2073,67 +2073,67 @@
         </is>
       </c>
       <c r="H48" t="n">
-        <v>4.179</v>
+        <v>2.378</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>53.4</v>
+        <v>2180</v>
       </c>
       <c r="E49" t="n">
-        <v>0.75</v>
+        <v>9.82</v>
       </c>
       <c r="F49" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H49" t="n">
-        <v>2.41</v>
+        <v>3.439</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>126</v>
+        <v>219</v>
       </c>
       <c r="E50" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="G50" t="inlineStr">
         <is>
@@ -2141,75 +2141,41 @@
         </is>
       </c>
       <c r="H50" t="n">
-        <v>5.811</v>
+        <v>3.196</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>6173</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>信昌電</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Shinmore</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>62</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="E51" t="n">
-        <v>0.32</v>
+        <v>9.58</v>
       </c>
       <c r="F51" t="n">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H51" t="n">
-        <v>0.707</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>8096</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>擎亞</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>CoAsia</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>64.7</v>
-      </c>
-      <c r="E52" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="F52" t="n">
-        <v>12</v>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Accumulation (Up)</t>
-        </is>
-      </c>
-      <c r="H52" t="n">
-        <v>1.028</v>
+        <v>1.137</v>
       </c>
     </row>
   </sheetData>
@@ -2223,7 +2189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2290,168 +2256,168 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>63.89</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="G2" t="n">
-        <v>20.383</v>
+        <v>22.229</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>8096</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>擎亞</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>CoAsia</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Foundry - Memory</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.7</v>
+        <v>38.21</v>
       </c>
       <c r="F3" t="n">
-        <v>0.98</v>
+        <v>0.24</v>
       </c>
       <c r="G3" t="n">
-        <v>15.994</v>
+        <v>1.137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>8096</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>擎亞</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CoAsia</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Foundry - Memory</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.42</v>
+        <v>30.6</v>
       </c>
       <c r="F4" t="n">
-        <v>0.24</v>
+        <v>0.98</v>
       </c>
       <c r="G4" t="n">
-        <v>1.028</v>
+        <v>17.66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>23.67</v>
+        <v>29.76</v>
       </c>
       <c r="F5" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="G5" t="n">
-        <v>20.534</v>
+        <v>3.439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>20.37</v>
+        <v>24.88</v>
       </c>
       <c r="F6" t="n">
-        <v>1.54</v>
+        <v>0.97</v>
       </c>
       <c r="G6" t="n">
-        <v>8.085000000000001</v>
+        <v>16.869</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>3105</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>穩懋</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>Win Semi</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>18.87</v>
+        <v>21.85</v>
       </c>
       <c r="F7" t="n">
-        <v>0.91</v>
+        <v>1.12</v>
       </c>
       <c r="G7" t="n">
-        <v>15.476</v>
+        <v>7.311</v>
       </c>
     </row>
     <row r="8">
@@ -2476,354 +2442,354 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>17.55</v>
+        <v>21.68</v>
       </c>
       <c r="F8" t="n">
-        <v>1.16</v>
+        <v>1.12</v>
       </c>
       <c r="G8" t="n">
-        <v>23.622</v>
+        <v>25.769</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>3529</t>
+          <t>2454</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>力旺</t>
+          <t>聯發科</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>eMemory</t>
+          <t>MediaTek</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>17.46</v>
+        <v>20.47</v>
       </c>
       <c r="F9" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>3.114</v>
+        <v>20.602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2303</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>聯電</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>UMC</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>16.3</v>
+        <v>18.32</v>
       </c>
       <c r="F10" t="n">
-        <v>0.42</v>
+        <v>1.17</v>
       </c>
       <c r="G10" t="n">
-        <v>15.985</v>
+        <v>6.81</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>15.9</v>
+        <v>16.92</v>
       </c>
       <c r="F11" t="n">
-        <v>1.1</v>
+        <v>1.47</v>
       </c>
       <c r="G11" t="n">
-        <v>6.631</v>
+        <v>8.361000000000001</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>2303</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>聯電</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>UMC</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>14.15</v>
+        <v>16.82</v>
       </c>
       <c r="F12" t="n">
-        <v>1.07</v>
+        <v>0.45</v>
       </c>
       <c r="G12" t="n">
-        <v>6.531</v>
+        <v>16.401</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1301</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>台塑</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Formosa Plastics</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>13.28</v>
+        <v>15.93</v>
       </c>
       <c r="F13" t="n">
-        <v>0.55</v>
+        <v>1.12</v>
       </c>
       <c r="G13" t="n">
-        <v>2.287</v>
+        <v>19.534</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>12.5</v>
+        <v>12.43</v>
       </c>
       <c r="F14" t="n">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="G14" t="n">
-        <v>3.244</v>
+        <v>66.68000000000001</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>11.99</v>
+        <v>11.82</v>
       </c>
       <c r="F15" t="n">
-        <v>1.07</v>
+        <v>1.13</v>
       </c>
       <c r="G15" t="n">
-        <v>64.006</v>
+        <v>5.268</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2002</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>中鋼</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>China Steel</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7.73</v>
+        <v>10.98</v>
       </c>
       <c r="F16" t="n">
-        <v>0.54</v>
+        <v>1.24</v>
       </c>
       <c r="G16" t="n">
-        <v>1.671</v>
+        <v>3.44</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>1301</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>台塑</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Formosa Plastics</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>7.5</v>
+        <v>10.45</v>
       </c>
       <c r="F17" t="n">
-        <v>1.17</v>
+        <v>0.57</v>
       </c>
       <c r="G17" t="n">
-        <v>4.638</v>
+        <v>2.239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>3260</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>威剛</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>ADATA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>7.49</v>
+        <v>7.32</v>
       </c>
       <c r="F18" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="G18" t="n">
-        <v>4.867</v>
+        <v>5.135</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>群聯</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>Phison (Electronics)</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>7.08</v>
+        <v>7.24</v>
       </c>
       <c r="F19" t="n">
-        <v>0.82</v>
+        <v>1.11</v>
       </c>
       <c r="G19" t="n">
-        <v>0.84</v>
+        <v>15.358</v>
       </c>
     </row>
     <row r="20">
@@ -2848,44 +2814,44 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>5.88</v>
+        <v>6.94</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.21</v>
       </c>
       <c r="G20" t="n">
-        <v>1.47</v>
+        <v>1.625</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>4967</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>十銓</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>TeamGroup</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>5.71</v>
+        <v>5.85</v>
       </c>
       <c r="F21" t="n">
-        <v>1.15</v>
+        <v>0.64</v>
       </c>
       <c r="G21" t="n">
-        <v>17.139</v>
+        <v>2.245</v>
       </c>
     </row>
     <row r="22">
@@ -2910,447 +2876,447 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>5.49</v>
+        <v>5.85</v>
       </c>
       <c r="F22" t="n">
-        <v>0.96</v>
+        <v>1.21</v>
       </c>
       <c r="G22" t="n">
-        <v>1.655</v>
+        <v>1.775</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>群聯</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Phison (Electronics)</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>4.51</v>
+        <v>5.71</v>
       </c>
       <c r="F23" t="n">
-        <v>1.15</v>
+        <v>0.62</v>
       </c>
       <c r="G23" t="n">
-        <v>14.324</v>
+        <v>0.192</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>2002</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>中鋼</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>China Steel</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>4.3</v>
+        <v>5.14</v>
       </c>
       <c r="F24" t="n">
-        <v>0.79</v>
+        <v>0.58</v>
       </c>
       <c r="G24" t="n">
-        <v>1.362</v>
+        <v>1.645</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2356</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>英業達</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Inventec</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2.72</v>
+        <v>2.81</v>
       </c>
       <c r="F25" t="n">
-        <v>0.45</v>
+        <v>1.06</v>
       </c>
       <c r="G25" t="n">
-        <v>1.855</v>
+        <v>0.834</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>4967</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>十銓</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>TeamGroup</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>2.57</v>
+        <v>1.7</v>
       </c>
       <c r="F26" t="n">
-        <v>0.67</v>
+        <v>1.05</v>
       </c>
       <c r="G26" t="n">
-        <v>2.106</v>
+        <v>1.704</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3443</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>創意</t>
+          <t>英業達</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>GUC (Global Unichip)</t>
+          <t>Inventec</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2.27</v>
+        <v>1.59</v>
       </c>
       <c r="F27" t="n">
-        <v>0.77</v>
+        <v>0.49</v>
       </c>
       <c r="G27" t="n">
-        <v>8.196999999999999</v>
+        <v>1.865</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>5347</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>世界先進</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>VIS (Vanguard)</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.61</v>
+        <v>1.33</v>
       </c>
       <c r="F28" t="n">
-        <v>0.95</v>
+        <v>0.87</v>
       </c>
       <c r="G28" t="n">
-        <v>5.811</v>
+        <v>1.343</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Compound Semi</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1.49</v>
+        <v>0.88</v>
       </c>
       <c r="F29" t="n">
-        <v>0.85</v>
+        <v>0.68</v>
       </c>
       <c r="G29" t="n">
-        <v>1.603</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>0.99</v>
+        <v>0.83</v>
       </c>
       <c r="F30" t="n">
-        <v>0.68</v>
+        <v>1.11</v>
       </c>
       <c r="G30" t="n">
-        <v>0.18</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Financial</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.74</v>
       </c>
       <c r="F31" t="n">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>4.237</v>
+        <v>0.895</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>-0.21</v>
+        <v>0.3</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9</v>
+        <v>0.86</v>
       </c>
       <c r="G32" t="n">
-        <v>0.416</v>
+        <v>6.597</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Financial</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-1.11</v>
+        <v>0.18</v>
       </c>
       <c r="F33" t="n">
-        <v>0.88</v>
+        <v>1.1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.829</v>
+        <v>4.275</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>8086</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>宏捷科</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>AWSC</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Compound Semi</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-1.77</v>
+        <v>-0.4</v>
       </c>
       <c r="F34" t="n">
-        <v>0.74</v>
+        <v>0.78</v>
       </c>
       <c r="G34" t="n">
-        <v>0.524</v>
+        <v>1.51</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3034</t>
+          <t>3035</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>聯詠</t>
+          <t>智原</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Novatek</t>
+          <t>Faraday Tech</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-2.09</v>
+        <v>-0.89</v>
       </c>
       <c r="F35" t="n">
-        <v>0.79</v>
+        <v>1.06</v>
       </c>
       <c r="G35" t="n">
-        <v>1.469</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>-2.31</v>
+        <v>-1.57</v>
       </c>
       <c r="F36" t="n">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="G36" t="n">
-        <v>6.726</v>
+        <v>5.753</v>
       </c>
     </row>
     <row r="37">
@@ -3375,75 +3341,75 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-3.2</v>
+        <v>-2.14</v>
       </c>
       <c r="F37" t="n">
-        <v>0.96</v>
+        <v>1.06</v>
       </c>
       <c r="G37" t="n">
-        <v>11.359</v>
+        <v>11.969</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>6239</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>力成</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PTI (Powertech)</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>Shipping</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>-3.38</v>
+        <v>-3.05</v>
       </c>
       <c r="F38" t="n">
-        <v>0.51</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="G38" t="n">
-        <v>4.179</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2609</t>
+          <t>6239</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>陽明</t>
+          <t>力成</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Yang Ming</t>
+          <t>PTI (Powertech)</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>-3.79</v>
+        <v>-3.3</v>
       </c>
       <c r="F39" t="n">
-        <v>0.65</v>
+        <v>0.57</v>
       </c>
       <c r="G39" t="n">
-        <v>0.632</v>
+        <v>4.228</v>
       </c>
     </row>
     <row r="40">
@@ -3468,323 +3434,323 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>-4.12</v>
+        <v>-3.33</v>
       </c>
       <c r="F40" t="n">
-        <v>0.55</v>
+        <v>0.79</v>
       </c>
       <c r="G40" t="n">
-        <v>1.672</v>
+        <v>1.811</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>2201</t>
+          <t>5483</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>裕隆</t>
+          <t>中美晶</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Yulon Motor</t>
+          <t>Sino-American</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Automobile</t>
+          <t>Wafer - Material</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>-4.52</v>
+        <v>-3.4</v>
       </c>
       <c r="F41" t="n">
-        <v>0.79</v>
+        <v>1.06</v>
       </c>
       <c r="G41" t="n">
-        <v>0.113</v>
+        <v>1.075</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Automobile</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>-4.71</v>
+        <v>-4.97</v>
       </c>
       <c r="F42" t="n">
-        <v>0.98</v>
+        <v>0.85</v>
       </c>
       <c r="G42" t="n">
-        <v>0.596</v>
+        <v>0.114</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>3443</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>創意</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>GUC (Global Unichip)</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Shipping</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>-4.82</v>
+        <v>-5.39</v>
       </c>
       <c r="F43" t="n">
-        <v>0.57</v>
+        <v>0.75</v>
       </c>
       <c r="G43" t="n">
-        <v>0.454</v>
+        <v>7.866</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>5483</t>
+          <t>6533</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>中美晶</t>
+          <t>晶心科</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Sino-American</t>
+          <t>Andes Tech</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Wafer - Material</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>-5.02</v>
+        <v>-5.43</v>
       </c>
       <c r="F44" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G44" t="n">
-        <v>1.083</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>-5.58</v>
+        <v>-7.21</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.92</v>
       </c>
       <c r="G45" t="n">
-        <v>1.604</v>
+        <v>1.689</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2451</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>創見</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Transcend Info</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>-8.23</v>
+        <v>-7.98</v>
       </c>
       <c r="F46" t="n">
-        <v>0.89</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G46" t="n">
-        <v>0.082</v>
+        <v>3.196</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>2451</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>創見</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Transcend Info</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>-8.94</v>
+        <v>-9.43</v>
       </c>
       <c r="F47" t="n">
-        <v>0.59</v>
+        <v>0.34</v>
       </c>
       <c r="G47" t="n">
-        <v>3.189</v>
+        <v>0.589</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>-9.93</v>
+        <v>-9.74</v>
       </c>
       <c r="F48" t="n">
-        <v>0.74</v>
+        <v>0.77</v>
       </c>
       <c r="G48" t="n">
-        <v>5.036</v>
+        <v>1.448</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>8150</t>
+          <t>3231</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>南茂</t>
+          <t>緯創</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ChipMOS</t>
+          <t>Wistron</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Memory - Packaging</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>-10.1</v>
+        <v>-9.76</v>
       </c>
       <c r="F49" t="n">
-        <v>0.35</v>
+        <v>0.78</v>
       </c>
       <c r="G49" t="n">
-        <v>2.41</v>
+        <v>5.051</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>8150</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>南茂</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>ChipMOS</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Memory - Packaging</t>
         </is>
       </c>
       <c r="E50" t="n">
-        <v>-10.53</v>
+        <v>-10.06</v>
       </c>
       <c r="F50" t="n">
-        <v>0.86</v>
+        <v>0.39</v>
       </c>
       <c r="G50" t="n">
-        <v>1.708</v>
+        <v>2.378</v>
       </c>
     </row>
     <row r="51">
@@ -3809,44 +3775,13 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>-13.66</v>
+        <v>-13.09</v>
       </c>
       <c r="F51" t="n">
-        <v>0.65</v>
+        <v>0.8</v>
       </c>
       <c r="G51" t="n">
-        <v>2.799</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>6173</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>信昌電</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Shinmore</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Electronic Components</t>
-        </is>
-      </c>
-      <c r="E52" t="n">
-        <v>-19.06</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="G52" t="n">
-        <v>0.707</v>
+        <v>2.638</v>
       </c>
     </row>
   </sheetData>
@@ -3902,13 +3837,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>63.89</v>
+        <v>67.20999999999999</v>
       </c>
       <c r="C2" t="n">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="D2" t="n">
-        <v>20.383</v>
+        <v>22.229</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -3921,13 +3856,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24.7</v>
+        <v>30.6</v>
       </c>
       <c r="C3" t="n">
         <v>0.98</v>
       </c>
       <c r="D3" t="n">
-        <v>15.994</v>
+        <v>17.66</v>
       </c>
       <c r="E3" t="n">
         <v>1</v>
@@ -3936,17 +3871,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IC Design - Mobile/AI</t>
+          <t>IP Core</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.67</v>
+        <v>29.76</v>
       </c>
       <c r="C4" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="D4" t="n">
-        <v>20.534</v>
+        <v>3.439</v>
       </c>
       <c r="E4" t="n">
         <v>1</v>
@@ -3955,17 +3890,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>OSAT (Packaging)</t>
+          <t>Memory - DRAM</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>20.37</v>
+        <v>21.68</v>
       </c>
       <c r="C5" t="n">
-        <v>1.54</v>
+        <v>1.12</v>
       </c>
       <c r="D5" t="n">
-        <v>8.085000000000001</v>
+        <v>25.769</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -3974,17 +3909,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Memory - DRAM</t>
+          <t>IC Design - Mobile/AI</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.55</v>
+        <v>20.47</v>
       </c>
       <c r="C6" t="n">
-        <v>1.16</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>23.622</v>
+        <v>20.602</v>
       </c>
       <c r="E6" t="n">
         <v>1</v>
@@ -3993,74 +3928,74 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>IP Core</t>
+          <t>Design Service</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17.46</v>
+        <v>18.66</v>
       </c>
       <c r="C7" t="n">
-        <v>1.17</v>
+        <v>0.65</v>
       </c>
       <c r="D7" t="n">
-        <v>3.114</v>
+        <v>1.765</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>OSAT (Testing)</t>
+          <t>Power Supply</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>15.9</v>
+        <v>18.35</v>
       </c>
       <c r="C8" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="D8" t="n">
-        <v>6.631</v>
+        <v>22.137</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Foundry - Logic</t>
+          <t>OSAT (Testing)</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>14.145</v>
+        <v>18.32</v>
       </c>
       <c r="C9" t="n">
-        <v>0.745</v>
+        <v>1.17</v>
       </c>
       <c r="D9" t="n">
-        <v>79.991</v>
+        <v>6.81</v>
       </c>
       <c r="E9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Plastics</t>
+          <t>OSAT (Packaging)</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>13.28</v>
+        <v>16.92</v>
       </c>
       <c r="C10" t="n">
-        <v>0.55</v>
+        <v>1.47</v>
       </c>
       <c r="D10" t="n">
-        <v>2.287</v>
+        <v>8.361000000000001</v>
       </c>
       <c r="E10" t="n">
         <v>1</v>
@@ -4069,36 +4004,36 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Power Supply</t>
+          <t>Memory - Flash/DRAM</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>13.18</v>
+        <v>15.93</v>
       </c>
       <c r="C11" t="n">
-        <v>0.98</v>
+        <v>1.12</v>
       </c>
       <c r="D11" t="n">
-        <v>20.343</v>
+        <v>19.534</v>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Design Service</t>
+          <t>Foundry - Logic</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.855</v>
+        <v>14.625</v>
       </c>
       <c r="C12" t="n">
-        <v>0.61</v>
+        <v>0.855</v>
       </c>
       <c r="D12" t="n">
-        <v>1.624</v>
+        <v>83.081</v>
       </c>
       <c r="E12" t="n">
         <v>2</v>
@@ -4111,13 +4046,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.293333333333333</v>
+        <v>11.23666666666667</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9966666666666667</v>
+        <v>1.013333333333333</v>
       </c>
       <c r="D13" t="n">
-        <v>10.299</v>
+        <v>11.294</v>
       </c>
       <c r="E13" t="n">
         <v>3</v>
@@ -4126,17 +4061,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Steel</t>
+          <t>Plastics</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.73</v>
+        <v>10.45</v>
       </c>
       <c r="C14" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="D14" t="n">
-        <v>1.671</v>
+        <v>2.239</v>
       </c>
       <c r="E14" t="n">
         <v>1</v>
@@ -4145,17 +4080,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Memory - Flash/DRAM</t>
+          <t>Memory - Controller</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.71</v>
+        <v>7.24</v>
       </c>
       <c r="C15" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="D15" t="n">
-        <v>17.139</v>
+        <v>15.358</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -4164,36 +4099,36 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Airline</t>
+          <t>Compound/LED</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.69</v>
+        <v>5.71</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8049999999999999</v>
+        <v>0.62</v>
       </c>
       <c r="D16" t="n">
-        <v>2.202</v>
+        <v>0.192</v>
       </c>
       <c r="E16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Memory - Controller</t>
+          <t>Steel</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>4.51</v>
+        <v>5.14</v>
       </c>
       <c r="C17" t="n">
-        <v>1.15</v>
+        <v>0.58</v>
       </c>
       <c r="D17" t="n">
-        <v>14.324</v>
+        <v>1.645</v>
       </c>
       <c r="E17" t="n">
         <v>1</v>
@@ -4206,13 +4141,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2.308</v>
+        <v>3.212</v>
       </c>
       <c r="C18" t="n">
-        <v>0.906</v>
+        <v>1.116</v>
       </c>
       <c r="D18" t="n">
-        <v>5.973</v>
+        <v>6.456</v>
       </c>
       <c r="E18" t="n">
         <v>5</v>
@@ -4221,115 +4156,115 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Foundry - 8inch</t>
+          <t>Airline</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.61</v>
+        <v>2.07</v>
       </c>
       <c r="C19" t="n">
-        <v>0.95</v>
+        <v>0.9650000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>5.811</v>
+        <v>2.177</v>
       </c>
       <c r="E19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Compound/LED</t>
+          <t>Memory - Module</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.99</v>
+        <v>1.73</v>
       </c>
       <c r="C20" t="n">
-        <v>0.68</v>
+        <v>0.7666666666666667</v>
       </c>
       <c r="D20" t="n">
-        <v>0.18</v>
+        <v>10.576</v>
       </c>
       <c r="E20" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Memory - Module</t>
+          <t>IC Design - Display</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3766666666666668</v>
+        <v>-0.4</v>
       </c>
       <c r="C21" t="n">
-        <v>0.8099999999999999</v>
+        <v>0.78</v>
       </c>
       <c r="D21" t="n">
-        <v>9.933</v>
+        <v>1.51</v>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Design Service (AI)</t>
+          <t>Foundry - 8inch</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.02000000000000002</v>
+        <v>-1.57</v>
       </c>
       <c r="C22" t="n">
-        <v>0.845</v>
+        <v>0.91</v>
       </c>
       <c r="D22" t="n">
-        <v>14.923</v>
+        <v>5.753</v>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>IC Design - Display</t>
+          <t>AI Server/OEM</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-2.09</v>
+        <v>-2.5325</v>
       </c>
       <c r="C23" t="n">
-        <v>0.79</v>
+        <v>0.8575</v>
       </c>
       <c r="D23" t="n">
-        <v>1.469</v>
+        <v>23.16</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>AI Server/OEM</t>
+          <t>Design Service (AI)</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-2.6025</v>
+        <v>-2.545</v>
       </c>
       <c r="C24" t="n">
-        <v>0.785</v>
+        <v>0.8049999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>22.487</v>
+        <v>14.463</v>
       </c>
       <c r="E24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -4339,16 +4274,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-4.243333333333333</v>
+        <v>-3.19</v>
       </c>
       <c r="C25" t="n">
-        <v>0.59</v>
+        <v>0.74</v>
       </c>
       <c r="D25" t="n">
-        <v>2.758</v>
+        <v>2.284</v>
       </c>
       <c r="E25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
@@ -4358,13 +4293,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-4.52</v>
+        <v>-4.97</v>
       </c>
       <c r="C26" t="n">
-        <v>0.79</v>
+        <v>0.85</v>
       </c>
       <c r="D26" t="n">
-        <v>0.113</v>
+        <v>0.114</v>
       </c>
       <c r="E26" t="n">
         <v>1</v>
@@ -4373,17 +4308,17 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>IC Design - High Speed</t>
+          <t>IP Core (RISC-V)</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-5.58</v>
+        <v>-5.43</v>
       </c>
       <c r="C27" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.91</v>
       </c>
       <c r="D27" t="n">
-        <v>1.604</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="E27" t="n">
         <v>1</v>
@@ -4396,13 +4331,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-6.74</v>
+        <v>-6.68</v>
       </c>
       <c r="C28" t="n">
-        <v>0.43</v>
+        <v>0.48</v>
       </c>
       <c r="D28" t="n">
-        <v>6.589</v>
+        <v>6.606</v>
       </c>
       <c r="E28" t="n">
         <v>2</v>
@@ -4411,17 +4346,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>IP Core (RISC-V)</t>
+          <t>IC Design - Network</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-8.23</v>
+        <v>-7.21</v>
       </c>
       <c r="C29" t="n">
-        <v>0.89</v>
+        <v>0.92</v>
       </c>
       <c r="D29" t="n">
-        <v>0.082</v>
+        <v>1.689</v>
       </c>
       <c r="E29" t="n">
         <v>1</v>
@@ -4434,13 +4369,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-9.34</v>
+        <v>-8.244999999999999</v>
       </c>
       <c r="C30" t="n">
-        <v>0.825</v>
+        <v>0.93</v>
       </c>
       <c r="D30" t="n">
-        <v>3.882</v>
+        <v>3.713</v>
       </c>
       <c r="E30" t="n">
         <v>2</v>
@@ -4449,17 +4384,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>IC Design - Network</t>
+          <t>Electronic Components</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-10.53</v>
+        <v>-9.43</v>
       </c>
       <c r="C31" t="n">
-        <v>0.86</v>
+        <v>0.34</v>
       </c>
       <c r="D31" t="n">
-        <v>1.708</v>
+        <v>0.589</v>
       </c>
       <c r="E31" t="n">
         <v>1</v>
@@ -4468,17 +4403,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Electronic Components</t>
+          <t>IC Design - High Speed</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>-19.06</v>
+        <v>-9.74</v>
       </c>
       <c r="C32" t="n">
-        <v>0.19</v>
+        <v>0.77</v>
       </c>
       <c r="D32" t="n">
-        <v>0.707</v>
+        <v>1.448</v>
       </c>
       <c r="E32" t="n">
         <v>1</v>
@@ -4592,34 +4527,34 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1855</v>
+        <v>1925</v>
       </c>
       <c r="E2" t="n">
-        <v>1.64</v>
+        <v>3.77</v>
       </c>
       <c r="F2" t="n">
-        <v>4.51</v>
+        <v>7.24</v>
       </c>
       <c r="G2" t="n">
-        <v>41.74</v>
+        <v>46.94</v>
       </c>
       <c r="H2" t="n">
-        <v>66.861</v>
+        <v>58.2627</v>
       </c>
       <c r="I2" t="n">
-        <v>23.4</v>
+        <v>32.5</v>
       </c>
       <c r="J2" t="n">
-        <v>5.4</v>
+        <v>18</v>
       </c>
       <c r="K2" t="n">
-        <v>8.550000000000001</v>
+        <v>8.44</v>
       </c>
       <c r="L2" t="n">
-        <v>-26.9</v>
+        <v>-15.9</v>
       </c>
       <c r="M2" t="n">
-        <v>1.15</v>
+        <v>1.11</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
@@ -4644,38 +4579,38 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>1855</v>
+        <v>1795</v>
       </c>
       <c r="E3" t="n">
-        <v>0.54</v>
+        <v>-3.23</v>
       </c>
       <c r="F3" t="n">
-        <v>23.67</v>
+        <v>20.47</v>
       </c>
       <c r="G3" t="n">
-        <v>76.43000000000001</v>
+        <v>63.41</v>
       </c>
       <c r="H3" t="n">
-        <v>96.51649999999999</v>
+        <v>91.904</v>
       </c>
       <c r="I3" t="n">
-        <v>79.5</v>
+        <v>67.09999999999999</v>
       </c>
       <c r="J3" t="n">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="K3" t="n">
-        <v>4.56</v>
+        <v>4.5</v>
       </c>
       <c r="L3" t="n">
-        <v>-25.6</v>
+        <v>39</v>
       </c>
       <c r="M3" t="n">
-        <v>1.03</v>
+        <v>1</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>👀 WATCH</t>
+          <t>⚠️ TAKE PROFIT</t>
         </is>
       </c>
     </row>
@@ -4696,31 +4631,31 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>64.7</v>
+        <v>70.90000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>1.09</v>
+        <v>9.58</v>
       </c>
       <c r="F4" t="n">
-        <v>24.42</v>
+        <v>38.21</v>
       </c>
       <c r="G4" t="n">
-        <v>64.83</v>
+        <v>69.87</v>
       </c>
       <c r="H4" t="n">
-        <v>3.5744</v>
+        <v>3.8318</v>
       </c>
       <c r="I4" t="n">
-        <v>61</v>
+        <v>74.90000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>58.5</v>
+        <v>76.7</v>
       </c>
       <c r="K4" t="n">
-        <v>7.58</v>
+        <v>7.39</v>
       </c>
       <c r="L4" t="n">
-        <v>-88.40000000000001</v>
+        <v>-68.3</v>
       </c>
       <c r="M4" t="n">
         <v>0.24</v>
@@ -4748,34 +4683,34 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>62</v>
+        <v>67.2</v>
       </c>
       <c r="E5" t="n">
-        <v>0.32</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="F5" t="n">
-        <v>-19.06</v>
+        <v>-9.43</v>
       </c>
       <c r="G5" t="n">
-        <v>22.43</v>
+        <v>37.05</v>
       </c>
       <c r="H5" t="n">
-        <v>-2.3074</v>
+        <v>-1.9977</v>
       </c>
       <c r="I5" t="n">
-        <v>18.4</v>
+        <v>39.9</v>
       </c>
       <c r="J5" t="n">
-        <v>7</v>
+        <v>37.2</v>
       </c>
       <c r="K5" t="n">
-        <v>5.45</v>
+        <v>5.12</v>
       </c>
       <c r="L5" t="n">
-        <v>-77.8</v>
+        <v>-27.5</v>
       </c>
       <c r="M5" t="n">
-        <v>0.19</v>
+        <v>0.34</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
@@ -4800,38 +4735,38 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="E6" t="n">
-        <v>-5.26</v>
+        <v>3.89</v>
       </c>
       <c r="F6" t="n">
-        <v>12.5</v>
+        <v>10.98</v>
       </c>
       <c r="G6" t="n">
-        <v>51.14</v>
+        <v>57.8</v>
       </c>
       <c r="H6" t="n">
-        <v>4.5709</v>
+        <v>5.2641</v>
       </c>
       <c r="I6" t="n">
-        <v>74.40000000000001</v>
+        <v>91.7</v>
       </c>
       <c r="J6" t="n">
-        <v>70.09999999999999</v>
+        <v>91</v>
       </c>
       <c r="K6" t="n">
-        <v>6.73</v>
+        <v>6.53</v>
       </c>
       <c r="L6" t="n">
-        <v>104</v>
+        <v>40.5</v>
       </c>
       <c r="M6" t="n">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>❌ EXIT</t>
+          <t>👀 WATCH</t>
         </is>
       </c>
     </row>
@@ -4852,34 +4787,34 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>227</v>
+        <v>228.5</v>
       </c>
       <c r="E7" t="n">
-        <v>2.71</v>
+        <v>0.66</v>
       </c>
       <c r="F7" t="n">
-        <v>-3.2</v>
+        <v>-2.14</v>
       </c>
       <c r="G7" t="n">
-        <v>54.67</v>
+        <v>59.46</v>
       </c>
       <c r="H7" t="n">
-        <v>-2.0015</v>
+        <v>-1.2542</v>
       </c>
       <c r="I7" t="n">
-        <v>69.5</v>
+        <v>79.3</v>
       </c>
       <c r="J7" t="n">
         <v>100</v>
       </c>
       <c r="K7" t="n">
-        <v>2.39</v>
+        <v>2.34</v>
       </c>
       <c r="L7" t="n">
-        <v>31.6</v>
+        <v>54.8</v>
       </c>
       <c r="M7" t="n">
-        <v>0.96</v>
+        <v>1.06</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>

--- a/Taiwan_Market_Data_Latest.xlsx
+++ b/Taiwan_Market_Data_Latest.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,27 +481,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2891</t>
+          <t>3529</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>中信金</t>
+          <t>力旺</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CTBC Financial</t>
+          <t>eMemory</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>53.9</v>
+        <v>2385</v>
       </c>
       <c r="E2" t="n">
-        <v>3.26</v>
+        <v>9.4</v>
       </c>
       <c r="F2" t="n">
-        <v>250</v>
+        <v>224</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -509,33 +509,33 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>1.625</v>
+        <v>4.127</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>5880</t>
+          <t>2455</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>合庫金</t>
+          <t>全新</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TCB Financial</t>
+          <t>Visual Photonics</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>24.25</v>
+        <v>200</v>
       </c>
       <c r="E3" t="n">
-        <v>1.46</v>
+        <v>6.95</v>
       </c>
       <c r="F3" t="n">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -543,67 +543,67 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.457</v>
+        <v>3.893</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2881</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>富邦金</t>
+          <t>華航</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Fubon Financial</t>
+          <t>China Airlines</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>95.7</v>
+        <v>21.3</v>
       </c>
       <c r="E4" t="n">
-        <v>0.53</v>
+        <v>-2.96</v>
       </c>
       <c r="F4" t="n">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1.704</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2882</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>國泰金</t>
+          <t>富采</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Cathay Financial</t>
+          <t>Ennostar Inc</t>
         </is>
       </c>
       <c r="D5" t="n">
-        <v>79.59999999999999</v>
+        <v>38.4</v>
       </c>
       <c r="E5" t="n">
-        <v>1.02</v>
+        <v>3.78</v>
       </c>
       <c r="F5" t="n">
-        <v>203</v>
+        <v>168</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -611,101 +611,101 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>1.775</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2330</t>
+          <t>2201</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>台積電</t>
+          <t>裕隆</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TSMC</t>
+          <t>Yulon Motor</t>
         </is>
       </c>
       <c r="D6" t="n">
-        <v>1900</v>
+        <v>30.3</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.78</v>
+        <v>-0.98</v>
       </c>
       <c r="F6" t="n">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>66.68000000000001</v>
+        <v>0.116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>3711</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>華航</t>
+          <t>日月光投控</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>China Airlines</t>
+          <t>ASE Tech</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>21.95</v>
+        <v>381.5</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.3</v>
+        <v>9.31</v>
       </c>
       <c r="F7" t="n">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>0.834</v>
+        <v>9.238</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2603</t>
+          <t>2344</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>長榮</t>
+          <t>華邦電</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Evergreen Marine</t>
+          <t>Winbond Elec</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>188.5</v>
+        <v>122</v>
       </c>
       <c r="E8" t="n">
-        <v>1.34</v>
+        <v>6.09</v>
       </c>
       <c r="F8" t="n">
-        <v>183</v>
+        <v>138</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -713,33 +713,33 @@
         </is>
       </c>
       <c r="H8" t="n">
-        <v>1.811</v>
+        <v>21.925</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>2886</t>
+          <t>8086</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>兆豐金</t>
+          <t>宏捷科</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Mega Financial</t>
+          <t>AWSC</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>40.95</v>
+        <v>123.5</v>
       </c>
       <c r="E9" t="n">
-        <v>2.25</v>
+        <v>7.86</v>
       </c>
       <c r="F9" t="n">
-        <v>169</v>
+        <v>130</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -747,33 +747,33 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.895</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2308</t>
+          <t>2301</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>台達電</t>
+          <t>光寶科</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Delta Elec</t>
+          <t>Lite-On</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>1305</v>
+        <v>193.5</v>
       </c>
       <c r="E10" t="n">
-        <v>3.57</v>
+        <v>4.88</v>
       </c>
       <c r="F10" t="n">
-        <v>163</v>
+        <v>128</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -781,67 +781,67 @@
         </is>
       </c>
       <c r="H10" t="n">
-        <v>16.869</v>
+        <v>5.673</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>3260</t>
+          <t>2317</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>威剛</t>
+          <t>鴻海</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>ADATA</t>
+          <t>Foxconn</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>300.5</v>
+        <v>232</v>
       </c>
       <c r="E11" t="n">
-        <v>2.21</v>
+        <v>1.53</v>
       </c>
       <c r="F11" t="n">
-        <v>163</v>
+        <v>125</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5.135</v>
+        <v>12.378</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>3711</t>
+          <t>2881</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>日月光投控</t>
+          <t>富邦金</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>ASE Tech</t>
+          <t>Fubon Financial</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>349</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="E12" t="n">
-        <v>-1.55</v>
+        <v>-1.67</v>
       </c>
       <c r="F12" t="n">
-        <v>162</v>
+        <v>124</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -849,33 +849,33 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>8.361000000000001</v>
+        <v>1.692</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2317</t>
+          <t>6770</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>鴻海</t>
+          <t>力積電</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Foxconn</t>
+          <t>PSMC (Powerchip)</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>228.5</v>
+        <v>73.7</v>
       </c>
       <c r="E13" t="n">
-        <v>0.66</v>
+        <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>155</v>
+        <v>122</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -883,67 +883,67 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>11.969</v>
+        <v>20.255</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2379</t>
+          <t>6173</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>瑞昱</t>
+          <t>信昌電</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Realtek</t>
+          <t>Shinmore</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>476</v>
+        <v>73.2</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>8.93</v>
       </c>
       <c r="F14" t="n">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>1.689</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2455</t>
+          <t>2891</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>全新</t>
+          <t>中信金</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Visual Photonics</t>
+          <t>CTBC Financial</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>187</v>
+        <v>53.8</v>
       </c>
       <c r="E15" t="n">
-        <v>3.89</v>
+        <v>-0.19</v>
       </c>
       <c r="F15" t="n">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -951,33 +951,33 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>3.44</v>
+        <v>1.634</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2454</t>
+          <t>2330</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>聯發科</t>
+          <t>台積電</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>MediaTek</t>
+          <t>TSMC</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1795</v>
+        <v>1965</v>
       </c>
       <c r="E16" t="n">
-        <v>-3.23</v>
+        <v>3.42</v>
       </c>
       <c r="F16" t="n">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -985,33 +985,33 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>20.602</v>
+        <v>67.724</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>3105</t>
+          <t>5880</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>穩懋</t>
+          <t>合庫金</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Win Semi</t>
+          <t>TCB Financial</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>270.5</v>
+        <v>24.05</v>
       </c>
       <c r="E17" t="n">
-        <v>9.960000000000001</v>
+        <v>-0.82</v>
       </c>
       <c r="F17" t="n">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1019,33 +1019,33 @@
         </is>
       </c>
       <c r="H17" t="n">
-        <v>7.311</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2382</t>
+          <t>2882</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>廣達</t>
+          <t>國泰金</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Quanta</t>
+          <t>Cathay Financial</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>283.5</v>
+        <v>78.2</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.87</v>
+        <v>-1.76</v>
       </c>
       <c r="F18" t="n">
-        <v>138</v>
+        <v>113</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1053,33 +1053,33 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>4.275</v>
+        <v>1.752</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2301</t>
+          <t>2609</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>光寶科</t>
+          <t>陽明</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Lite-On</t>
+          <t>Yang Ming</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>184.5</v>
+        <v>55.9</v>
       </c>
       <c r="E19" t="n">
-        <v>2.79</v>
+        <v>0.72</v>
       </c>
       <c r="F19" t="n">
-        <v>135</v>
+        <v>109</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1087,33 +1087,33 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>5.268</v>
+        <v>0.707</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>2308</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>京元電子</t>
+          <t>台達電</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>KYEC</t>
+          <t>Delta Elec</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>316.5</v>
+        <v>1385</v>
       </c>
       <c r="E20" t="n">
-        <v>0.96</v>
+        <v>6.13</v>
       </c>
       <c r="F20" t="n">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1121,33 +1121,33 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>6.81</v>
+        <v>17.253</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2615</t>
+          <t>2603</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>萬海</t>
+          <t>長榮</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Wan Hai Lines</t>
+          <t>Evergreen Marine</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>76.3</v>
+        <v>190.5</v>
       </c>
       <c r="E21" t="n">
-        <v>1.73</v>
+        <v>1.06</v>
       </c>
       <c r="F21" t="n">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1155,169 +1155,169 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.473</v>
+        <v>1.704</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>6533</t>
+          <t>2886</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>晶心科</t>
+          <t>兆豐金</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Andes Tech</t>
+          <t>Mega Financial</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>226.5</v>
+        <v>40.8</v>
       </c>
       <c r="E22" t="n">
-        <v>1.57</v>
+        <v>-0.37</v>
       </c>
       <c r="F22" t="n">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.08599999999999999</v>
+        <v>0.898</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2618</t>
+          <t>5347</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>長榮航</t>
+          <t>世界先進</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EVA Air</t>
+          <t>VIS (Vanguard)</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>38</v>
+        <v>137.5</v>
       </c>
       <c r="E23" t="n">
-        <v>-2.19</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1.343</v>
+        <v>6.094</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>3231</t>
+          <t>3661</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>緯創</t>
+          <t>世芯-KY</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Wistron</t>
+          <t>Alchip</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>129.5</v>
+        <v>3430</v>
       </c>
       <c r="E24" t="n">
-        <v>-1.52</v>
+        <v>3</v>
       </c>
       <c r="F24" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Breakout</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>5.051</v>
+        <v>6.858</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>6488</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>環球晶</t>
+          <t>南亞科</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GlobalWafers</t>
+          <t>Nanya Technology</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>425</v>
+        <v>298</v>
       </c>
       <c r="E25" t="n">
-        <v>-4.6</v>
+        <v>3.11</v>
       </c>
       <c r="F25" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Weak</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>2.638</v>
+        <v>27.722</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>5269</t>
+          <t>2618</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>祥碩</t>
+          <t>長榮航</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>ASMedia</t>
+          <t>EVA Air</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1205</v>
+        <v>38</v>
       </c>
       <c r="E26" t="n">
-        <v>-5.12</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1325,135 +1325,135 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1.448</v>
+        <v>1.348</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>3714</t>
+          <t>2615</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>富采</t>
+          <t>萬海</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Ennostar Inc</t>
+          <t>Wan Hai Lines</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>37</v>
+        <v>75.7</v>
       </c>
       <c r="E27" t="n">
-        <v>3.64</v>
+        <v>-0.79</v>
       </c>
       <c r="F27" t="n">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.192</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>2449</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>南亞科</t>
+          <t>京元電子</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Nanya Technology</t>
+          <t>KYEC</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="E28" t="n">
-        <v>3.96</v>
+        <v>3</v>
       </c>
       <c r="F28" t="n">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>25.769</v>
+        <v>6.905</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2344</t>
+          <t>2382</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>華邦電</t>
+          <t>廣達</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Winbond Elec</t>
+          <t>Quanta</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>115</v>
+        <v>284</v>
       </c>
       <c r="E29" t="n">
-        <v>9</v>
+        <v>0.18</v>
       </c>
       <c r="F29" t="n">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Breakout</t>
+          <t>Accumulation (Up)</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>19.534</v>
+        <v>4.138</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>3035</t>
+          <t>5269</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>智原</t>
+          <t>祥碩</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Faraday Tech</t>
+          <t>ASMedia</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>166.5</v>
+        <v>1265</v>
       </c>
       <c r="E30" t="n">
-        <v>2.78</v>
+        <v>4.98</v>
       </c>
       <c r="F30" t="n">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1461,67 +1461,67 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.628</v>
+        <v>1.507</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>6770</t>
+          <t>2379</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>力積電</t>
+          <t>瑞昱</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>PSMC (Powerchip)</t>
+          <t>Realtek</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>67</v>
+        <v>475</v>
       </c>
       <c r="E31" t="n">
-        <v>6.18</v>
+        <v>-0.21</v>
       </c>
       <c r="F31" t="n">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Accumulation (Up)</t>
+          <t>Weak</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>17.66</v>
+        <v>1.684</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>3661</t>
+          <t>3034</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>世芯-KY</t>
+          <t>聯詠</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Alchip</t>
+          <t>Novatek</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>3330</v>
+        <v>3